--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A282777-7B86-40BF-AC29-F914D8E39546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FEC06C-E1DC-47A0-84CF-A4FACA5E6485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
   <si>
     <t>No.</t>
   </si>
@@ -1137,7 +1137,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,7 +1733,9 @@
       <c r="S8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="U8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1750,7 +1752,9 @@
         <v>12</v>
       </c>
       <c r="Z8" s="41"/>
-      <c r="AA8" s="44"/>
+      <c r="AA8" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -2056,7 +2060,9 @@
       <c r="Z12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA12" s="44"/>
+      <c r="AA12" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -3144,7 +3150,9 @@
       <c r="Z26" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" s="44"/>
+      <c r="AA26" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -3382,7 +3390,9 @@
       <c r="Z29" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" s="44"/>
+      <c r="AA29" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -3504,7 +3514,9 @@
       <c r="X31" s="42"/>
       <c r="Y31" s="43"/>
       <c r="Z31" s="41"/>
-      <c r="AA31" s="44"/>
+      <c r="AA31" s="37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -4100,7 +4112,7 @@
     <row r="40" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f>COUNTA(C4:AA38)</f>
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>59</v>
@@ -4192,11 +4204,11 @@
     <row r="42" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f>100 * A40 / A41</f>
-        <v>87.314285714285717</v>
+        <v>88</v>
       </c>
       <c r="B42" s="25">
         <f>TRUNC(A42,1)</f>
-        <v>87.3</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="7">
@@ -4423,7 +4435,7 @@
       <c r="H48" s="29"/>
       <c r="I48" s="28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FEC06C-E1DC-47A0-84CF-A4FACA5E6485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F36BB-E6F4-4A62-B85C-78CE59C53221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>PWPB4</t>
+  </si>
+  <si>
+    <t>BINDO2</t>
+  </si>
+  <si>
+    <t>BINDO3</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -603,57 +609,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,12 +713,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,28 +737,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,16 +764,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,109 +1079,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA98"/>
+  <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
+      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="25" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="27" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="49" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="47" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="46"/>
-    </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="35" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+    </row>
+    <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="44" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -1272,10 +1222,16 @@
       <c r="AA2" s="33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="AB2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
@@ -1351,8 +1307,14 @@
       <c r="AA3" s="34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AB3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1420,23 +1382,25 @@
       <c r="V4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="42"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1504,19 +1468,21 @@
       <c r="V5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="44"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="42"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1584,27 +1550,29 @@
       <c r="V6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="42"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>IF(I47 &lt;= P41, D47, B47)</f>
-        <v>Arif Fathurrahman</v>
+        <v>Arif Fathurrahman,</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
@@ -1664,17 +1632,19 @@
       <c r="V7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="44"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="42"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1742,21 +1712,23 @@
       <c r="V8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="42"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1818,17 +1790,19 @@
       <c r="T9" s="16"/>
       <c r="U9" s="13"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="44"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W9" s="41"/>
+      <c r="X9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="42"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1896,19 +1870,21 @@
       <c r="V10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="44"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="42"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1974,13 +1950,15 @@
         <v>12</v>
       </c>
       <c r="V11" s="16"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="44"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W11" s="41"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="42"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2048,23 +2026,25 @@
       <c r="V12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="42"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2126,17 +2106,19 @@
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="16"/>
-      <c r="W13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="44"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="42"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2204,19 +2186,21 @@
       <c r="V14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="44"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="42"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -2284,21 +2268,23 @@
       <c r="V15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="43" t="s">
+      <c r="W15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="42"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2366,25 +2352,27 @@
       <c r="V16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="44"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="42"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>IF(I57 &lt;= P41, D57, B57)</f>
-        <v>Muhammad Akbar Ariq Jeconia Lesmana</v>
+        <v>Muhammad Akbar Ariq Jeconia Lesmana,</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -2442,19 +2430,21 @@
       <c r="V17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="44"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="42"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -2520,25 +2510,27 @@
       <c r="V18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="44"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="42"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>IF(I59 &lt;= P41, D59, B59)</f>
-        <v>Muhammad Athala Romero</v>
+        <v>Muhammad Athala Romero,</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>12</v>
@@ -2594,23 +2586,25 @@
       <c r="V19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="42"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -2676,19 +2670,21 @@
       <c r="V20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="44"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="42"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -2754,19 +2750,21 @@
       <c r="V21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="44"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="42"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -2834,19 +2832,21 @@
       <c r="V22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="44"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="42"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -2910,15 +2910,17 @@
         <v>12</v>
       </c>
       <c r="V23" s="16"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="44"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W23" s="41"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="42"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -2980,17 +2982,19 @@
       <c r="V24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="44"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="42"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -3058,19 +3062,21 @@
       <c r="V25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="44"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="42"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -3138,23 +3144,25 @@
       <c r="V26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA26" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z26" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="42"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -3222,25 +3230,27 @@
       <c r="V27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W27" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="43" t="s">
+      <c r="W27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="44"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="42"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>IF(I68 &lt;= P41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan</v>
+        <v>Nouridza Juniansah Ridhan,</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -3300,17 +3310,19 @@
       <c r="V28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W28" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="44"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="42"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -3378,23 +3390,25 @@
       <c r="V29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W29" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="43" t="s">
+      <c r="W29" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="Z29" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA29" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="42"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -3444,13 +3458,15 @@
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="16"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="44"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W30" s="41"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="42"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -3508,17 +3524,19 @@
         <v>12</v>
       </c>
       <c r="V31" s="16"/>
-      <c r="W31" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W31" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="42"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -3586,29 +3604,31 @@
       <c r="V32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA32" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W32" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="42"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>IF(I73 &lt;= P41, D73, B73)</f>
-        <v>Salsabila Nur Fairuz</v>
+        <v>Salsabila Nur Fairuz,</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>12</v>
@@ -3668,17 +3688,21 @@
       <c r="V33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="44"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="42"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -3746,19 +3770,25 @@
       <c r="V34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="44"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="42"/>
+    </row>
+    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -3826,21 +3856,23 @@
       <c r="V35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W35" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y35" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z35" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA35" s="44"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W35" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="42"/>
+    </row>
+    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -3908,23 +3940,25 @@
       <c r="V36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W36" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X36" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y36" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z36" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA36" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W36" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X36" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z36" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="42"/>
+    </row>
+    <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -3992,25 +4026,27 @@
       <c r="V37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="W37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="44"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="42"/>
+    </row>
+    <row r="38" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>IF(I78 &lt;= P41, D78, B78)</f>
-        <v>Yehezkiel Dio Sinolungan</v>
+        <v>Yehezkiel Dio Sinolungan,</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>12</v>
@@ -4068,21 +4104,23 @@
         <v>12</v>
       </c>
       <c r="V38" s="16"/>
-      <c r="W38" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X38" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y38" s="43" t="s">
+      <c r="W38" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="42"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4109,34 +4147,34 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
-        <f>COUNTA(C4:AA38)</f>
-        <v>770</v>
-      </c>
-      <c r="B40" s="55" t="s">
+        <f>COUNTA(C4:AC38)</f>
+        <v>773</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="53" t="s">
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="50" t="s">
         <v>80</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="26">
-        <f>COUNTA(C3:AA3)</f>
-        <v>25</v>
+        <f>COUNTA(C3:AC3)</f>
+        <v>27</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -4148,12 +4186,12 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f>P40 * 35</f>
-        <v>875</v>
-      </c>
-      <c r="B41" s="56"/>
+        <v>945</v>
+      </c>
+      <c r="B41" s="46"/>
       <c r="C41" s="1"/>
       <c r="D41" s="32" t="s">
         <v>7</v>
@@ -4185,11 +4223,11 @@
       <c r="M41" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="54"/>
+      <c r="N41" s="51"/>
       <c r="O41" s="1"/>
       <c r="P41" s="26">
         <f>P40-6</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4201,14 +4239,14 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f>100 * A40 / A41</f>
-        <v>88</v>
+        <v>81.798941798941797</v>
       </c>
       <c r="B42" s="25">
         <f>TRUNC(A42,1)</f>
-        <v>88</v>
+        <v>81.7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="7">
@@ -4230,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" s="7">
         <v>1</v>
@@ -4243,7 +4281,7 @@
       </c>
       <c r="N42" s="7">
         <f>SUM(D42:M42)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4257,7 +4295,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4284,7 +4322,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="27" t="s">
         <v>11</v>
@@ -4318,7 +4356,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="27" t="s">
         <v>13</v>
@@ -4352,7 +4390,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="27" t="s">
         <v>14</v>
@@ -4386,7 +4424,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="27" t="s">
         <v>15</v>
@@ -4420,7 +4458,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="27" t="s">
         <v>16</v>
@@ -5972,16 +6010,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="N40:N41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F36BB-E6F4-4A62-B85C-78CE59C53221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88DFA51-6A69-472B-8845-17F0F3DBAECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,19 +743,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,10 +761,16 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
+      <selection pane="bottomRight" activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,43 +1106,43 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="53" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="54" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
     </row>
     <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -4152,7 +4152,7 @@
         <f>COUNTA(C4:AC38)</f>
         <v>773</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="1"/>
@@ -4168,7 +4168,7 @@
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="50" t="s">
+      <c r="N40" s="48" t="s">
         <v>80</v>
       </c>
       <c r="O40" s="1"/>
@@ -4191,7 +4191,7 @@
         <f>P40 * 35</f>
         <v>945</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="1"/>
       <c r="D41" s="32" t="s">
         <v>7</v>
@@ -4223,7 +4223,7 @@
       <c r="M41" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="51"/>
+      <c r="N41" s="49"/>
       <c r="O41" s="1"/>
       <c r="P41" s="26">
         <f>P40-6</f>
@@ -6010,16 +6010,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="D40:M40"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88DFA51-6A69-472B-8845-17F0F3DBAECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE47F1C-889A-4442-9DA4-1203B324860B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:AC98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC42" sqref="AC42"/>
+      <selection pane="bottomRight" activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1640,9 @@
         <v>12</v>
       </c>
       <c r="Z7" s="39"/>
-      <c r="AA7" s="42"/>
+      <c r="AA7" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="AB7" s="39"/>
       <c r="AC7" s="42"/>
     </row>
@@ -2841,7 +2843,9 @@
       <c r="Y22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z22" s="39"/>
+      <c r="Z22" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AA22" s="42"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="42"/>
@@ -3160,7 +3164,9 @@
         <v>12</v>
       </c>
       <c r="AB26" s="39"/>
-      <c r="AC26" s="42"/>
+      <c r="AC26" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -3956,7 +3962,9 @@
         <v>12</v>
       </c>
       <c r="AB36" s="39"/>
-      <c r="AC36" s="42"/>
+      <c r="AC36" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -4150,7 +4158,7 @@
     <row r="40" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f>COUNTA(C4:AC38)</f>
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B40" s="51" t="s">
         <v>59</v>
@@ -4242,11 +4250,11 @@
     <row r="42" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f>100 * A40 / A41</f>
-        <v>81.798941798941797</v>
+        <v>82.222222222222229</v>
       </c>
       <c r="B42" s="25">
         <f>TRUNC(A42,1)</f>
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="7">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792EB2EA-F778-4200-8524-DC1661A66038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394C62C2-C4DA-4E38-99E3-F54A962008AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="131">
   <si>
     <t>No.</t>
   </si>
@@ -757,25 +757,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +776,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T40" sqref="T40"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12:AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,47 +1131,47 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="51" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="54" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -2015,11 +2015,15 @@
       <c r="Z10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="27"/>
+      <c r="AA10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AB10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="27"/>
+      <c r="AC10" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AD10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2204,7 +2208,9 @@
       <c r="AE12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AF12" s="26"/>
+      <c r="AF12" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12" s="27"/>
     </row>
     <row r="13" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -3566,12 +3572,16 @@
       <c r="Y27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Z27" s="26"/>
+      <c r="Z27" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AA27" s="25" t="s">
         <v>12</v>
       </c>
       <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="AC27" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AD27" s="26" t="s">
         <v>55</v>
       </c>
@@ -3906,8 +3916,12 @@
         <v>12</v>
       </c>
       <c r="AC31" s="27"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="27"/>
+      <c r="AD31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AF31" s="26"/>
       <c r="AG31" s="27"/>
     </row>
@@ -4017,7 +4031,7 @@
       </c>
       <c r="B33" s="15" t="str">
         <f>IF(I73 &lt;= P41, D73, B73)</f>
-        <v>Salsabila Nur Fairuz,</v>
+        <v>Salsabila Nur Fairuz</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>12</v>
@@ -4086,7 +4100,9 @@
       <c r="Y33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Z33" s="26"/>
+      <c r="Z33" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AA33" s="25" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +4405,9 @@
       <c r="AF36" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AG36" s="27"/>
+      <c r="AG36" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -4580,9 +4598,9 @@
     <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AG38)</f>
-        <v>905</v>
-      </c>
-      <c r="B40" s="45" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -4597,7 +4615,7 @@
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="52" t="s">
+      <c r="N40" s="48" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
@@ -4610,7 +4628,7 @@
         <f>P40 * 35</f>
         <v>1085</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="53"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -4641,7 +4659,7 @@
       <c r="M41" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="53"/>
+      <c r="N41" s="49"/>
       <c r="P41" s="1">
         <f>P40-6</f>
         <v>25</v>
@@ -4650,11 +4668,11 @@
     <row r="42" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>83.410138248847929</v>
+        <v>84.239631336405523</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>83.4</v>
+        <v>84.2</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -4808,7 +4826,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -4842,7 +4860,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5097,7 +5115,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5165,7 +5183,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5199,7 +5217,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5250,7 +5268,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5289,16 +5307,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="D40:M40"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394C62C2-C4DA-4E38-99E3-F54A962008AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B74FD9-94A6-47B2-B489-16FF41C05359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="131">
   <si>
     <t>No.</t>
   </si>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12:AG12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1640,9 @@
       <c r="Y6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="26"/>
+      <c r="Z6" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AA6" s="25" t="s">
         <v>12</v>
       </c>
@@ -3776,7 +3778,9 @@
       <c r="AE29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AF29" s="26"/>
+      <c r="AF29" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AG29" s="27"/>
     </row>
     <row r="30" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -4598,7 +4602,7 @@
     <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AG38)</f>
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>59</v>
@@ -4668,11 +4672,11 @@
     <row r="42" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.239631336405523</v>
+        <v>84.423963133640555</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.2</v>
+        <v>84.4</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -4758,7 +4762,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
@@ -5149,7 +5153,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B74FD9-94A6-47B2-B489-16FF41C05359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF984EA-DCD3-424C-B4AD-B02CC273B0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="131">
   <si>
     <t>No.</t>
   </si>
@@ -757,13 +757,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,18 +788,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:AG6"/>
+      <selection pane="bottomRight" activeCell="AG26" sqref="B26:AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,47 +1131,47 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="45" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="50" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -3495,7 +3495,9 @@
       <c r="AF26" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AG26" s="27"/>
+      <c r="AG26" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -4602,9 +4604,9 @@
     <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AG38)</f>
-        <v>916</v>
-      </c>
-      <c r="B40" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -4619,7 +4621,7 @@
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="48" t="s">
+      <c r="N40" s="52" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
@@ -4632,7 +4634,7 @@
         <f>P40 * 35</f>
         <v>1085</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="46"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -4663,7 +4665,7 @@
       <c r="M41" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="49"/>
+      <c r="N41" s="53"/>
       <c r="P41" s="1">
         <f>P40-6</f>
         <v>25</v>
@@ -4672,11 +4674,11 @@
     <row r="42" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.423963133640555</v>
+        <v>84.516129032258064</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -5101,8 +5103,8 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>COUNTA(C26:AG26)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5311,16 +5313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF984EA-DCD3-424C-B4AD-B02CC273B0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC7AD6-7CC5-451A-A5C1-0B1DEF30326F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="131">
   <si>
     <t>No.</t>
   </si>
@@ -757,25 +757,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,6 +776,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG26" sqref="B26:AG26"/>
+      <selection pane="bottomRight" activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,47 +1131,47 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="51" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="54" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -4313,7 +4313,9 @@
         <v>12</v>
       </c>
       <c r="AF35" s="26"/>
-      <c r="AG35" s="27"/>
+      <c r="AG35" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -4604,9 +4606,9 @@
     <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AG38)</f>
-        <v>917</v>
-      </c>
-      <c r="B40" s="45" t="s">
+        <v>918</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -4621,7 +4623,7 @@
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="52" t="s">
+      <c r="N40" s="48" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
@@ -4634,7 +4636,7 @@
         <f>P40 * 35</f>
         <v>1085</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="53"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +4667,7 @@
       <c r="M41" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="53"/>
+      <c r="N41" s="49"/>
       <c r="P41" s="1">
         <f>P40-6</f>
         <v>25</v>
@@ -4674,11 +4676,11 @@
     <row r="42" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.516129032258064</v>
+        <v>84.608294930875573</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -5257,7 +5259,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5313,16 +5315,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="D40:M40"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC7AD6-7CC5-451A-A5C1-0B1DEF30326F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E45D71-4855-4A7B-BE95-4463A88261EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="131">
   <si>
     <t>No.</t>
   </si>
@@ -757,13 +757,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,18 +788,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1099,10 @@
   <dimension ref="A1:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG35" sqref="AG35"/>
+      <selection pane="bottomRight" activeCell="AB50" sqref="AA49:AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,47 +1131,47 @@
       <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="45" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="50" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
@@ -3198,7 +3198,9 @@
       <c r="S23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="30"/>
+      <c r="T23" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="U23" s="21" t="s">
         <v>12</v>
       </c>
@@ -3211,12 +3213,16 @@
         <v>12</v>
       </c>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="27"/>
+      <c r="AA23" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AB23" s="26"/>
       <c r="AC23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="26"/>
+      <c r="AD23" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AE23" s="27"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="27"/>
@@ -4606,9 +4612,9 @@
     <row r="40" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AG38)</f>
-        <v>918</v>
-      </c>
-      <c r="B40" s="52" t="s">
+        <v>921</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="47" t="s">
@@ -4623,7 +4629,7 @@
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="48" t="s">
+      <c r="N40" s="52" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
@@ -4636,7 +4642,7 @@
         <f>P40 * 35</f>
         <v>1085</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="46"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4673,7 @@
       <c r="M41" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="49"/>
+      <c r="N41" s="53"/>
       <c r="P41" s="1">
         <f>P40-6</f>
         <v>25</v>
@@ -4676,11 +4682,11 @@
     <row r="42" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.608294930875573</v>
+        <v>84.884792626728114</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.6</v>
+        <v>84.8</v>
       </c>
       <c r="D42" s="7">
         <v>5</v>
@@ -5055,7 +5061,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5315,16 +5321,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58F1B03-5E3D-451A-BEA7-660AD7D7D706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E6B74-52E5-4637-B184-DA4E272505EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1950" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="137">
   <si>
     <t>No.</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>BING4</t>
+  </si>
+  <si>
+    <t>PKK3</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -646,26 +649,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -698,11 +681,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +821,15 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,67 +839,61 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,19 +1202,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40:M40"/>
+      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
@@ -1231,155 +1226,156 @@
     <col min="36" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="55" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="52" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="61" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="45" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+    </row>
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="X2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="46" t="s">
         <v>49</v>
       </c>
       <c r="AH2" s="40" t="s">
@@ -1394,10 +1390,13 @@
       <c r="AK2" s="40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="AL2" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1503,8 +1502,11 @@
       <c r="AK3" s="41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL3" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1608,21 +1610,24 @@
       <c r="AH4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="41"/>
+      <c r="AI4" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ4" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK4" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL4" s="39"/>
+    </row>
+    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="str">
         <f>IF(I45 &lt;= P41, D45, B45)</f>
-        <v>Alief Faza Rizqi Adi Jaya,</v>
+        <v>Alief Faza Rizqi Adi Jaya</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>12</v>
@@ -1711,14 +1716,25 @@
       <c r="AE5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="26"/>
+      <c r="AF5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AH5" s="39"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="41"/>
-    </row>
-    <row r="6" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AI5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="39"/>
+    </row>
+    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1820,13 +1836,16 @@
         <v>12</v>
       </c>
       <c r="AH6" s="39"/>
-      <c r="AI6" s="41"/>
+      <c r="AI6" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ6" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK6" s="41"/>
-    </row>
-    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL6" s="39"/>
+    </row>
+    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1920,13 +1939,18 @@
         <v>12</v>
       </c>
       <c r="AH7" s="39"/>
-      <c r="AI7" s="41"/>
+      <c r="AI7" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="41"/>
-    </row>
-    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AK7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="39"/>
+    </row>
+    <row r="8" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2033,8 +2057,9 @@
         <v>12</v>
       </c>
       <c r="AK8" s="41"/>
-    </row>
-    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL8" s="39"/>
+    </row>
+    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2127,8 +2152,9 @@
       <c r="AI9" s="41"/>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="41"/>
-    </row>
-    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL9" s="39"/>
+    </row>
+    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2239,8 +2265,9 @@
       <c r="AK10" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL10" s="39"/>
+    </row>
+    <row r="11" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2323,8 +2350,9 @@
       <c r="AI11" s="41"/>
       <c r="AJ11" s="39"/>
       <c r="AK11" s="41"/>
-    </row>
-    <row r="12" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL11" s="39"/>
+    </row>
+    <row r="12" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2434,9 +2462,12 @@
       <c r="AJ12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK12" s="41"/>
-    </row>
-    <row r="13" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AK12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2523,8 +2554,9 @@
       <c r="AI13" s="41"/>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="41"/>
-    </row>
-    <row r="14" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL13" s="39"/>
+    </row>
+    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2633,8 +2665,9 @@
       <c r="AK14" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL14" s="39"/>
+    </row>
+    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -2735,14 +2768,21 @@
       <c r="AG15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="39"/>
+      <c r="AH15" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="41"/>
-    </row>
-    <row r="16" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="39"/>
+    </row>
+    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2851,8 +2891,11 @@
       <c r="AK16" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL16" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2948,13 +2991,16 @@
         <v>12</v>
       </c>
       <c r="AF17" s="25"/>
-      <c r="AG17" s="26"/>
+      <c r="AG17" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AH17" s="39"/>
       <c r="AI17" s="41"/>
       <c r="AJ17" s="39"/>
       <c r="AK17" s="41"/>
-    </row>
-    <row r="18" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL17" s="39"/>
+    </row>
+    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -3049,10 +3095,15 @@
       <c r="AG18" s="26"/>
       <c r="AH18" s="39"/>
       <c r="AI18" s="41"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="41"/>
-    </row>
-    <row r="19" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="39"/>
+    </row>
+    <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -3151,14 +3202,19 @@
       <c r="AG19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="41"/>
+      <c r="AH19" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ19" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK19" s="41"/>
-    </row>
-    <row r="20" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL19" s="39"/>
+    </row>
+    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -3265,8 +3321,9 @@
         <v>12</v>
       </c>
       <c r="AK20" s="41"/>
-    </row>
-    <row r="21" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL20" s="39"/>
+    </row>
+    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -3375,14 +3432,15 @@
       <c r="AK21" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL21" s="39"/>
+    </row>
+    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
       <c r="B22" s="14" t="str">
         <f>IF(I62 &lt;= P41, D62, B62)</f>
-        <v>Muhammad Ridwan,</v>
+        <v>Muhammad Ridwan</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>12</v>
@@ -3462,23 +3520,36 @@
       <c r="AB22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="26"/>
+      <c r="AC22" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AD22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AF22" s="25"/>
+      <c r="AF22" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="41"/>
-    </row>
-    <row r="23" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH22" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="39"/>
+    </row>
+    <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -3573,8 +3644,9 @@
       <c r="AI23" s="41"/>
       <c r="AJ23" s="39"/>
       <c r="AK23" s="41"/>
-    </row>
-    <row r="24" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL23" s="39"/>
+    </row>
+    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -3665,8 +3737,9 @@
       <c r="AI24" s="41"/>
       <c r="AJ24" s="39"/>
       <c r="AK24" s="41"/>
-    </row>
-    <row r="25" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL24" s="39"/>
+    </row>
+    <row r="25" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -3767,16 +3840,21 @@
       <c r="AG25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="41"/>
+      <c r="AH25" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ25" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK25" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AL25" s="39"/>
+    </row>
+    <row r="26" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -3889,8 +3967,11 @@
       <c r="AK26" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL26" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -3991,12 +4072,21 @@
       <c r="AG27" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="41"/>
-    </row>
-    <row r="28" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH27" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="39"/>
+    </row>
+    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -4101,8 +4191,9 @@
         <v>12</v>
       </c>
       <c r="AK28" s="41"/>
-    </row>
-    <row r="29" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL28" s="39"/>
+    </row>
+    <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -4207,10 +4298,17 @@
         <v>12</v>
       </c>
       <c r="AI29" s="41"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="41"/>
-    </row>
-    <row r="30" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK29" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL29" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -4279,8 +4377,9 @@
       <c r="AI30" s="41"/>
       <c r="AJ30" s="39"/>
       <c r="AK30" s="41"/>
-    </row>
-    <row r="31" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL30" s="39"/>
+    </row>
+    <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -4361,7 +4460,9 @@
       </c>
       <c r="AF31" s="25"/>
       <c r="AG31" s="26"/>
-      <c r="AH31" s="39"/>
+      <c r="AH31" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI31" s="41"/>
       <c r="AJ31" s="42" t="s">
         <v>12</v>
@@ -4369,8 +4470,9 @@
       <c r="AK31" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AL31" s="39"/>
+    </row>
+    <row r="32" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -4483,8 +4585,9 @@
       <c r="AK32" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL32" s="39"/>
+    </row>
+    <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -4583,10 +4686,13 @@
       </c>
       <c r="AH33" s="39"/>
       <c r="AI33" s="41"/>
-      <c r="AJ33" s="39"/>
+      <c r="AJ33" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AK33" s="41"/>
-    </row>
-    <row r="34" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL33" s="39"/>
+    </row>
+    <row r="34" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -4696,9 +4802,12 @@
       <c r="AJ34" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK34" s="41"/>
-    </row>
-    <row r="35" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AK34" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL34" s="39"/>
+    </row>
+    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -4793,20 +4902,25 @@
       <c r="AE35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AF35" s="25"/>
+      <c r="AF35" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG35" s="24" t="s">
         <v>12</v>
       </c>
       <c r="AH35" s="39"/>
-      <c r="AI35" s="41"/>
+      <c r="AI35" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ35" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK35" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AL35" s="39"/>
+    </row>
+    <row r="36" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -4919,14 +5033,15 @@
       <c r="AK36" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL36" s="39"/>
+    </row>
+    <row r="37" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>34</v>
       </c>
       <c r="B37" s="14" t="str">
         <f>IF(I77 &lt;= P41, D77, B77)</f>
-        <v>Usama Fadlillah</v>
+        <v>Usama Fadlillah,</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>12</v>
@@ -5023,8 +5138,9 @@
       <c r="AI37" s="41"/>
       <c r="AJ37" s="39"/>
       <c r="AK37" s="41"/>
-    </row>
-    <row r="38" spans="1:37" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL37" s="39"/>
+    </row>
+    <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -5121,89 +5237,92 @@
       <c r="AG38" s="26"/>
       <c r="AH38" s="39"/>
       <c r="AI38" s="41"/>
-      <c r="AJ38" s="39"/>
+      <c r="AJ38" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="AK38" s="43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL38" s="39"/>
+    </row>
+    <row r="40" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <f>COUNTA(C4:AK38)</f>
-        <v>1041</v>
-      </c>
-      <c r="B40" s="64" t="s">
+        <f>COUNTA(C4:AL38)</f>
+        <v>1082</v>
+      </c>
+      <c r="B40" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="59" t="s">
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="64" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
-        <f>COUNTA(C3:AK3)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(C3:AL3)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f>P40 * 35</f>
-        <v>1225</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="D41" s="44" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="D41" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="44" t="s">
+      <c r="K41" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="44" t="s">
+      <c r="L41" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="44" t="s">
+      <c r="M41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="60"/>
+      <c r="N41" s="65"/>
       <c r="P41" s="1">
         <f>P40-6</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.979591836734699</v>
+        <v>85.873015873015873</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.9</v>
+        <v>85.8</v>
       </c>
       <c r="D42" s="7">
         <v>6</v>
@@ -5233,15 +5352,15 @@
         <v>4</v>
       </c>
       <c r="M42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" s="7">
         <f>SUM(D42:M42)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
@@ -5254,11 +5373,11 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="3">
-        <f>COUNTA(C4:AK4)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(C4:AL4)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -5271,11 +5390,11 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="3">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AK5)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AL5)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
@@ -5289,10 +5408,10 @@
       <c r="H46" s="8"/>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
@@ -5306,10 +5425,10 @@
       <c r="H47" s="8"/>
       <c r="I47" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -5391,7 +5510,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5442,7 +5561,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5459,7 +5578,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5476,7 +5595,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5493,7 +5612,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5510,7 +5629,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5561,7 +5680,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5612,7 +5731,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5629,7 +5748,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5646,7 +5765,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5680,7 +5799,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5714,7 +5833,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5748,7 +5867,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5765,7 +5884,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5782,7 +5901,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5833,17 +5952,17 @@
       <c r="H78" s="8"/>
       <c r="I78" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="D40:M40"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E6B74-52E5-4637-B184-DA4E272505EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F829F20-F3D1-4F83-9DE8-22AF229EC63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1950" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -439,13 +439,19 @@
   </si>
   <si>
     <t>PKK3</t>
+  </si>
+  <si>
+    <t>Minggu Ke-7</t>
+  </si>
+  <si>
+    <t>MAT7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +520,13 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,8 +605,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF283CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF266C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,57 +667,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,6 +807,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,13 +819,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,22 +844,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,13 +856,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,6 +882,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF266C1"/>
+      <color rgb="FFF283CB"/>
+      <color rgb="FFEB109E"/>
       <color rgb="FF2EB04C"/>
       <color rgb="FF37E660"/>
       <color rgb="FFF9D313"/>
@@ -923,9 +892,6 @@
       <color rgb="FF00BDE3"/>
       <color rgb="FF39D8F7"/>
       <color rgb="FF00BBE0"/>
-      <color rgb="FF00E6DA"/>
-      <color rgb="FFD95F9C"/>
-      <color rgb="FFF090C0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1202,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26:AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,105 +1189,110 @@
     <col min="30" max="31" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="5"/>
+    <col min="36" max="38" width="8.88671875" style="5"/>
+    <col min="39" max="39" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="58" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="59"/>
+      <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-    </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="48" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="50" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="45" t="s">
@@ -1393,10 +1364,13 @@
       <c r="AL2" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="AM2" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1505,8 +1479,11 @@
       <c r="AL3" s="41" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM3" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1620,8 +1597,10 @@
         <v>12</v>
       </c>
       <c r="AL4" s="39"/>
-    </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="53"/>
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1733,8 +1712,9 @@
         <v>12</v>
       </c>
       <c r="AL5" s="39"/>
-    </row>
-    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM5" s="52"/>
+    </row>
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1835,7 +1815,9 @@
       <c r="AG6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="39"/>
+      <c r="AH6" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI6" s="43" t="s">
         <v>12</v>
       </c>
@@ -1844,8 +1826,9 @@
       </c>
       <c r="AK6" s="41"/>
       <c r="AL6" s="39"/>
-    </row>
-    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM6" s="52"/>
+    </row>
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1949,8 +1932,9 @@
         <v>12</v>
       </c>
       <c r="AL7" s="39"/>
-    </row>
-    <row r="8" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM7" s="52"/>
+    </row>
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2051,15 +2035,22 @@
       <c r="AG8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="41"/>
+      <c r="AH8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="41"/>
+      <c r="AK8" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AL8" s="39"/>
-    </row>
-    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM8" s="52"/>
+    </row>
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2153,8 +2144,9 @@
       <c r="AJ9" s="39"/>
       <c r="AK9" s="41"/>
       <c r="AL9" s="39"/>
-    </row>
-    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM9" s="52"/>
+    </row>
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2266,8 +2258,9 @@
         <v>12</v>
       </c>
       <c r="AL10" s="39"/>
-    </row>
-    <row r="11" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM10" s="52"/>
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2351,8 +2344,9 @@
       <c r="AJ11" s="39"/>
       <c r="AK11" s="41"/>
       <c r="AL11" s="39"/>
-    </row>
-    <row r="12" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM11" s="52"/>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2466,8 +2460,9 @@
         <v>12</v>
       </c>
       <c r="AL12" s="39"/>
-    </row>
-    <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM12" s="52"/>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2555,8 +2550,9 @@
       <c r="AJ13" s="39"/>
       <c r="AK13" s="41"/>
       <c r="AL13" s="39"/>
-    </row>
-    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM13" s="52"/>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2660,14 +2656,17 @@
       <c r="AH14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AI14" s="41"/>
+      <c r="AI14" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ14" s="39"/>
       <c r="AK14" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AL14" s="39"/>
-    </row>
-    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM14" s="52"/>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -2774,15 +2773,16 @@
       <c r="AI15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AJ15" s="50" t="s">
+      <c r="AJ15" s="47" t="s">
         <v>55</v>
       </c>
       <c r="AK15" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AL15" s="39"/>
-    </row>
-    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM15" s="52"/>
+    </row>
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2894,8 +2894,9 @@
       <c r="AL16" s="42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM16" s="52"/>
+    </row>
+    <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2999,8 +3000,9 @@
       <c r="AJ17" s="39"/>
       <c r="AK17" s="41"/>
       <c r="AL17" s="39"/>
-    </row>
-    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM17" s="52"/>
+    </row>
+    <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -3102,8 +3104,9 @@
         <v>12</v>
       </c>
       <c r="AL18" s="39"/>
-    </row>
-    <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -3213,8 +3216,9 @@
       </c>
       <c r="AK19" s="41"/>
       <c r="AL19" s="39"/>
-    </row>
-    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -3315,15 +3319,18 @@
       <c r="AG20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH20" s="39"/>
+      <c r="AH20" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI20" s="41"/>
       <c r="AJ20" s="42" t="s">
         <v>12</v>
       </c>
       <c r="AK20" s="41"/>
       <c r="AL20" s="39"/>
-    </row>
-    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM20" s="52"/>
+    </row>
+    <row r="21" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -3433,8 +3440,9 @@
         <v>12</v>
       </c>
       <c r="AL21" s="39"/>
-    </row>
-    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM21" s="52"/>
+    </row>
+    <row r="22" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -3548,8 +3556,9 @@
         <v>12</v>
       </c>
       <c r="AL22" s="39"/>
-    </row>
-    <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM22" s="52"/>
+    </row>
+    <row r="23" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -3645,8 +3654,9 @@
       <c r="AJ23" s="39"/>
       <c r="AK23" s="41"/>
       <c r="AL23" s="39"/>
-    </row>
-    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM23" s="52"/>
+    </row>
+    <row r="24" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -3718,7 +3728,9 @@
       <c r="Z24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AA24" s="26"/>
+      <c r="AA24" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="AB24" s="23" t="s">
         <v>12</v>
       </c>
@@ -3732,14 +3744,23 @@
         <v>12</v>
       </c>
       <c r="AF24" s="25"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="39"/>
+      <c r="AG24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI24" s="41"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="41"/>
+      <c r="AJ24" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AL24" s="39"/>
-    </row>
-    <row r="25" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM24" s="52"/>
+    </row>
+    <row r="25" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -3853,8 +3874,9 @@
         <v>12</v>
       </c>
       <c r="AL25" s="39"/>
-    </row>
-    <row r="26" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AM25" s="52"/>
+    </row>
+    <row r="26" spans="1:39" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -3970,8 +3992,11 @@
       <c r="AL26" s="42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM26" s="65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -4078,21 +4103,22 @@
       <c r="AI27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AJ27" s="50" t="s">
+      <c r="AJ27" s="47" t="s">
         <v>55</v>
       </c>
       <c r="AK27" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AL27" s="39"/>
-    </row>
-    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM27" s="52"/>
+    </row>
+    <row r="28" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="14" t="str">
         <f>IF(I68 &lt;= P41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan</v>
+        <v>Nouridza Juniansah Ridhan,</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>12</v>
@@ -4192,8 +4218,9 @@
       </c>
       <c r="AK28" s="41"/>
       <c r="AL28" s="39"/>
-    </row>
-    <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM28" s="52"/>
+    </row>
+    <row r="29" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -4298,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="AI29" s="41"/>
-      <c r="AJ29" s="50" t="s">
+      <c r="AJ29" s="47" t="s">
         <v>55</v>
       </c>
       <c r="AK29" s="43" t="s">
@@ -4307,8 +4334,9 @@
       <c r="AL29" s="42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM29" s="52"/>
+    </row>
+    <row r="30" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -4378,8 +4406,9 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="41"/>
       <c r="AL30" s="39"/>
-    </row>
-    <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM30" s="52"/>
+    </row>
+    <row r="31" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -4471,8 +4500,9 @@
         <v>12</v>
       </c>
       <c r="AL31" s="39"/>
-    </row>
-    <row r="32" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM31" s="52"/>
+    </row>
+    <row r="32" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -4586,8 +4616,9 @@
         <v>12</v>
       </c>
       <c r="AL32" s="39"/>
-    </row>
-    <row r="33" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM32" s="52"/>
+    </row>
+    <row r="33" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -4691,8 +4722,9 @@
       </c>
       <c r="AK33" s="41"/>
       <c r="AL33" s="39"/>
-    </row>
-    <row r="34" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM33" s="52"/>
+    </row>
+    <row r="34" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -4806,8 +4838,9 @@
         <v>12</v>
       </c>
       <c r="AL34" s="39"/>
-    </row>
-    <row r="35" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM34" s="52"/>
+    </row>
+    <row r="35" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -4919,8 +4952,9 @@
         <v>12</v>
       </c>
       <c r="AL35" s="39"/>
-    </row>
-    <row r="36" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM35" s="52"/>
+    </row>
+    <row r="36" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -5034,8 +5068,9 @@
         <v>12</v>
       </c>
       <c r="AL36" s="39"/>
-    </row>
-    <row r="37" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM36" s="52"/>
+    </row>
+    <row r="37" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -5139,14 +5174,15 @@
       <c r="AJ37" s="39"/>
       <c r="AK37" s="41"/>
       <c r="AL37" s="39"/>
-    </row>
-    <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM37" s="52"/>
+    </row>
+    <row r="38" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>35</v>
       </c>
       <c r="B38" s="14" t="str">
         <f>IF(I78 &lt;= P41, D78, B78)</f>
-        <v>Yehezkiel Dio Sinolungan,</v>
+        <v>Yehezkiel Dio Sinolungan</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>12</v>
@@ -5235,97 +5271,102 @@
         <v>12</v>
       </c>
       <c r="AG38" s="26"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="50" t="s">
+      <c r="AH38" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI38" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ38" s="47" t="s">
         <v>55</v>
       </c>
       <c r="AK38" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AL38" s="39"/>
-    </row>
-    <row r="40" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM38" s="52"/>
+    </row>
+    <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <f>COUNTA(C4:AL38)</f>
-        <v>1082</v>
-      </c>
-      <c r="B40" s="53" t="s">
+        <f>COUNTA(C4:AM38)</f>
+        <v>1096</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="64" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="62" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
-        <f>COUNTA(C3:AL3)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(C3:AM3)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f>P40 * 35</f>
-        <v>1260</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="D41" s="47" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="D41" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="47" t="s">
+      <c r="K41" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="65"/>
+      <c r="N41" s="63"/>
       <c r="P41" s="1">
         <f>P40-6</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>85.873015873015873</v>
+        <v>84.633204633204627</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>85.8</v>
+        <v>84.6</v>
       </c>
       <c r="D42" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="7">
         <v>2</v>
@@ -5356,11 +5397,11 @@
       </c>
       <c r="N42" s="7">
         <f>SUM(D42:M42)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
@@ -5373,11 +5414,11 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="3">
-        <f>COUNTA(C4:AL4)</f>
+        <f>COUNTA(C4:AM4)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -5390,11 +5431,11 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="3">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AL5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AM5)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
@@ -5408,10 +5449,10 @@
       <c r="H46" s="8"/>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
@@ -5428,7 +5469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
@@ -5442,7 +5483,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5544,7 +5585,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5646,7 +5687,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5714,7 +5755,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5748,7 +5789,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5952,7 +5993,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F829F20-F3D1-4F83-9DE8-22AF229EC63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE64A5F-D00A-47DB-A626-4F00201AB42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -826,6 +826,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,9 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26:AM26"/>
+      <selection pane="bottomRight" activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,67 +1195,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="61" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="60" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="64" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
       <c r="AM1" s="51" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
@@ -1369,8 +1369,8 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="9" t="s">
         <v>60</v>
       </c>
@@ -3556,7 +3556,9 @@
         <v>12</v>
       </c>
       <c r="AL22" s="39"/>
-      <c r="AM22" s="52"/>
+      <c r="AM22" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -3992,7 +3994,7 @@
       <c r="AL26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AM26" s="65" t="s">
+      <c r="AM26" s="54" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5289,24 +5291,24 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1096</v>
-      </c>
-      <c r="B40" s="55" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B40" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="62" t="s">
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="63" t="s">
         <v>80</v>
       </c>
       <c r="P40" s="1">
@@ -5319,7 +5321,7 @@
         <f>P40 * 35</f>
         <v>1295</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="D41" s="48" t="s">
         <v>7</v>
       </c>
@@ -5350,7 +5352,7 @@
       <c r="M41" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="63"/>
+      <c r="N41" s="64"/>
       <c r="P41" s="1">
         <f>P40-6</f>
         <v>31</v>
@@ -5359,11 +5361,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.633204633204627</v>
+        <v>84.710424710424704</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5721,7 +5723,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE64A5F-D00A-47DB-A626-4F00201AB42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C3915-FE8F-4668-879C-2729A3EC2F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -1174,7 +1174,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN11" sqref="AN11"/>
+      <selection pane="bottomRight" activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2460,9 @@
         <v>12</v>
       </c>
       <c r="AL12" s="39"/>
-      <c r="AM12" s="52"/>
+      <c r="AM12" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -4326,7 +4328,9 @@
       <c r="AH29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AI29" s="41"/>
+      <c r="AI29" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ29" s="47" t="s">
         <v>55</v>
       </c>
@@ -4626,7 +4630,7 @@
       </c>
       <c r="B33" s="14" t="str">
         <f>IF(I73 &lt;= P41, D73, B73)</f>
-        <v>Salsabila Nur Fairuz,</v>
+        <v>Salsabila Nur Fairuz</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>12</v>
@@ -4713,12 +4717,16 @@
       <c r="AE33" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AF33" s="25"/>
+      <c r="AF33" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG33" s="24" t="s">
         <v>12</v>
       </c>
       <c r="AH33" s="39"/>
-      <c r="AI33" s="41"/>
+      <c r="AI33" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ33" s="42" t="s">
         <v>12</v>
       </c>
@@ -4956,7 +4964,7 @@
       <c r="AL35" s="39"/>
       <c r="AM35" s="52"/>
     </row>
-    <row r="36" spans="1:39" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -5069,8 +5077,12 @@
       <c r="AK36" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="52"/>
+      <c r="AL36" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM36" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -5291,7 +5303,7 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>59</v>
@@ -5361,11 +5373,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>84.710424710424704</v>
+        <v>85.173745173745175</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>84.7</v>
+        <v>85.1</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5553,7 +5565,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5842,7 +5854,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5910,7 +5922,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5961,7 +5973,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C3915-FE8F-4668-879C-2729A3EC2F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4444822-1D23-4ACC-8A44-F83B24A1E63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -195,9 +195,6 @@
     <t>BING</t>
   </si>
   <si>
-    <t>KRISTEN</t>
-  </si>
-  <si>
     <t>Minggu Ke-1</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>MAT7</t>
+  </si>
+  <si>
+    <t>NON-MUS</t>
   </si>
 </sst>
 </file>
@@ -1174,23 +1174,32 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN15" sqref="AN15"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="27" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" style="5"/>
-    <col min="39" max="39" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.88671875" style="5"/>
+    <col min="39" max="39" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1202,14 +1211,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
       <c r="H1" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="60"/>
       <c r="J1" s="60"/>
@@ -1219,7 +1228,7 @@
       <c r="N1" s="60"/>
       <c r="O1" s="60"/>
       <c r="P1" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="62"/>
       <c r="R1" s="62"/>
@@ -1228,12 +1237,12 @@
       <c r="U1" s="62"/>
       <c r="V1" s="62"/>
       <c r="W1" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X1" s="61"/>
       <c r="Y1" s="61"/>
       <c r="Z1" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="65"/>
       <c r="AB1" s="65"/>
@@ -1243,14 +1252,14 @@
       <c r="AF1" s="65"/>
       <c r="AG1" s="65"/>
       <c r="AH1" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
       <c r="AK1" s="55"/>
       <c r="AL1" s="55"/>
       <c r="AM1" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.3">
@@ -1372,115 +1381,115 @@
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="C3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="V3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="Z3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AG3" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="AH3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AI3" s="41" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="AJ3" s="41" t="s">
+      <c r="AK3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AK3" s="41" t="s">
+      <c r="AL3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="AL3" s="41" t="s">
-        <v>136</v>
-      </c>
       <c r="AM3" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.3">
@@ -2250,7 +2259,9 @@
       <c r="AH10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AI10" s="41"/>
+      <c r="AI10" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ10" s="42" t="s">
         <v>12</v>
       </c>
@@ -2683,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>12</v>
@@ -2707,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>12</v>
@@ -2725,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="T15" s="19" t="s">
         <v>12</v>
@@ -2743,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="Y15" s="31" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>12</v>
@@ -2758,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="AD15" s="25" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AE15" s="24" t="s">
         <v>12</v>
@@ -2776,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="AJ15" s="47" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AK15" s="43" t="s">
         <v>12</v>
@@ -4015,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>12</v>
@@ -4039,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="N27" s="17" t="s">
         <v>12</v>
@@ -4057,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>12</v>
@@ -4075,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="Y27" s="31" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="Z27" s="23" t="s">
         <v>12</v>
@@ -4090,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="AD27" s="25" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AE27" s="24" t="s">
         <v>12</v>
@@ -4108,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="AJ27" s="47" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AK27" s="43" t="s">
         <v>12</v>
@@ -4239,7 +4250,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>12</v>
@@ -4263,7 +4274,7 @@
         <v>12</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>12</v>
@@ -4281,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>12</v>
@@ -4299,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="Y29" s="31" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="Z29" s="23" t="s">
         <v>12</v>
@@ -4314,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="AD29" s="25" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AE29" s="24" t="s">
         <v>12</v>
@@ -4332,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="AJ29" s="47" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AK29" s="43" t="s">
         <v>12</v>
@@ -5205,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>12</v>
@@ -5229,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>12</v>
@@ -5247,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="S38" s="34" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="T38" s="29"/>
       <c r="U38" s="20" t="s">
@@ -5261,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="Y38" s="31" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="Z38" s="23" t="s">
         <v>12</v>
@@ -5276,7 +5287,7 @@
         <v>12</v>
       </c>
       <c r="AD38" s="25" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AE38" s="24" t="s">
         <v>12</v>
@@ -5292,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="AJ38" s="47" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="AK38" s="43" t="s">
         <v>12</v>
@@ -5303,13 +5314,13 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
@@ -5321,7 +5332,7 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
       <c r="N40" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P40" s="1">
         <f>COUNTA(C3:AM3)</f>
@@ -5362,7 +5373,7 @@
         <v>54</v>
       </c>
       <c r="M41" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N41" s="64"/>
       <c r="P41" s="1">
@@ -5373,11 +5384,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>85.173745173745175</v>
+        <v>85.250965250965251</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5421,7 +5432,7 @@
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -5438,7 +5449,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -5455,7 +5466,7 @@
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -5472,7 +5483,7 @@
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -5489,7 +5500,7 @@
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -5506,7 +5517,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -5523,7 +5534,7 @@
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -5531,7 +5542,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5540,7 +5551,7 @@
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -5557,7 +5568,7 @@
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -5574,7 +5585,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -5591,7 +5602,7 @@
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -5608,7 +5619,7 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -5625,7 +5636,7 @@
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -5642,7 +5653,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -5659,7 +5670,7 @@
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -5676,7 +5687,7 @@
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -5693,7 +5704,7 @@
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -5710,7 +5721,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -5727,7 +5738,7 @@
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -5744,7 +5755,7 @@
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -5761,7 +5772,7 @@
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -5778,7 +5789,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -5795,7 +5806,7 @@
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -5812,7 +5823,7 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -5829,7 +5840,7 @@
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -5846,7 +5857,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -5863,7 +5874,7 @@
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -5880,7 +5891,7 @@
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -5897,7 +5908,7 @@
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -5914,7 +5925,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -5931,7 +5942,7 @@
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -5948,7 +5959,7 @@
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -5965,7 +5976,7 @@
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -5982,7 +5993,7 @@
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -5999,7 +6010,7 @@
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4444822-1D23-4ACC-8A44-F83B24A1E63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D977FC-882B-45F8-9E6D-B10419436BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:AL10"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23:AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2795,7 +2795,7 @@
       <c r="AL15" s="39"/>
       <c r="AM15" s="52"/>
     </row>
-    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2894,7 +2894,9 @@
       <c r="AG16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AH16" s="39"/>
+      <c r="AH16" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AI16" s="43" t="s">
         <v>12</v>
       </c>
@@ -2907,7 +2909,9 @@
       <c r="AL16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AM16" s="52"/>
+      <c r="AM16" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -3641,7 +3645,9 @@
       <c r="V23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="31"/>
+      <c r="W23" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="X23" s="28"/>
       <c r="Y23" s="21" t="s">
         <v>12</v>
@@ -3665,8 +3671,12 @@
       <c r="AF23" s="25"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="39"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="39"/>
+      <c r="AI23" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AK23" s="41"/>
       <c r="AL23" s="39"/>
       <c r="AM23" s="52"/>
@@ -4133,7 +4143,7 @@
       </c>
       <c r="B28" s="14" t="str">
         <f>IF(I68 &lt;= P41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan,</v>
+        <v>Nouridza Juniansah Ridhan</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>12</v>
@@ -4227,15 +4237,19 @@
       <c r="AH28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AI28" s="41"/>
+      <c r="AI28" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK28" s="41"/>
+      <c r="AK28" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AL28" s="39"/>
       <c r="AM28" s="52"/>
     </row>
-    <row r="29" spans="1:39" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -4351,7 +4365,9 @@
       <c r="AL29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="52"/>
+      <c r="AM29" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -5314,7 +5330,7 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>58</v>
@@ -5384,11 +5400,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>85.250965250965251</v>
+        <v>85.868725868725875</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>85.2</v>
+        <v>85.8</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5644,7 +5660,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5763,7 +5779,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5848,7 +5864,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5865,7 +5881,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D977FC-882B-45F8-9E6D-B10419436BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FF199-0498-4FE3-925D-CC973FAC8AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:AM23"/>
+      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,7 +2155,7 @@
       <c r="AL9" s="39"/>
       <c r="AM9" s="52"/>
     </row>
-    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2268,8 +2268,12 @@
       <c r="AK10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="52"/>
+      <c r="AL10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -5117,7 +5121,7 @@
       </c>
       <c r="B37" s="14" t="str">
         <f>IF(I77 &lt;= P41, D77, B77)</f>
-        <v>Usama Fadlillah,</v>
+        <v>Usama Fadlillah</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>12</v>
@@ -5209,11 +5213,21 @@
       <c r="AF37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="41"/>
+      <c r="AG37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH37" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI37" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ37" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK37" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AL37" s="39"/>
       <c r="AM37" s="52"/>
     </row>
@@ -5330,7 +5344,7 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>58</v>
@@ -5400,11 +5414,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>85.868725868725875</v>
+        <v>86.409266409266408</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>85.8</v>
+        <v>86.4</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5558,7 +5572,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6017,7 +6031,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FF199-0498-4FE3-925D-CC973FAC8AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2AB0FC-A902-4604-861D-BA21D7D8E664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -1174,7 +1174,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22:AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,7 +1833,9 @@
       <c r="AJ6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="41"/>
+      <c r="AK6" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AL6" s="39"/>
       <c r="AM6" s="52"/>
     </row>
@@ -2535,7 +2537,9 @@
       <c r="R13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="30"/>
+      <c r="S13" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="T13" s="19" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2551,9 @@
       <c r="X13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="31"/>
+      <c r="Y13" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="Z13" s="23" t="s">
         <v>12</v>
       </c>
@@ -2560,11 +2566,15 @@
         <v>12</v>
       </c>
       <c r="AE13" s="26"/>
-      <c r="AF13" s="25"/>
+      <c r="AF13" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13" s="26"/>
       <c r="AH13" s="39"/>
       <c r="AI13" s="41"/>
-      <c r="AJ13" s="39"/>
+      <c r="AJ13" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AK13" s="41"/>
       <c r="AL13" s="39"/>
       <c r="AM13" s="52"/>
@@ -2797,7 +2807,9 @@
         <v>12</v>
       </c>
       <c r="AL15" s="39"/>
-      <c r="AM15" s="52"/>
+      <c r="AM15" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -3456,14 +3468,18 @@
       <c r="AI21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AJ21" s="39"/>
+      <c r="AJ21" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AK21" s="43" t="s">
         <v>12</v>
       </c>
       <c r="AL21" s="39"/>
-      <c r="AM21" s="52"/>
-    </row>
-    <row r="22" spans="1:39" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM21" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -3576,7 +3592,9 @@
       <c r="AK22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AL22" s="39"/>
+      <c r="AL22" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AM22" s="54" t="s">
         <v>12</v>
       </c>
@@ -4369,9 +4387,7 @@
       <c r="AL29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="54" t="s">
-        <v>12</v>
-      </c>
+      <c r="AM29" s="54"/>
     </row>
     <row r="30" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -4507,7 +4523,9 @@
         <v>12</v>
       </c>
       <c r="X31" s="28"/>
-      <c r="Y31" s="31"/>
+      <c r="Y31" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="Z31" s="23" t="s">
         <v>12</v>
       </c>
@@ -4537,7 +4555,9 @@
         <v>12</v>
       </c>
       <c r="AL31" s="39"/>
-      <c r="AM31" s="52"/>
+      <c r="AM31" s="54" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:39" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -5344,7 +5364,7 @@
     <row r="40" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>COUNTA(C4:AM38)</f>
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>58</v>
@@ -5414,11 +5434,11 @@
     <row r="42" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>100 * A40 / A41</f>
-        <v>86.409266409266408</v>
+        <v>87.181467181467184</v>
       </c>
       <c r="B42" s="6">
         <f>TRUNC(A42,1)</f>
-        <v>86.4</v>
+        <v>87.1</v>
       </c>
       <c r="D42" s="7">
         <v>7</v>
@@ -5504,7 +5524,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
@@ -5623,7 +5643,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5657,7 +5677,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5759,7 +5779,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5776,7 +5796,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5895,7 +5915,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5929,7 +5949,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2AB0FC-A902-4604-861D-BA21D7D8E664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37C874-7352-4EA9-8E7A-CE49D71C4135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22:AM22"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="A1:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54602B-D269-4455-8108-87A0E93CC0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FDEF2-A848-47CB-910E-DEA157583C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="140">
   <si>
     <t>No.</t>
   </si>
@@ -454,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +513,20 @@
       <sz val="14"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -660,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,11 +825,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,10 +1180,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:AM17"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35:AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,68 +1213,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="62" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="61" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="65" t="s">
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="55" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="54" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="54"/>
+      <c r="AN1" s="56"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
@@ -1373,8 +1391,8 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
@@ -1605,7 +1623,9 @@
       </c>
       <c r="AL4" s="36"/>
       <c r="AM4" s="42"/>
-      <c r="AN4" s="51"/>
+      <c r="AN4" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1837,7 +1857,9 @@
       </c>
       <c r="AL6" s="36"/>
       <c r="AM6" s="42"/>
-      <c r="AN6" s="51"/>
+      <c r="AN6" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1944,7 +1966,9 @@
       </c>
       <c r="AL7" s="36"/>
       <c r="AM7" s="42"/>
-      <c r="AN7" s="51"/>
+      <c r="AN7" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2061,7 +2085,9 @@
       </c>
       <c r="AL8" s="36"/>
       <c r="AM8" s="42"/>
-      <c r="AN8" s="51"/>
+      <c r="AN8" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -2279,7 +2305,9 @@
       <c r="AM10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN10" s="51"/>
+      <c r="AN10" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -2487,7 +2515,9 @@
       <c r="AM12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN12" s="51"/>
+      <c r="AN12" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -2585,7 +2615,9 @@
       </c>
       <c r="AK13" s="37"/>
       <c r="AL13" s="36"/>
-      <c r="AM13" s="42"/>
+      <c r="AM13" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AN13" s="51"/>
     </row>
     <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.3">
@@ -2701,7 +2733,9 @@
       </c>
       <c r="AL14" s="36"/>
       <c r="AM14" s="42"/>
-      <c r="AN14" s="51"/>
+      <c r="AN14" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -2820,7 +2854,9 @@
       <c r="AM15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN15" s="51"/>
+      <c r="AN15" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -3052,7 +3088,9 @@
       <c r="AM17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN17" s="51"/>
+      <c r="AN17" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -3270,7 +3308,9 @@
       <c r="AK19" s="37"/>
       <c r="AL19" s="36"/>
       <c r="AM19" s="42"/>
-      <c r="AN19" s="51"/>
+      <c r="AN19" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -3383,7 +3423,9 @@
       <c r="AK20" s="37"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="42"/>
-      <c r="AN20" s="51"/>
+      <c r="AN20" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -3500,7 +3542,9 @@
       <c r="AM21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN21" s="51"/>
+      <c r="AN21" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -3621,7 +3665,9 @@
       <c r="AM22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN22" s="51"/>
+      <c r="AN22" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -3948,7 +3994,9 @@
       </c>
       <c r="AL25" s="36"/>
       <c r="AM25" s="42"/>
-      <c r="AN25" s="51"/>
+      <c r="AN25" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -4069,7 +4117,9 @@
       <c r="AM26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN26" s="51"/>
+      <c r="AN26" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -4186,7 +4236,9 @@
       </c>
       <c r="AL27" s="36"/>
       <c r="AM27" s="42"/>
-      <c r="AN27" s="51"/>
+      <c r="AN27" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -4299,7 +4351,9 @@
       </c>
       <c r="AL28" s="36"/>
       <c r="AM28" s="42"/>
-      <c r="AN28" s="51"/>
+      <c r="AN28" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -4418,7 +4472,9 @@
         <v>12</v>
       </c>
       <c r="AM29" s="43"/>
-      <c r="AN29" s="51"/>
+      <c r="AN29" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -4707,7 +4763,9 @@
       </c>
       <c r="AL32" s="36"/>
       <c r="AM32" s="42"/>
-      <c r="AN32" s="51"/>
+      <c r="AN32" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -4715,7 +4773,7 @@
       </c>
       <c r="B33" s="11" t="str">
         <f>IF(I73 &lt;= P41, D73, B73)</f>
-        <v>Salsabila Nur Fairuz,</v>
+        <v>Salsabila Nur Fairuz</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>12</v>
@@ -4818,7 +4876,9 @@
       <c r="AK33" s="37"/>
       <c r="AL33" s="36"/>
       <c r="AM33" s="42"/>
-      <c r="AN33" s="51"/>
+      <c r="AN33" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -4935,7 +4995,9 @@
       </c>
       <c r="AL34" s="36"/>
       <c r="AM34" s="42"/>
-      <c r="AN34" s="51"/>
+      <c r="AN34" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -5038,7 +5100,9 @@
       <c r="AG35" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH35" s="36"/>
+      <c r="AH35" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AI35" s="39" t="s">
         <v>12</v>
       </c>
@@ -5050,7 +5114,9 @@
       </c>
       <c r="AL35" s="36"/>
       <c r="AM35" s="42"/>
-      <c r="AN35" s="51"/>
+      <c r="AN35" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -5171,7 +5237,9 @@
       <c r="AM36" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN36" s="51"/>
+      <c r="AN36" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -5286,9 +5354,13 @@
       <c r="AK37" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL37" s="36"/>
+      <c r="AL37" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM37" s="42"/>
-      <c r="AN37" s="51"/>
+      <c r="AN37" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -5296,7 +5368,7 @@
       </c>
       <c r="B38" s="11" t="str">
         <f>IF(I78 &lt;= P41, D78, B78)</f>
-        <v>Yehezkiel Dio Sinolungan,</v>
+        <v>Yehezkiel Dio Sinolungan</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>12</v>
@@ -5399,32 +5471,34 @@
       </c>
       <c r="AL38" s="36"/>
       <c r="AM38" s="42"/>
-      <c r="AN38" s="51"/>
+      <c r="AN38" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AN38)</f>
-        <v>1133</v>
-      </c>
-      <c r="B40" s="56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="63" t="s">
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="53">
         <f>COUNTA(C3:AN3)</f>
         <v>38</v>
       </c>
@@ -5434,7 +5508,7 @@
         <f>P40 * 35</f>
         <v>1330</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="59"/>
       <c r="D41" s="45" t="s">
         <v>7</v>
       </c>
@@ -5465,8 +5539,8 @@
       <c r="M41" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="64"/>
-      <c r="P41" s="2">
+      <c r="N41" s="66"/>
+      <c r="P41" s="53">
         <f>P40-6</f>
         <v>32</v>
       </c>
@@ -5474,11 +5548,11 @@
     <row r="42" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.187969924812023</v>
+        <v>87.293233082706763</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>85.1</v>
+        <v>87.2</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5517,598 +5591,598 @@
     </row>
     <row r="43" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="55" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="53">
+      <c r="I44" s="54">
         <f>COUNTA(C4:AN4)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="55" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="53">
+      <c r="I45" s="54">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AN5)</f>
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="52" t="s">
+      <c r="D46" s="55" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="53">
+      <c r="I46" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="55" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="55" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="53">
+      <c r="I47" s="54">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="55" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="53">
+      <c r="I48" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="55" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="55" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="53">
+      <c r="I49" s="54">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="55" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="53">
+      <c r="I50" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="55" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="53">
+      <c r="I51" s="54">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="55" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="53">
+      <c r="I52" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="55" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="53">
+      <c r="I53" s="54">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="55" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="53">
+      <c r="I54" s="54">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="55" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="55" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="53">
+      <c r="I55" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="53">
+      <c r="I56" s="54">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="55" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="53">
+      <c r="I57" s="54">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="55" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="55" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="53">
+      <c r="I58" s="54">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="55" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="53">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="I59" s="54">
+        <f>COUNTA(C19:AN19)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="55" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="55" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="53">
+      <c r="I60" s="54">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="55" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="53">
+      <c r="I61" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="55" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="53">
+      <c r="I62" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="53">
+      <c r="I63" s="54">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="55" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="53">
+      <c r="I64" s="54">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="55" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="53">
+      <c r="I65" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="55" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="53">
+      <c r="I66" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="55" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="53">
+      <c r="I67" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="55" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="53">
+      <c r="I68" s="54">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="55" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="53">
+      <c r="I69" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="55" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="53">
+      <c r="I70" s="54">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="55" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="53">
+      <c r="I71" s="54">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="55" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="53">
+      <c r="I72" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="55" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="53">
+      <c r="I73" s="54">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="55" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="55" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="53">
+      <c r="I74" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="53">
+      <c r="I75" s="54">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="55" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="53">
+      <c r="I76" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="55" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="55" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="53">
+      <c r="I77" s="54">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="55" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="53">
+      <c r="I78" s="54">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FDEF2-A848-47CB-910E-DEA157583C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF7A026-FD76-419D-A1B8-287A2DEA6901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="140">
   <si>
     <t>No.</t>
   </si>
@@ -1180,10 +1180,10 @@
   <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35:AN35"/>
+      <selection pane="bottomRight" activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1740,9 @@
       </c>
       <c r="AL5" s="36"/>
       <c r="AM5" s="42"/>
-      <c r="AN5" s="51"/>
+      <c r="AN5" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -5478,7 +5480,7 @@
     <row r="40" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AN38)</f>
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>58</v>
@@ -5548,11 +5550,11 @@
     <row r="42" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>87.293233082706763</v>
+        <v>87.368421052631575</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5621,7 +5623,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="54">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AN5)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF7A026-FD76-419D-A1B8-287A2DEA6901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35380EF-C404-4923-BAC9-40E00970AA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="140">
   <si>
     <t>No.</t>
   </si>
@@ -1179,11 +1179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN33" sqref="AN33"/>
+      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,7 +1858,9 @@
         <v>12</v>
       </c>
       <c r="AL6" s="36"/>
-      <c r="AM6" s="42"/>
+      <c r="AM6" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AN6" s="52" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2599,9 @@
       <c r="Z13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" s="23"/>
+      <c r="AA13" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AB13" s="20" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2624,9 @@
       <c r="AM13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN13" s="51"/>
+      <c r="AN13" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -2739,7 +2745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2852,7 +2858,9 @@
       <c r="AK15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL15" s="36"/>
+      <c r="AL15" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM15" s="43" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +2985,9 @@
       <c r="AM16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN16" s="51"/>
+      <c r="AN16" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -3197,7 +3207,9 @@
       </c>
       <c r="AL18" s="36"/>
       <c r="AM18" s="42"/>
-      <c r="AN18" s="51"/>
+      <c r="AN18" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -3418,7 +3430,9 @@
       <c r="AH20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AI20" s="37"/>
+      <c r="AI20" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ20" s="38" t="s">
         <v>12</v>
       </c>
@@ -3879,7 +3893,9 @@
       </c>
       <c r="AL24" s="36"/>
       <c r="AM24" s="42"/>
-      <c r="AN24" s="51"/>
+      <c r="AN24" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -4236,7 +4252,9 @@
       <c r="AK27" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL27" s="36"/>
+      <c r="AL27" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM27" s="42"/>
       <c r="AN27" s="52" t="s">
         <v>12</v>
@@ -4473,7 +4491,9 @@
       <c r="AL29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="43"/>
+      <c r="AM29" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AN29" s="52" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4668,9 @@
       <c r="AM31" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AN31" s="51"/>
+      <c r="AN31" s="52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:40" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -4764,7 +4786,9 @@
         <v>12</v>
       </c>
       <c r="AL32" s="36"/>
-      <c r="AM32" s="42"/>
+      <c r="AM32" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AN32" s="52" t="s">
         <v>12</v>
       </c>
@@ -5114,7 +5138,9 @@
       <c r="AK35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL35" s="36"/>
+      <c r="AL35" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM35" s="42"/>
       <c r="AN35" s="52" t="s">
         <v>12</v>
@@ -5480,7 +5506,7 @@
     <row r="40" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AN38)</f>
-        <v>1162</v>
+        <v>1175</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>58</v>
@@ -5550,11 +5576,11 @@
     <row r="42" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>87.368421052631575</v>
+        <v>88.345864661654133</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>87.3</v>
+        <v>88.3</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5640,7 +5666,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
@@ -5759,7 +5785,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="54">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5793,7 +5819,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5810,7 +5836,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5844,7 +5870,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="54">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5878,7 +5904,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="54">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5946,7 +5972,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="54">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5997,7 +6023,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6031,7 +6057,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="54">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6065,7 +6091,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="54">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6082,7 +6108,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6133,7 +6159,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35380EF-C404-4923-BAC9-40E00970AA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA22F9-FD45-461B-8801-2B432602370E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11016" yWindow="768" windowWidth="10872" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>BINDO4</t>
+  </si>
+  <si>
+    <t>PAI7</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -670,11 +673,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +848,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AO22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,69 +1230,70 @@
     <col min="41" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="64" t="s">
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="63" t="s">
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="67" t="s">
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="57" t="s">
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="56"/>
-    </row>
-    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
@@ -1389,10 +1408,13 @@
       <c r="AN2" s="41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
+      <c r="AO2" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
@@ -1507,8 +1529,11 @@
       <c r="AN3" s="42" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO3" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1626,8 +1651,11 @@
       <c r="AN4" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO4" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1743,8 +1771,9 @@
       <c r="AN5" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO5" s="42"/>
+    </row>
+    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1864,8 +1893,11 @@
       <c r="AN6" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO6" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1973,8 +2005,9 @@
       <c r="AN7" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO7" s="42"/>
+    </row>
+    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2092,8 +2125,9 @@
       <c r="AN8" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO8" s="42"/>
+    </row>
+    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2189,8 +2223,9 @@
       <c r="AL9" s="36"/>
       <c r="AM9" s="42"/>
       <c r="AN9" s="51"/>
-    </row>
-    <row r="10" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO9" s="42"/>
+    </row>
+    <row r="10" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2312,8 +2347,11 @@
       <c r="AN10" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO10" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2399,8 +2437,9 @@
       <c r="AL11" s="36"/>
       <c r="AM11" s="42"/>
       <c r="AN11" s="51"/>
-    </row>
-    <row r="12" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO11" s="42"/>
+    </row>
+    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2522,8 +2561,9 @@
       <c r="AN12" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO12" s="42"/>
+    </row>
+    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2627,8 +2667,9 @@
       <c r="AN13" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO13" s="42"/>
+    </row>
+    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2744,8 +2785,9 @@
       <c r="AN14" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO14" s="42"/>
+    </row>
+    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2867,8 +2909,9 @@
       <c r="AN15" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO15" s="42"/>
+    </row>
+    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2988,8 +3031,9 @@
       <c r="AN16" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO16" s="42"/>
+    </row>
+    <row r="17" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3089,7 +3133,9 @@
         <v>12</v>
       </c>
       <c r="AH17" s="36"/>
-      <c r="AI17" s="37"/>
+      <c r="AI17" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ17" s="38" t="s">
         <v>12</v>
       </c>
@@ -3103,8 +3149,11 @@
       <c r="AN17" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO17" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3210,8 +3259,9 @@
       <c r="AN18" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO18" s="42"/>
+    </row>
+    <row r="19" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3325,8 +3375,11 @@
       <c r="AN19" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO19" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3442,8 +3495,11 @@
       <c r="AN20" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO20" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3561,8 +3617,11 @@
       <c r="AN21" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO21" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3684,8 +3743,9 @@
       <c r="AN22" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO22" s="42"/>
+    </row>
+    <row r="23" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3789,8 +3849,9 @@
       <c r="AL23" s="36"/>
       <c r="AM23" s="42"/>
       <c r="AN23" s="51"/>
-    </row>
-    <row r="24" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO23" s="42"/>
+    </row>
+    <row r="24" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3896,8 +3957,9 @@
       <c r="AN24" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO24" s="42"/>
+    </row>
+    <row r="25" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4015,8 +4077,11 @@
       <c r="AN25" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO25" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4138,8 +4203,11 @@
       <c r="AN26" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO26" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4259,8 +4327,9 @@
       <c r="AN27" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO27" s="42"/>
+    </row>
+    <row r="28" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4374,8 +4443,9 @@
       <c r="AN28" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO28" s="42"/>
+    </row>
+    <row r="29" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4497,8 +4567,9 @@
       <c r="AN29" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO29" s="42"/>
+    </row>
+    <row r="30" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4570,8 +4641,9 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="42"/>
       <c r="AN30" s="51"/>
-    </row>
-    <row r="31" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO30" s="42"/>
+    </row>
+    <row r="31" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4671,8 +4743,9 @@
       <c r="AN31" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO31" s="42"/>
+    </row>
+    <row r="32" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4792,8 +4865,11 @@
       <c r="AN32" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO32" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -4905,8 +4981,9 @@
       <c r="AN33" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO33" s="42"/>
+    </row>
+    <row r="34" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5019,13 +5096,20 @@
       <c r="AK34" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="42"/>
+      <c r="AL34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM34" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AN34" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO34" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5145,8 +5229,11 @@
       <c r="AN35" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AO35" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -5268,8 +5355,11 @@
       <c r="AN36" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO36" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5389,8 +5479,9 @@
       <c r="AN37" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" ht="18" x14ac:dyDescent="0.3">
+      <c r="AO37" s="42"/>
+    </row>
+    <row r="38" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5502,28 +5593,29 @@
       <c r="AN38" s="52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO38" s="42"/>
+    </row>
+    <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AN38)</f>
-        <v>1175</v>
-      </c>
-      <c r="B40" s="58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B40" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="65" t="s">
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="67" t="s">
         <v>79</v>
       </c>
       <c r="P40" s="53">
@@ -5531,12 +5623,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>P40 * 35</f>
         <v>1330</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="61"/>
       <c r="D41" s="45" t="s">
         <v>7</v>
       </c>
@@ -5567,20 +5659,20 @@
       <c r="M41" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="66"/>
+      <c r="N41" s="68"/>
       <c r="P41" s="53">
         <f>P40-6</f>
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>88.345864661654133</v>
+        <v>88.571428571428569</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5592,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" s="4">
         <v>4</v>
@@ -5614,11 +5706,11 @@
       </c>
       <c r="N42" s="4">
         <f>SUM(D42:M42)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="55" t="s">
         <v>11</v>
       </c>
@@ -5635,7 +5727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="55" t="s">
         <v>13</v>
       </c>
@@ -5652,7 +5744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="55" t="s">
         <v>14</v>
       </c>
@@ -5669,7 +5761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="55" t="s">
         <v>15</v>
       </c>
@@ -5686,7 +5778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="55" t="s">
         <v>16</v>
       </c>
@@ -5853,7 +5945,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="54">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6142,7 +6234,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="54">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6215,7 +6307,7 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FA22F9-FD45-461B-8801-2B432602370E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353A4E1-FADC-4748-B89A-1B954FE7AEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="768" windowWidth="10872" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,34 +806,10 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -848,6 +824,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,17 +1194,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AO22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
+      <selection pane="bottomRight" activeCell="AD15" sqref="AD15:AO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -1227,194 +1224,195 @@
     <col min="36" max="36" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.88671875" style="2"/>
+    <col min="41" max="41" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="66" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="65" t="s">
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="69" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="59" t="s">
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="57" t="s">
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
     </row>
     <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="50" t="s">
+      <c r="AF2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AM2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="56" t="s">
+      <c r="AO2" s="48" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
@@ -1523,17 +1521,17 @@
       <c r="AL3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AM3" s="42" t="s">
+      <c r="AM3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AN3" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AO3" s="42" t="s">
+      <c r="AO3" s="41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1646,12 +1644,16 @@
       <c r="AK4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AL4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1767,11 +1769,13 @@
         <v>12</v>
       </c>
       <c r="AL5" s="36"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO5" s="42"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1887,13 +1891,13 @@
         <v>12</v>
       </c>
       <c r="AL6" s="36"/>
-      <c r="AM6" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO6" s="43" t="s">
+      <c r="AM6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2001,11 +2005,11 @@
         <v>12</v>
       </c>
       <c r="AL7" s="36"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO7" s="42"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" s="41"/>
     </row>
     <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -2121,11 +2125,13 @@
         <v>12</v>
       </c>
       <c r="AL8" s="36"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO8" s="42"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -2221,9 +2227,11 @@
       <c r="AJ9" s="36"/>
       <c r="AK9" s="37"/>
       <c r="AL9" s="36"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="42"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -2341,13 +2349,13 @@
       <c r="AL10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM10" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO10" s="43" t="s">
+      <c r="AM10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO10" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2435,11 +2443,11 @@
       <c r="AJ11" s="36"/>
       <c r="AK11" s="37"/>
       <c r="AL11" s="36"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="42"/>
-    </row>
-    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="41"/>
+    </row>
+    <row r="12" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2555,13 +2563,15 @@
       <c r="AL12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM12" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN12" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO12" s="42"/>
+      <c r="AM12" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO12" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -2661,15 +2671,15 @@
       </c>
       <c r="AK13" s="37"/>
       <c r="AL13" s="36"/>
-      <c r="AM13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO13" s="42"/>
-    </row>
-    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO13" s="41"/>
+    </row>
+    <row r="14" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2776,16 +2786,24 @@
       <c r="AI14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="36"/>
+      <c r="AJ14" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AK14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO14" s="42"/>
+      <c r="AL14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO14" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -2903,15 +2921,17 @@
       <c r="AL15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM15" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN15" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO15" s="42"/>
-    </row>
-    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO15" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3025,13 +3045,15 @@
       <c r="AL16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN16" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO16" s="42"/>
+      <c r="AM16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO16" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -3143,13 +3165,13 @@
         <v>12</v>
       </c>
       <c r="AL17" s="36"/>
-      <c r="AM17" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO17" s="43" t="s">
+      <c r="AM17" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO17" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3255,11 +3277,11 @@
         <v>12</v>
       </c>
       <c r="AL18" s="36"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO18" s="42"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO18" s="41"/>
     </row>
     <row r="19" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -3371,11 +3393,11 @@
       </c>
       <c r="AK19" s="37"/>
       <c r="AL19" s="36"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO19" s="43" t="s">
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO19" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3491,15 +3513,15 @@
       </c>
       <c r="AK20" s="37"/>
       <c r="AL20" s="36"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO20" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO20" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3610,18 +3632,20 @@
       <c r="AK21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN21" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO21" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AL21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO21" s="42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3737,13 +3761,15 @@
       <c r="AL22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM22" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN22" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO22" s="42"/>
+      <c r="AM22" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO22" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -3847,9 +3873,9 @@
       </c>
       <c r="AK23" s="37"/>
       <c r="AL23" s="36"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="42"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="41"/>
     </row>
     <row r="24" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -3953,11 +3979,13 @@
         <v>12</v>
       </c>
       <c r="AL24" s="36"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO24" s="42"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO24" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -4073,11 +4101,11 @@
         <v>12</v>
       </c>
       <c r="AL25" s="36"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO25" s="43" t="s">
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO25" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4197,13 +4225,13 @@
       <c r="AL26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM26" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN26" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO26" s="43" t="s">
+      <c r="AM26" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4323,11 +4351,13 @@
       <c r="AL27" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO27" s="42"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="41" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -4439,11 +4469,11 @@
         <v>12</v>
       </c>
       <c r="AL28" s="36"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO28" s="42"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="41"/>
     </row>
     <row r="29" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -4561,13 +4591,15 @@
       <c r="AL29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM29" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO29" s="42"/>
+      <c r="AM29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="41" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -4639,9 +4671,9 @@
       <c r="AJ30" s="36"/>
       <c r="AK30" s="37"/>
       <c r="AL30" s="36"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="42"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="41"/>
     </row>
     <row r="31" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -4660,7 +4692,9 @@
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G31" s="12" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4714,9 @@
       <c r="M31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="32"/>
+      <c r="N31" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="O31" s="15" t="s">
         <v>12</v>
       </c>
@@ -4696,7 +4732,9 @@
       <c r="S31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T31" s="26"/>
+      <c r="T31" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="U31" s="17" t="s">
         <v>12</v>
       </c>
@@ -4725,7 +4763,9 @@
         <v>12</v>
       </c>
       <c r="AF31" s="22"/>
-      <c r="AG31" s="23"/>
+      <c r="AG31" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AH31" s="38" t="s">
         <v>12</v>
       </c>
@@ -4737,13 +4777,15 @@
         <v>12</v>
       </c>
       <c r="AL31" s="36"/>
-      <c r="AM31" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN31" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO31" s="42"/>
+      <c r="AM31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN31" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO31" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -4859,13 +4901,13 @@
         <v>12</v>
       </c>
       <c r="AL32" s="36"/>
-      <c r="AM32" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN32" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO32" s="43" t="s">
+      <c r="AM32" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4875,7 +4917,7 @@
       </c>
       <c r="B33" s="11" t="str">
         <f>IF(I73 &lt;= P41, D73, B73)</f>
-        <v>Salsabila Nur Fairuz</v>
+        <v>Salsabila Nur Fairuz,</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>12</v>
@@ -4977,11 +5019,11 @@
       </c>
       <c r="AK33" s="37"/>
       <c r="AL33" s="36"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO33" s="42"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="41"/>
     </row>
     <row r="34" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -5099,13 +5141,13 @@
       <c r="AL34" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM34" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN34" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO34" s="43" t="s">
+      <c r="AM34" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO34" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5225,11 +5267,11 @@
       <c r="AL35" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO35" s="43" t="s">
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO35" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5349,13 +5391,13 @@
       <c r="AL36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM36" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN36" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO36" s="43" t="s">
+      <c r="AM36" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN36" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO36" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5475,11 +5517,13 @@
       <c r="AL37" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO37" s="42"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO37" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -5589,90 +5633,92 @@
         <v>12</v>
       </c>
       <c r="AL38" s="36"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO38" s="42"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO38" s="41" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AN38)</f>
-        <v>1178</v>
-      </c>
-      <c r="B40" s="60" t="s">
+        <f>COUNTA(C4:AO38)</f>
+        <v>1215</v>
+      </c>
+      <c r="B40" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="67" t="s">
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="53">
-        <f>COUNTA(C3:AN3)</f>
-        <v>38</v>
+      <c r="P40" s="45">
+        <f>COUNTA(C3:AO3)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>P40 * 35</f>
-        <v>1330</v>
-      </c>
-      <c r="B41" s="61"/>
-      <c r="D41" s="45" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="D41" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="45" t="s">
+      <c r="M41" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="68"/>
-      <c r="P41" s="53">
+      <c r="N41" s="67"/>
+      <c r="P41" s="45">
         <f>P40-6</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>88.571428571428569</v>
+        <v>89.010989010989007</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5711,598 +5757,598 @@
     </row>
     <row r="43" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="47" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="54">
-        <f>COUNTA(C4:AN4)</f>
-        <v>36</v>
+      <c r="I44" s="46">
+        <f>COUNTA(C4:AO4)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="47" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="47" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="54">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AN5)</f>
-        <v>35</v>
+      <c r="I45" s="46">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AO5)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="47" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="54">
+      <c r="I46" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="47" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="54">
+      <c r="I47" s="46">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="54">
+      <c r="I48" s="46">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="47" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="54">
+      <c r="I49" s="46">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="47" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="54">
+      <c r="I50" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="47" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="54">
+      <c r="I51" s="46">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="54">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="I52" s="46">
+        <f>COUNTA(C12:AO12)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="47" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="54">
+      <c r="I53" s="46">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="54">
+      <c r="I54" s="46">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="54">
+      <c r="I55" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="47" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="54">
+      <c r="I56" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="47" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="54">
+      <c r="I57" s="46">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="54">
+      <c r="I58" s="46">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="54">
-        <f>COUNTA(C19:AN19)</f>
-        <v>34</v>
+      <c r="I59" s="46">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="54">
+      <c r="I60" s="46">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="47" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="54">
+      <c r="I61" s="46">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="47" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="54">
+      <c r="I62" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="54">
+      <c r="I63" s="46">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="47" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="54">
+      <c r="I64" s="46">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="47" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="54">
+      <c r="I65" s="46">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="47" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="54">
+      <c r="I66" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="47" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="54">
+      <c r="I67" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="47" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="54">
+      <c r="I68" s="46">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="54">
+      <c r="I69" s="46">
         <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="55" t="s">
-        <v>38</v>
-      </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="47" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="54">
+      <c r="I70" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="47" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="54">
+      <c r="I71" s="46">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="47" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="54">
+      <c r="I72" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="47" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="54">
+      <c r="I73" s="46">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="47" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="54">
+      <c r="I74" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="54">
+      <c r="I75" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="47" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="54">
+      <c r="I76" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="54">
+      <c r="I77" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="47" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="54">
+      <c r="I78" s="46">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C353A4E1-FADC-4748-B89A-1B954FE7AEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5921460-3D1D-4938-9903-0D541A2A8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -1195,10 +1195,10 @@
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD15" sqref="AD15:AO38"/>
+      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1890,7 +1890,9 @@
       <c r="AK6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="36"/>
+      <c r="AL6" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM6" s="42" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2126,9 @@
       <c r="AK8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL8" s="36"/>
+      <c r="AL8" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM8" s="41"/>
       <c r="AN8" s="44" t="s">
         <v>12</v>
@@ -3511,8 +3515,12 @@
       <c r="AJ20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="36"/>
+      <c r="AK20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM20" s="41"/>
       <c r="AN20" s="44" t="s">
         <v>12</v>
@@ -4100,7 +4108,9 @@
       <c r="AK25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL25" s="36"/>
+      <c r="AL25" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM25" s="41"/>
       <c r="AN25" s="44" t="s">
         <v>12</v>
@@ -4469,11 +4479,15 @@
         <v>12</v>
       </c>
       <c r="AL28" s="36"/>
-      <c r="AM28" s="41"/>
+      <c r="AM28" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AN28" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AO28" s="41"/>
+      <c r="AO28" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -4787,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4900,7 +4914,9 @@
       <c r="AK32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL32" s="36"/>
+      <c r="AL32" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM32" s="42" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5660,7 @@
     <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AO38)</f>
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="B40" s="59" t="s">
         <v>58</v>
@@ -5714,11 +5730,11 @@
     <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>89.010989010989007</v>
+        <v>89.597069597069591</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5804,7 +5820,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
@@ -5838,7 +5854,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6042,7 +6058,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="46">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6127,7 +6143,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="46">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6178,7 +6194,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="46">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6246,7 +6262,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="46">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5921460-3D1D-4938-9903-0D541A2A8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75310F5F-5657-49EB-B451-19AB78D7DF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -1195,10 +1195,10 @@
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,7 +2449,9 @@
       <c r="AL11" s="36"/>
       <c r="AM11" s="41"/>
       <c r="AN11" s="43"/>
-      <c r="AO11" s="41"/>
+      <c r="AO11" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -2681,7 +2683,9 @@
       <c r="AN13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AO13" s="41"/>
+      <c r="AO13" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -3285,7 +3289,9 @@
       <c r="AN18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="41"/>
+      <c r="AO18" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -3396,7 +3402,9 @@
         <v>12</v>
       </c>
       <c r="AK19" s="37"/>
-      <c r="AL19" s="36"/>
+      <c r="AL19" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AM19" s="41"/>
       <c r="AN19" s="44" t="s">
         <v>12</v>
@@ -3881,9 +3889,13 @@
       </c>
       <c r="AK23" s="37"/>
       <c r="AL23" s="36"/>
-      <c r="AM23" s="41"/>
+      <c r="AM23" s="42" t="s">
+        <v>12</v>
+      </c>
       <c r="AN23" s="43"/>
-      <c r="AO23" s="41"/>
+      <c r="AO23" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -4687,7 +4699,9 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="41"/>
       <c r="AN30" s="43"/>
-      <c r="AO30" s="41"/>
+      <c r="AO30" s="42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:41" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -5660,7 +5674,7 @@
     <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AO38)</f>
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="B40" s="59" t="s">
         <v>58</v>
@@ -5730,11 +5744,11 @@
     <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>89.597069597069591</v>
+        <v>90.109890109890117</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>89.5</v>
+        <v>90.1</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5905,7 +5919,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="46">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5939,7 +5953,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="46">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6024,7 +6038,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="46">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6041,7 +6055,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="46">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6109,7 +6123,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="46">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6228,7 +6242,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="46">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75310F5F-5657-49EB-B451-19AB78D7DF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3BEDA-0B58-4972-A897-6457F276E13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -686,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,9 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,10 +1192,10 @@
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:AO13"/>
+      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,190 +1226,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="65" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="64" t="s">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="68" t="s">
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="58" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
     </row>
     <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="Z2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AA2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AB2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="55" t="s">
+      <c r="AD2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="55" t="s">
+      <c r="AE2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="55" t="s">
+      <c r="AF2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="48" t="s">
+      <c r="AM2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="48" t="s">
+      <c r="AN2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="48" t="s">
+      <c r="AO2" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
@@ -1506,28 +1503,28 @@
       <c r="AG3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AH3" s="37" t="s">
+      <c r="AH3" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="AI3" s="37" t="s">
+      <c r="AI3" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="AK3" s="37" t="s">
+      <c r="AK3" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="AL3" s="37" t="s">
+      <c r="AL3" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="AM3" s="41" t="s">
+      <c r="AM3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AN3" s="41" t="s">
+      <c r="AN3" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AO3" s="41" t="s">
+      <c r="AO3" s="40" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1632,32 +1629,32 @@
       <c r="AG4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN4" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO4" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1758,22 +1755,28 @@
       <c r="AG5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AH5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO5" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1878,28 +1881,28 @@
       <c r="AG6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN6" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO6" s="42" t="s">
+      <c r="AH6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="B7" s="11" t="str">
         <f>IF(I47 &lt;= P41, D47, B47)</f>
-        <v>Arif Fathurrahman,</v>
+        <v>Arif Fathurrahman</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
@@ -1947,7 +1950,9 @@
       <c r="N7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="24"/>
+      <c r="O7" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="P7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +1977,7 @@
       <c r="W7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="25"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="18" t="s">
         <v>12</v>
       </c>
@@ -1996,24 +2001,30 @@
       <c r="AG7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO7" s="41"/>
-    </row>
-    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2114,26 +2125,28 @@
       <c r="AG8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO8" s="42" t="s">
+      <c r="AH8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2196,9 +2209,9 @@
       <c r="S9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="26"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="25"/>
       <c r="W9" s="18" t="s">
         <v>12</v>
       </c>
@@ -2226,14 +2239,16 @@
       </c>
       <c r="AF9" s="22"/>
       <c r="AG9" s="23"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="42" t="s">
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2338,28 +2353,28 @@
       <c r="AG10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK10" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO10" s="42" t="s">
+      <c r="AH10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO10" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2428,10 +2443,10 @@
       <c r="U11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="28"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="27"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="23"/>
       <c r="AB11" s="20" t="s">
@@ -2442,14 +2457,14 @@
       <c r="AE11" s="23"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="23"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="42" t="s">
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2554,28 +2569,28 @@
       <c r="AG12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM12" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN12" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO12" s="42" t="s">
+      <c r="AH12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO12" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2641,8 +2656,8 @@
       <c r="T13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="25"/>
       <c r="W13" s="18" t="s">
         <v>12</v>
       </c>
@@ -2670,20 +2685,20 @@
         <v>12</v>
       </c>
       <c r="AG13" s="23"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO13" s="42" t="s">
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO13" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2788,28 +2803,28 @@
       <c r="AG14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL14" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM14" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN14" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO14" s="42" t="s">
+      <c r="AH14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO14" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2827,7 +2842,7 @@
       <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -2851,7 +2866,7 @@
       <c r="L15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>138</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -2869,7 +2884,7 @@
       <c r="R15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="30" t="s">
         <v>138</v>
       </c>
       <c r="T15" s="16" t="s">
@@ -2887,7 +2902,7 @@
       <c r="X15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="28" t="s">
+      <c r="Y15" s="27" t="s">
         <v>138</v>
       </c>
       <c r="Z15" s="20" t="s">
@@ -2914,28 +2929,28 @@
       <c r="AG15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ15" s="40" t="s">
+      <c r="AH15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AK15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM15" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO15" s="41" t="s">
+      <c r="AK15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO15" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3010,7 +3025,7 @@
       <c r="W16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="25"/>
+      <c r="X16" s="24"/>
       <c r="Y16" s="18" t="s">
         <v>12</v>
       </c>
@@ -3038,28 +3053,28 @@
       <c r="AG16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL16" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM16" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN16" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO16" s="42" t="s">
+      <c r="AH16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO16" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3162,24 +3177,24 @@
       <c r="AG17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO17" s="42" t="s">
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO17" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3239,7 +3254,7 @@
       <c r="R18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="27"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="16" t="s">
         <v>12</v>
       </c>
@@ -3276,24 +3291,24 @@
       </c>
       <c r="AF18" s="22"/>
       <c r="AG18" s="23"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO18" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO18" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3392,24 +3407,28 @@
       <c r="AG19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI19" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO19" s="42" t="s">
+      <c r="AH19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO19" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3514,26 +3533,26 @@
       <c r="AG20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK20" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO20" s="42" t="s">
+      <c r="AH20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO20" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3636,28 +3655,28 @@
       <c r="AG21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI21" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK21" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL21" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM21" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN21" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO21" s="42" t="s">
+      <c r="AH21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO21" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3762,28 +3781,28 @@
       <c r="AG22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL22" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM22" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO22" s="42" t="s">
+      <c r="AH22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM22" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO22" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3858,7 +3877,7 @@
       <c r="W23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="25"/>
+      <c r="X23" s="24"/>
       <c r="Y23" s="18" t="s">
         <v>12</v>
       </c>
@@ -3880,20 +3899,20 @@
       </c>
       <c r="AF23" s="22"/>
       <c r="AG23" s="23"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="42" t="s">
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3914,7 +3933,7 @@
       <c r="E24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="12" t="s">
         <v>12</v>
       </c>
@@ -3936,7 +3955,7 @@
       <c r="M24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="32"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="15" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3971,7 @@
       <c r="S24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="26"/>
+      <c r="T24" s="25"/>
       <c r="U24" s="17" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3981,7 @@
       <c r="W24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="25"/>
+      <c r="X24" s="24"/>
       <c r="Y24" s="18" t="s">
         <v>12</v>
       </c>
@@ -3988,22 +4007,22 @@
       <c r="AG24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK24" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO24" s="42" t="s">
+      <c r="AH24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO24" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4108,26 +4127,26 @@
       <c r="AG25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK25" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO25" s="42" t="s">
+      <c r="AH25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK25" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO25" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4232,28 +4251,28 @@
       <c r="AG26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL26" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM26" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN26" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO26" s="42" t="s">
+      <c r="AH26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM26" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4271,7 +4290,7 @@
       <c r="D27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -4295,7 +4314,7 @@
       <c r="L27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="29" t="s">
         <v>138</v>
       </c>
       <c r="N27" s="14" t="s">
@@ -4313,7 +4332,7 @@
       <c r="R27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="31" t="s">
+      <c r="S27" s="30" t="s">
         <v>138</v>
       </c>
       <c r="T27" s="16" t="s">
@@ -4331,7 +4350,7 @@
       <c r="X27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" s="28" t="s">
+      <c r="Y27" s="27" t="s">
         <v>138</v>
       </c>
       <c r="Z27" s="20" t="s">
@@ -4358,26 +4377,26 @@
       <c r="AG27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH27" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ27" s="40" t="s">
+      <c r="AH27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AK27" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL27" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO27" s="41" t="s">
+      <c r="AK27" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4452,7 +4471,7 @@
       <c r="W28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X28" s="25"/>
+      <c r="X28" s="24"/>
       <c r="Y28" s="18" t="s">
         <v>12</v>
       </c>
@@ -4478,26 +4497,26 @@
       <c r="AG28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH28" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI28" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ28" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK28" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN28" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO28" s="42" t="s">
+      <c r="AH28" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ28" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK28" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN28" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4515,7 +4534,7 @@
       <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -4539,7 +4558,7 @@
       <c r="L29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="29" t="s">
         <v>138</v>
       </c>
       <c r="N29" s="14" t="s">
@@ -4557,7 +4576,7 @@
       <c r="R29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="S29" s="30" t="s">
         <v>138</v>
       </c>
       <c r="T29" s="16" t="s">
@@ -4575,7 +4594,7 @@
       <c r="X29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y29" s="28" t="s">
+      <c r="Y29" s="27" t="s">
         <v>138</v>
       </c>
       <c r="Z29" s="20" t="s">
@@ -4602,28 +4621,28 @@
       <c r="AG29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH29" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="40" t="s">
+      <c r="AH29" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ29" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AK29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM29" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO29" s="41" t="s">
+      <c r="AK29" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL29" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM29" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4653,12 +4672,12 @@
       <c r="H30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="34"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15" t="s">
         <v>12</v>
       </c>
@@ -4668,18 +4687,18 @@
       <c r="O30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
       <c r="T30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="27"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="28"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="27"/>
       <c r="Z30" s="22"/>
       <c r="AA30" s="23"/>
       <c r="AB30" s="20" t="s">
@@ -4692,14 +4711,14 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="22"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="42" t="s">
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="40"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4735,7 +4754,7 @@
       <c r="J31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="14" t="s">
         <v>12</v>
       </c>
@@ -4766,11 +4785,11 @@
       <c r="U31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="26"/>
+      <c r="V31" s="25"/>
       <c r="W31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="X31" s="25"/>
+      <c r="X31" s="24"/>
       <c r="Y31" s="18" t="s">
         <v>12</v>
       </c>
@@ -4794,24 +4813,24 @@
       <c r="AG31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH31" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK31" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN31" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO31" s="42" t="s">
+      <c r="AH31" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN31" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO31" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4916,28 +4935,28 @@
       <c r="AG32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI32" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK32" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM32" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN32" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO32" s="42" t="s">
+      <c r="AH32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM32" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4997,7 +5016,7 @@
       <c r="R33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="27"/>
+      <c r="S33" s="26"/>
       <c r="T33" s="16" t="s">
         <v>12</v>
       </c>
@@ -5040,20 +5059,20 @@
       <c r="AG33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ33" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO33" s="41"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ33" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="40"/>
+      <c r="AN33" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="40"/>
     </row>
     <row r="34" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -5156,28 +5175,28 @@
       <c r="AG34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM34" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN34" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO34" s="42" t="s">
+      <c r="AH34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL34" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM34" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO34" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5282,26 +5301,26 @@
       <c r="AG35" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH35" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ35" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL35" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO35" s="42" t="s">
+      <c r="AH35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK35" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO35" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5406,28 +5425,28 @@
       <c r="AG36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH36" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI36" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ36" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK36" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL36" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM36" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN36" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO36" s="42" t="s">
+      <c r="AH36" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI36" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ36" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK36" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL36" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM36" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN36" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO36" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5532,26 +5551,26 @@
       <c r="AG37" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AH37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL37" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO37" s="42" t="s">
+      <c r="AH37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI37" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK37" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL37" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO37" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5569,7 +5588,7 @@
       <c r="D38" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="28" t="s">
         <v>138</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -5593,7 +5612,7 @@
       <c r="L38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="29" t="s">
         <v>138</v>
       </c>
       <c r="N38" s="14" t="s">
@@ -5611,21 +5630,21 @@
       <c r="R38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S38" s="31" t="s">
+      <c r="S38" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="T38" s="26"/>
+      <c r="T38" s="25"/>
       <c r="U38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="26"/>
+      <c r="V38" s="25"/>
       <c r="W38" s="18" t="s">
         <v>12</v>
       </c>
       <c r="X38" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y38" s="28" t="s">
+      <c r="Y38" s="27" t="s">
         <v>138</v>
       </c>
       <c r="Z38" s="20" t="s">
@@ -5650,51 +5669,51 @@
         <v>12</v>
       </c>
       <c r="AG38" s="23"/>
-      <c r="AH38" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI38" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ38" s="40" t="s">
+      <c r="AH38" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI38" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ38" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AK38" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="41"/>
-      <c r="AN38" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO38" s="41" t="s">
+      <c r="AK38" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO38" s="40" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AO38)</f>
-        <v>1230</v>
-      </c>
-      <c r="B40" s="59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="66" t="s">
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="44">
         <f>COUNTA(C3:AO3)</f>
         <v>39</v>
       </c>
@@ -5704,39 +5723,39 @@
         <f>P40 * 35</f>
         <v>1365</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="D41" s="50" t="s">
+      <c r="B41" s="59"/>
+      <c r="D41" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="50" t="s">
+      <c r="J41" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="50" t="s">
+      <c r="K41" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="67"/>
-      <c r="P41" s="45">
+      <c r="N41" s="66"/>
+      <c r="P41" s="44">
         <f>P40-6</f>
         <v>33</v>
       </c>
@@ -5744,11 +5763,11 @@
     <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>90.109890109890117</v>
+        <v>90.91575091575092</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>90.1</v>
+        <v>90.9</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5787,596 +5806,596 @@
     </row>
     <row r="43" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="46" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="46">
+      <c r="I44" s="45">
         <f>COUNTA(C4:AO4)</f>
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="46">
+      <c r="I45" s="45">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AO5)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="46" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="46">
+      <c r="I46" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="46" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="46">
+      <c r="I47" s="45">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="46">
+      <c r="I48" s="45">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="46">
+      <c r="I49" s="45">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="46">
+      <c r="I50" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="46">
+      <c r="I51" s="45">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="46">
+      <c r="I52" s="45">
         <f>COUNTA(C12:AO12)</f>
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="46">
+      <c r="I53" s="45">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="46" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="46">
+      <c r="I54" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="46" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="46">
+      <c r="I55" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="46" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="46">
+      <c r="I56" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="46" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="46">
+      <c r="I57" s="45">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="46">
+      <c r="I58" s="45">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="46" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="46">
+      <c r="I59" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="47" t="s">
+      <c r="D60" s="46" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="46">
+      <c r="I60" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="46" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="46">
+      <c r="I61" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="47" t="s">
+      <c r="D62" s="46" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="46">
+      <c r="I62" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="46" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="46">
+      <c r="I63" s="45">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="46">
+      <c r="I64" s="45">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="46" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="46">
+      <c r="I65" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="47" t="s">
+      <c r="D66" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="46">
+      <c r="I66" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="46" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="46">
+      <c r="I67" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="47" t="s">
+      <c r="D68" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="46">
+      <c r="I68" s="45">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="46" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="46">
+      <c r="I69" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="46" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="46">
+      <c r="I70" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="47" t="s">
+      <c r="D71" s="46" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="46">
+      <c r="I71" s="45">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="47" t="s">
+      <c r="D72" s="46" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="46">
+      <c r="I72" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="47" t="s">
+      <c r="D73" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="46">
+      <c r="I73" s="45">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="46" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="46">
+      <c r="I74" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="46" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="46">
+      <c r="I75" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="47" t="s">
+      <c r="D76" s="46" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="46">
+      <c r="I76" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="46" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="46">
+      <c r="I77" s="45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="46" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="46" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="46">
+      <c r="I78" s="45">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3BEDA-0B58-4972-A897-6457F276E13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D09A5A-77B9-4720-993E-208A668C48E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="141">
   <si>
     <t>No.</t>
   </si>
@@ -1192,10 +1192,10 @@
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
+      <selection pane="bottomRight" activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,9 +2240,15 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="23"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="36"/>
+      <c r="AI9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="38" t="s">
+        <v>12</v>
+      </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="40"/>
       <c r="AN9" s="43" t="s">
@@ -3911,7 +3917,9 @@
       <c r="AM23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AN23" s="42"/>
+      <c r="AN23" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="AO23" s="41" t="s">
         <v>12</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4142,7 +4150,9 @@
       <c r="AL25" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AM25" s="40"/>
+      <c r="AM25" s="41" t="s">
+        <v>12</v>
+      </c>
       <c r="AN25" s="43" t="s">
         <v>12</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4509,7 +4519,9 @@
       <c r="AK28" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AL28" s="35"/>
+      <c r="AL28" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AM28" s="41" t="s">
         <v>12</v>
       </c>
@@ -5693,7 +5705,7 @@
     <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AO38)</f>
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B40" s="58" t="s">
         <v>58</v>
@@ -5763,11 +5775,11 @@
     <row r="42" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>90.91575091575092</v>
+        <v>91.355311355311358</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>90.9</v>
+        <v>91.3</v>
       </c>
       <c r="D42" s="4">
         <v>7</v>
@@ -5904,7 +5916,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="45">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6142,7 +6154,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="45">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6176,7 +6188,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="45">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6227,7 +6239,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FE453C-B62E-49F4-911B-ED652C8953E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E3F078-FA12-4030-8FF4-559570F7AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -1138,10 +1138,10 @@
   <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16:AQ16"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,7 +2233,7 @@
       <c r="AP9" s="14"/>
       <c r="AQ9" s="10"/>
     </row>
-    <row r="10" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2359,7 +2359,9 @@
         <v>12</v>
       </c>
       <c r="AP10" s="14"/>
-      <c r="AQ10" s="10"/>
+      <c r="AQ10" s="45" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -2691,7 +2693,7 @@
       <c r="AP13" s="14"/>
       <c r="AQ13" s="10"/>
     </row>
-    <row r="14" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2816,8 +2818,12 @@
       <c r="AO14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="10"/>
+      <c r="AP14" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ14" s="45" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -3814,7 +3820,9 @@
       <c r="AO22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AP22" s="14"/>
+      <c r="AP22" s="44" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ22" s="10"/>
     </row>
     <row r="23" spans="1:43" ht="18" x14ac:dyDescent="0.3">
@@ -4171,7 +4179,7 @@
       <c r="AP25" s="14"/>
       <c r="AQ25" s="10"/>
     </row>
-    <row r="26" spans="1:43" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4299,7 +4307,9 @@
       <c r="AP26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="10"/>
+      <c r="AQ26" s="45" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:43" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -5758,7 +5768,7 @@
     <row r="40" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AQ38)</f>
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="B40" s="51" t="s">
         <v>58</v>
@@ -5828,11 +5838,11 @@
     <row r="42" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>87.595818815331015</v>
+        <v>87.944250871080143</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>87.5</v>
+        <v>87.9</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -5986,7 +5996,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6054,7 +6064,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6190,7 +6200,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6258,7 +6268,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DF6AA-FBD7-493A-9A67-BD5613BFCA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5BCD0-C085-477E-834A-8857874832A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -466,13 +466,16 @@
   </si>
   <si>
     <t>BING5</t>
+  </si>
+  <si>
+    <t>PKK4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +534,20 @@
       <sz val="14"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -651,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,11 +792,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,13 +1147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS78"/>
+  <dimension ref="A1:AT78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32:AS32"/>
+      <selection pane="bottomRight" activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,76 +1184,77 @@
     <col min="44" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="55" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="54" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-    </row>
-    <row r="2" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+    </row>
+    <row r="2" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1362,10 +1384,13 @@
       <c r="AS2" s="41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="AT2" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1495,8 +1520,11 @@
       <c r="AS3" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT3" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1627,8 +1655,11 @@
         <v>12</v>
       </c>
       <c r="AS4" s="7"/>
-    </row>
-    <row r="5" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT4" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1759,8 +1790,9 @@
         <v>12</v>
       </c>
       <c r="AS5" s="7"/>
-    </row>
-    <row r="6" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT5" s="11"/>
+    </row>
+    <row r="6" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1885,14 +1917,19 @@
       <c r="AO6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP6" s="11"/>
+      <c r="AP6" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AS6" s="7"/>
-    </row>
-    <row r="7" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT6" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2013,8 +2050,9 @@
       <c r="AQ7" s="7"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="7"/>
-    </row>
-    <row r="8" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT7" s="11"/>
+    </row>
+    <row r="8" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2141,10 +2179,15 @@
       </c>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="7"/>
-      <c r="AR8" s="11"/>
+      <c r="AR8" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS8" s="7"/>
-    </row>
-    <row r="9" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT8" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2255,8 +2298,9 @@
       <c r="AQ9" s="7"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="7"/>
-    </row>
-    <row r="10" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT9" s="11"/>
+    </row>
+    <row r="10" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2389,8 +2433,11 @@
         <v>12</v>
       </c>
       <c r="AS10" s="7"/>
-    </row>
-    <row r="11" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT10" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2483,8 +2530,9 @@
       <c r="AQ11" s="7"/>
       <c r="AR11" s="11"/>
       <c r="AS11" s="7"/>
-    </row>
-    <row r="12" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT11" s="11"/>
+    </row>
+    <row r="12" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2619,8 +2667,11 @@
         <v>12</v>
       </c>
       <c r="AS12" s="7"/>
-    </row>
-    <row r="13" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT12" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2729,10 +2780,13 @@
       </c>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="7"/>
-      <c r="AR13" s="11"/>
+      <c r="AR13" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS13" s="7"/>
-    </row>
-    <row r="14" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT13" s="11"/>
+    </row>
+    <row r="14" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2866,9 +2920,14 @@
       <c r="AR14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="7"/>
-    </row>
-    <row r="15" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AS14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT14" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3001,8 +3060,11 @@
         <v>138</v>
       </c>
       <c r="AS15" s="7"/>
-    </row>
-    <row r="16" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT15" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3133,8 +3195,9 @@
         <v>12</v>
       </c>
       <c r="AS16" s="7"/>
-    </row>
-    <row r="17" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT16" s="11"/>
+    </row>
+    <row r="17" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3259,8 +3322,9 @@
         <v>12</v>
       </c>
       <c r="AS17" s="7"/>
-    </row>
-    <row r="18" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT17" s="11"/>
+    </row>
+    <row r="18" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3373,8 +3437,9 @@
       <c r="AQ18" s="7"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="7"/>
-    </row>
-    <row r="19" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT18" s="11"/>
+    </row>
+    <row r="19" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3499,10 +3564,17 @@
       </c>
       <c r="AP19" s="11"/>
       <c r="AQ19" s="7"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="7"/>
-    </row>
-    <row r="20" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AR19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT19" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3629,10 +3701,13 @@
       </c>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="11"/>
+      <c r="AR20" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS20" s="7"/>
-    </row>
-    <row r="21" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT20" s="11"/>
+    </row>
+    <row r="21" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3758,15 +3833,20 @@
       <c r="AP21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ21" s="7"/>
+      <c r="AQ21" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR21" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AS21" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT21" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3895,10 +3975,15 @@
         <v>12</v>
       </c>
       <c r="AQ22" s="7"/>
-      <c r="AR22" s="11"/>
+      <c r="AR22" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS22" s="7"/>
-    </row>
-    <row r="23" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT22" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4013,8 +4098,9 @@
       <c r="AQ23" s="7"/>
       <c r="AR23" s="11"/>
       <c r="AS23" s="7"/>
-    </row>
-    <row r="24" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT23" s="11"/>
+    </row>
+    <row r="24" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4127,8 +4213,9 @@
       <c r="AQ24" s="7"/>
       <c r="AR24" s="11"/>
       <c r="AS24" s="7"/>
-    </row>
-    <row r="25" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT24" s="11"/>
+    </row>
+    <row r="25" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4259,8 +4346,11 @@
         <v>12</v>
       </c>
       <c r="AS25" s="7"/>
-    </row>
-    <row r="26" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT25" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4395,8 +4485,11 @@
         <v>12</v>
       </c>
       <c r="AS26" s="7"/>
-    </row>
-    <row r="27" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT26" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4527,14 +4620,17 @@
         <v>138</v>
       </c>
       <c r="AS27" s="7"/>
-    </row>
-    <row r="28" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT27" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="str">
         <f>IF(I68 &lt;= P41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan,</v>
+        <v>Nouridza Juniansah Ridhan</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>12</v>
@@ -4651,10 +4747,15 @@
       </c>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="7"/>
-      <c r="AR28" s="11"/>
+      <c r="AR28" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS28" s="7"/>
-    </row>
-    <row r="29" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT28" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4787,8 +4888,9 @@
         <v>138</v>
       </c>
       <c r="AS29" s="7"/>
-    </row>
-    <row r="30" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT29" s="11"/>
+    </row>
+    <row r="30" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4868,9 +4970,12 @@
       <c r="AR30" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS30" s="7"/>
-    </row>
-    <row r="31" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AS30" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT30" s="11"/>
+    </row>
+    <row r="31" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4990,11 +5095,16 @@
       <c r="AP31" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="11"/>
+      <c r="AQ31" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR31" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS31" s="7"/>
-    </row>
-    <row r="32" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT31" s="11"/>
+    </row>
+    <row r="32" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5128,9 +5238,14 @@
       <c r="AR32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS32" s="7"/>
-    </row>
-    <row r="33" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AS32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5247,8 +5362,9 @@
       <c r="AQ33" s="7"/>
       <c r="AR33" s="11"/>
       <c r="AS33" s="7"/>
-    </row>
-    <row r="34" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT33" s="11"/>
+    </row>
+    <row r="34" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5373,14 +5489,21 @@
       <c r="AO34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="7"/>
+      <c r="AP34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ34" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR34" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AS34" s="7"/>
-    </row>
-    <row r="35" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT34" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5513,8 +5636,11 @@
         <v>12</v>
       </c>
       <c r="AS35" s="7"/>
-    </row>
-    <row r="36" spans="1:45" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AT35" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -5651,8 +5777,11 @@
       <c r="AS36" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT36" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5781,8 +5910,9 @@
         <v>12</v>
       </c>
       <c r="AS37" s="7"/>
-    </row>
-    <row r="38" spans="1:45" ht="18" x14ac:dyDescent="0.3">
+      <c r="AT37" s="11"/>
+    </row>
+    <row r="38" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5900,46 +6030,49 @@
         <v>138</v>
       </c>
       <c r="AP38" s="11"/>
-      <c r="AQ38" s="7"/>
+      <c r="AQ38" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR38" s="11" t="s">
         <v>138</v>
       </c>
       <c r="AS38" s="7"/>
-    </row>
-    <row r="40" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT38" s="11"/>
+    </row>
+    <row r="40" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AS38)</f>
-        <v>1295</v>
-      </c>
-      <c r="B40" s="50" t="s">
+        <f>COUNTA(C4:AT38)</f>
+        <v>1330</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="56" t="s">
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="2">
-        <f>COUNTA(C3:AS3)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="44">
+        <f>COUNTA(C3:AT3)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>P40 * 35</f>
-        <v>1505</v>
-      </c>
-      <c r="B41" s="51"/>
+        <v>1540</v>
+      </c>
+      <c r="B41" s="53"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -5970,20 +6103,20 @@
       <c r="M41" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="57"/>
-      <c r="P41" s="2">
+      <c r="N41" s="59"/>
+      <c r="P41" s="44">
         <f>P40-6</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>86.04651162790698</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -6013,612 +6146,612 @@
         <v>5</v>
       </c>
       <c r="M42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="4">
         <f>SUM(D42:M42)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="46" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="44">
-        <f>COUNTA(C4:AS4)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="43" t="s">
+      <c r="I44" s="45">
+        <f>COUNTA(C4:AT4)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="46" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="44">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AS5)</f>
+      <c r="I45" s="45">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AT5)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="43" t="s">
+    <row r="46" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="46" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="44">
+      <c r="I46" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="46" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="44">
+      <c r="I47" s="45">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="43" t="s">
+    <row r="48" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="44">
+      <c r="I48" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="44">
+      <c r="I49" s="45">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="44">
+      <c r="I50" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="44">
+      <c r="I51" s="45">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="44">
+      <c r="I52" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="44">
+      <c r="I53" s="45">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="46" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="44">
+      <c r="I54" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="46" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="44">
+      <c r="I55" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="46" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="44">
+      <c r="I56" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="46" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="44">
+      <c r="I57" s="45">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="44">
+      <c r="I58" s="45">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="46" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="44">
+      <c r="I59" s="45">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="46" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="44">
+      <c r="I60" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="46" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="44">
+      <c r="I61" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="46" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="44">
+      <c r="I62" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="46" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="44">
+      <c r="I63" s="45">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="44">
+      <c r="I64" s="45">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="46" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="44">
+      <c r="I65" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="44">
+      <c r="I66" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="46" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="44">
+      <c r="I67" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="46" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="44">
+      <c r="I68" s="45">
         <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="43" t="s">
-        <v>37</v>
-      </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="46" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="44">
+      <c r="I69" s="45">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="46" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="44">
+      <c r="I70" s="45">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="46" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="44">
+      <c r="I71" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="46" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="44">
+      <c r="I72" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="44">
+      <c r="I73" s="45">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="46" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="44">
+      <c r="I74" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="46" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="44">
+      <c r="I75" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="46" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="44">
+      <c r="I76" s="45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="46" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="44">
+      <c r="I77" s="45">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="46" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="46" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="44">
+      <c r="I78" s="45">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="B40:B41"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5BCD0-C085-477E-834A-8857874832A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE22080E-EC87-40BF-8295-7A0EDAF3A303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -1153,7 +1153,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU6" sqref="AU6"/>
+      <selection pane="bottomRight" activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3705,7 +3705,9 @@
         <v>12</v>
       </c>
       <c r="AS20" s="7"/>
-      <c r="AT20" s="11"/>
+      <c r="AT20" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -6042,7 +6044,7 @@
     <row r="40" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AT38)</f>
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>58</v>
@@ -6112,11 +6114,11 @@
     <row r="42" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>86.36363636363636</v>
+        <v>86.428571428571431</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -6440,7 +6442,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE22080E-EC87-40BF-8295-7A0EDAF3A303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F79259-1371-4B25-B8FF-EF77B37B4F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -1153,7 +1153,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX16" sqref="AX16"/>
+      <selection pane="bottomRight" activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1654,9 @@
       <c r="AR4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="7"/>
+      <c r="AS4" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT4" s="36" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +1792,9 @@
         <v>12</v>
       </c>
       <c r="AS5" s="7"/>
-      <c r="AT5" s="11"/>
+      <c r="AT5" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -3195,7 +3199,9 @@
         <v>12</v>
       </c>
       <c r="AS16" s="7"/>
-      <c r="AT16" s="11"/>
+      <c r="AT16" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -3980,7 +3986,9 @@
       <c r="AR22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS22" s="7"/>
+      <c r="AS22" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4106,9 @@
       </c>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="11"/>
+      <c r="AR23" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS23" s="7"/>
       <c r="AT23" s="11"/>
     </row>
@@ -4885,12 +4895,16 @@
       <c r="AP29" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ29" s="7"/>
+      <c r="AQ29" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR29" s="11" t="s">
         <v>138</v>
       </c>
       <c r="AS29" s="7"/>
-      <c r="AT29" s="11"/>
+      <c r="AT29" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:46" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -6039,12 +6053,14 @@
         <v>138</v>
       </c>
       <c r="AS38" s="7"/>
-      <c r="AT38" s="11"/>
+      <c r="AT38" s="36" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AT38)</f>
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>58</v>
@@ -6114,11 +6130,11 @@
     <row r="42" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>86.428571428571431</v>
+        <v>86.948051948051955</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>86.4</v>
+        <v>86.9</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -6170,7 +6186,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="45">
         <f>COUNTA(C4:AT4)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6187,7 +6203,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="45">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AT5)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
@@ -6374,7 +6390,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="45">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6476,7 +6492,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="45">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6493,7 +6509,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="45">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6595,7 +6611,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6748,7 +6764,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="45">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F79259-1371-4B25-B8FF-EF77B37B4F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB276A6-8941-44FA-AA52-C57C61124C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="147">
   <si>
     <t>No.</t>
   </si>
@@ -1153,7 +1153,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AV21" sqref="AV21"/>
+      <selection pane="bottomRight" activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,7 +2181,9 @@
       <c r="AO8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP8" s="11"/>
+      <c r="AP8" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="36" t="s">
         <v>12</v>
@@ -3441,7 +3443,9 @@
       </c>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="7"/>
-      <c r="AR18" s="11"/>
+      <c r="AR18" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS18" s="7"/>
       <c r="AT18" s="11"/>
     </row>
@@ -4352,7 +4356,9 @@
       <c r="AO25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP25" s="11"/>
+      <c r="AP25" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="36" t="s">
         <v>12</v>
@@ -4626,7 +4632,9 @@
       <c r="AO27" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AP27" s="11"/>
+      <c r="AP27" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ27" s="7"/>
       <c r="AR27" s="11" t="s">
         <v>138</v>
@@ -4729,7 +4737,9 @@
       <c r="AE28" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AF28" s="35"/>
+      <c r="AF28" s="33" t="s">
+        <v>12</v>
+      </c>
       <c r="AG28" s="31" t="s">
         <v>12</v>
       </c>
@@ -6060,7 +6070,7 @@
     <row r="40" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AT38)</f>
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>58</v>
@@ -6130,11 +6140,11 @@
     <row r="42" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>86.948051948051955</v>
+        <v>87.272727272727266</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>86.9</v>
+        <v>87.2</v>
       </c>
       <c r="D42" s="4">
         <v>8</v>
@@ -6254,7 +6264,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6424,7 +6434,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="45">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6543,7 +6553,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6577,7 +6587,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6594,7 +6604,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB276A6-8941-44FA-AA52-C57C61124C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF392A5-B8A4-4BD3-8BC1-D3CD80B16D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -469,13 +469,22 @@
   </si>
   <si>
     <t>PKK4</t>
+  </si>
+  <si>
+    <t>MAT9</t>
+  </si>
+  <si>
+    <t>PJOK1</t>
+  </si>
+  <si>
+    <t>PJOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,20 +544,6 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -606,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -664,11 +659,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,15 +822,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +858,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,15 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,13 +1188,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT78"/>
+  <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA19" sqref="BA19"/>
+      <selection pane="bottomRight" activeCell="AX11" sqref="AX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1212,8 @@
     <col min="20" max="24" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="2" customWidth="1"/>
     <col min="30" max="30" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -1184,77 +1226,81 @@
     <col min="44" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="57" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="56" t="s">
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="55" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="49" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-    </row>
-    <row r="2" spans="1:46" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" s="46"/>
+    </row>
+    <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1384,13 +1430,19 @@
       <c r="AS2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="AU2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1523,13 +1575,19 @@
       <c r="AT3" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV3" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f>IF(I44 &lt;= P41, D44, B44)</f>
+        <f>IF(I44 &lt;= Q41, D44, B44)</f>
         <v>Abu Abdirrahman Zenky</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -1649,8 +1707,12 @@
       <c r="AO4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="7"/>
+      <c r="AP4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR4" s="36" t="s">
         <v>12</v>
       </c>
@@ -1660,13 +1722,15 @@
       <c r="AT4" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="35"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IF(I45 &lt;= P41, D45, B45)</f>
+        <f>IF(I45 &lt;= Q41, D45, B45)</f>
         <v>Alief Faza Rizqi Adi Jaya</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -1786,7 +1850,9 @@
       <c r="AO5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="11"/>
+      <c r="AP5" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="36" t="s">
         <v>12</v>
@@ -1795,13 +1861,15 @@
       <c r="AT5" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="35"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="str">
-        <f>IF(I46 &lt;= P41, D46, B46)</f>
+        <f>IF(I46 &lt;= Q41, D46, B46)</f>
         <v>Alief Mastari</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1932,13 +2000,15 @@
       <c r="AT6" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="35"/>
+    </row>
+    <row r="7" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="str">
-        <f>IF(I47 &lt;= P41, D47, B47)</f>
+        <f>IF(I47 &lt;= Q41, D47, B47)</f>
         <v>Arif Fathurrahman,</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -2055,13 +2125,15 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="11"/>
-    </row>
-    <row r="8" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="35"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="str">
-        <f>IF(I48 &lt;= P41, D48, B48)</f>
+        <f>IF(I48 &lt;= Q41, D48, B48)</f>
         <v>Cindy Anastasya Kurniawan Oey</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -2192,13 +2264,15 @@
       <c r="AT8" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="35"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="str">
-        <f>IF(I49 &lt;= P41, D49, B49)</f>
+        <f>IF(I49 &lt;= Q41, D49, B49)</f>
         <v>Cleolia Jasmine Nasution,</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -2302,16 +2376,20 @@
       </c>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="7"/>
-      <c r="AR9" s="11"/>
+      <c r="AR9" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS9" s="7"/>
       <c r="AT9" s="11"/>
-    </row>
-    <row r="10" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="35"/>
+    </row>
+    <row r="10" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="str">
-        <f>IF(I50 &lt;= P41, D50, B50)</f>
+        <f>IF(I50 &lt;= Q41, D50, B50)</f>
         <v>Dian Fitriani Aulia</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -2431,24 +2509,30 @@
       <c r="AO10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP10" s="11"/>
+      <c r="AP10" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AR10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS10" s="7"/>
+      <c r="AS10" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT10" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="35"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="str">
-        <f>IF(I51 &lt;= P41, D51, B51)</f>
+        <f>IF(I51 &lt;= Q41, D51, B51)</f>
         <v>Dinda Fatchus Sabila Fa'izatur Rahmah,</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -2537,13 +2621,15 @@
       <c r="AR11" s="11"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="11"/>
-    </row>
-    <row r="12" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="35"/>
+    </row>
+    <row r="12" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="str">
-        <f>IF(I52 &lt;= P41, D52, B52)</f>
+        <f>IF(I52 &lt;= Q41, D52, B52)</f>
         <v>Dinda Nur Apriani</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -2672,17 +2758,23 @@
       <c r="AR12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS12" s="7"/>
+      <c r="AS12" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT12" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV12" s="35"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="str">
-        <f>IF(I53 &lt;= P41, D53, B53)</f>
+        <f>IF(I53 &lt;= Q41, D53, B53)</f>
         <v>Farhan Nur Aliani,</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -2791,13 +2883,15 @@
       </c>
       <c r="AS13" s="7"/>
       <c r="AT13" s="11"/>
-    </row>
-    <row r="14" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="35"/>
+    </row>
+    <row r="14" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="str">
-        <f>IF(I54 &lt;= P41, D54, B54)</f>
+        <f>IF(I54 &lt;= Q41, D54, B54)</f>
         <v>Hesal Adrian</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -2932,13 +3026,15 @@
       <c r="AT14" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="35"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f>IF(I55 &lt;= P41, D55, B55)</f>
+        <f>IF(I55 &lt;= Q41, D55, B55)</f>
         <v>Keatryn Kezia P. Sihombing</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -3058,24 +3154,30 @@
       <c r="AO15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AP15" s="11"/>
+      <c r="AP15" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AS15" s="7"/>
+      <c r="AS15" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT15" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="35"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="str">
-        <f>IF(I56 &lt;= P41, D56, B56)</f>
+        <f>IF(I56 &lt;= Q41, D56, B56)</f>
         <v>Mohammad Ilham Saputra</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -3204,13 +3306,15 @@
       <c r="AT16" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="35"/>
+    </row>
+    <row r="17" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="str">
-        <f>IF(I57 &lt;= P41, D57, B57)</f>
+        <f>IF(I57 &lt;= Q41, D57, B57)</f>
         <v>Muhammad Akbar Ariq Jeconia Lesmana,</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -3324,20 +3428,24 @@
       <c r="AO17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP17" s="11"/>
+      <c r="AP17" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ17" s="7"/>
       <c r="AR17" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AS17" s="7"/>
       <c r="AT17" s="11"/>
-    </row>
-    <row r="18" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="35"/>
+    </row>
+    <row r="18" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="str">
-        <f>IF(I58 &lt;= P41, D58, B58)</f>
+        <f>IF(I58 &lt;= Q41, D58, B58)</f>
         <v>Muhammad Asmaul Adam,</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -3446,15 +3554,19 @@
       <c r="AR18" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS18" s="7"/>
+      <c r="AS18" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT18" s="11"/>
-    </row>
-    <row r="19" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="35"/>
+    </row>
+    <row r="19" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="str">
-        <f>IF(I59 &lt;= P41, D59, B59)</f>
+        <f>IF(I59 &lt;= Q41, D59, B59)</f>
         <v>Muhammad Athala Romero</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -3583,13 +3695,15 @@
       <c r="AT19" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="35"/>
+    </row>
+    <row r="20" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="str">
-        <f>IF(I60 &lt;= P41, D60, B60)</f>
+        <f>IF(I60 &lt;= Q41, D60, B60)</f>
         <v>Muhammad Farhan</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -3709,7 +3823,9 @@
       <c r="AO20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP20" s="11"/>
+      <c r="AP20" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="36" t="s">
         <v>12</v>
@@ -3718,13 +3834,15 @@
       <c r="AT20" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="35"/>
+    </row>
+    <row r="21" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f>IF(I61 &lt;= P41, D61, B61)</f>
+        <f>IF(I61 &lt;= Q41, D61, B61)</f>
         <v>Muhammad Ilham Dzaki</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -3857,13 +3975,15 @@
       <c r="AT21" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="35"/>
+    </row>
+    <row r="22" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f>IF(I62 &lt;= P41, D62, B62)</f>
+        <f>IF(I62 &lt;= Q41, D62, B62)</f>
         <v>Muhammad Ridwan</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -3996,13 +4116,15 @@
       <c r="AT22" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="35"/>
+    </row>
+    <row r="23" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f>IF(I63 &lt;= P41, D63, B63)</f>
+        <f>IF(I63 &lt;= Q41, D63, B63)</f>
         <v>Muhammad Saputra,</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -4115,13 +4237,15 @@
       </c>
       <c r="AS23" s="7"/>
       <c r="AT23" s="11"/>
-    </row>
-    <row r="24" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="35"/>
+    </row>
+    <row r="24" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="str">
-        <f>IF(I64 &lt;= P41, D64, B64)</f>
+        <f>IF(I64 &lt;= Q41, D64, B64)</f>
         <v>Muhammad Yusuf,</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -4230,13 +4354,15 @@
       <c r="AR24" s="11"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="11"/>
-    </row>
-    <row r="25" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="35"/>
+    </row>
+    <row r="25" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="str">
-        <f>IF(I65 &lt;= P41, D65, B65)</f>
+        <f>IF(I65 &lt;= Q41, D65, B65)</f>
         <v>Nasywa Mawaddah</v>
       </c>
       <c r="C25" s="31" t="s">
@@ -4359,21 +4485,27 @@
       <c r="AP25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ25" s="7"/>
+      <c r="AQ25" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS25" s="7"/>
+      <c r="AS25" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT25" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="35"/>
+    </row>
+    <row r="26" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="str">
-        <f>IF(I66 &lt;= P41, D66, B66)</f>
+        <f>IF(I66 &lt;= Q41, D66, B66)</f>
         <v>Natasya Indah Salsabila</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -4506,13 +4638,17 @@
       <c r="AT26" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV26" s="35"/>
+    </row>
+    <row r="27" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f>IF(I67 &lt;= P41, D67, B67)</f>
+        <f>IF(I67 &lt;= Q41, D67, B67)</f>
         <v>Nicholas Davin Yang</v>
       </c>
       <c r="C27" s="31" t="s">
@@ -4643,13 +4779,15 @@
       <c r="AT27" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="35"/>
+    </row>
+    <row r="28" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="str">
-        <f>IF(I68 &lt;= P41, D68, B68)</f>
+        <f>IF(I68 &lt;= Q41, D68, B68)</f>
         <v>Nouridza Juniansah Ridhan</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -4767,22 +4905,28 @@
       <c r="AO28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP28" s="11"/>
+      <c r="AP28" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ28" s="7"/>
       <c r="AR28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS28" s="7"/>
+      <c r="AS28" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT28" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="35"/>
+    </row>
+    <row r="29" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f>IF(I69 &lt;= P41, D69, B69)</f>
+        <f>IF(I69 &lt;= Q41, D69, B69)</f>
         <v>O'neil Kerry Laurent</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -4915,13 +5059,15 @@
       <c r="AT29" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="35"/>
+    </row>
+    <row r="30" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f>IF(I70 &lt;= P41, D70, B70)</f>
+        <f>IF(I70 &lt;= Q41, D70, B70)</f>
         <v>Rafli Febryan,</v>
       </c>
       <c r="C30" s="31" t="s">
@@ -5000,13 +5146,15 @@
         <v>12</v>
       </c>
       <c r="AT30" s="11"/>
-    </row>
-    <row r="31" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="35"/>
+    </row>
+    <row r="31" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f>IF(I71 &lt;= P41, D71, B71)</f>
+        <f>IF(I71 &lt;= Q41, D71, B71)</f>
         <v>Raihan Pratama Putra,</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -5129,13 +5277,15 @@
       </c>
       <c r="AS31" s="7"/>
       <c r="AT31" s="11"/>
-    </row>
-    <row r="32" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="35"/>
+    </row>
+    <row r="32" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="str">
-        <f>IF(I72 &lt;= P41, D72, B72)</f>
+        <f>IF(I72 &lt;= Q41, D72, B72)</f>
         <v>Rizky Irswanda Ramadhana</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -5270,13 +5420,15 @@
       <c r="AT32" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="35"/>
+    </row>
+    <row r="33" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="6" t="str">
-        <f>IF(I73 &lt;= P41, D73, B73)</f>
+        <f>IF(I73 &lt;= Q41, D73, B73)</f>
         <v>Salsabila Nur Fairuz,</v>
       </c>
       <c r="C33" s="31" t="s">
@@ -5389,13 +5541,15 @@
       <c r="AR33" s="11"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="11"/>
-    </row>
-    <row r="34" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="35"/>
+    </row>
+    <row r="34" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="str">
-        <f>IF(I74 &lt;= P41, D74, B74)</f>
+        <f>IF(I74 &lt;= Q41, D74, B74)</f>
         <v>Shabrina Cahyani</v>
       </c>
       <c r="C34" s="31" t="s">
@@ -5528,13 +5682,15 @@
       <c r="AT34" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="35"/>
+    </row>
+    <row r="35" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="str">
-        <f>IF(I75 &lt;= P41, D75, B75)</f>
+        <f>IF(I75 &lt;= Q41, D75, B75)</f>
         <v>Silvana Putri Ariani</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -5665,13 +5821,15 @@
       <c r="AT35" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:46" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="35"/>
+    </row>
+    <row r="36" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="6" t="str">
-        <f>IF(I76 &lt;= P41, D76, B76)</f>
+        <f>IF(I76 &lt;= Q41, D76, B76)</f>
         <v>T.S Firdaus</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -5806,14 +5964,16 @@
       <c r="AT36" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="35"/>
+    </row>
+    <row r="37" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="6" t="str">
-        <f>IF(I77 &lt;= P41, D77, B77)</f>
-        <v>Usama Fadlillah</v>
+        <f>IF(I77 &lt;= Q41, D77, B77)</f>
+        <v>Usama Fadlillah,</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>12</v>
@@ -5937,13 +6097,15 @@
       </c>
       <c r="AS37" s="7"/>
       <c r="AT37" s="11"/>
-    </row>
-    <row r="38" spans="1:46" ht="18" x14ac:dyDescent="0.3">
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="35"/>
+    </row>
+    <row r="38" spans="1:48" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="6" t="str">
-        <f>IF(I78 &lt;= P41, D78, B78)</f>
+        <f>IF(I78 &lt;= Q41, D78, B78)</f>
         <v>Yehezkiel Dio Sinolungan,</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -6055,7 +6217,9 @@
       <c r="AO38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AP38" s="11"/>
+      <c r="AP38" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ38" s="37" t="s">
         <v>12</v>
       </c>
@@ -6066,41 +6230,44 @@
       <c r="AT38" s="36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="35"/>
+    </row>
+    <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AT38)</f>
-        <v>1344</v>
-      </c>
-      <c r="B40" s="52" t="s">
+        <f>COUNTA(C4:AV38)</f>
+        <v>1363</v>
+      </c>
+      <c r="B40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="58" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="P40" s="44">
-        <f>COUNTA(C3:AT3)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="2">
+        <f>COUNTA(C3:AV3)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f>P40 * 35</f>
-        <v>1540</v>
-      </c>
-      <c r="B41" s="53"/>
+        <f>Q40 * 35</f>
+        <v>1610</v>
+      </c>
+      <c r="B41" s="59"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6131,23 +6298,26 @@
       <c r="M41" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="59"/>
-      <c r="P41" s="44">
-        <f>P40-6</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="62"/>
+      <c r="Q41" s="2">
+        <f>Q40-6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>87.272727272727266</v>
+        <v>84.658385093167695</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>87.2</v>
+        <v>84.6</v>
       </c>
       <c r="D42" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -6177,620 +6347,624 @@
         <v>4</v>
       </c>
       <c r="N42" s="4">
-        <f>SUM(D42:M42)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <f>SUM(D42:N42)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="45">
-        <f>COUNTA(C4:AT4)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="46" t="s">
+      <c r="I44" s="44">
+        <f>COUNTA(C4:AV4)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="45">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AT5)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="46" t="s">
+      <c r="I45" s="44">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AV5)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="43" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="45">
+      <c r="I46" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="46" t="s">
+    <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="43" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="45">
+      <c r="I47" s="44">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="46" t="s">
+    <row r="48" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="45">
+      <c r="I48" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="43" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="45">
+      <c r="I49" s="44">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="45">
+      <c r="I50" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="43" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="45">
+      <c r="I51" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="45">
+      <c r="I52" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="45">
+      <c r="I53" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="43" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="45">
+      <c r="I54" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="43" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="45">
+      <c r="I55" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="43" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="45">
+      <c r="I56" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="43" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="45">
+      <c r="I57" s="44">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="43" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="45">
+      <c r="I58" s="44">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="45">
+      <c r="I59" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="45">
+      <c r="I60" s="44">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="43" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="45">
+      <c r="I61" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="45">
+      <c r="I62" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="45">
+      <c r="I63" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="43" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="45">
+      <c r="I64" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="43" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="45">
+      <c r="I65" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="45">
+      <c r="I66" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="43" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="45">
+      <c r="I67" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="43" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="45">
+      <c r="I68" s="44">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="43" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="45">
+      <c r="I69" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="43" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="45">
+      <c r="I70" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="45">
+      <c r="I71" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="45">
+      <c r="I72" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="45">
+      <c r="I73" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="46" t="s">
+      <c r="D74" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="45">
+      <c r="I74" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="43" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="45">
+      <c r="I75" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="43" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="45">
+      <c r="I76" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="43" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="45">
+      <c r="I77" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="43" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="45">
+      <c r="I78" s="44">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
+  <mergeCells count="14">
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="N40:N41"/>
     <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF392A5-B8A4-4BD3-8BC1-D3CD80B16D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787E466-CFDF-4ABC-A980-9A597073A368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -828,6 +828,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,31 +876,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1194,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX11" sqref="AX11"/>
+      <selection pane="bottomRight" activeCell="BA22" sqref="BA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,80 +1227,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="56" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="55" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="57" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="46"/>
+      <c r="AV1" s="53"/>
     </row>
     <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1441,8 +1441,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1996,7 +1996,9 @@
       <c r="AR6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS6" s="7"/>
+      <c r="AS6" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT6" s="36" t="s">
         <v>12</v>
       </c>
@@ -2881,7 +2883,9 @@
       <c r="AR13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS13" s="7"/>
+      <c r="AS13" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT13" s="11"/>
       <c r="AU13" s="32"/>
       <c r="AV13" s="35"/>
@@ -5810,7 +5814,9 @@
       <c r="AO35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP35" s="11"/>
+      <c r="AP35" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ35" s="37" t="s">
         <v>12</v>
       </c>
@@ -6236,25 +6242,25 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1363</v>
-      </c>
-      <c r="B40" s="58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="61" t="s">
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6267,7 +6273,7 @@
         <f>Q40 * 35</f>
         <v>1610</v>
       </c>
-      <c r="B41" s="59"/>
+      <c r="B41" s="46"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6307,7 @@
       <c r="N41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="62"/>
+      <c r="O41" s="51"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>40</v>
@@ -6310,11 +6316,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.658385093167695</v>
+        <v>84.844720496894411</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.6</v>
+        <v>84.8</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6403,7 +6409,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
@@ -6522,7 +6528,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="44">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6896,7 +6902,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6952,12 +6958,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="O40:O41"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AP1:AT1"/>
@@ -6966,6 +6966,12 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="O40:O41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787E466-CFDF-4ABC-A980-9A597073A368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271E8F3E-D4B7-4608-89C7-B23101E54D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +543,20 @@
       <sz val="14"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -698,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,33 +836,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,11 +863,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,10 +1206,10 @@
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA22" sqref="BA22"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B44:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,80 +1242,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="62" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="61" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="48" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="59" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="53"/>
+      <c r="AV1" s="44"/>
     </row>
     <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1441,8 +1456,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -6244,26 +6259,26 @@
         <f>COUNTA(C4:AV38)</f>
         <v>1366</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="61">
         <f>COUNTA(C3:AV3)</f>
         <v>46</v>
       </c>
@@ -6273,7 +6288,7 @@
         <f>Q40 * 35</f>
         <v>1610</v>
       </c>
-      <c r="B41" s="46"/>
+      <c r="B41" s="57"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6307,8 +6322,8 @@
       <c r="N41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
-      <c r="Q41" s="2">
+      <c r="O41" s="60"/>
+      <c r="Q41" s="61">
         <f>Q40-6</f>
         <v>40</v>
       </c>
@@ -6362,602 +6377,608 @@
     </row>
     <row r="43" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="63" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="44">
+      <c r="I44" s="62">
         <f>COUNTA(C4:AV4)</f>
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="63" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="44">
+      <c r="I45" s="62">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AV5)</f>
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="63" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="44">
+      <c r="I46" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="63" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="44">
+      <c r="I47" s="62">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="63" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="63" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="44">
+      <c r="I48" s="62">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="63" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="44">
+      <c r="I49" s="62">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="63" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="44">
+      <c r="I50" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="63" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="44">
+      <c r="I51" s="62">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="63" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="44">
+      <c r="I52" s="62">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="63" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="44">
+      <c r="I53" s="62">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="63" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="63" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="44">
+      <c r="I54" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="63" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="44">
+      <c r="I55" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="63" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="44">
+      <c r="I56" s="62">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="44">
+      <c r="I57" s="62">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="63" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="63" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="44">
+      <c r="I58" s="62">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="63" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="44">
+      <c r="I59" s="62">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="63" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="44">
+      <c r="I60" s="62">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="63" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="44">
+      <c r="I61" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="63" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="44">
+      <c r="I62" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="63" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="44">
+      <c r="I63" s="62">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="63" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="44">
+      <c r="I64" s="62">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="63" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="44">
+      <c r="I65" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="63" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="63" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="44">
+      <c r="I66" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="63" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="63" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="44">
+      <c r="I67" s="62">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="63" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="44">
+      <c r="I68" s="62">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="63" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="44">
+      <c r="I69" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="63" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="44">
+      <c r="I70" s="62">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="63" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="44">
+      <c r="I71" s="62">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="63" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="44">
+      <c r="I72" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="63" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="44">
+      <c r="I73" s="62">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="63" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="44">
+      <c r="I74" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="63" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="44">
+      <c r="I75" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="63" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="44">
+      <c r="I76" s="62">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="63" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="44">
+      <c r="I77" s="62">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="63" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="44">
+      <c r="I78" s="62">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="O40:O41"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AP1:AT1"/>
@@ -6966,12 +6987,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="O40:O41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271E8F3E-D4B7-4608-89C7-B23101E54D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23678086-A5E7-4D57-B959-62C952AE344A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -836,6 +836,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,13 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,10 +1206,10 @@
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B44:B78"/>
+      <selection pane="bottomRight" activeCell="AW23" sqref="AW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,80 +1242,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="54" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="53" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="55" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="43" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="44"/>
+      <c r="AV1" s="47"/>
     </row>
     <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1456,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2140,9 @@
       <c r="AP7" s="11"/>
       <c r="AQ7" s="7"/>
       <c r="AR7" s="11"/>
-      <c r="AS7" s="7"/>
+      <c r="AS7" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="32"/>
       <c r="AV7" s="35"/>
@@ -3997,7 +3999,7 @@
       <c r="AU21" s="32"/>
       <c r="AV21" s="35"/>
     </row>
-    <row r="22" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4125,7 +4127,9 @@
       <c r="AP22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ22" s="7"/>
+      <c r="AQ22" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4790,11 +4794,15 @@
       <c r="AP27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="7"/>
+      <c r="AQ27" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AS27" s="7"/>
+      <c r="AS27" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT27" s="36" t="s">
         <v>12</v>
       </c>
@@ -5994,7 +6002,7 @@
       </c>
       <c r="B37" s="6" t="str">
         <f>IF(I77 &lt;= Q41, D77, B77)</f>
-        <v>Usama Fadlillah,</v>
+        <v>Usama Fadlillah</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>12</v>
@@ -6104,20 +6112,28 @@
       <c r="AL37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AM37" s="12"/>
+      <c r="AM37" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="AN37" s="20" t="s">
         <v>12</v>
       </c>
       <c r="AO37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="7"/>
+      <c r="AP37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ37" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR37" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AS37" s="7"/>
-      <c r="AT37" s="11"/>
+      <c r="AT37" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AU37" s="32"/>
       <c r="AV37" s="35"/>
     </row>
@@ -6257,28 +6273,28 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1366</v>
-      </c>
-      <c r="B40" s="56" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B40" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="59" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="61">
+      <c r="Q40" s="43">
         <f>COUNTA(C3:AV3)</f>
         <v>46</v>
       </c>
@@ -6288,7 +6304,7 @@
         <f>Q40 * 35</f>
         <v>1610</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6322,8 +6338,8 @@
       <c r="N41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="60"/>
-      <c r="Q41" s="61">
+      <c r="O41" s="63"/>
+      <c r="Q41" s="43">
         <f>Q40-6</f>
         <v>40</v>
       </c>
@@ -6331,11 +6347,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.844720496894411</v>
+        <v>85.341614906832305</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.8</v>
+        <v>85.3</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6377,596 +6393,596 @@
     </row>
     <row r="43" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="45" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="62">
+      <c r="I44" s="44">
         <f>COUNTA(C4:AV4)</f>
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="45" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="45" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="62">
+      <c r="I45" s="44">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AV5)</f>
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="45" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="62">
+      <c r="I46" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="62">
+      <c r="I47" s="44">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="62">
+      <c r="I48" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="45" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="62">
+      <c r="I49" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="62">
+      <c r="I50" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="62">
+      <c r="I51" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="45" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="62">
+      <c r="I52" s="44">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="45" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="62">
+      <c r="I53" s="44">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="45" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="62">
+      <c r="I54" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="62">
+      <c r="I55" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="45" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="62">
+      <c r="I56" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="45" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="62">
+      <c r="I57" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="62">
+      <c r="I58" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="62">
+      <c r="I59" s="44">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="45" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="62">
+      <c r="I60" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="45" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="62">
+      <c r="I61" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="45" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="62">
+      <c r="I62" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="62">
+      <c r="I63" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="45" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="63" t="s">
+      <c r="D64" s="45" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="62">
+      <c r="I64" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="45" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="62">
+      <c r="I65" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="62">
+      <c r="I66" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="45" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="62">
+      <c r="I67" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="45" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="62">
+      <c r="I68" s="44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="45" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="62">
+      <c r="I69" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="45" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="45" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="62">
+      <c r="I70" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="45" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="62">
+      <c r="I71" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="63" t="s">
+      <c r="D72" s="45" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="62">
+      <c r="I72" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="45" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="62">
+      <c r="I73" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="62">
+      <c r="I74" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="63" t="s">
+      <c r="D75" s="45" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="62">
+      <c r="I75" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="63" t="s">
+      <c r="B76" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="62">
+      <c r="I76" s="44">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="45" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="62">
+      <c r="I77" s="44">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="45" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="62">
+      <c r="I78" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23678086-A5E7-4D57-B959-62C952AE344A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B042B39-AF49-4F6E-961C-7B5DD4980A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -1209,7 +1209,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW23" sqref="AW23"/>
+      <selection pane="bottomRight" activeCell="AP16" sqref="AP16:AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,7 +3319,9 @@
       <c r="AP16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ16" s="7"/>
+      <c r="AQ16" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR16" s="36" t="s">
         <v>12</v>
       </c>
@@ -6273,7 +6275,7 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B40" s="59" t="s">
         <v>58</v>
@@ -6347,11 +6349,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.341614906832305</v>
+        <v>85.403726708074529</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6610,7 +6612,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="44">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B042B39-AF49-4F6E-961C-7B5DD4980A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040CDA5-979C-4E20-8AA0-7499192C836C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -1209,7 +1209,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP16" sqref="AP16:AV16"/>
+      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,7 +1879,7 @@
       <c r="AU5" s="32"/>
       <c r="AV5" s="35"/>
     </row>
-    <row r="6" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2007,7 +2007,9 @@
       <c r="AP6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ6" s="7"/>
+      <c r="AQ6" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR6" s="36" t="s">
         <v>12</v>
       </c>
@@ -6275,7 +6277,7 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B40" s="59" t="s">
         <v>58</v>
@@ -6349,7 +6351,7 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.403726708074529</v>
+        <v>85.465838509316768</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
@@ -6442,7 +6444,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3040CDA5-979C-4E20-8AA0-7499192C836C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20086A-8C05-4B77-9F6F-1E4D461E97DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3924" windowWidth="8556" windowHeight="8436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -843,6 +843,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,31 +891,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,10 +1206,10 @@
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
+      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,80 +1242,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="57" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="56" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="58" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" s="47"/>
+      <c r="AV1" s="54"/>
     </row>
     <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1456,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="AU7" s="32"/>
       <c r="AV7" s="35"/>
     </row>
-    <row r="8" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2277,11 +2277,15 @@
       <c r="AP8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ8" s="7"/>
+      <c r="AQ8" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="7"/>
+      <c r="AS8" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT8" s="36" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4531,7 @@
       <c r="AU25" s="32"/>
       <c r="AV25" s="35"/>
     </row>
-    <row r="26" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4661,7 +4665,9 @@
       <c r="AR26" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS26" s="7"/>
+      <c r="AS26" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT26" s="36" t="s">
         <v>12</v>
       </c>
@@ -5570,7 +5576,9 @@
       <c r="AP33" s="11"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="11"/>
-      <c r="AS33" s="7"/>
+      <c r="AS33" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT33" s="11"/>
       <c r="AU33" s="32"/>
       <c r="AV33" s="35"/>
@@ -5716,7 +5724,7 @@
       <c r="AU34" s="32"/>
       <c r="AV34" s="35"/>
     </row>
-    <row r="35" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5850,7 +5858,9 @@
       <c r="AR35" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS35" s="7"/>
+      <c r="AS35" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT35" s="36" t="s">
         <v>12</v>
       </c>
@@ -6277,25 +6287,25 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1376</v>
-      </c>
-      <c r="B40" s="59" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B40" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="62" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="43">
@@ -6308,7 +6318,7 @@
         <f>Q40 * 35</f>
         <v>1610</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="47"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6342,7 +6352,7 @@
       <c r="N41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="63"/>
+      <c r="O41" s="52"/>
       <c r="Q41" s="43">
         <f>Q40-6</f>
         <v>40</v>
@@ -6351,11 +6361,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.465838509316768</v>
+        <v>85.776397515527947</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>85.4</v>
+        <v>85.7</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6478,7 +6488,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6784,7 +6794,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6903,7 +6913,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="44">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6937,7 +6947,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6993,12 +7003,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="O40:O41"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AP1:AT1"/>
@@ -7007,6 +7011,12 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="O40:O41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20086A-8C05-4B77-9F6F-1E4D461E97DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7880C-C538-4FEA-8D05-B10AA2B5525A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="3924" windowWidth="8556" windowHeight="8436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -1206,10 +1206,10 @@
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38:AV38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5092,7 +5092,9 @@
       <c r="AR29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AS29" s="7"/>
+      <c r="AS29" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT29" s="36" t="s">
         <v>12</v>
       </c>
@@ -6007,7 +6009,9 @@
       <c r="AT36" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU36" s="32"/>
+      <c r="AU36" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV36" s="35"/>
     </row>
     <row r="37" spans="1:48" ht="18" x14ac:dyDescent="0.3">
@@ -6277,7 +6281,9 @@
       <c r="AR38" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AS38" s="7"/>
+      <c r="AS38" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT38" s="36" t="s">
         <v>12</v>
       </c>
@@ -6287,7 +6293,7 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>58</v>
@@ -6361,11 +6367,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.776397515527947</v>
+        <v>85.962732919254663</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6845,7 +6851,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6964,7 +6970,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6998,7 +7004,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="44">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7880C-C538-4FEA-8D05-B10AA2B5525A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD37E95C-82FC-4549-8510-286ACB61A274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1368" windowWidth="8556" windowHeight="8448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="151">
   <si>
     <t>No.</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>PJOK</t>
+  </si>
+  <si>
+    <t>Minggu Ke-9</t>
   </si>
 </sst>
 </file>
@@ -843,27 +846,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,10 +873,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,10 +1209,10 @@
   <dimension ref="A1:AV78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38:AV38"/>
+      <selection pane="bottomRight" activeCell="AP29" sqref="AP29:AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,80 +1245,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="63" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="62" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="60" t="s">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="58" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV1" s="54"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV1" s="47"/>
     </row>
     <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1459,8 @@
       </c>
     </row>
     <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1740,7 +1743,7 @@
       <c r="AU4" s="32"/>
       <c r="AV4" s="35"/>
     </row>
-    <row r="5" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1868,11 +1871,15 @@
       <c r="AP5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ5" s="7"/>
+      <c r="AQ5" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS5" s="7"/>
+      <c r="AS5" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT5" s="36" t="s">
         <v>12</v>
       </c>
@@ -3727,7 +3734,7 @@
       <c r="AU19" s="32"/>
       <c r="AV19" s="35"/>
     </row>
-    <row r="20" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3855,11 +3862,15 @@
       <c r="AP20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AQ20" s="7"/>
+      <c r="AQ20" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AS20" s="7"/>
+      <c r="AS20" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AT20" s="36" t="s">
         <v>12</v>
       </c>
@@ -6293,25 +6304,25 @@
     <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AV38)</f>
-        <v>1384</v>
-      </c>
-      <c r="B40" s="46" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B40" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="62" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="43">
@@ -6324,7 +6335,7 @@
         <f>Q40 * 35</f>
         <v>1610</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="39" t="s">
         <v>7</v>
       </c>
@@ -6358,7 +6369,7 @@
       <c r="N41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="63"/>
       <c r="Q41" s="43">
         <f>Q40-6</f>
         <v>40</v>
@@ -6367,11 +6378,11 @@
     <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>85.962732919254663</v>
+        <v>86.211180124223603</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>85.9</v>
+        <v>86.2</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6443,7 +6454,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="44">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AV5)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
@@ -6698,7 +6709,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7009,6 +7020,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="O40:O41"/>
     <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AP1:AT1"/>
@@ -7017,12 +7034,6 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="O40:O41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD37E95C-82FC-4549-8510-286ACB61A274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874FBCD-C484-43A1-BE6C-B124ECE3D320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="1368" windowWidth="8556" windowHeight="8448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="153">
   <si>
     <t>No.</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>Minggu Ke-9</t>
+  </si>
+  <si>
+    <t>PKN5</t>
+  </si>
+  <si>
+    <t>PAI9</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -676,46 +682,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,7 +795,38 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,32 +835,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,31 +856,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV78"/>
+  <dimension ref="A1:AX78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP29" sqref="AP29:AT29"/>
+      <selection pane="bottomRight" activeCell="BE22" sqref="BE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,223 +1206,231 @@
     <col min="44" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="57" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="56" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="58" t="s">
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="55" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
       <c r="AU1" s="46" t="s">
         <v>150</v>
       </c>
       <c r="AV1" s="47"/>
-    </row>
-    <row r="2" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="40" t="s">
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+    </row>
+    <row r="2" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AH2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="38" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="38" t="s">
+      <c r="AL2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AO2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AP2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AQ2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AR2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AS2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="41" t="s">
+      <c r="AT2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="40" t="s">
+      <c r="AU2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="40" t="s">
+      <c r="AV2" s="44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:48" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="AW2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1599,8 +1569,14 @@
       <c r="AV3" s="30" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX3" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1742,8 +1718,12 @@
       </c>
       <c r="AU4" s="32"/>
       <c r="AV4" s="35"/>
-    </row>
-    <row r="5" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1885,8 +1865,10 @@
       </c>
       <c r="AU5" s="32"/>
       <c r="AV5" s="35"/>
-    </row>
-    <row r="6" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="35"/>
+    </row>
+    <row r="6" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2028,8 +2010,12 @@
       </c>
       <c r="AU6" s="32"/>
       <c r="AV6" s="35"/>
-    </row>
-    <row r="7" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2148,15 +2134,19 @@
       </c>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="11"/>
+      <c r="AR7" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="AS7" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="32"/>
       <c r="AV7" s="35"/>
-    </row>
-    <row r="8" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="35"/>
+    </row>
+    <row r="8" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2298,8 +2288,12 @@
       </c>
       <c r="AU8" s="32"/>
       <c r="AV8" s="35"/>
-    </row>
-    <row r="9" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2415,8 +2409,10 @@
       <c r="AT9" s="11"/>
       <c r="AU9" s="32"/>
       <c r="AV9" s="35"/>
-    </row>
-    <row r="10" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="35"/>
+    </row>
+    <row r="10" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2558,8 +2554,12 @@
       </c>
       <c r="AU10" s="32"/>
       <c r="AV10" s="35"/>
-    </row>
-    <row r="11" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2655,8 +2655,10 @@
       <c r="AT11" s="11"/>
       <c r="AU11" s="32"/>
       <c r="AV11" s="35"/>
-    </row>
-    <row r="12" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="35"/>
+    </row>
+    <row r="12" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2800,8 +2802,14 @@
         <v>12</v>
       </c>
       <c r="AV12" s="35"/>
-    </row>
-    <row r="13" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX12" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2919,8 +2927,10 @@
       <c r="AT13" s="11"/>
       <c r="AU13" s="32"/>
       <c r="AV13" s="35"/>
-    </row>
-    <row r="14" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="35"/>
+    </row>
+    <row r="14" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3062,8 +3072,10 @@
       </c>
       <c r="AU14" s="32"/>
       <c r="AV14" s="35"/>
-    </row>
-    <row r="15" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="35"/>
+    </row>
+    <row r="15" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3205,8 +3217,10 @@
       </c>
       <c r="AU15" s="32"/>
       <c r="AV15" s="35"/>
-    </row>
-    <row r="16" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="35"/>
+    </row>
+    <row r="16" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3344,8 +3358,12 @@
       </c>
       <c r="AU16" s="32"/>
       <c r="AV16" s="35"/>
-    </row>
-    <row r="17" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3475,8 +3493,10 @@
       <c r="AT17" s="11"/>
       <c r="AU17" s="32"/>
       <c r="AV17" s="35"/>
-    </row>
-    <row r="18" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="35"/>
+    </row>
+    <row r="18" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3596,14 +3616,16 @@
       <c r="AT18" s="11"/>
       <c r="AU18" s="32"/>
       <c r="AV18" s="35"/>
-    </row>
-    <row r="19" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="35"/>
+    </row>
+    <row r="19" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="str">
         <f>IF(I59 &lt;= Q41, D59, B59)</f>
-        <v>Muhammad Athala Romero</v>
+        <v>Muhammad Athala Romero,</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>12</v>
@@ -3733,8 +3755,12 @@
       </c>
       <c r="AU19" s="32"/>
       <c r="AV19" s="35"/>
-    </row>
-    <row r="20" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3876,8 +3902,10 @@
       </c>
       <c r="AU20" s="32"/>
       <c r="AV20" s="35"/>
-    </row>
-    <row r="21" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="35"/>
+    </row>
+    <row r="21" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4017,8 +4045,14 @@
       </c>
       <c r="AU21" s="32"/>
       <c r="AV21" s="35"/>
-    </row>
-    <row r="22" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX21" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4160,8 +4194,10 @@
       </c>
       <c r="AU22" s="32"/>
       <c r="AV22" s="35"/>
-    </row>
-    <row r="23" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="35"/>
+    </row>
+    <row r="23" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4281,8 +4317,10 @@
       <c r="AT23" s="11"/>
       <c r="AU23" s="32"/>
       <c r="AV23" s="35"/>
-    </row>
-    <row r="24" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="35"/>
+    </row>
+    <row r="24" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4398,8 +4436,10 @@
       <c r="AT24" s="11"/>
       <c r="AU24" s="32"/>
       <c r="AV24" s="35"/>
-    </row>
-    <row r="25" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="35"/>
+    </row>
+    <row r="25" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4541,8 +4581,12 @@
       </c>
       <c r="AU25" s="32"/>
       <c r="AV25" s="35"/>
-    </row>
-    <row r="26" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4686,8 +4730,14 @@
         <v>12</v>
       </c>
       <c r="AV26" s="35"/>
-    </row>
-    <row r="27" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX26" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4829,14 +4879,16 @@
       </c>
       <c r="AU27" s="32"/>
       <c r="AV27" s="35"/>
-    </row>
-    <row r="28" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="35"/>
+    </row>
+    <row r="28" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="str">
         <f>IF(I68 &lt;= Q41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan</v>
+        <v>Nouridza Juniansah Ridhan,</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>12</v>
@@ -4968,8 +5020,10 @@
       </c>
       <c r="AU28" s="32"/>
       <c r="AV28" s="35"/>
-    </row>
-    <row r="29" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="35"/>
+    </row>
+    <row r="29" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -5111,8 +5165,10 @@
       </c>
       <c r="AU29" s="32"/>
       <c r="AV29" s="35"/>
-    </row>
-    <row r="30" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="35"/>
+    </row>
+    <row r="30" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -5198,8 +5254,10 @@
       <c r="AT30" s="11"/>
       <c r="AU30" s="32"/>
       <c r="AV30" s="35"/>
-    </row>
-    <row r="31" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="35"/>
+    </row>
+    <row r="31" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5329,8 +5387,10 @@
       <c r="AT31" s="11"/>
       <c r="AU31" s="32"/>
       <c r="AV31" s="35"/>
-    </row>
-    <row r="32" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="35"/>
+    </row>
+    <row r="32" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5470,10 +5530,16 @@
       <c r="AT32" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU32" s="32"/>
+      <c r="AU32" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV32" s="35"/>
-    </row>
-    <row r="33" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5595,8 +5661,10 @@
       <c r="AT33" s="11"/>
       <c r="AU33" s="32"/>
       <c r="AV33" s="35"/>
-    </row>
-    <row r="34" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="35"/>
+    </row>
+    <row r="34" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5736,8 +5804,12 @@
       </c>
       <c r="AU34" s="32"/>
       <c r="AV34" s="35"/>
-    </row>
-    <row r="35" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5879,8 +5951,12 @@
       </c>
       <c r="AU35" s="32"/>
       <c r="AV35" s="35"/>
-    </row>
-    <row r="36" spans="1:48" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -6024,8 +6100,14 @@
         <v>12</v>
       </c>
       <c r="AV36" s="35"/>
-    </row>
-    <row r="37" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX36" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -6165,8 +6247,12 @@
       </c>
       <c r="AU37" s="32"/>
       <c r="AV37" s="35"/>
-    </row>
-    <row r="38" spans="1:48" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -6300,89 +6386,91 @@
       </c>
       <c r="AU38" s="32"/>
       <c r="AV38" s="35"/>
-    </row>
-    <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="35"/>
+    </row>
+    <row r="40" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AV38)</f>
-        <v>1388</v>
-      </c>
-      <c r="B40" s="59" t="s">
+        <f>COUNTA(C4:AX38)</f>
+        <v>1409</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="50"/>
-      <c r="O40" s="62" t="s">
+      <c r="O40" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="43">
-        <f>COUNTA(C3:AV3)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="38">
+        <f>COUNTA(C3:AX3)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>Q40 * 35</f>
-        <v>1610</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="D41" s="39" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="D41" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="63"/>
-      <c r="Q41" s="43">
+      <c r="O41" s="54"/>
+      <c r="Q41" s="38">
         <f>Q40-6</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>86.211180124223603</v>
+        <v>83.86904761904762</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>86.2</v>
+        <v>83.8</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6394,10 +6482,10 @@
         <v>3</v>
       </c>
       <c r="G42" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="4">
         <v>4</v>
@@ -6419,614 +6507,614 @@
       </c>
       <c r="O42" s="4">
         <f>SUM(D42:N42)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="40" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="44">
-        <f>COUNTA(C4:AV4)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+      <c r="I44" s="39">
+        <f>COUNTA(C4:AX4)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="44">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AV5)</f>
+      <c r="I45" s="39">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AX5)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="45" t="s">
+    <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="40" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="44">
+      <c r="I46" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="40" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="44">
+      <c r="I47" s="39">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="40" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="44">
+      <c r="I48" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="40" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="44">
+      <c r="I49" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="40" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="44">
+      <c r="I50" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="40" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="44">
+      <c r="I51" s="39">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="40" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="44">
+      <c r="I52" s="39">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="40" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="44">
+      <c r="I53" s="39">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="44">
+      <c r="I54" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="40" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="44">
+      <c r="I55" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="40" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="44">
+      <c r="I56" s="39">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="40" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="44">
+      <c r="I57" s="39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="40" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="44">
+      <c r="I58" s="39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="40" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="44">
+      <c r="I59" s="39">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="40" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="44">
+      <c r="I60" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="40" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="44">
+      <c r="I61" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="40" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="44">
+      <c r="I62" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="40" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="44">
+      <c r="I63" s="39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="40" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="44">
+      <c r="I64" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="40" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="44">
+      <c r="I65" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="40" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="44">
+      <c r="I66" s="39">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="40" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="44">
+      <c r="I67" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="40" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="44">
+      <c r="I68" s="39">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="40" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="44">
+      <c r="I69" s="39">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="40" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="44">
+      <c r="I70" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="40" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="44">
+      <c r="I71" s="39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="40" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="44">
+      <c r="I72" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="45" t="s">
+      <c r="D73" s="40" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="44">
+      <c r="I73" s="39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="40" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="44">
+      <c r="I74" s="39">
         <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="45" t="s">
-        <v>43</v>
-      </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="40" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="44">
+      <c r="I75" s="39">
         <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="45" t="s">
-        <v>44</v>
-      </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="44">
+      <c r="I76" s="39">
         <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="45" t="s">
-        <v>45</v>
-      </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="40" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="44">
+      <c r="I77" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="40" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="44">
+      <c r="I78" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
-    <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D874FBCD-C484-43A1-BE6C-B124ECE3D320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBAA4C-F4F1-4BD1-859C-5B6C9B6EE325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11592" yWindow="3780" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="153">
   <si>
     <t>No.</t>
   </si>
@@ -1174,7 +1174,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE22" sqref="BE22"/>
+      <selection pane="bottomRight" activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1866,7 +1866,9 @@
       <c r="AU5" s="32"/>
       <c r="AV5" s="35"/>
       <c r="AW5" s="32"/>
-      <c r="AX5" s="35"/>
+      <c r="AX5" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -3625,7 +3627,7 @@
       </c>
       <c r="B19" s="6" t="str">
         <f>IF(I59 &lt;= Q41, D59, B59)</f>
-        <v>Muhammad Athala Romero,</v>
+        <v>Muhammad Athala Romero</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>12</v>
@@ -3755,7 +3757,9 @@
       </c>
       <c r="AU19" s="32"/>
       <c r="AV19" s="35"/>
-      <c r="AW19" s="32"/>
+      <c r="AW19" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX19" s="33" t="s">
         <v>12</v>
       </c>
@@ -5255,7 +5259,9 @@
       <c r="AU30" s="32"/>
       <c r="AV30" s="35"/>
       <c r="AW30" s="32"/>
-      <c r="AX30" s="35"/>
+      <c r="AX30" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:50" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -6392,7 +6398,7 @@
     <row r="40" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AX38)</f>
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="B40" s="48" t="s">
         <v>58</v>
@@ -6466,11 +6472,11 @@
     <row r="42" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>83.86904761904762</v>
+        <v>84.047619047619051</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6542,7 +6548,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="39">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AX5)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
@@ -6780,7 +6786,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="39">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6967,7 +6973,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="39">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBAA4C-F4F1-4BD1-859C-5B6C9B6EE325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42562698-273D-4D1A-81AF-9D3793E0DE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11592" yWindow="3780" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>PAI9</t>
+  </si>
+  <si>
+    <t>BING6</t>
   </si>
 </sst>
 </file>
@@ -802,6 +805,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,37 +820,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,10 +838,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,13 +1171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX78"/>
+  <dimension ref="A1:AY78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA9" sqref="BA9"/>
+      <selection pane="bottomRight" activeCell="AP28" sqref="AP28:AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,20 +1209,20 @@
     <col min="44" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
@@ -1230,30 +1233,30 @@
       <c r="M1" s="52"/>
       <c r="N1" s="52"/>
       <c r="O1" s="52"/>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="59" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
       <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
@@ -1261,176 +1264,180 @@
       <c r="AJ1" s="52"/>
       <c r="AK1" s="52"/>
       <c r="AL1" s="52"/>
-      <c r="AM1" s="57" t="s">
+      <c r="AM1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
       <c r="AU1" s="46" t="s">
         <v>150</v>
       </c>
       <c r="AV1" s="47"/>
       <c r="AW1" s="47"/>
       <c r="AX1" s="47"/>
-    </row>
-    <row r="2" spans="1:50" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="44" t="s">
+      <c r="AY1" s="47"/>
+    </row>
+    <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AK2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AP2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="42" t="s">
+      <c r="AQ2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AR2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="42" t="s">
+      <c r="AS2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AT2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AU2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AV2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="44" t="s">
+      <c r="AW2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="44" t="s">
+      <c r="AX2" s="42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="AY2" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1575,8 +1582,11 @@
       <c r="AX3" s="30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY3" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1722,8 +1732,9 @@
       <c r="AX4" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY4" s="32"/>
+    </row>
+    <row r="5" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1869,8 +1880,9 @@
       <c r="AX5" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY5" s="32"/>
+    </row>
+    <row r="6" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2016,8 +2028,11 @@
       <c r="AX6" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY6" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2147,8 +2162,9 @@
       <c r="AV7" s="35"/>
       <c r="AW7" s="32"/>
       <c r="AX7" s="35"/>
-    </row>
-    <row r="8" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY7" s="32"/>
+    </row>
+    <row r="8" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2294,8 +2310,9 @@
       <c r="AX8" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY8" s="32"/>
+    </row>
+    <row r="9" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2413,8 +2430,9 @@
       <c r="AV9" s="35"/>
       <c r="AW9" s="32"/>
       <c r="AX9" s="35"/>
-    </row>
-    <row r="10" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY9" s="32"/>
+    </row>
+    <row r="10" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2560,8 +2578,9 @@
       <c r="AX10" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY10" s="32"/>
+    </row>
+    <row r="11" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2659,8 +2678,9 @@
       <c r="AV11" s="35"/>
       <c r="AW11" s="32"/>
       <c r="AX11" s="35"/>
-    </row>
-    <row r="12" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY11" s="32"/>
+    </row>
+    <row r="12" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2810,8 +2830,9 @@
       <c r="AX12" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY12" s="32"/>
+    </row>
+    <row r="13" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2931,8 +2952,9 @@
       <c r="AV13" s="35"/>
       <c r="AW13" s="32"/>
       <c r="AX13" s="35"/>
-    </row>
-    <row r="14" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY13" s="32"/>
+    </row>
+    <row r="14" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3072,12 +3094,19 @@
       <c r="AT14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU14" s="32"/>
+      <c r="AU14" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV14" s="35"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="35"/>
-    </row>
-    <row r="15" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY14" s="32"/>
+    </row>
+    <row r="15" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3217,18 +3246,27 @@
       <c r="AT15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU15" s="32"/>
+      <c r="AU15" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV15" s="35"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="35"/>
-    </row>
-    <row r="16" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AW15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY15" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="str">
         <f>IF(I56 &lt;= Q41, D56, B56)</f>
-        <v>Mohammad Ilham Saputra</v>
+        <v>Mohammad Ilham Saputra,</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>12</v>
@@ -3364,8 +3402,9 @@
       <c r="AX16" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY16" s="32"/>
+    </row>
+    <row r="17" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3497,8 +3536,9 @@
       <c r="AV17" s="35"/>
       <c r="AW17" s="32"/>
       <c r="AX17" s="35"/>
-    </row>
-    <row r="18" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY17" s="32"/>
+    </row>
+    <row r="18" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3620,8 +3660,9 @@
       <c r="AV18" s="35"/>
       <c r="AW18" s="32"/>
       <c r="AX18" s="35"/>
-    </row>
-    <row r="19" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY18" s="32"/>
+    </row>
+    <row r="19" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3744,8 +3785,12 @@
       <c r="AO19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="7"/>
+      <c r="AP19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ19" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="AR19" s="36" t="s">
         <v>12</v>
       </c>
@@ -3763,8 +3808,11 @@
       <c r="AX19" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY19" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3907,9 +3955,12 @@
       <c r="AU20" s="32"/>
       <c r="AV20" s="35"/>
       <c r="AW20" s="32"/>
-      <c r="AX20" s="35"/>
-    </row>
-    <row r="21" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AX20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY20" s="32"/>
+    </row>
+    <row r="21" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4055,8 +4106,9 @@
       <c r="AX21" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY21" s="32"/>
+    </row>
+    <row r="22" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4196,12 +4248,17 @@
       <c r="AT22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU22" s="32"/>
+      <c r="AU22" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV22" s="35"/>
       <c r="AW22" s="32"/>
-      <c r="AX22" s="35"/>
-    </row>
-    <row r="23" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AX22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY22" s="32"/>
+    </row>
+    <row r="23" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4323,8 +4380,9 @@
       <c r="AV23" s="35"/>
       <c r="AW23" s="32"/>
       <c r="AX23" s="35"/>
-    </row>
-    <row r="24" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY23" s="32"/>
+    </row>
+    <row r="24" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4442,8 +4500,9 @@
       <c r="AV24" s="35"/>
       <c r="AW24" s="32"/>
       <c r="AX24" s="35"/>
-    </row>
-    <row r="25" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY24" s="32"/>
+    </row>
+    <row r="25" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4589,8 +4648,9 @@
       <c r="AX25" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY25" s="32"/>
+    </row>
+    <row r="26" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4740,8 +4800,11 @@
       <c r="AX26" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY26" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4884,9 +4947,12 @@
       <c r="AU27" s="32"/>
       <c r="AV27" s="35"/>
       <c r="AW27" s="32"/>
-      <c r="AX27" s="35"/>
-    </row>
-    <row r="28" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AX27" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY27" s="32"/>
+    </row>
+    <row r="28" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5025,9 +5091,12 @@
       <c r="AU28" s="32"/>
       <c r="AV28" s="35"/>
       <c r="AW28" s="32"/>
-      <c r="AX28" s="35"/>
-    </row>
-    <row r="29" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AX28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY28" s="32"/>
+    </row>
+    <row r="29" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -5170,9 +5239,12 @@
       <c r="AU29" s="32"/>
       <c r="AV29" s="35"/>
       <c r="AW29" s="32"/>
-      <c r="AX29" s="35"/>
-    </row>
-    <row r="30" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AX29" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY29" s="32"/>
+    </row>
+    <row r="30" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -5262,8 +5334,9 @@
       <c r="AX30" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY30" s="32"/>
+    </row>
+    <row r="31" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5395,8 +5468,9 @@
       <c r="AV31" s="35"/>
       <c r="AW31" s="32"/>
       <c r="AX31" s="35"/>
-    </row>
-    <row r="32" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY31" s="32"/>
+    </row>
+    <row r="32" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5544,8 +5618,11 @@
       <c r="AX32" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY32" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5669,8 +5746,9 @@
       <c r="AV33" s="35"/>
       <c r="AW33" s="32"/>
       <c r="AX33" s="35"/>
-    </row>
-    <row r="34" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY33" s="32"/>
+    </row>
+    <row r="34" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5814,8 +5892,9 @@
       <c r="AX34" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY34" s="32"/>
+    </row>
+    <row r="35" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5957,12 +6036,15 @@
       </c>
       <c r="AU35" s="32"/>
       <c r="AV35" s="35"/>
-      <c r="AW35" s="32"/>
+      <c r="AW35" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX35" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY35" s="32"/>
+    </row>
+    <row r="36" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -6112,8 +6194,11 @@
       <c r="AX36" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY36" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -6257,8 +6342,9 @@
       <c r="AX37" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:50" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY37" s="32"/>
+    </row>
+    <row r="38" spans="1:51" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -6393,90 +6479,93 @@
       <c r="AU38" s="32"/>
       <c r="AV38" s="35"/>
       <c r="AW38" s="32"/>
-      <c r="AX38" s="35"/>
-    </row>
-    <row r="40" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AX38" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY38" s="32"/>
+    </row>
+    <row r="40" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AX38)</f>
-        <v>1412</v>
-      </c>
-      <c r="B40" s="48" t="s">
+        <f>COUNTA(C4:AY38)</f>
+        <v>1434</v>
+      </c>
+      <c r="B40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="53" t="s">
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="59" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="38">
-        <f>COUNTA(C3:AX3)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(C3:AY3)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>Q40 * 35</f>
-        <v>1680</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="D41" s="45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="D41" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="45" t="s">
+      <c r="M41" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="45" t="s">
+      <c r="N41" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="54"/>
+      <c r="O41" s="60"/>
       <c r="Q41" s="38">
         <f>Q40-6</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.047619047619051</v>
+        <v>83.615160349854222</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84</v>
+        <v>83.6</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6503,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="4">
         <v>4</v>
@@ -6513,11 +6602,11 @@
       </c>
       <c r="O42" s="4">
         <f>SUM(D42:N42)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="40" t="s">
         <v>11</v>
       </c>
@@ -6530,11 +6619,11 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="39">
-        <f>COUNTA(C4:AX4)</f>
+        <f>COUNTA(C4:AY4)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="40" t="s">
         <v>13</v>
       </c>
@@ -6547,11 +6636,11 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="39">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AX5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AY5)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="40" t="s">
         <v>14</v>
       </c>
@@ -6565,10 +6654,10 @@
       <c r="H46" s="5"/>
       <c r="I46" s="39">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="40" t="s">
         <v>15</v>
       </c>
@@ -6585,7 +6674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="40" t="s">
         <v>16</v>
       </c>
@@ -6701,7 +6790,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6718,7 +6807,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6786,7 +6875,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="39">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6803,7 +6892,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6837,7 +6926,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6905,7 +6994,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="39">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6922,7 +7011,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6939,7 +7028,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="39">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6956,7 +7045,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="39">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7007,7 +7096,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="39">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7058,7 +7147,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="39">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7075,7 +7164,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="39">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7109,12 +7198,13 @@
       <c r="H78" s="5"/>
       <c r="I78" s="39">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -7122,12 +7212,11 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42562698-273D-4D1A-81AF-9D3793E0DE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B79646-1C61-444B-8AEB-FCB797012532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="154">
   <si>
     <t>No.</t>
   </si>
@@ -820,6 +820,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,31 +862,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1177,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP28" sqref="AP28:AY28"/>
+      <selection pane="bottomRight" activeCell="AP29" sqref="AP29:AY29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,83 +1210,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="54" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="53" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="55" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
     </row>
     <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
@@ -1436,8 +1436,8 @@
       </c>
     </row>
     <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1880,7 +1880,9 @@
       <c r="AX5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY5" s="32"/>
+      <c r="AY5" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -5238,7 +5240,9 @@
       </c>
       <c r="AU29" s="32"/>
       <c r="AV29" s="35"/>
-      <c r="AW29" s="32"/>
+      <c r="AW29" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX29" s="35" t="s">
         <v>138</v>
       </c>
@@ -6487,25 +6491,25 @@
     <row r="40" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AY38)</f>
-        <v>1434</v>
-      </c>
-      <c r="B40" s="56" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="52" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="38">
@@ -6518,7 +6522,7 @@
         <f>Q40 * 35</f>
         <v>1715</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="49"/>
       <c r="D41" s="41" t="s">
         <v>7</v>
       </c>
@@ -6552,7 +6556,7 @@
       <c r="N41" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="60"/>
+      <c r="O41" s="53"/>
       <c r="Q41" s="38">
         <f>Q40-6</f>
         <v>43</v>
@@ -6561,11 +6565,11 @@
     <row r="42" spans="1:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>83.615160349854222</v>
+        <v>83.731778425655975</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6637,7 +6641,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="39">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AY5)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
@@ -7045,7 +7049,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="39">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7203,6 +7207,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7212,11 +7221,6 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B79646-1C61-444B-8AEB-FCB797012532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F545A94-B341-4426-B866-065AF7C6E993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -490,13 +490,16 @@
   </si>
   <si>
     <t>BING6</t>
+  </si>
+  <si>
+    <t>PKK5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,20 +558,6 @@
       <sz val="14"/>
       <name val="Wingdings"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -689,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,17 +787,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,7 +802,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,12 +832,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,6 +845,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,273 +1159,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY78"/>
+  <dimension ref="A1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP29" sqref="AP29:AY29"/>
+      <selection pane="bottomRight" activeCell="AP21" sqref="AP21:AZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="2" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="60" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="47" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-    </row>
-    <row r="2" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="42" t="s">
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+    </row>
+    <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="45" t="s">
+      <c r="AM2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="44" t="s">
+      <c r="AP2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="44" t="s">
+      <c r="AQ2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="44" t="s">
+      <c r="AR2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="44" t="s">
+      <c r="AS2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AT2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AU2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="42" t="s">
+      <c r="AV2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="42" t="s">
+      <c r="AW2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="42" t="s">
+      <c r="AX2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="42" t="s">
+      <c r="AY2" s="39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="AZ2" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1585,8 +1580,11 @@
       <c r="AY3" s="30" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ3" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1733,8 +1731,9 @@
         <v>12</v>
       </c>
       <c r="AY4" s="32"/>
-    </row>
-    <row r="5" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ4" s="35"/>
+    </row>
+    <row r="5" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1883,8 +1882,11 @@
       <c r="AY5" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ5" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2033,8 +2035,11 @@
       <c r="AY6" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ6" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2165,8 +2170,9 @@
       <c r="AW7" s="32"/>
       <c r="AX7" s="35"/>
       <c r="AY7" s="32"/>
-    </row>
-    <row r="8" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ7" s="35"/>
+    </row>
+    <row r="8" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2313,8 +2319,11 @@
         <v>12</v>
       </c>
       <c r="AY8" s="32"/>
-    </row>
-    <row r="9" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ8" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2433,8 +2442,9 @@
       <c r="AW9" s="32"/>
       <c r="AX9" s="35"/>
       <c r="AY9" s="32"/>
-    </row>
-    <row r="10" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ9" s="35"/>
+    </row>
+    <row r="10" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2576,13 +2586,20 @@
       </c>
       <c r="AU10" s="32"/>
       <c r="AV10" s="35"/>
-      <c r="AW10" s="32"/>
+      <c r="AW10" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY10" s="32"/>
-    </row>
-    <row r="11" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ10" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2681,8 +2698,9 @@
       <c r="AW11" s="32"/>
       <c r="AX11" s="35"/>
       <c r="AY11" s="32"/>
-    </row>
-    <row r="12" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ11" s="35"/>
+    </row>
+    <row r="12" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2832,9 +2850,14 @@
       <c r="AX12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY12" s="32"/>
-    </row>
-    <row r="13" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ12" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2955,8 +2978,9 @@
       <c r="AW13" s="32"/>
       <c r="AX13" s="35"/>
       <c r="AY13" s="32"/>
-    </row>
-    <row r="14" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ13" s="35"/>
+    </row>
+    <row r="14" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3106,9 +3130,14 @@
       <c r="AX14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY14" s="32"/>
-    </row>
-    <row r="15" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ14" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3261,8 +3290,11 @@
       <c r="AY15" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ15" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3405,8 +3437,9 @@
         <v>12</v>
       </c>
       <c r="AY16" s="32"/>
-    </row>
-    <row r="17" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ16" s="35"/>
+    </row>
+    <row r="17" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3539,8 +3572,9 @@
       <c r="AW17" s="32"/>
       <c r="AX17" s="35"/>
       <c r="AY17" s="32"/>
-    </row>
-    <row r="18" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ17" s="35"/>
+    </row>
+    <row r="18" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3663,8 +3697,9 @@
       <c r="AW18" s="32"/>
       <c r="AX18" s="35"/>
       <c r="AY18" s="32"/>
-    </row>
-    <row r="19" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ18" s="35"/>
+    </row>
+    <row r="19" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3813,8 +3848,11 @@
       <c r="AY19" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ19" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3961,8 +3999,9 @@
         <v>12</v>
       </c>
       <c r="AY20" s="32"/>
-    </row>
-    <row r="21" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ20" s="35"/>
+    </row>
+    <row r="21" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4100,7 +4139,9 @@
       <c r="AT21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU21" s="32"/>
+      <c r="AU21" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV21" s="35"/>
       <c r="AW21" s="31" t="s">
         <v>12</v>
@@ -4108,9 +4149,14 @@
       <c r="AX21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY21" s="32"/>
-    </row>
-    <row r="22" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ21" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4254,13 +4300,18 @@
         <v>12</v>
       </c>
       <c r="AV22" s="35"/>
-      <c r="AW22" s="32"/>
+      <c r="AW22" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX22" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AY22" s="32"/>
-    </row>
-    <row r="23" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ22" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4383,8 +4434,9 @@
       <c r="AW23" s="32"/>
       <c r="AX23" s="35"/>
       <c r="AY23" s="32"/>
-    </row>
-    <row r="24" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ23" s="35"/>
+    </row>
+    <row r="24" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4503,8 +4555,9 @@
       <c r="AW24" s="32"/>
       <c r="AX24" s="35"/>
       <c r="AY24" s="32"/>
-    </row>
-    <row r="25" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ24" s="35"/>
+    </row>
+    <row r="25" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4646,13 +4699,18 @@
       </c>
       <c r="AU25" s="32"/>
       <c r="AV25" s="35"/>
-      <c r="AW25" s="32"/>
+      <c r="AW25" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX25" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AY25" s="32"/>
-    </row>
-    <row r="26" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ25" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4805,8 +4863,11 @@
       <c r="AY26" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ26" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4953,8 +5014,9 @@
         <v>138</v>
       </c>
       <c r="AY27" s="32"/>
-    </row>
-    <row r="28" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ27" s="35"/>
+    </row>
+    <row r="28" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5096,9 +5158,12 @@
       <c r="AX28" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY28" s="32"/>
-    </row>
-    <row r="29" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY28" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ28" s="35"/>
+    </row>
+    <row r="29" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -5246,9 +5311,12 @@
       <c r="AX29" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AY29" s="32"/>
-    </row>
-    <row r="30" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AY29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ29" s="35"/>
+    </row>
+    <row r="30" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -5339,8 +5407,9 @@
         <v>12</v>
       </c>
       <c r="AY30" s="32"/>
-    </row>
-    <row r="31" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ30" s="35"/>
+    </row>
+    <row r="31" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5471,10 +5540,13 @@
       <c r="AU31" s="32"/>
       <c r="AV31" s="35"/>
       <c r="AW31" s="32"/>
-      <c r="AX31" s="35"/>
+      <c r="AX31" s="33" t="s">
+        <v>12</v>
+      </c>
       <c r="AY31" s="32"/>
-    </row>
-    <row r="32" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ31" s="35"/>
+    </row>
+    <row r="32" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5618,15 +5690,20 @@
         <v>12</v>
       </c>
       <c r="AV32" s="35"/>
-      <c r="AW32" s="32"/>
+      <c r="AW32" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX32" s="33" t="s">
         <v>12</v>
       </c>
       <c r="AY32" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ32" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5751,8 +5828,9 @@
       <c r="AW33" s="32"/>
       <c r="AX33" s="35"/>
       <c r="AY33" s="32"/>
-    </row>
-    <row r="34" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ33" s="35"/>
+    </row>
+    <row r="34" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5890,15 +5968,24 @@
       <c r="AT34" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU34" s="32"/>
+      <c r="AU34" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV34" s="35"/>
-      <c r="AW34" s="32"/>
+      <c r="AW34" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX34" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY34" s="32"/>
-    </row>
-    <row r="35" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AY34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ34" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -6047,8 +6134,9 @@
         <v>12</v>
       </c>
       <c r="AY35" s="32"/>
-    </row>
-    <row r="36" spans="1:51" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="AZ35" s="35"/>
+    </row>
+    <row r="36" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -6201,8 +6289,11 @@
       <c r="AY36" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ36" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -6347,8 +6438,11 @@
         <v>12</v>
       </c>
       <c r="AY37" s="32"/>
-    </row>
-    <row r="38" spans="1:51" ht="18" x14ac:dyDescent="0.3">
+      <c r="AZ37" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -6482,94 +6576,99 @@
       </c>
       <c r="AU38" s="32"/>
       <c r="AV38" s="35"/>
-      <c r="AW38" s="32"/>
+      <c r="AW38" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX38" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AY38" s="32"/>
-    </row>
-    <row r="40" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AY38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ38" s="35"/>
+    </row>
+    <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>COUNTA(C4:AY38)</f>
-        <v>1436</v>
-      </c>
-      <c r="B40" s="48" t="s">
+        <f>COUNTA(C4:AZ38)</f>
+        <v>1469</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="38">
-        <f>COUNTA(C3:AY3)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="2">
+        <f>COUNTA(C3:AZ3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>Q40 * 35</f>
-        <v>1715</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="D41" s="41" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="41" t="s">
+      <c r="F41" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="I41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="J41" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="41" t="s">
+      <c r="K41" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="41" t="s">
+      <c r="L41" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="41" t="s">
+      <c r="M41" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="N41" s="41" t="s">
+      <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="53"/>
-      <c r="Q41" s="38">
+      <c r="O41" s="52"/>
+      <c r="Q41" s="2">
         <f>Q40-6</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>83.731778425655975</v>
+        <v>83.942857142857136</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>83.7</v>
+        <v>83.9</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6599,619 +6698,619 @@
         <v>6</v>
       </c>
       <c r="M42" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
       </c>
       <c r="O42" s="4">
         <f>SUM(D42:N42)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:51" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="39">
-        <f>COUNTA(C4:AY4)</f>
+      <c r="I44" s="44">
+        <f>COUNTA(C4:AZ4)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40" t="s">
+    <row r="45" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="43" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="39">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AY5)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+      <c r="I45" s="44">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AZ5)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="43" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="39">
+      <c r="I46" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="43" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="39">
+      <c r="I47" s="44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="40" t="s">
+    <row r="48" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="39">
+      <c r="I48" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="43" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="39">
+      <c r="I49" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="39">
+      <c r="I50" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="43" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="39">
+      <c r="I51" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="39">
+      <c r="I52" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="39">
+      <c r="I53" s="44">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="43" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="39">
+      <c r="I54" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="43" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="39">
+      <c r="I55" s="44">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="43" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="39">
+      <c r="I56" s="44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="43" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="43" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="39">
+      <c r="I57" s="44">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="43" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="39">
+      <c r="I58" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="39">
+      <c r="I59" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="43" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="39">
+      <c r="I60" s="44">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="43" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="39">
+      <c r="I61" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="39">
+      <c r="I62" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="43" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="39">
+      <c r="I63" s="44">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="43" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="39">
+      <c r="I64" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="43" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="39">
+      <c r="I65" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="43" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="39">
+      <c r="I66" s="44">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="43" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="39">
+      <c r="I67" s="44">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="43" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="43" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="39">
+      <c r="I68" s="44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="43" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="39">
+      <c r="I69" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="43" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="39">
+      <c r="I70" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="43" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="39">
+      <c r="I71" s="44">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="43" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="43" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="39">
+      <c r="I72" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="39">
+      <c r="I73" s="44">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="43" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="39">
+      <c r="I74" s="44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="43" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="43" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="39">
+      <c r="I75" s="44">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="43" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="39">
+      <c r="I76" s="44">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="43" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="39">
+      <c r="I77" s="44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="40" t="s">
+      <c r="D78" s="43" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="39">
+      <c r="I78" s="44">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F545A94-B341-4426-B866-065AF7C6E993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C8940-C351-49FA-B01B-C888C1E8E614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7668" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -1161,43 +1161,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP21" sqref="AP21:AZ21"/>
+      <selection pane="bottomRight" activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="2" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
@@ -1726,12 +1723,18 @@
       </c>
       <c r="AU4" s="32"/>
       <c r="AV4" s="35"/>
-      <c r="AW4" s="32"/>
+      <c r="AW4" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="35"/>
+      <c r="AY4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -6590,7 +6593,7 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>58</v>
@@ -6664,11 +6667,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>83.942857142857136</v>
+        <v>84.114285714285714</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>83.9</v>
+        <v>84.1</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6723,7 +6726,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="44">
         <f>COUNTA(C4:AZ4)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C8940-C351-49FA-B01B-C888C1E8E614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBE948-7C75-4ABF-A072-029B258D801B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7668" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -808,6 +808,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,34 +847,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BB3" sqref="BB3"/>
+      <selection pane="bottomRight" activeCell="AW28" sqref="AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,84 +1198,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="57" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="58" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
     </row>
     <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -4001,8 +4001,12 @@
       <c r="AX20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="35"/>
+      <c r="AY20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ20" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -4708,7 +4712,9 @@
       <c r="AX25" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY25" s="32"/>
+      <c r="AY25" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ25" s="33" t="s">
         <v>12</v>
       </c>
@@ -5025,7 +5031,7 @@
       </c>
       <c r="B28" s="6" t="str">
         <f>IF(I68 &lt;= Q41, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan,</v>
+        <v>Nouridza Juniansah Ridhan</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>12</v>
@@ -5157,7 +5163,9 @@
       </c>
       <c r="AU28" s="32"/>
       <c r="AV28" s="35"/>
-      <c r="AW28" s="32"/>
+      <c r="AW28" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX28" s="33" t="s">
         <v>12</v>
       </c>
@@ -6137,7 +6145,9 @@
         <v>12</v>
       </c>
       <c r="AY35" s="32"/>
-      <c r="AZ35" s="35"/>
+      <c r="AZ35" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:52" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -6593,25 +6603,25 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1472</v>
-      </c>
-      <c r="B40" s="47" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6624,7 +6634,7 @@
         <f>Q40 * 35</f>
         <v>1750</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -6658,7 +6668,7 @@
       <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="59"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>44</v>
@@ -6667,11 +6677,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.114285714285714</v>
+        <v>84.4</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.1</v>
+        <v>84.4</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6998,7 +7008,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7083,7 +7093,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7134,7 +7144,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="44">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7253,7 +7263,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7309,11 +7319,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7323,6 +7328,11 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBE948-7C75-4ABF-A072-029B258D801B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4ABEC7-71E8-4C39-861D-3C244C5D40A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7668" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -808,30 +808,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,10 +823,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW28" sqref="AW28"/>
+      <selection pane="bottomRight" activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,84 +1198,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="53" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="54" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
     </row>
     <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -2031,7 +2031,9 @@
       </c>
       <c r="AU6" s="32"/>
       <c r="AV6" s="35"/>
-      <c r="AW6" s="32"/>
+      <c r="AW6" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX6" s="33" t="s">
         <v>12</v>
       </c>
@@ -2321,7 +2323,9 @@
       <c r="AX8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AY8" s="32"/>
+      <c r="AY8" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ8" s="33" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3702,9 @@
       <c r="AU18" s="32"/>
       <c r="AV18" s="35"/>
       <c r="AW18" s="32"/>
-      <c r="AX18" s="35"/>
+      <c r="AX18" s="33" t="s">
+        <v>12</v>
+      </c>
       <c r="AY18" s="32"/>
       <c r="AZ18" s="35"/>
     </row>
@@ -5018,12 +5024,18 @@
       </c>
       <c r="AU27" s="32"/>
       <c r="AV27" s="35"/>
-      <c r="AW27" s="32"/>
+      <c r="AW27" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX27" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="35"/>
+      <c r="AY27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ27" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -6603,25 +6615,25 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1477</v>
-      </c>
-      <c r="B40" s="55" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="58" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6634,7 +6646,7 @@
         <f>Q40 * 35</f>
         <v>1750</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="48"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6680,7 @@
       <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="59"/>
+      <c r="O41" s="52"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>44</v>
@@ -6677,11 +6689,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.4</v>
+        <v>84.742857142857147</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.4</v>
+        <v>84.7</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6770,7 +6782,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
@@ -6804,7 +6816,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="44">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -6974,7 +6986,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="44">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7127,7 +7139,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7319,6 +7331,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7328,11 +7345,6 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4ABEC7-71E8-4C39-861D-3C244C5D40A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A41668-D74F-483D-A856-210F8BE2AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7668" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -808,6 +808,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,34 +847,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BB5" sqref="BB5"/>
+      <selection pane="bottomRight" activeCell="AP37" sqref="AP37:AZ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,84 +1198,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="57" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="58" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
     </row>
     <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -6458,7 +6458,9 @@
       </c>
       <c r="AU37" s="32"/>
       <c r="AV37" s="35"/>
-      <c r="AW37" s="32"/>
+      <c r="AW37" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX37" s="33" t="s">
         <v>12</v>
       </c>
@@ -6615,25 +6617,25 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1483</v>
-      </c>
-      <c r="B40" s="47" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6646,7 +6648,7 @@
         <f>Q40 * 35</f>
         <v>1750</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -6680,7 +6682,7 @@
       <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="59"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>44</v>
@@ -6689,11 +6691,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.742857142857147</v>
+        <v>84.8</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -7309,7 +7311,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="44">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7331,11 +7333,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7345,6 +7342,11 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A41668-D74F-483D-A856-210F8BE2AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95AFC2-186A-48D3-A010-0929AADB2E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -808,30 +808,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,10 +823,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP37" sqref="AP37:AZ37"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20:AZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,84 +1198,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="53" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="54" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
     </row>
     <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -1878,7 +1878,9 @@
       </c>
       <c r="AU5" s="32"/>
       <c r="AV5" s="35"/>
-      <c r="AW5" s="32"/>
+      <c r="AW5" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX5" s="33" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2321,9 @@
       </c>
       <c r="AU8" s="32"/>
       <c r="AV8" s="35"/>
-      <c r="AW8" s="32"/>
+      <c r="AW8" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX8" s="33" t="s">
         <v>12</v>
       </c>
@@ -4003,7 +4007,9 @@
       </c>
       <c r="AU20" s="32"/>
       <c r="AV20" s="35"/>
-      <c r="AW20" s="32"/>
+      <c r="AW20" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AX20" s="33" t="s">
         <v>12</v>
       </c>
@@ -6617,25 +6623,25 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1484</v>
-      </c>
-      <c r="B40" s="55" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="58" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6648,7 +6654,7 @@
         <f>Q40 * 35</f>
         <v>1750</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="48"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -6682,7 +6688,7 @@
       <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="59"/>
+      <c r="O41" s="52"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>44</v>
@@ -6691,11 +6697,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.8</v>
+        <v>84.971428571428575</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -6767,7 +6773,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="44">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:AZ5)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
@@ -6818,7 +6824,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7022,7 +7028,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7333,6 +7339,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7342,11 +7353,6 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95AFC2-186A-48D3-A010-0929AADB2E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7255B633-E140-43E0-AE14-5891A9F7ACAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14076" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="4440" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="155">
   <si>
     <t>No.</t>
   </si>
@@ -808,6 +808,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,34 +847,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP20" sqref="AP20:AZ20"/>
+      <selection pane="bottomRight" activeCell="BB7" sqref="BB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,84 +1198,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="57" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="58" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
     </row>
     <row r="2" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1428,8 @@
       </c>
     </row>
     <row r="3" spans="1:52" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="30" t="s">
         <v>59</v>
       </c>
@@ -4716,7 +4716,9 @@
       <c r="AT25" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AU25" s="32"/>
+      <c r="AU25" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AV25" s="35"/>
       <c r="AW25" s="31" t="s">
         <v>12</v>
@@ -5343,7 +5345,9 @@
       <c r="AY29" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AZ29" s="35"/>
+      <c r="AZ29" s="33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:52" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -6623,25 +6627,25 @@
     <row r="40" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>COUNTA(C4:AZ38)</f>
-        <v>1487</v>
-      </c>
-      <c r="B40" s="47" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58" t="s">
         <v>79</v>
       </c>
       <c r="Q40" s="2">
@@ -6654,7 +6658,7 @@
         <f>Q40 * 35</f>
         <v>1750</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="40" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6692,7 @@
       <c r="N41" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="59"/>
       <c r="Q41" s="2">
         <f>Q40-6</f>
         <v>44</v>
@@ -6697,11 +6701,11 @@
     <row r="42" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f>100 * A40 / A41</f>
-        <v>84.971428571428575</v>
+        <v>85.085714285714289</v>
       </c>
       <c r="B42" s="3">
         <f>TRUNC(A42,1)</f>
-        <v>84.9</v>
+        <v>85</v>
       </c>
       <c r="D42" s="4">
         <v>9</v>
@@ -7113,7 +7117,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="44">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7181,7 +7185,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="44">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7339,11 +7343,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="B40:B41"/>
@@ -7353,6 +7352,11 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C2132D-A5F2-4416-943E-D1DE1ED9D68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF652C25-6061-4917-B537-033E3DD6A370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4056" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="157">
   <si>
     <t>No.</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>MAT10</t>
+  </si>
+  <si>
+    <t>Minggu Ke-10</t>
   </si>
 </sst>
 </file>
@@ -793,31 +796,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,12 +1135,12 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP29" sqref="AP29:BA29"/>
+      <selection pane="bottomRight" activeCell="BA1" sqref="A1:BA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
@@ -1165,15 +1168,15 @@
     <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="47" t="s">
@@ -1183,30 +1186,30 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="44" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
@@ -1217,25 +1220,25 @@
       <c r="AE1" s="47"/>
       <c r="AF1" s="47"/>
       <c r="AG1" s="47"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="45" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
       <c r="AU1" s="47" t="s">
         <v>150</v>
       </c>
@@ -1245,12 +1248,12 @@
       <c r="AY1" s="47"/>
       <c r="AZ1" s="47"/>
       <c r="BA1" s="41" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1406,8 +1409,8 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -3593,7 +3596,9 @@
       <c r="AU17" s="30"/>
       <c r="AV17" s="33"/>
       <c r="AW17" s="30"/>
-      <c r="AX17" s="33"/>
+      <c r="AX17" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AY17" s="30"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="20"/>
@@ -5610,7 +5615,9 @@
       <c r="AT31" s="9"/>
       <c r="AU31" s="30"/>
       <c r="AV31" s="33"/>
-      <c r="AW31" s="30"/>
+      <c r="AW31" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AX31" s="31" t="s">
         <v>12</v>
       </c>
@@ -6675,30 +6682,30 @@
       <c r="BA38" s="20"/>
     </row>
     <row r="40" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="D40" s="50" t="s">
+      <c r="B40" s="44"/>
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -6732,14 +6739,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="51"/>
     </row>
     <row r="42" spans="1:53" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49">
+      <c r="A42" s="45">
         <f>TRUNC(M46,1)</f>
-        <v>84.3</v>
-      </c>
-      <c r="B42" s="49"/>
+        <v>84.4</v>
+      </c>
+      <c r="B42" s="45"/>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -6801,7 +6808,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BA38)</f>
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="45" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6847,7 +6854,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>84.369747899159663</v>
+        <v>84.481792717086833</v>
       </c>
     </row>
     <row r="47" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
@@ -7034,7 +7041,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="38">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7272,7 +7279,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="38">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7396,6 +7403,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
@@ -7406,11 +7418,6 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF652C25-6061-4917-B537-033E3DD6A370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08C603-0EC3-48D3-854A-569636A69DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="159">
   <si>
     <t>No.</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>Minggu Ke-10</t>
+  </si>
+  <si>
+    <t>BINDO5</t>
+  </si>
+  <si>
+    <t>BINDO6</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -665,11 +671,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,6 +809,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA78"/>
+  <dimension ref="A1:BC78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA1" sqref="A1:BA38"/>
+      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,93 +1191,94 @@
     <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.88671875" style="1"/>
+    <col min="51" max="55" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="52" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="47" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="46" t="s">
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="41" t="s">
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="45" t="s">
         <v>156</v>
       </c>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
     </row>
-    <row r="2" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+    <row r="2" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1407,10 +1432,16 @@
       <c r="BA2" s="41" t="s">
         <v>2</v>
       </c>
+      <c r="BB2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="44" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+    <row r="3" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1564,8 +1595,14 @@
       <c r="BA3" s="20" t="s">
         <v>155</v>
       </c>
+      <c r="BB3" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1722,8 +1759,10 @@
         <v>12</v>
       </c>
       <c r="BA4" s="20"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="20"/>
     </row>
-    <row r="5" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1880,8 +1919,10 @@
         <v>12</v>
       </c>
       <c r="BA5" s="20"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="20"/>
     </row>
-    <row r="6" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2038,8 +2079,10 @@
         <v>12</v>
       </c>
       <c r="BA6" s="20"/>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="20"/>
     </row>
-    <row r="7" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2172,8 +2215,10 @@
       <c r="AY7" s="30"/>
       <c r="AZ7" s="33"/>
       <c r="BA7" s="20"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="20"/>
     </row>
-    <row r="8" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2330,8 +2375,10 @@
         <v>12</v>
       </c>
       <c r="BA8" s="20"/>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="20"/>
     </row>
-    <row r="9" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2452,8 +2499,10 @@
       <c r="AY9" s="30"/>
       <c r="AZ9" s="33"/>
       <c r="BA9" s="20"/>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="20"/>
     </row>
-    <row r="10" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2610,8 +2659,10 @@
         <v>12</v>
       </c>
       <c r="BA10" s="20"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="20"/>
     </row>
-    <row r="11" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2712,8 +2763,10 @@
       <c r="AY11" s="30"/>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="20"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="20"/>
     </row>
-    <row r="12" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2870,8 +2923,10 @@
         <v>12</v>
       </c>
       <c r="BA12" s="20"/>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="20"/>
     </row>
-    <row r="13" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2994,8 +3049,10 @@
       <c r="AY13" s="30"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="20"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="20"/>
     </row>
-    <row r="14" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3152,8 +3209,10 @@
         <v>12</v>
       </c>
       <c r="BA14" s="20"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="20"/>
     </row>
-    <row r="15" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3310,14 +3369,16 @@
         <v>12</v>
       </c>
       <c r="BA15" s="20"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="20"/>
     </row>
-    <row r="16" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>IF(I56 &lt;= K45, D56, B56)</f>
-        <v>Mohammad Ilham Saputra</v>
+        <v>Mohammad Ilham Saputra,</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>12</v>
@@ -3464,8 +3525,10 @@
         <v>12</v>
       </c>
       <c r="BA16" s="20"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="20"/>
     </row>
-    <row r="17" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3602,8 +3665,10 @@
       <c r="AY17" s="30"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="20"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="20"/>
     </row>
-    <row r="18" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3730,8 +3795,10 @@
       <c r="AY18" s="30"/>
       <c r="AZ18" s="33"/>
       <c r="BA18" s="20"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="20"/>
     </row>
-    <row r="19" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3886,8 +3953,10 @@
         <v>12</v>
       </c>
       <c r="BA19" s="20"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="20"/>
     </row>
-    <row r="20" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4044,8 +4113,10 @@
         <v>12</v>
       </c>
       <c r="BA20" s="20"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="20"/>
     </row>
-    <row r="21" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4200,8 +4271,10 @@
         <v>12</v>
       </c>
       <c r="BA21" s="20"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="20"/>
     </row>
-    <row r="22" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4356,8 +4429,10 @@
         <v>12</v>
       </c>
       <c r="BA22" s="20"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="20"/>
     </row>
-    <row r="23" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4484,8 +4559,10 @@
       <c r="AY23" s="30"/>
       <c r="AZ23" s="33"/>
       <c r="BA23" s="20"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="20"/>
     </row>
-    <row r="24" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4596,18 +4673,24 @@
       </c>
       <c r="AP24" s="9"/>
       <c r="AQ24" s="5"/>
-      <c r="AR24" s="9"/>
+      <c r="AR24" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="AS24" s="5"/>
       <c r="AT24" s="9"/>
       <c r="AU24" s="30"/>
       <c r="AV24" s="33"/>
       <c r="AW24" s="30"/>
-      <c r="AX24" s="33"/>
+      <c r="AX24" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AY24" s="30"/>
       <c r="AZ24" s="33"/>
       <c r="BA24" s="20"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="20"/>
     </row>
-    <row r="25" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4764,8 +4847,10 @@
         <v>12</v>
       </c>
       <c r="BA25" s="20"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="20"/>
     </row>
-    <row r="26" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4922,8 +5007,12 @@
         <v>12</v>
       </c>
       <c r="BA26" s="20"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5080,14 +5169,16 @@
         <v>12</v>
       </c>
       <c r="BA27" s="20"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="20"/>
     </row>
-    <row r="28" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>IF(I68 &lt;= K45, D68, B68)</f>
-        <v>Nouridza Juniansah Ridhan</v>
+        <v>Nouridza Juniansah Ridhan,</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>12</v>
@@ -5232,8 +5323,10 @@
       </c>
       <c r="AZ28" s="33"/>
       <c r="BA28" s="20"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="20"/>
     </row>
-    <row r="29" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5390,8 +5483,10 @@
       <c r="BA29" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="20"/>
     </row>
-    <row r="30" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5484,8 +5579,10 @@
       <c r="AY30" s="30"/>
       <c r="AZ30" s="33"/>
       <c r="BA30" s="20"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="20"/>
     </row>
-    <row r="31" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5624,8 +5721,10 @@
       <c r="AY31" s="30"/>
       <c r="AZ31" s="33"/>
       <c r="BA31" s="20"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="20"/>
     </row>
-    <row r="32" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5782,8 +5881,10 @@
         <v>12</v>
       </c>
       <c r="BA32" s="20"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="20"/>
     </row>
-    <row r="33" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5898,7 +5999,9 @@
       <c r="AO33" s="10"/>
       <c r="AP33" s="9"/>
       <c r="AQ33" s="5"/>
-      <c r="AR33" s="9"/>
+      <c r="AR33" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="AS33" s="35" t="s">
         <v>12</v>
       </c>
@@ -5906,12 +6009,16 @@
       <c r="AU33" s="30"/>
       <c r="AV33" s="33"/>
       <c r="AW33" s="30"/>
-      <c r="AX33" s="33"/>
+      <c r="AX33" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AY33" s="30"/>
       <c r="AZ33" s="33"/>
       <c r="BA33" s="20"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="20"/>
     </row>
-    <row r="34" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6066,14 +6173,16 @@
         <v>12</v>
       </c>
       <c r="BA34" s="20"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="20"/>
     </row>
-    <row r="35" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>IF(I75 &lt;= K45, D75, B75)</f>
-        <v>Silvana Putri Ariani</v>
+        <v>Silvana Putri Ariani,</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>12</v>
@@ -6220,8 +6329,10 @@
         <v>12</v>
       </c>
       <c r="BA35" s="20"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="20"/>
     </row>
-    <row r="36" spans="1:53" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6380,14 +6491,16 @@
       <c r="BA36" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="20"/>
     </row>
-    <row r="37" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>IF(I77 &lt;= K45, D77, B77)</f>
-        <v>Usama Fadlillah</v>
+        <v>Usama Fadlillah,</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>12</v>
@@ -6532,8 +6645,10 @@
         <v>12</v>
       </c>
       <c r="BA37" s="20"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="20"/>
     </row>
-    <row r="38" spans="1:53" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:55" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6680,32 +6795,34 @@
         <v>12</v>
       </c>
       <c r="BA38" s="20"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="20"/>
     </row>
-    <row r="40" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="47"/>
+      <c r="D40" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
+    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -6739,14 +6856,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="54"/>
     </row>
-    <row r="42" spans="1:53" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+    <row r="42" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
         <f>TRUNC(M46,1)</f>
-        <v>84.4</v>
-      </c>
-      <c r="B42" s="45"/>
+        <v>81.5</v>
+      </c>
+      <c r="B42" s="48"/>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -6766,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K42" s="2">
         <v>2</v>
@@ -6782,11 +6899,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:53" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -6799,19 +6916,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BA4)</f>
+        <f>COUNTA(C4:BC4)</f>
         <v>49</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BA3)</f>
-        <v>51</v>
+        <f>COUNTA(C3:BC3)</f>
+        <v>53</v>
       </c>
       <c r="M44" s="43">
-        <f>COUNTA(C4:BA38)</f>
-        <v>1508</v>
+        <f>COUNTA(C4:BC38)</f>
+        <v>1513</v>
       </c>
     </row>
-    <row r="45" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -6824,19 +6941,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BA5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BC5)</f>
         <v>49</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M45" s="43">
         <f>K44 * 35</f>
-        <v>1785</v>
+        <v>1855</v>
       </c>
     </row>
-    <row r="46" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -6854,10 +6971,10 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>84.481792717086833</v>
+        <v>81.563342318059298</v>
       </c>
     </row>
-    <row r="47" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -6874,7 +6991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:53" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7277,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="38">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7194,7 +7311,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7313,7 +7430,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="38">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7402,12 +7519,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
+  <mergeCells count="16">
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
@@ -7418,6 +7531,11 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08C603-0EC3-48D3-854A-569636A69DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038ACB0-F47C-4284-B49C-373569CA8479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>BINDO6</t>
+  </si>
+  <si>
+    <t>PAI10</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +812,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,13 +1159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC78"/>
+  <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
+      <selection pane="bottomRight" activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,90 +1201,91 @@
     <col min="56" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="49" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="55" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="50" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="49" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="50" t="s">
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="45" t="s">
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
     </row>
-    <row r="2" spans="1:55" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+    <row r="2" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1438,10 +1445,13 @@
       <c r="BC2" s="44" t="s">
         <v>4</v>
       </c>
+      <c r="BD2" s="45" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+    <row r="3" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1601,8 +1611,11 @@
       <c r="BC3" s="20" t="s">
         <v>158</v>
       </c>
+      <c r="BD3" s="20" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1745,7 +1758,9 @@
       <c r="AU4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="33"/>
+      <c r="AV4" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW4" s="29" t="s">
         <v>12</v>
       </c>
@@ -1761,8 +1776,9 @@
       <c r="BA4" s="20"/>
       <c r="BB4" s="26"/>
       <c r="BC4" s="20"/>
+      <c r="BD4" s="26"/>
     </row>
-    <row r="5" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1905,7 +1921,9 @@
       <c r="AU5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV5" s="33"/>
+      <c r="AV5" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW5" s="29" t="s">
         <v>12</v>
       </c>
@@ -1921,8 +1939,11 @@
       <c r="BA5" s="20"/>
       <c r="BB5" s="26"/>
       <c r="BC5" s="20"/>
+      <c r="BD5" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2065,7 +2086,9 @@
       <c r="AU6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="33"/>
+      <c r="AV6" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW6" s="29" t="s">
         <v>12</v>
       </c>
@@ -2081,8 +2104,11 @@
       <c r="BA6" s="20"/>
       <c r="BB6" s="26"/>
       <c r="BC6" s="20"/>
+      <c r="BD6" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2217,8 +2243,9 @@
       <c r="BA7" s="20"/>
       <c r="BB7" s="26"/>
       <c r="BC7" s="20"/>
+      <c r="BD7" s="26"/>
     </row>
-    <row r="8" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2377,8 +2404,11 @@
       <c r="BA8" s="20"/>
       <c r="BB8" s="26"/>
       <c r="BC8" s="20"/>
+      <c r="BD8" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2501,8 +2531,9 @@
       <c r="BA9" s="20"/>
       <c r="BB9" s="26"/>
       <c r="BC9" s="20"/>
+      <c r="BD9" s="26"/>
     </row>
-    <row r="10" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2661,8 +2692,11 @@
       <c r="BA10" s="20"/>
       <c r="BB10" s="26"/>
       <c r="BC10" s="20"/>
+      <c r="BD10" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2765,8 +2799,9 @@
       <c r="BA11" s="20"/>
       <c r="BB11" s="26"/>
       <c r="BC11" s="20"/>
+      <c r="BD11" s="26"/>
     </row>
-    <row r="12" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2909,7 +2944,9 @@
       <c r="AU12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV12" s="33"/>
+      <c r="AV12" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW12" s="29" t="s">
         <v>12</v>
       </c>
@@ -2925,8 +2962,11 @@
       <c r="BA12" s="20"/>
       <c r="BB12" s="26"/>
       <c r="BC12" s="20"/>
+      <c r="BD12" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3051,8 +3091,9 @@
       <c r="BA13" s="20"/>
       <c r="BB13" s="26"/>
       <c r="BC13" s="20"/>
+      <c r="BD13" s="26"/>
     </row>
-    <row r="14" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3211,8 +3252,11 @@
       <c r="BA14" s="20"/>
       <c r="BB14" s="26"/>
       <c r="BC14" s="20"/>
+      <c r="BD14" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3371,8 +3415,11 @@
       <c r="BA15" s="20"/>
       <c r="BB15" s="26"/>
       <c r="BC15" s="20"/>
+      <c r="BD15" s="27" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3511,7 +3558,9 @@
       <c r="AU16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV16" s="33"/>
+      <c r="AV16" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW16" s="29" t="s">
         <v>12</v>
       </c>
@@ -3527,8 +3576,9 @@
       <c r="BA16" s="20"/>
       <c r="BB16" s="26"/>
       <c r="BC16" s="20"/>
+      <c r="BD16" s="26"/>
     </row>
-    <row r="17" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3667,8 +3717,11 @@
       <c r="BA17" s="20"/>
       <c r="BB17" s="26"/>
       <c r="BC17" s="20"/>
+      <c r="BD17" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3797,8 +3850,9 @@
       <c r="BA18" s="20"/>
       <c r="BB18" s="26"/>
       <c r="BC18" s="20"/>
+      <c r="BD18" s="26"/>
     </row>
-    <row r="19" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3939,7 +3993,9 @@
       <c r="AU19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV19" s="33"/>
+      <c r="AV19" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW19" s="29" t="s">
         <v>12</v>
       </c>
@@ -3955,8 +4011,11 @@
       <c r="BA19" s="20"/>
       <c r="BB19" s="26"/>
       <c r="BC19" s="20"/>
+      <c r="BD19" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4115,8 +4174,9 @@
       <c r="BA20" s="20"/>
       <c r="BB20" s="26"/>
       <c r="BC20" s="20"/>
+      <c r="BD20" s="26"/>
     </row>
-    <row r="21" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4257,7 +4317,9 @@
       <c r="AU21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV21" s="33"/>
+      <c r="AV21" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW21" s="29" t="s">
         <v>12</v>
       </c>
@@ -4272,15 +4334,18 @@
       </c>
       <c r="BA21" s="20"/>
       <c r="BB21" s="26"/>
-      <c r="BC21" s="20"/>
+      <c r="BC21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD21" s="26"/>
     </row>
-    <row r="22" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>IF(I62 &lt;= K45, D62, B62)</f>
-        <v>Muhammad Ridwan</v>
+        <v>Muhammad Ridwan,</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>12</v>
@@ -4431,8 +4496,9 @@
       <c r="BA22" s="20"/>
       <c r="BB22" s="26"/>
       <c r="BC22" s="20"/>
+      <c r="BD22" s="26"/>
     </row>
-    <row r="23" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4561,8 +4627,11 @@
       <c r="BA23" s="20"/>
       <c r="BB23" s="26"/>
       <c r="BC23" s="20"/>
+      <c r="BD23" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4689,8 +4758,9 @@
       <c r="BA24" s="20"/>
       <c r="BB24" s="26"/>
       <c r="BC24" s="20"/>
+      <c r="BD24" s="26"/>
     </row>
-    <row r="25" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4849,8 +4919,9 @@
       <c r="BA25" s="20"/>
       <c r="BB25" s="26"/>
       <c r="BC25" s="20"/>
+      <c r="BD25" s="26"/>
     </row>
-    <row r="26" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5006,13 +5077,18 @@
       <c r="AZ26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA26" s="20"/>
+      <c r="BA26" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB26" s="26"/>
       <c r="BC26" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="BD26" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5171,8 +5247,11 @@
       <c r="BA27" s="20"/>
       <c r="BB27" s="26"/>
       <c r="BC27" s="20"/>
+      <c r="BD27" s="27" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5325,8 +5404,9 @@
       <c r="BA28" s="20"/>
       <c r="BB28" s="26"/>
       <c r="BC28" s="20"/>
+      <c r="BD28" s="26"/>
     </row>
-    <row r="29" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5485,8 +5565,11 @@
       </c>
       <c r="BB29" s="26"/>
       <c r="BC29" s="20"/>
+      <c r="BD29" s="27" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="30" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5581,8 +5664,9 @@
       <c r="BA30" s="20"/>
       <c r="BB30" s="26"/>
       <c r="BC30" s="20"/>
+      <c r="BD30" s="26"/>
     </row>
-    <row r="31" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5723,8 +5807,9 @@
       <c r="BA31" s="20"/>
       <c r="BB31" s="26"/>
       <c r="BC31" s="20"/>
+      <c r="BD31" s="26"/>
     </row>
-    <row r="32" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5867,7 +5952,9 @@
       <c r="AU32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV32" s="33"/>
+      <c r="AV32" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW32" s="29" t="s">
         <v>12</v>
       </c>
@@ -5880,11 +5967,16 @@
       <c r="AZ32" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA32" s="20"/>
+      <c r="BA32" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB32" s="26"/>
       <c r="BC32" s="20"/>
+      <c r="BD32" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6017,8 +6109,9 @@
       <c r="BA33" s="20"/>
       <c r="BB33" s="26"/>
       <c r="BC33" s="20"/>
+      <c r="BD33" s="26"/>
     </row>
-    <row r="34" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6175,8 +6268,11 @@
       <c r="BA34" s="20"/>
       <c r="BB34" s="26"/>
       <c r="BC34" s="20"/>
+      <c r="BD34" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6317,7 +6413,9 @@
         <v>12</v>
       </c>
       <c r="AU35" s="30"/>
-      <c r="AV35" s="33"/>
+      <c r="AV35" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW35" s="29" t="s">
         <v>12</v>
       </c>
@@ -6331,8 +6429,9 @@
       <c r="BA35" s="20"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="20"/>
+      <c r="BD35" s="26"/>
     </row>
-    <row r="36" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6475,7 +6574,9 @@
       <c r="AU36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV36" s="33"/>
+      <c r="AV36" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW36" s="29" t="s">
         <v>12</v>
       </c>
@@ -6493,8 +6594,11 @@
       </c>
       <c r="BB36" s="26"/>
       <c r="BC36" s="20"/>
+      <c r="BD36" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6633,7 +6737,9 @@
         <v>12</v>
       </c>
       <c r="AU37" s="30"/>
-      <c r="AV37" s="33"/>
+      <c r="AV37" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW37" s="29" t="s">
         <v>12</v>
       </c>
@@ -6647,8 +6753,11 @@
       <c r="BA37" s="20"/>
       <c r="BB37" s="26"/>
       <c r="BC37" s="20"/>
+      <c r="BD37" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6797,32 +6906,35 @@
       <c r="BA38" s="20"/>
       <c r="BB38" s="26"/>
       <c r="BC38" s="20"/>
+      <c r="BD38" s="27" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
+    <row r="40" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="D40" s="51" t="s">
+      <c r="B40" s="48"/>
+      <c r="D40" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="53" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+    <row r="41" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -6856,14 +6968,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="54"/>
+      <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
+    <row r="42" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49">
         <f>TRUNC(M46,1)</f>
-        <v>81.5</v>
-      </c>
-      <c r="B42" s="48"/>
+        <v>81.7</v>
+      </c>
+      <c r="B42" s="49"/>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -6874,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" s="2">
         <v>5</v>
@@ -6899,11 +7011,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:55" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -6916,19 +7028,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BC4)</f>
-        <v>49</v>
+        <f>COUNTA(C4:BD4)</f>
+        <v>50</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BC3)</f>
-        <v>53</v>
+        <f>COUNTA(C3:BD3)</f>
+        <v>54</v>
       </c>
       <c r="M44" s="43">
-        <f>COUNTA(C4:BC38)</f>
-        <v>1513</v>
+        <f>COUNTA(C4:BD38)</f>
+        <v>1545</v>
       </c>
     </row>
-    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -6941,19 +7053,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BC5)</f>
-        <v>49</v>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BD5)</f>
+        <v>51</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M45" s="43">
         <f>K44 * 35</f>
-        <v>1855</v>
+        <v>1890</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -6967,14 +7079,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>81.563342318059298</v>
+        <v>81.746031746031747</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -6991,7 +7103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7005,7 +7117,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7039,7 +7151,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7073,7 +7185,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7107,7 +7219,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7124,7 +7236,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7141,7 +7253,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="38">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7158,7 +7270,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="38">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7192,7 +7304,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7226,7 +7338,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7260,7 +7372,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="38">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7311,7 +7423,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7328,7 +7440,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7362,7 +7474,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7413,7 +7525,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7447,7 +7559,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7464,7 +7576,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="38">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7481,7 +7593,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7498,7 +7610,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="38">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7515,12 +7627,12 @@
       <c r="H78" s="3"/>
       <c r="I78" s="38">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BA1:BD1"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038ACB0-F47C-4284-B49C-373569CA8479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6825E-8A5B-4F7A-96EC-0C4584630125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9216" yWindow="2592" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -1162,10 +1162,10 @@
   <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF24" sqref="BF24"/>
+      <selection pane="bottomRight" activeCell="BD24" sqref="BD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,8 +1197,10 @@
     <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="55" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="8.88671875" style="1"/>
+    <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="18" x14ac:dyDescent="0.3">
@@ -3236,7 +3238,9 @@
       <c r="AU14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV14" s="33"/>
+      <c r="AV14" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW14" s="29" t="s">
         <v>12</v>
       </c>
@@ -3412,7 +3416,9 @@
       <c r="AZ15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA15" s="20"/>
+      <c r="BA15" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB15" s="26"/>
       <c r="BC15" s="20"/>
       <c r="BD15" s="27" t="s">
@@ -4008,7 +4014,9 @@
       <c r="AZ19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA19" s="20"/>
+      <c r="BA19" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB19" s="26"/>
       <c r="BC19" s="20"/>
       <c r="BD19" s="23" t="s">
@@ -5546,7 +5554,9 @@
       <c r="AT29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AU29" s="30"/>
+      <c r="AU29" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AV29" s="33"/>
       <c r="AW29" s="29" t="s">
         <v>12</v>
@@ -6973,7 +6983,7 @@
     <row r="42" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49">
         <f>TRUNC(M46,1)</f>
-        <v>81.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="B42" s="49"/>
       <c r="D42" s="2">
@@ -7037,7 +7047,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BD38)</f>
-        <v>1545</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7083,7 +7093,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>81.746031746031747</v>
+        <v>81.957671957671963</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
@@ -7219,7 +7229,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7236,7 +7246,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7304,7 +7314,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7474,7 +7484,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6825E-8A5B-4F7A-96EC-0C4584630125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996759D-EFF7-45D4-8AC1-3428F6C4D669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9216" yWindow="2592" windowWidth="13824" windowHeight="7176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5484" yWindow="2664" windowWidth="11436" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -1165,7 +1165,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BD24" sqref="BD24"/>
+      <selection pane="bottomRight" activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2390,7 +2390,9 @@
       <c r="AU8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV8" s="33"/>
+      <c r="AV8" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2678,7 +2680,9 @@
       <c r="AU10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV10" s="33"/>
+      <c r="AV10" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW10" s="29" t="s">
         <v>12</v>
       </c>
@@ -4166,7 +4170,9 @@
       <c r="AU20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV20" s="33"/>
+      <c r="AV20" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW20" s="29" t="s">
         <v>12</v>
       </c>
@@ -5072,7 +5078,9 @@
       <c r="AU26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV26" s="33"/>
+      <c r="AV26" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW26" s="29" t="s">
         <v>12</v>
       </c>
@@ -5239,7 +5247,9 @@
       <c r="AU27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV27" s="33"/>
+      <c r="AV27" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW27" s="29" t="s">
         <v>12</v>
       </c>
@@ -6983,7 +6993,7 @@
     <row r="42" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49">
         <f>TRUNC(M46,1)</f>
-        <v>81.900000000000006</v>
+        <v>82.2</v>
       </c>
       <c r="B42" s="49"/>
       <c r="D42" s="2">
@@ -7047,7 +7057,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BD38)</f>
-        <v>1549</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7093,7 +7103,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>81.957671957671963</v>
+        <v>82.222222222222229</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
@@ -7127,7 +7137,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7161,7 +7171,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7331,7 +7341,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7433,7 +7443,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7450,7 +7460,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Laporan\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9038ACB0-F47C-4284-B49C-373569CA8479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996759D-EFF7-45D4-8AC1-3428F6C4D669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5484" yWindow="2664" windowWidth="11436" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -1162,10 +1162,10 @@
   <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF24" sqref="BF24"/>
+      <selection pane="bottomRight" activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,8 +1197,10 @@
     <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="55" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="8.88671875" style="1"/>
+    <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="18" x14ac:dyDescent="0.3">
@@ -2388,7 +2390,9 @@
       <c r="AU8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV8" s="33"/>
+      <c r="AV8" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2680,9 @@
       <c r="AU10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV10" s="33"/>
+      <c r="AV10" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW10" s="29" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3242,9 @@
       <c r="AU14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV14" s="33"/>
+      <c r="AV14" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW14" s="29" t="s">
         <v>12</v>
       </c>
@@ -3412,7 +3420,9 @@
       <c r="AZ15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA15" s="20"/>
+      <c r="BA15" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB15" s="26"/>
       <c r="BC15" s="20"/>
       <c r="BD15" s="27" t="s">
@@ -4008,7 +4018,9 @@
       <c r="AZ19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA19" s="20"/>
+      <c r="BA19" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB19" s="26"/>
       <c r="BC19" s="20"/>
       <c r="BD19" s="23" t="s">
@@ -4158,7 +4170,9 @@
       <c r="AU20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV20" s="33"/>
+      <c r="AV20" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW20" s="29" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5078,9 @@
       <c r="AU26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV26" s="33"/>
+      <c r="AV26" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW26" s="29" t="s">
         <v>12</v>
       </c>
@@ -5231,7 +5247,9 @@
       <c r="AU27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV27" s="33"/>
+      <c r="AV27" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW27" s="29" t="s">
         <v>12</v>
       </c>
@@ -5546,7 +5564,9 @@
       <c r="AT29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AU29" s="30"/>
+      <c r="AU29" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AV29" s="33"/>
       <c r="AW29" s="29" t="s">
         <v>12</v>
@@ -6973,7 +6993,7 @@
     <row r="42" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49">
         <f>TRUNC(M46,1)</f>
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="B42" s="49"/>
       <c r="D42" s="2">
@@ -7037,7 +7057,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BD38)</f>
-        <v>1545</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="45" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7083,7 +7103,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>81.746031746031747</v>
+        <v>82.222222222222229</v>
       </c>
     </row>
     <row r="47" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
@@ -7117,7 +7137,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7151,7 +7171,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7219,7 +7239,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7236,7 +7256,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7304,7 +7324,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7321,7 +7341,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7423,7 +7443,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7440,7 +7460,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7474,7 +7494,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996759D-EFF7-45D4-8AC1-3428F6C4D669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8A25A-C2A1-4DA6-AA72-574662010EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5484" yWindow="2664" windowWidth="11436" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="162">
   <si>
     <t>No.</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>PAI10</t>
+  </si>
+  <si>
+    <t>PKK6</t>
+  </si>
+  <si>
+    <t>PWPB5</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +818,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD78"/>
+  <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX10" sqref="AX10"/>
+      <selection pane="bottomRight" activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,94 +1209,97 @@
     <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.88671875" style="1"/>
+    <col min="57" max="58" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="53" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="50" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="56" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="46" t="s">
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
     </row>
-    <row r="2" spans="1:56" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+    <row r="2" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
@@ -1450,10 +1462,16 @@
       <c r="BD2" s="45" t="s">
         <v>5</v>
       </c>
+      <c r="BE2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" s="46" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+    <row r="3" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1616,14 +1634,20 @@
       <c r="BD3" s="20" t="s">
         <v>159</v>
       </c>
+      <c r="BE3" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF3" s="20" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>IF(I44 &lt;= K45, D44, B44)</f>
-        <v>Abu Abdirrahman Zenky</v>
+        <v>Abu Abdirrahman Zenky,</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>12</v>
@@ -1779,8 +1803,10 @@
       <c r="BB4" s="26"/>
       <c r="BC4" s="20"/>
       <c r="BD4" s="26"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="26"/>
     </row>
-    <row r="5" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1944,8 +1970,10 @@
       <c r="BD5" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="26"/>
     </row>
-    <row r="6" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2109,8 +2137,10 @@
       <c r="BD6" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="26"/>
     </row>
-    <row r="7" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2246,8 +2276,10 @@
       <c r="BB7" s="26"/>
       <c r="BC7" s="20"/>
       <c r="BD7" s="26"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="26"/>
     </row>
-    <row r="8" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2411,8 +2443,10 @@
       <c r="BD8" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="26"/>
     </row>
-    <row r="9" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2536,8 +2570,10 @@
       <c r="BB9" s="26"/>
       <c r="BC9" s="20"/>
       <c r="BD9" s="26"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="26"/>
     </row>
-    <row r="10" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2701,8 +2737,10 @@
       <c r="BD10" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="26"/>
     </row>
-    <row r="11" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2806,8 +2844,10 @@
       <c r="BB11" s="26"/>
       <c r="BC11" s="20"/>
       <c r="BD11" s="26"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="26"/>
     </row>
-    <row r="12" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2971,8 +3011,10 @@
       <c r="BD12" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="26"/>
     </row>
-    <row r="13" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3098,8 +3140,10 @@
       <c r="BB13" s="26"/>
       <c r="BC13" s="20"/>
       <c r="BD13" s="26"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="26"/>
     </row>
-    <row r="14" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3263,8 +3307,10 @@
       <c r="BD14" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="26"/>
     </row>
-    <row r="15" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3428,8 +3474,10 @@
       <c r="BD15" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="26"/>
     </row>
-    <row r="16" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3587,8 +3635,10 @@
       <c r="BB16" s="26"/>
       <c r="BC16" s="20"/>
       <c r="BD16" s="26"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="26"/>
     </row>
-    <row r="17" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3730,8 +3780,10 @@
       <c r="BD17" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="26"/>
     </row>
-    <row r="18" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3861,8 +3913,10 @@
       <c r="BB18" s="26"/>
       <c r="BC18" s="20"/>
       <c r="BD18" s="26"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="26"/>
     </row>
-    <row r="19" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4026,8 +4080,10 @@
       <c r="BD19" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="26"/>
     </row>
-    <row r="20" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4185,18 +4241,22 @@
       <c r="AZ20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA20" s="20"/>
+      <c r="BA20" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB20" s="26"/>
       <c r="BC20" s="20"/>
       <c r="BD20" s="26"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="26"/>
     </row>
-    <row r="21" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>IF(I61 &lt;= K45, D61, B61)</f>
-        <v>Muhammad Ilham Dzaki</v>
+        <v>Muhammad Ilham Dzaki,</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>12</v>
@@ -4352,8 +4412,10 @@
         <v>12</v>
       </c>
       <c r="BD21" s="26"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="26"/>
     </row>
-    <row r="22" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4511,8 +4573,10 @@
       <c r="BB22" s="26"/>
       <c r="BC22" s="20"/>
       <c r="BD22" s="26"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="26"/>
     </row>
-    <row r="23" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4644,8 +4708,10 @@
       <c r="BD23" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="26"/>
     </row>
-    <row r="24" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4773,14 +4839,16 @@
       <c r="BB24" s="26"/>
       <c r="BC24" s="20"/>
       <c r="BD24" s="26"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="26"/>
     </row>
-    <row r="25" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>IF(I65 &lt;= K45, D65, B65)</f>
-        <v>Nasywa Mawaddah</v>
+        <v>Nasywa Mawaddah,</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>12</v>
@@ -4934,8 +5002,10 @@
       <c r="BB25" s="26"/>
       <c r="BC25" s="20"/>
       <c r="BD25" s="26"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="26"/>
     </row>
-    <row r="26" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5103,8 +5173,10 @@
       <c r="BD26" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="26"/>
     </row>
-    <row r="27" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5268,8 +5340,10 @@
       <c r="BD27" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="26"/>
     </row>
-    <row r="28" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5423,8 +5497,10 @@
       <c r="BB28" s="26"/>
       <c r="BC28" s="20"/>
       <c r="BD28" s="26"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="26"/>
     </row>
-    <row r="29" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5588,8 +5664,10 @@
       <c r="BD29" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="26"/>
     </row>
-    <row r="30" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5685,8 +5763,10 @@
       <c r="BB30" s="26"/>
       <c r="BC30" s="20"/>
       <c r="BD30" s="26"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="26"/>
     </row>
-    <row r="31" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5828,8 +5908,10 @@
       <c r="BB31" s="26"/>
       <c r="BC31" s="20"/>
       <c r="BD31" s="26"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="26"/>
     </row>
-    <row r="32" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5995,8 +6077,10 @@
       <c r="BD32" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE32" s="20"/>
+      <c r="BF32" s="26"/>
     </row>
-    <row r="33" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6130,14 +6214,16 @@
       <c r="BB33" s="26"/>
       <c r="BC33" s="20"/>
       <c r="BD33" s="26"/>
+      <c r="BE33" s="20"/>
+      <c r="BF33" s="26"/>
     </row>
-    <row r="34" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani</v>
+        <v>Shabrina Cahyani,</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6272,7 +6358,9 @@
       <c r="AU34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV34" s="33"/>
+      <c r="AV34" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW34" s="29" t="s">
         <v>12</v>
       </c>
@@ -6291,8 +6379,10 @@
       <c r="BD34" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE34" s="20"/>
+      <c r="BF34" s="26"/>
     </row>
-    <row r="35" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6432,7 +6522,9 @@
       <c r="AT35" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AU35" s="30"/>
+      <c r="AU35" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AV35" s="31" t="s">
         <v>12</v>
       </c>
@@ -6449,9 +6541,11 @@
       <c r="BA35" s="20"/>
       <c r="BB35" s="26"/>
       <c r="BC35" s="20"/>
-      <c r="BD35" s="26"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="20"/>
+      <c r="BF35" s="26"/>
     </row>
-    <row r="36" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6617,8 +6711,10 @@
       <c r="BD36" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE36" s="20"/>
+      <c r="BF36" s="26"/>
     </row>
-    <row r="37" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6776,8 +6872,10 @@
       <c r="BD37" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BE37" s="20"/>
+      <c r="BF37" s="26"/>
     </row>
-    <row r="38" spans="1:56" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6929,32 +7027,34 @@
       <c r="BD38" s="27" t="s">
         <v>138</v>
       </c>
+      <c r="BE38" s="20"/>
+      <c r="BF38" s="26"/>
     </row>
-    <row r="40" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="D40" s="52" t="s">
+      <c r="B40" s="49"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+    <row r="41" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -6988,14 +7088,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="56"/>
     </row>
-    <row r="42" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49">
+    <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>82.2</v>
-      </c>
-      <c r="B42" s="49"/>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="B42" s="50"/>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -7012,7 +7112,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2">
         <v>6</v>
@@ -7024,18 +7124,18 @@
         <v>6</v>
       </c>
       <c r="M42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N42" s="2">
         <v>1</v>
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7048,19 +7148,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BD4)</f>
+        <f>COUNTA(C4:BF4)</f>
         <v>50</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BD3)</f>
-        <v>54</v>
+        <f>COUNTA(C3:BF3)</f>
+        <v>56</v>
       </c>
       <c r="M44" s="43">
-        <f>COUNTA(C4:BD38)</f>
-        <v>1554</v>
+        <f>COUNTA(C4:BF38)</f>
+        <v>1557</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7073,19 +7173,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BD5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BF5)</f>
         <v>51</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M45" s="43">
         <f>K44 * 35</f>
-        <v>1890</v>
+        <v>1960</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7103,10 +7203,10 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>82.222222222222229</v>
+        <v>79.438775510204081</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7123,7 +7223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7341,7 +7441,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7579,7 +7679,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7596,7 +7696,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7652,7 +7752,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8A25A-C2A1-4DA6-AA72-574662010EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86F7BB-CF17-469F-A326-6EE539C1087C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="162">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE18" sqref="BE18"/>
+      <selection pane="bottomRight" activeCell="BB7" sqref="BB7:BB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2273,9 @@
       <c r="AY7" s="30"/>
       <c r="AZ7" s="33"/>
       <c r="BA7" s="20"/>
-      <c r="BB7" s="26"/>
+      <c r="BB7" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC7" s="20"/>
       <c r="BD7" s="26"/>
       <c r="BE7" s="20"/>
@@ -3301,9 +3303,15 @@
       <c r="AZ14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="26"/>
-      <c r="BC14" s="20"/>
+      <c r="BA14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC14" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD14" s="23" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3640,9 @@
         <v>12</v>
       </c>
       <c r="BA16" s="20"/>
-      <c r="BB16" s="26"/>
+      <c r="BB16" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC16" s="20"/>
       <c r="BD16" s="26"/>
       <c r="BE16" s="20"/>
@@ -5335,7 +5345,9 @@
         <v>12</v>
       </c>
       <c r="BA27" s="20"/>
-      <c r="BB27" s="26"/>
+      <c r="BB27" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC27" s="20"/>
       <c r="BD27" s="27" t="s">
         <v>138</v>
@@ -6706,7 +6718,9 @@
       <c r="BA36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB36" s="26"/>
+      <c r="BB36" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC36" s="20"/>
       <c r="BD36" s="23" t="s">
         <v>12</v>
@@ -7022,7 +7036,9 @@
         <v>12</v>
       </c>
       <c r="BA38" s="20"/>
-      <c r="BB38" s="26"/>
+      <c r="BB38" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC38" s="20"/>
       <c r="BD38" s="27" t="s">
         <v>138</v>
@@ -7093,7 +7109,7 @@
     <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>79.400000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="B42" s="50"/>
       <c r="D42" s="2">
@@ -7157,7 +7173,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BF38)</f>
-        <v>1557</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7203,7 +7219,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>79.438775510204081</v>
+        <v>79.84693877551021</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -7220,7 +7236,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -7339,7 +7355,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7373,7 +7389,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7560,7 +7576,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7713,7 +7729,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7747,7 +7763,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="38">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86F7BB-CF17-469F-A326-6EE539C1087C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507C59A-3FA2-44E5-A06A-1912B6F3D182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="162">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BB7" sqref="BB7:BB38"/>
+      <selection pane="bottomRight" activeCell="BG23" sqref="BG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2439,9 +2439,13 @@
       <c r="AZ8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA8" s="20"/>
+      <c r="BA8" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB8" s="26"/>
-      <c r="BC8" s="20"/>
+      <c r="BC8" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD8" s="23" t="s">
         <v>12</v>
       </c>
@@ -3007,7 +3011,9 @@
       <c r="AZ12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA12" s="20"/>
+      <c r="BA12" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB12" s="26"/>
       <c r="BC12" s="20"/>
       <c r="BD12" s="23" t="s">
@@ -3461,7 +3467,9 @@
       <c r="AU15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV15" s="33"/>
+      <c r="AV15" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW15" s="29" t="s">
         <v>12</v>
       </c>
@@ -4858,7 +4866,7 @@
       </c>
       <c r="B25" s="4" t="str">
         <f>IF(I65 &lt;= K45, D65, B65)</f>
-        <v>Nasywa Mawaddah,</v>
+        <v>Nasywa Mawaddah</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>12</v>
@@ -4995,7 +5003,9 @@
       <c r="AU25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AV25" s="33"/>
+      <c r="AV25" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW25" s="29" t="s">
         <v>12</v>
       </c>
@@ -5008,7 +5018,9 @@
       <c r="AZ25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA25" s="20"/>
+      <c r="BA25" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB25" s="26"/>
       <c r="BC25" s="20"/>
       <c r="BD25" s="26"/>
@@ -5184,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="BE26" s="20"/>
-      <c r="BF26" s="26"/>
+      <c r="BF26" s="23"/>
     </row>
     <row r="27" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -6085,7 +6097,9 @@
         <v>12</v>
       </c>
       <c r="BB32" s="26"/>
-      <c r="BC32" s="20"/>
+      <c r="BC32" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD32" s="23" t="s">
         <v>12</v>
       </c>
@@ -7109,7 +7123,7 @@
     <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>79.8</v>
+        <v>80.2</v>
       </c>
       <c r="B42" s="50"/>
       <c r="D42" s="2">
@@ -7173,7 +7187,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BF38)</f>
-        <v>1565</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7219,7 +7233,7 @@
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>79.84693877551021</v>
+        <v>80.204081632653057</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -7253,7 +7267,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7321,7 +7335,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7372,7 +7386,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7542,7 +7556,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7661,7 +7675,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507C59A-3FA2-44E5-A06A-1912B6F3D182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F6F99-F0DF-4681-B1B9-B6C010651195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1452" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="162">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG23" sqref="BG23"/>
+      <selection pane="bottomRight" activeCell="BF16" sqref="BF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f>IF(I44 &lt;= K45, D44, B44)</f>
-        <v>Abu Abdirrahman Zenky,</v>
+        <v>Abu Abdirrahman Zenky</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>12</v>
@@ -1804,7 +1804,9 @@
       <c r="BC4" s="20"/>
       <c r="BD4" s="26"/>
       <c r="BE4" s="20"/>
-      <c r="BF4" s="26"/>
+      <c r="BF4" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2138,7 +2140,9 @@
         <v>12</v>
       </c>
       <c r="BE6" s="20"/>
-      <c r="BF6" s="26"/>
+      <c r="BF6" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2567,7 +2571,9 @@
       <c r="AS9" s="5"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="30"/>
-      <c r="AV9" s="33"/>
+      <c r="AV9" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW9" s="30"/>
       <c r="AX9" s="33"/>
       <c r="AY9" s="30"/>
@@ -2744,7 +2750,9 @@
         <v>12</v>
       </c>
       <c r="BE10" s="20"/>
-      <c r="BF10" s="26"/>
+      <c r="BF10" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -3020,7 +3028,9 @@
         <v>12</v>
       </c>
       <c r="BE12" s="20"/>
-      <c r="BF12" s="26"/>
+      <c r="BF12" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -3322,7 +3332,9 @@
         <v>12</v>
       </c>
       <c r="BE14" s="20"/>
-      <c r="BF14" s="26"/>
+      <c r="BF14" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -3491,7 +3503,9 @@
         <v>138</v>
       </c>
       <c r="BE15" s="20"/>
-      <c r="BF15" s="26"/>
+      <c r="BF15" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -3654,7 +3668,9 @@
       <c r="BC16" s="20"/>
       <c r="BD16" s="26"/>
       <c r="BE16" s="20"/>
-      <c r="BF16" s="26"/>
+      <c r="BF16" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -3921,7 +3937,9 @@
       <c r="AT18" s="9"/>
       <c r="AU18" s="30"/>
       <c r="AV18" s="33"/>
-      <c r="AW18" s="30"/>
+      <c r="AW18" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AX18" s="31" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4292,7 @@
       </c>
       <c r="B21" s="4" t="str">
         <f>IF(I61 &lt;= K45, D61, B61)</f>
-        <v>Muhammad Ilham Dzaki,</v>
+        <v>Muhammad Ilham Dzaki</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>12</v>
@@ -4431,7 +4449,9 @@
       </c>
       <c r="BD21" s="26"/>
       <c r="BE21" s="20"/>
-      <c r="BF21" s="26"/>
+      <c r="BF21" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -5025,7 +5045,9 @@
       <c r="BC25" s="20"/>
       <c r="BD25" s="26"/>
       <c r="BE25" s="20"/>
-      <c r="BF25" s="26"/>
+      <c r="BF25" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -5196,7 +5218,9 @@
         <v>12</v>
       </c>
       <c r="BE26" s="20"/>
-      <c r="BF26" s="23"/>
+      <c r="BF26" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -5684,7 +5708,9 @@
         <v>12</v>
       </c>
       <c r="BB29" s="26"/>
-      <c r="BC29" s="20"/>
+      <c r="BC29" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD29" s="27" t="s">
         <v>138</v>
       </c>
@@ -6104,7 +6130,9 @@
         <v>12</v>
       </c>
       <c r="BE32" s="20"/>
-      <c r="BF32" s="26"/>
+      <c r="BF32" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -6740,7 +6768,9 @@
         <v>12</v>
       </c>
       <c r="BE36" s="20"/>
-      <c r="BF36" s="26"/>
+      <c r="BF36" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -7123,7 +7153,7 @@
     <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>80.2</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="B42" s="50"/>
       <c r="D42" s="2">
@@ -7179,7 +7209,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="38">
         <f>COUNTA(C4:BF4)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" s="1">
         <f>COUNTA(C3:BF3)</f>
@@ -7187,7 +7217,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BF38)</f>
-        <v>1572</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7229,11 +7259,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>80.204081632653057</v>
+        <v>80.969387755102048</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -7284,7 +7314,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="38">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7301,7 +7331,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7335,7 +7365,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7369,7 +7399,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7386,7 +7416,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7403,7 +7433,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7437,7 +7467,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="38">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7488,7 +7518,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7556,7 +7586,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7573,7 +7603,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7624,7 +7654,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7675,7 +7705,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7743,7 +7773,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F6F99-F0DF-4681-B1B9-B6C010651195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84527A-46B9-4BE8-A5CE-053D3BB7E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1452" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="252" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="162">
   <si>
     <t>No.</t>
   </si>
@@ -1171,10 +1171,10 @@
   <dimension ref="A1:BF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF16" sqref="BF16"/>
+      <selection pane="bottomRight" activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,9 +1799,15 @@
       <c r="AZ4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="20"/>
+      <c r="BA4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD4" s="26"/>
       <c r="BE4" s="20"/>
       <c r="BF4" s="23" t="s">
@@ -2134,7 +2140,9 @@
         <v>12</v>
       </c>
       <c r="BA6" s="20"/>
-      <c r="BB6" s="26"/>
+      <c r="BB6" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC6" s="20"/>
       <c r="BD6" s="23" t="s">
         <v>12</v>
@@ -2454,7 +2462,9 @@
         <v>12</v>
       </c>
       <c r="BE8" s="20"/>
-      <c r="BF8" s="26"/>
+      <c r="BF8" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -3513,7 +3523,7 @@
       </c>
       <c r="B16" s="4" t="str">
         <f>IF(I56 &lt;= K45, D56, B56)</f>
-        <v>Mohammad Ilham Saputra,</v>
+        <v>Mohammad Ilham Saputra</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>12</v>
@@ -3665,7 +3675,9 @@
       <c r="BB16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC16" s="20"/>
+      <c r="BC16" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD16" s="26"/>
       <c r="BE16" s="20"/>
       <c r="BF16" s="23" t="s">
@@ -3950,7 +3962,9 @@
       <c r="BC18" s="20"/>
       <c r="BD18" s="26"/>
       <c r="BE18" s="20"/>
-      <c r="BF18" s="26"/>
+      <c r="BF18" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -4117,7 +4131,9 @@
         <v>12</v>
       </c>
       <c r="BE19" s="20"/>
-      <c r="BF19" s="26"/>
+      <c r="BF19" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -4284,7 +4300,9 @@
       <c r="BC20" s="20"/>
       <c r="BD20" s="26"/>
       <c r="BE20" s="20"/>
-      <c r="BF20" s="26"/>
+      <c r="BF20" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -4608,8 +4626,12 @@
         <v>12</v>
       </c>
       <c r="BA22" s="20"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="20"/>
+      <c r="BB22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC22" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD22" s="26"/>
       <c r="BE22" s="20"/>
       <c r="BF22" s="26"/>
@@ -4874,7 +4896,9 @@
       <c r="AY24" s="30"/>
       <c r="AZ24" s="33"/>
       <c r="BA24" s="20"/>
-      <c r="BB24" s="26"/>
+      <c r="BB24" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC24" s="20"/>
       <c r="BD24" s="26"/>
       <c r="BE24" s="20"/>
@@ -5389,7 +5413,9 @@
         <v>138</v>
       </c>
       <c r="BE27" s="20"/>
-      <c r="BF27" s="26"/>
+      <c r="BF27" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -5707,7 +5733,9 @@
       <c r="BA29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB29" s="26"/>
+      <c r="BB29" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC29" s="21" t="s">
         <v>12</v>
       </c>
@@ -6931,7 +6959,9 @@
         <v>12</v>
       </c>
       <c r="BE37" s="20"/>
-      <c r="BF37" s="26"/>
+      <c r="BF37" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:58" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -7153,7 +7183,7 @@
     <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>80.900000000000006</v>
+        <v>81.7</v>
       </c>
       <c r="B42" s="50"/>
       <c r="D42" s="2">
@@ -7209,7 +7239,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="38">
         <f>COUNTA(C4:BF4)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K44" s="1">
         <f>COUNTA(C3:BF3)</f>
@@ -7217,7 +7247,7 @@
       </c>
       <c r="M44" s="43">
         <f>COUNTA(C4:BF38)</f>
-        <v>1587</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7259,11 +7289,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M46" s="43">
         <f>100 * M44 / M45</f>
-        <v>80.969387755102048</v>
+        <v>81.734693877551024</v>
       </c>
     </row>
     <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
@@ -7297,7 +7327,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7433,7 +7463,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7467,7 +7497,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="38">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7484,7 +7514,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7501,7 +7531,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7535,7 +7565,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7569,7 +7599,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7620,7 +7650,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7654,7 +7684,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7790,7 +7820,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84527A-46B9-4BE8-A5CE-053D3BB7E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF81FA-1339-446A-888A-F1BA0E108C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="252" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="164">
   <si>
     <t>No.</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>PWPB5</t>
+  </si>
+  <si>
+    <t>Minggu Ke-11</t>
+  </si>
+  <si>
+    <t>MAT11</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -680,20 +686,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +802,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,22 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,9 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,13 +1150,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF78"/>
+  <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BC10" sqref="BC10"/>
+      <selection pane="bottomRight" activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,268 +1192,275 @@
     <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="58" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.88671875" style="1"/>
+    <col min="59" max="59" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="51" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="57" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="47" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="40" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="40" t="s">
+    <row r="2" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="41" t="s">
+      <c r="AH2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AK2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="39" t="s">
+      <c r="AN2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AO2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="42" t="s">
+      <c r="AP2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="42" t="s">
+      <c r="AQ2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AR2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="42" t="s">
+      <c r="AS2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AT2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="40" t="s">
+      <c r="AU2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="40" t="s">
+      <c r="AV2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="40" t="s">
+      <c r="AW2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="40" t="s">
+      <c r="AX2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="40" t="s">
+      <c r="AY2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="40" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="41" t="s">
+      <c r="BA2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="44" t="s">
+      <c r="BB2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="44" t="s">
+      <c r="BC2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="45" t="s">
+      <c r="BD2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="46" t="s">
+      <c r="BE2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="46" t="s">
+      <c r="BF2" s="42" t="s">
         <v>47</v>
       </c>
+      <c r="BG2" s="40" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+    <row r="3" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1640,8 +1629,11 @@
       <c r="BF3" s="20" t="s">
         <v>161</v>
       </c>
+      <c r="BG3" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1813,8 +1805,9 @@
       <c r="BF4" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG4" s="10"/>
     </row>
-    <row r="5" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1972,16 +1965,21 @@
       <c r="AZ5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA5" s="20"/>
+      <c r="BA5" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB5" s="26"/>
       <c r="BC5" s="20"/>
       <c r="BD5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="BE5" s="20"/>
-      <c r="BF5" s="26"/>
+      <c r="BF5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG5" s="10"/>
     </row>
-    <row r="6" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2139,7 +2137,9 @@
       <c r="AZ6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA6" s="20"/>
+      <c r="BA6" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB6" s="23" t="s">
         <v>12</v>
       </c>
@@ -2151,8 +2151,9 @@
       <c r="BF6" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG6" s="10"/>
     </row>
-    <row r="7" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2292,8 +2293,9 @@
       <c r="BD7" s="26"/>
       <c r="BE7" s="20"/>
       <c r="BF7" s="26"/>
+      <c r="BG7" s="10"/>
     </row>
-    <row r="8" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2465,8 +2467,9 @@
       <c r="BF8" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG8" s="10"/>
     </row>
-    <row r="9" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2594,8 +2597,9 @@
       <c r="BD9" s="26"/>
       <c r="BE9" s="20"/>
       <c r="BF9" s="26"/>
+      <c r="BG9" s="10"/>
     </row>
-    <row r="10" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2763,8 +2767,9 @@
       <c r="BF10" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG10" s="10"/>
     </row>
-    <row r="11" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2870,8 +2875,9 @@
       <c r="BD11" s="26"/>
       <c r="BE11" s="20"/>
       <c r="BF11" s="26"/>
+      <c r="BG11" s="10"/>
     </row>
-    <row r="12" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3041,8 +3047,9 @@
       <c r="BF12" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG12" s="10"/>
     </row>
-    <row r="13" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3170,8 +3177,9 @@
       <c r="BD13" s="26"/>
       <c r="BE13" s="20"/>
       <c r="BF13" s="26"/>
+      <c r="BG13" s="10"/>
     </row>
-    <row r="14" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3345,8 +3353,9 @@
       <c r="BF14" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG14" s="10"/>
     </row>
-    <row r="15" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3508,7 +3517,9 @@
         <v>12</v>
       </c>
       <c r="BB15" s="26"/>
-      <c r="BC15" s="20"/>
+      <c r="BC15" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD15" s="27" t="s">
         <v>138</v>
       </c>
@@ -3516,14 +3527,15 @@
       <c r="BF15" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG15" s="10"/>
     </row>
-    <row r="16" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>IF(I56 &lt;= K45, D56, B56)</f>
-        <v>Mohammad Ilham Saputra</v>
+        <v>Mohammad Ilham Saputra,</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>12</v>
@@ -3683,8 +3695,9 @@
       <c r="BF16" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG16" s="10"/>
     </row>
-    <row r="17" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3828,8 +3841,9 @@
       </c>
       <c r="BE17" s="20"/>
       <c r="BF17" s="26"/>
+      <c r="BG17" s="10"/>
     </row>
-    <row r="18" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3965,8 +3979,9 @@
       <c r="BF18" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG18" s="10"/>
     </row>
-    <row r="19" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4134,8 +4149,9 @@
       <c r="BF19" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG19" s="10"/>
     </row>
-    <row r="20" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4303,14 +4319,15 @@
       <c r="BF20" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG20" s="10"/>
     </row>
-    <row r="21" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>IF(I61 &lt;= K45, D61, B61)</f>
-        <v>Muhammad Ilham Dzaki</v>
+        <v>Muhammad Ilham Dzaki,</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>12</v>
@@ -4470,8 +4487,9 @@
       <c r="BF21" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG21" s="10"/>
     </row>
-    <row r="22" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4625,7 +4643,9 @@
       <c r="AZ22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA22" s="20"/>
+      <c r="BA22" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB22" s="23" t="s">
         <v>12</v>
       </c>
@@ -4635,8 +4655,9 @@
       <c r="BD22" s="26"/>
       <c r="BE22" s="20"/>
       <c r="BF22" s="26"/>
+      <c r="BG22" s="10"/>
     </row>
-    <row r="23" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4711,7 +4732,9 @@
       <c r="Y23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="33"/>
+      <c r="Z23" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AA23" s="29" t="s">
         <v>12</v>
       </c>
@@ -4729,7 +4752,9 @@
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
-      <c r="AH23" s="26"/>
+      <c r="AH23" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AI23" s="21" t="s">
         <v>12</v>
       </c>
@@ -4770,8 +4795,9 @@
       </c>
       <c r="BE23" s="20"/>
       <c r="BF23" s="26"/>
+      <c r="BG23" s="10"/>
     </row>
-    <row r="24" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4903,8 +4929,9 @@
       <c r="BD24" s="26"/>
       <c r="BE24" s="20"/>
       <c r="BF24" s="26"/>
+      <c r="BG24" s="10"/>
     </row>
-    <row r="25" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5072,8 +5099,9 @@
       <c r="BF25" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG25" s="10"/>
     </row>
-    <row r="26" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5245,8 +5273,9 @@
       <c r="BF26" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG26" s="10"/>
     </row>
-    <row r="27" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5404,7 +5433,9 @@
       <c r="AZ27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA27" s="20"/>
+      <c r="BA27" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB27" s="23" t="s">
         <v>12</v>
       </c>
@@ -5416,8 +5447,9 @@
       <c r="BF27" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG27" s="10"/>
     </row>
-    <row r="28" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5573,8 +5605,9 @@
       <c r="BD28" s="26"/>
       <c r="BE28" s="20"/>
       <c r="BF28" s="26"/>
+      <c r="BG28" s="10"/>
     </row>
-    <row r="29" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5744,8 +5777,9 @@
       </c>
       <c r="BE29" s="20"/>
       <c r="BF29" s="26"/>
+      <c r="BG29" s="10"/>
     </row>
-    <row r="30" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5843,8 +5877,9 @@
       <c r="BD30" s="26"/>
       <c r="BE30" s="20"/>
       <c r="BF30" s="26"/>
+      <c r="BG30" s="10"/>
     </row>
-    <row r="31" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5988,8 +6023,9 @@
       <c r="BD31" s="26"/>
       <c r="BE31" s="20"/>
       <c r="BF31" s="26"/>
+      <c r="BG31" s="10"/>
     </row>
-    <row r="32" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6161,8 +6197,9 @@
       <c r="BF32" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG32" s="10"/>
     </row>
-    <row r="33" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6298,14 +6335,15 @@
       <c r="BD33" s="26"/>
       <c r="BE33" s="20"/>
       <c r="BF33" s="26"/>
+      <c r="BG33" s="10"/>
     </row>
-    <row r="34" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani,</v>
+        <v>Shabrina Cahyani</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6455,16 +6493,21 @@
       <c r="AZ34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA34" s="20"/>
+      <c r="BA34" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB34" s="26"/>
       <c r="BC34" s="20"/>
       <c r="BD34" s="23" t="s">
         <v>12</v>
       </c>
       <c r="BE34" s="20"/>
-      <c r="BF34" s="26"/>
+      <c r="BF34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG34" s="10"/>
     </row>
-    <row r="35" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6626,8 +6669,9 @@
       <c r="BD35" s="23"/>
       <c r="BE35" s="20"/>
       <c r="BF35" s="26"/>
+      <c r="BG35" s="10"/>
     </row>
-    <row r="36" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6799,8 +6843,11 @@
       <c r="BF36" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG36" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6962,8 +7009,9 @@
       <c r="BF37" s="23" t="s">
         <v>12</v>
       </c>
+      <c r="BG37" s="10"/>
     </row>
-    <row r="38" spans="1:58" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7118,33 +7166,36 @@
         <v>138</v>
       </c>
       <c r="BE38" s="20"/>
-      <c r="BF38" s="26"/>
+      <c r="BF38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG38" s="10"/>
     </row>
-    <row r="40" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="45"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+    <row r="41" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7178,16 +7229,16 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="51"/>
     </row>
-    <row r="42" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+    <row r="42" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>81.7</v>
-      </c>
-      <c r="B42" s="50"/>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="B42" s="46"/>
       <c r="D42" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -7221,11 +7272,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7238,19 +7289,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BF4)</f>
+        <f>COUNTA(C4:BG4)</f>
         <v>54</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BF3)</f>
-        <v>56</v>
-      </c>
-      <c r="M44" s="43">
-        <f>COUNTA(C4:BF38)</f>
-        <v>1602</v>
+        <f>COUNTA(C3:BG3)</f>
+        <v>57</v>
+      </c>
+      <c r="M44" s="39">
+        <f>COUNTA(C4:BG38)</f>
+        <v>1614</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7263,19 +7314,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BF5)</f>
-        <v>51</v>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BG5)</f>
+        <v>53</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>50</v>
-      </c>
-      <c r="M45" s="43">
+        <v>51</v>
+      </c>
+      <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>1960</v>
+        <v>1995</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7289,14 +7340,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="M46" s="43">
+        <v>54</v>
+      </c>
+      <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.734693877551024</v>
+        <v>80.902255639097746</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7313,7 +7364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7446,7 +7497,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7565,7 +7616,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7582,7 +7633,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="38">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7650,7 +7701,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7769,7 +7820,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7803,7 +7854,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7837,7 +7888,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="38">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF81FA-1339-446A-888A-F1BA0E108C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6CE0C-15F4-4AA0-B6FC-C1F40A83CEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="164">
   <si>
     <t>No.</t>
   </si>
@@ -1153,10 +1153,10 @@
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X54" sqref="X54"/>
+      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5273,7 +5273,9 @@
       <c r="BF26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG26" s="10"/>
+      <c r="BG26" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -6659,7 +6661,9 @@
       <c r="AX35" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AY35" s="30"/>
+      <c r="AY35" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ35" s="31" t="s">
         <v>12</v>
       </c>
@@ -7234,7 +7238,7 @@
     <row r="42" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>80.900000000000006</v>
+        <v>81</v>
       </c>
       <c r="B42" s="46"/>
       <c r="D42" s="2">
@@ -7298,7 +7302,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BG38)</f>
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7344,7 +7348,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.902255639097746</v>
+        <v>81.002506265664167</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
@@ -7684,7 +7688,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7837,7 +7841,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E6CE0C-15F4-4AA0-B6FC-C1F40A83CEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F982114-B38E-42DC-A9B0-123A52EE90F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="164">
   <si>
     <t>No.</t>
   </si>
@@ -1153,10 +1153,10 @@
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
+      <selection pane="bottomRight" activeCell="BM28" sqref="BM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,9 +2757,15 @@
       <c r="AZ10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="20"/>
+      <c r="BA10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC10" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD10" s="23" t="s">
         <v>12</v>
       </c>
@@ -2870,7 +2876,9 @@
       <c r="AY11" s="30"/>
       <c r="AZ11" s="33"/>
       <c r="BA11" s="20"/>
-      <c r="BB11" s="26"/>
+      <c r="BB11" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC11" s="20"/>
       <c r="BD11" s="26"/>
       <c r="BE11" s="20"/>
@@ -3038,8 +3046,12 @@
       <c r="BA12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB12" s="26"/>
-      <c r="BC12" s="20"/>
+      <c r="BB12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC12" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD12" s="23" t="s">
         <v>12</v>
       </c>
@@ -3516,7 +3528,9 @@
       <c r="BA15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB15" s="26"/>
+      <c r="BB15" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC15" s="21" t="s">
         <v>12</v>
       </c>
@@ -4149,7 +4163,9 @@
       <c r="BF19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG19" s="10"/>
+      <c r="BG19" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -5092,8 +5108,12 @@
       <c r="BA25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="20"/>
+      <c r="BB25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC25" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD25" s="26"/>
       <c r="BE25" s="20"/>
       <c r="BF25" s="23" t="s">
@@ -6498,7 +6518,9 @@
       <c r="BA34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB34" s="26"/>
+      <c r="BB34" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC34" s="20"/>
       <c r="BD34" s="23" t="s">
         <v>12</v>
@@ -6515,7 +6537,7 @@
       </c>
       <c r="B35" s="4" t="str">
         <f>IF(I75 &lt;= K45, D75, B75)</f>
-        <v>Silvana Putri Ariani,</v>
+        <v>Silvana Putri Ariani</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>12</v>
@@ -6668,8 +6690,12 @@
         <v>12</v>
       </c>
       <c r="BA35" s="20"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="20"/>
+      <c r="BB35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC35" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD35" s="23"/>
       <c r="BE35" s="20"/>
       <c r="BF35" s="26"/>
@@ -7238,7 +7264,7 @@
     <row r="42" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>81</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="B42" s="46"/>
       <c r="D42" s="2">
@@ -7302,7 +7328,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BG38)</f>
-        <v>1616</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7348,7 +7374,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.002506265664167</v>
+        <v>81.654135338345867</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
@@ -7416,7 +7442,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7433,7 +7459,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="38">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7450,7 +7476,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7501,7 +7527,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7569,7 +7595,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7671,7 +7697,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7824,7 +7850,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7841,7 +7867,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="38">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F982114-B38E-42DC-A9B0-123A52EE90F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF648B-9BE0-4E90-B0B7-9E18F1C77312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="164">
   <si>
     <t>No.</t>
   </si>
@@ -1153,10 +1153,10 @@
   <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BM28" sqref="BM28"/>
+      <selection pane="bottomRight" activeCell="BP16" sqref="BP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,7 +3059,9 @@
       <c r="BF12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG12" s="10"/>
+      <c r="BG12" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:59" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -6521,7 +6523,9 @@
       <c r="BB34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC34" s="20"/>
+      <c r="BC34" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD34" s="23" t="s">
         <v>12</v>
       </c>
@@ -7264,7 +7268,7 @@
     <row r="42" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>81.599999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="B42" s="46"/>
       <c r="D42" s="2">
@@ -7328,7 +7332,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BG38)</f>
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7374,7 +7378,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.654135338345867</v>
+        <v>81.754385964912274</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
@@ -7476,7 +7480,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7850,7 +7854,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF648B-9BE0-4E90-B0B7-9E18F1C77312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05C39E4-9614-4486-A1BB-F2AD66E55514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="165">
   <si>
     <t>No.</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>MAT11</t>
+  </si>
+  <si>
+    <t>BASDA3</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -686,11 +689,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,19 +829,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,9 +863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,13 +1171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG78"/>
+  <dimension ref="A1:BH78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BP16" sqref="BP16"/>
+      <selection pane="bottomRight" activeCell="BU29" sqref="BU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,101 +1212,102 @@
     <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="8.88671875" style="1"/>
+    <col min="57" max="59" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="44" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="47" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="52" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="48" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="44" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="44" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="40" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="46" t="s">
         <v>162</v>
       </c>
+      <c r="BH1" s="47"/>
     </row>
-    <row r="2" spans="1:59" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+    <row r="2" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1457,10 +1479,13 @@
       <c r="BG2" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="BH2" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1632,8 +1657,11 @@
       <c r="BG3" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="BH3" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1806,8 +1834,9 @@
         <v>12</v>
       </c>
       <c r="BG4" s="10"/>
+      <c r="BH4" s="19"/>
     </row>
-    <row r="5" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1968,7 +1997,9 @@
       <c r="BA5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB5" s="26"/>
+      <c r="BB5" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC5" s="20"/>
       <c r="BD5" s="23" t="s">
         <v>12</v>
@@ -1978,8 +2009,9 @@
         <v>12</v>
       </c>
       <c r="BG5" s="10"/>
+      <c r="BH5" s="19"/>
     </row>
-    <row r="6" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2152,8 +2184,9 @@
         <v>12</v>
       </c>
       <c r="BG6" s="10"/>
+      <c r="BH6" s="19"/>
     </row>
-    <row r="7" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2294,8 +2327,9 @@
       <c r="BE7" s="20"/>
       <c r="BF7" s="26"/>
       <c r="BG7" s="10"/>
+      <c r="BH7" s="19"/>
     </row>
-    <row r="8" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2456,7 +2490,9 @@
       <c r="BA8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB8" s="26"/>
+      <c r="BB8" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC8" s="21" t="s">
         <v>12</v>
       </c>
@@ -2468,8 +2504,9 @@
         <v>12</v>
       </c>
       <c r="BG8" s="10"/>
+      <c r="BH8" s="19"/>
     </row>
-    <row r="9" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2598,8 +2635,9 @@
       <c r="BE9" s="20"/>
       <c r="BF9" s="26"/>
       <c r="BG9" s="10"/>
+      <c r="BH9" s="19"/>
     </row>
-    <row r="10" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2774,8 +2812,9 @@
         <v>12</v>
       </c>
       <c r="BG10" s="10"/>
+      <c r="BH10" s="19"/>
     </row>
-    <row r="11" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2884,8 +2923,9 @@
       <c r="BE11" s="20"/>
       <c r="BF11" s="26"/>
       <c r="BG11" s="10"/>
+      <c r="BH11" s="19"/>
     </row>
-    <row r="12" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3062,8 +3102,9 @@
       <c r="BG12" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="BH12" s="19"/>
     </row>
-    <row r="13" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3186,14 +3227,17 @@
       <c r="AY13" s="30"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="20"/>
-      <c r="BB13" s="26"/>
+      <c r="BB13" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC13" s="20"/>
       <c r="BD13" s="26"/>
       <c r="BE13" s="20"/>
       <c r="BF13" s="26"/>
       <c r="BG13" s="10"/>
+      <c r="BH13" s="19"/>
     </row>
-    <row r="14" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3368,8 +3412,9 @@
         <v>12</v>
       </c>
       <c r="BG14" s="10"/>
+      <c r="BH14" s="19"/>
     </row>
-    <row r="15" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3544,8 +3589,9 @@
         <v>12</v>
       </c>
       <c r="BG15" s="10"/>
+      <c r="BH15" s="19"/>
     </row>
-    <row r="16" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3712,8 +3758,9 @@
         <v>12</v>
       </c>
       <c r="BG16" s="10"/>
+      <c r="BH16" s="19"/>
     </row>
-    <row r="17" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3839,7 +3886,9 @@
       <c r="AR17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="5"/>
+      <c r="AS17" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="AT17" s="9"/>
       <c r="AU17" s="30"/>
       <c r="AV17" s="33"/>
@@ -3850,7 +3899,9 @@
       <c r="AY17" s="30"/>
       <c r="AZ17" s="33"/>
       <c r="BA17" s="20"/>
-      <c r="BB17" s="26"/>
+      <c r="BB17" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC17" s="20"/>
       <c r="BD17" s="23" t="s">
         <v>12</v>
@@ -3858,8 +3909,9 @@
       <c r="BE17" s="20"/>
       <c r="BF17" s="26"/>
       <c r="BG17" s="10"/>
+      <c r="BH17" s="19"/>
     </row>
-    <row r="18" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3996,8 +4048,9 @@
         <v>12</v>
       </c>
       <c r="BG18" s="10"/>
+      <c r="BH18" s="19"/>
     </row>
-    <row r="19" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4156,7 +4209,9 @@
       <c r="BA19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB19" s="26"/>
+      <c r="BB19" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC19" s="20"/>
       <c r="BD19" s="23" t="s">
         <v>12</v>
@@ -4168,8 +4223,9 @@
       <c r="BG19" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="BH19" s="19"/>
     </row>
-    <row r="20" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4330,7 +4386,9 @@
       <c r="BA20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB20" s="26"/>
+      <c r="BB20" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC20" s="20"/>
       <c r="BD20" s="26"/>
       <c r="BE20" s="20"/>
@@ -4338,8 +4396,9 @@
         <v>12</v>
       </c>
       <c r="BG20" s="10"/>
+      <c r="BH20" s="19"/>
     </row>
-    <row r="21" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4496,7 +4555,9 @@
         <v>12</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="26"/>
+      <c r="BB21" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC21" s="21" t="s">
         <v>12</v>
       </c>
@@ -4506,8 +4567,9 @@
         <v>12</v>
       </c>
       <c r="BG21" s="10"/>
+      <c r="BH21" s="19"/>
     </row>
-    <row r="22" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4674,8 +4736,9 @@
       <c r="BE22" s="20"/>
       <c r="BF22" s="26"/>
       <c r="BG22" s="10"/>
+      <c r="BH22" s="19"/>
     </row>
-    <row r="23" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4814,8 +4877,9 @@
       <c r="BE23" s="20"/>
       <c r="BF23" s="26"/>
       <c r="BG23" s="10"/>
+      <c r="BH23" s="19"/>
     </row>
-    <row r="24" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4948,8 +5012,9 @@
       <c r="BE24" s="20"/>
       <c r="BF24" s="26"/>
       <c r="BG24" s="10"/>
+      <c r="BH24" s="19"/>
     </row>
-    <row r="25" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5122,8 +5187,9 @@
         <v>12</v>
       </c>
       <c r="BG25" s="10"/>
+      <c r="BH25" s="19"/>
     </row>
-    <row r="26" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5284,7 +5350,9 @@
       <c r="BA26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB26" s="26"/>
+      <c r="BB26" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC26" s="21" t="s">
         <v>12</v>
       </c>
@@ -5298,8 +5366,9 @@
       <c r="BG26" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="BH26" s="19"/>
     </row>
-    <row r="27" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5472,8 +5541,9 @@
         <v>12</v>
       </c>
       <c r="BG27" s="10"/>
+      <c r="BH27" s="19"/>
     </row>
-    <row r="28" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5623,15 +5693,20 @@
         <v>12</v>
       </c>
       <c r="AZ28" s="33"/>
-      <c r="BA28" s="20"/>
+      <c r="BA28" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BB28" s="26"/>
       <c r="BC28" s="20"/>
       <c r="BD28" s="26"/>
       <c r="BE28" s="20"/>
       <c r="BF28" s="26"/>
-      <c r="BG28" s="10"/>
+      <c r="BG28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH28" s="19"/>
     </row>
-    <row r="29" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5802,8 +5877,9 @@
       <c r="BE29" s="20"/>
       <c r="BF29" s="26"/>
       <c r="BG29" s="10"/>
+      <c r="BH29" s="19"/>
     </row>
-    <row r="30" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5902,8 +5978,9 @@
       <c r="BE30" s="20"/>
       <c r="BF30" s="26"/>
       <c r="BG30" s="10"/>
+      <c r="BH30" s="19"/>
     </row>
-    <row r="31" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6048,8 +6125,9 @@
       <c r="BE31" s="20"/>
       <c r="BF31" s="26"/>
       <c r="BG31" s="10"/>
+      <c r="BH31" s="19"/>
     </row>
-    <row r="32" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6210,7 +6288,9 @@
       <c r="BA32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB32" s="26"/>
+      <c r="BB32" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC32" s="21" t="s">
         <v>12</v>
       </c>
@@ -6222,8 +6302,9 @@
         <v>12</v>
       </c>
       <c r="BG32" s="10"/>
+      <c r="BH32" s="19"/>
     </row>
-    <row r="33" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6354,14 +6435,17 @@
       <c r="AY33" s="30"/>
       <c r="AZ33" s="33"/>
       <c r="BA33" s="20"/>
-      <c r="BB33" s="26"/>
+      <c r="BB33" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BC33" s="20"/>
       <c r="BD33" s="26"/>
       <c r="BE33" s="20"/>
       <c r="BF33" s="26"/>
       <c r="BG33" s="10"/>
+      <c r="BH33" s="19"/>
     </row>
-    <row r="34" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6534,14 +6618,15 @@
         <v>12</v>
       </c>
       <c r="BG34" s="10"/>
+      <c r="BH34" s="19"/>
     </row>
-    <row r="35" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>IF(I75 &lt;= K45, D75, B75)</f>
-        <v>Silvana Putri Ariani</v>
+        <v>Silvana Putri Ariani,</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>12</v>
@@ -6704,8 +6789,9 @@
       <c r="BE35" s="20"/>
       <c r="BF35" s="26"/>
       <c r="BG35" s="10"/>
+      <c r="BH35" s="19"/>
     </row>
-    <row r="36" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6880,14 +6966,15 @@
       <c r="BG36" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="BH36" s="19"/>
     </row>
-    <row r="37" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>IF(I77 &lt;= K45, D77, B77)</f>
-        <v>Usama Fadlillah,</v>
+        <v>Usama Fadlillah</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>12</v>
@@ -7015,11 +7102,15 @@
       <c r="AR37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AS37" s="5"/>
+      <c r="AS37" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="AT37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AU37" s="30"/>
+      <c r="AU37" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AV37" s="31" t="s">
         <v>12</v>
       </c>
@@ -7029,13 +7120,21 @@
       <c r="AX37" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AY37" s="30"/>
+      <c r="AY37" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ37" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA37" s="20"/>
-      <c r="BB37" s="26"/>
-      <c r="BC37" s="20"/>
+      <c r="BA37" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC37" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD37" s="23" t="s">
         <v>12</v>
       </c>
@@ -7044,8 +7143,9 @@
         <v>12</v>
       </c>
       <c r="BG37" s="10"/>
+      <c r="BH37" s="19"/>
     </row>
-    <row r="38" spans="1:59" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7204,32 +7304,33 @@
         <v>12</v>
       </c>
       <c r="BG38" s="10"/>
+      <c r="BH38" s="19"/>
     </row>
-    <row r="40" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="49"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+    <row r="41" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7263,14 +7364,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+    <row r="42" spans="1:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
-        <v>81.7</v>
-      </c>
-      <c r="B42" s="46"/>
+        <v>81.2</v>
+      </c>
+      <c r="B42" s="52"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7293,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="K42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="2">
         <v>6</v>
@@ -7306,11 +7407,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7323,19 +7424,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BG4)</f>
+        <f>COUNTA(C4:BH4)</f>
         <v>54</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BG3)</f>
-        <v>57</v>
+        <f>COUNTA(C3:BH3)</f>
+        <v>58</v>
       </c>
       <c r="M44" s="39">
-        <f>COUNTA(C4:BG38)</f>
-        <v>1631</v>
+        <f>COUNTA(C4:BH38)</f>
+        <v>1650</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7348,19 +7449,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BG5)</f>
-        <v>53</v>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BH5)</f>
+        <v>54</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>1995</v>
+        <v>2030</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7378,10 +7479,10 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.754385964912274</v>
+        <v>81.2807881773399</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7398,7 +7499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7412,7 +7513,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7497,7 +7598,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7565,7 +7666,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="38">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7599,7 +7700,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7616,7 +7717,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7633,7 +7734,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7718,7 +7819,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7752,7 +7853,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="38">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7820,7 +7921,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7837,7 +7938,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7905,7 +8006,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="38">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7926,9 +8027,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="A40:B41"/>
+  <mergeCells count="17">
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -7938,11 +8037,14 @@
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="A40:B41"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05C39E4-9614-4486-A1BB-F2AD66E55514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711B3D5-C24B-4DAF-99BC-594F00A9D48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="165">
   <si>
     <t>No.</t>
   </si>
@@ -832,7 +832,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,28 +862,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,10 +1174,10 @@
   <dimension ref="A1:BH78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BU29" sqref="BU29"/>
+      <selection pane="bottomRight" activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,96 +1218,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="51" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="45" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="48" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="46" t="s">
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="47"/>
+      <c r="BH1" s="54"/>
     </row>
     <row r="2" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1484,8 +1484,8 @@
       </c>
     </row>
     <row r="3" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -6955,7 +6955,9 @@
       <c r="BB36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC36" s="20"/>
+      <c r="BC36" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD36" s="23" t="s">
         <v>12</v>
       </c>
@@ -6966,7 +6968,9 @@
       <c r="BG36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH36" s="19"/>
+      <c r="BH36" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -7307,30 +7311,30 @@
       <c r="BH38" s="19"/>
     </row>
     <row r="40" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="55"/>
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7364,14 +7368,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="51"/>
     </row>
     <row r="42" spans="1:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52">
+      <c r="A42" s="45">
         <f>TRUNC(M46,1)</f>
-        <v>81.2</v>
-      </c>
-      <c r="B42" s="52"/>
+        <v>81.3</v>
+      </c>
+      <c r="B42" s="45"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7433,7 +7437,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BH38)</f>
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="45" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7479,7 +7483,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.2807881773399</v>
+        <v>81.379310344827587</v>
       </c>
     </row>
     <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
@@ -7989,7 +7993,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8028,6 +8032,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8038,13 +8049,6 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711B3D5-C24B-4DAF-99BC-594F00A9D48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D879658-C575-4101-87ED-16403DADA60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>BASDA3</t>
+  </si>
+  <si>
+    <t>BING7</t>
+  </si>
+  <si>
+    <t>PAI11</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +833,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH78"/>
+  <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA40" sqref="AA40"/>
+      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,97 +1226,99 @@
     <col min="61" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="52" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="47" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="46" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="49" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="53" t="s">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="54"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
     </row>
-    <row r="2" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+    <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1482,10 +1493,16 @@
       <c r="BH2" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="BI2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="45" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+    <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1660,14 +1677,20 @@
       <c r="BH3" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="BI3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>IF(I44 &lt;= K45, D44, B44)</f>
-        <v>Abu Abdirrahman Zenky</v>
+        <v>Abu Abdirrahman Zenky,</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>12</v>
@@ -1835,14 +1858,16 @@
       </c>
       <c r="BG4" s="10"/>
       <c r="BH4" s="19"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="19"/>
     </row>
-    <row r="5" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>IF(I45 &lt;= K45, D45, B45)</f>
-        <v>Alief Faza Rizqi Adi Jaya</v>
+        <v>Alief Faza Rizqi Adi Jaya,</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>12</v>
@@ -2010,8 +2035,10 @@
       </c>
       <c r="BG5" s="10"/>
       <c r="BH5" s="19"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="19"/>
     </row>
-    <row r="6" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2175,7 +2202,9 @@
       <c r="BB6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC6" s="20"/>
+      <c r="BC6" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD6" s="23" t="s">
         <v>12</v>
       </c>
@@ -2185,8 +2214,10 @@
       </c>
       <c r="BG6" s="10"/>
       <c r="BH6" s="19"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="19"/>
     </row>
-    <row r="7" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2328,8 +2359,10 @@
       <c r="BF7" s="26"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="19"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="19"/>
     </row>
-    <row r="8" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2505,8 +2538,10 @@
       </c>
       <c r="BG8" s="10"/>
       <c r="BH8" s="19"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="19"/>
     </row>
-    <row r="9" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2636,8 +2671,10 @@
       <c r="BF9" s="26"/>
       <c r="BG9" s="10"/>
       <c r="BH9" s="19"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="19"/>
     </row>
-    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2813,8 +2850,10 @@
       </c>
       <c r="BG10" s="10"/>
       <c r="BH10" s="19"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="19"/>
     </row>
-    <row r="11" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2924,8 +2963,10 @@
       <c r="BF11" s="26"/>
       <c r="BG11" s="10"/>
       <c r="BH11" s="19"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="19"/>
     </row>
-    <row r="12" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3103,8 +3144,10 @@
         <v>12</v>
       </c>
       <c r="BH12" s="19"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="19"/>
     </row>
-    <row r="13" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3236,8 +3279,10 @@
       <c r="BF13" s="26"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="19"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="19"/>
     </row>
-    <row r="14" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3413,8 +3458,10 @@
       </c>
       <c r="BG14" s="10"/>
       <c r="BH14" s="19"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="19"/>
     </row>
-    <row r="15" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3590,8 +3637,10 @@
       </c>
       <c r="BG15" s="10"/>
       <c r="BH15" s="19"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="19"/>
     </row>
-    <row r="16" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3759,8 +3808,10 @@
       </c>
       <c r="BG16" s="10"/>
       <c r="BH16" s="19"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="19"/>
     </row>
-    <row r="17" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3910,8 +3961,10 @@
       <c r="BF17" s="26"/>
       <c r="BG17" s="10"/>
       <c r="BH17" s="19"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="19"/>
     </row>
-    <row r="18" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4049,14 +4102,16 @@
       </c>
       <c r="BG18" s="10"/>
       <c r="BH18" s="19"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="19"/>
     </row>
-    <row r="19" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>IF(I59 &lt;= K45, D59, B59)</f>
-        <v>Muhammad Athala Romero</v>
+        <v>Muhammad Athala Romero,</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>12</v>
@@ -4224,14 +4279,16 @@
         <v>12</v>
       </c>
       <c r="BH19" s="19"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="19"/>
     </row>
-    <row r="20" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>IF(I60 &lt;= K45, D60, B60)</f>
-        <v>Muhammad Farhan</v>
+        <v>Muhammad Farhan,</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>12</v>
@@ -4397,8 +4454,10 @@
       </c>
       <c r="BG20" s="10"/>
       <c r="BH20" s="19"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="19"/>
     </row>
-    <row r="21" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4568,8 +4627,10 @@
       </c>
       <c r="BG21" s="10"/>
       <c r="BH21" s="19"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="19"/>
     </row>
-    <row r="22" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4737,8 +4798,10 @@
       <c r="BF22" s="26"/>
       <c r="BG22" s="10"/>
       <c r="BH22" s="19"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="19"/>
     </row>
-    <row r="23" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4878,8 +4941,10 @@
       <c r="BF23" s="26"/>
       <c r="BG23" s="10"/>
       <c r="BH23" s="19"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="19"/>
     </row>
-    <row r="24" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5013,14 +5078,16 @@
       <c r="BF24" s="26"/>
       <c r="BG24" s="10"/>
       <c r="BH24" s="19"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="19"/>
     </row>
-    <row r="25" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>IF(I65 &lt;= K45, D65, B65)</f>
-        <v>Nasywa Mawaddah</v>
+        <v>Nasywa Mawaddah,</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>12</v>
@@ -5188,8 +5255,10 @@
       </c>
       <c r="BG25" s="10"/>
       <c r="BH25" s="19"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="19"/>
     </row>
-    <row r="26" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5366,15 +5435,19 @@
       <c r="BG26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH26" s="19"/>
+      <c r="BH26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="19"/>
     </row>
-    <row r="27" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>IF(I67 &lt;= K45, D67, B67)</f>
-        <v>Nicholas Davin Yang</v>
+        <v>Nicholas Davin Yang,</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>12</v>
@@ -5542,8 +5615,10 @@
       </c>
       <c r="BG27" s="10"/>
       <c r="BH27" s="19"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="19"/>
     </row>
-    <row r="28" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5705,14 +5780,16 @@
         <v>12</v>
       </c>
       <c r="BH28" s="19"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="19"/>
     </row>
-    <row r="29" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>IF(I69 &lt;= K45, D69, B69)</f>
-        <v>O'neil Kerry Laurent</v>
+        <v>O'neil Kerry Laurent,</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>12</v>
@@ -5878,8 +5955,10 @@
       <c r="BF29" s="26"/>
       <c r="BG29" s="10"/>
       <c r="BH29" s="19"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="19"/>
     </row>
-    <row r="30" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5979,8 +6058,10 @@
       <c r="BF30" s="26"/>
       <c r="BG30" s="10"/>
       <c r="BH30" s="19"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="19"/>
     </row>
-    <row r="31" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6126,8 +6207,10 @@
       <c r="BF31" s="26"/>
       <c r="BG31" s="10"/>
       <c r="BH31" s="19"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="19"/>
     </row>
-    <row r="32" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6301,10 +6384,16 @@
       <c r="BF32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="19"/>
+      <c r="BG32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="19"/>
     </row>
-    <row r="33" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6427,7 +6516,9 @@
       </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="30"/>
-      <c r="AV33" s="33"/>
+      <c r="AV33" s="31" t="s">
+        <v>12</v>
+      </c>
       <c r="AW33" s="30"/>
       <c r="AX33" s="31" t="s">
         <v>12</v>
@@ -6444,14 +6535,16 @@
       <c r="BF33" s="26"/>
       <c r="BG33" s="10"/>
       <c r="BH33" s="19"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="19"/>
     </row>
-    <row r="34" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani</v>
+        <v>Shabrina Cahyani,</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6619,8 +6712,10 @@
       </c>
       <c r="BG34" s="10"/>
       <c r="BH34" s="19"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="19"/>
     </row>
-    <row r="35" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6790,8 +6885,10 @@
       <c r="BF35" s="26"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="19"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="19"/>
     </row>
-    <row r="36" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6961,7 +7058,9 @@
       <c r="BD36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BE36" s="20"/>
+      <c r="BE36" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BF36" s="23" t="s">
         <v>12</v>
       </c>
@@ -6971,8 +7070,10 @@
       <c r="BH36" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="19"/>
     </row>
-    <row r="37" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7148,8 +7249,10 @@
       </c>
       <c r="BG37" s="10"/>
       <c r="BH37" s="19"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="19"/>
     </row>
-    <row r="38" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7309,32 +7412,34 @@
       </c>
       <c r="BG38" s="10"/>
       <c r="BH38" s="19"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="19"/>
     </row>
-    <row r="40" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="56"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7368,14 +7473,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="52"/>
     </row>
-    <row r="42" spans="1:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+    <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>81.3</v>
-      </c>
-      <c r="B42" s="45"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="B42" s="46"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7386,7 +7491,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2">
         <v>5</v>
@@ -7401,7 +7506,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M42" s="2">
         <v>6</v>
@@ -7411,11 +7516,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7428,19 +7533,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BH4)</f>
+        <f>COUNTA(C4:BJ4)</f>
         <v>54</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BH3)</f>
-        <v>58</v>
+        <f>COUNTA(C3:BJ3)</f>
+        <v>60</v>
       </c>
       <c r="M44" s="39">
-        <f>COUNTA(C4:BH38)</f>
-        <v>1652</v>
+        <f>COUNTA(C4:BJ38)</f>
+        <v>1658</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7453,19 +7558,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BH5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BJ5)</f>
         <v>54</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>2030</v>
+        <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7479,14 +7584,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.379310344827587</v>
+        <v>78.952380952380949</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7503,7 +7608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7823,7 +7928,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7925,7 +8030,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7942,7 +8047,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7993,7 +8098,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8033,12 +8138,12 @@
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BG1:BH1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D879658-C575-4101-87ED-16403DADA60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D61E4F-1A08-4225-B9D3-E42F4DD4EDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -841,6 +841,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,9 +862,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,12 +869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O42" sqref="O42"/>
+      <selection pane="bottomRight" activeCell="BD15" sqref="BD15:BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,102 +1223,104 @@
     <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="59" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="8.88671875" style="1"/>
+    <col min="61" max="61" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="47" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="53" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="48" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="54" t="s">
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
     </row>
     <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1501,8 +1503,8 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -3638,7 +3640,9 @@
       <c r="BG15" s="10"/>
       <c r="BH15" s="19"/>
       <c r="BI15" s="10"/>
-      <c r="BJ15" s="19"/>
+      <c r="BJ15" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -4111,7 +4115,7 @@
       </c>
       <c r="B19" s="4" t="str">
         <f>IF(I59 &lt;= K45, D59, B59)</f>
-        <v>Muhammad Athala Romero,</v>
+        <v>Muhammad Athala Romero</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>12</v>
@@ -4280,7 +4284,9 @@
       </c>
       <c r="BH19" s="19"/>
       <c r="BI19" s="10"/>
-      <c r="BJ19" s="19"/>
+      <c r="BJ19" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -5447,7 +5453,7 @@
       </c>
       <c r="B27" s="4" t="str">
         <f>IF(I67 &lt;= K45, D67, B67)</f>
-        <v>Nicholas Davin Yang,</v>
+        <v>Nicholas Davin Yang</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>12</v>
@@ -5616,7 +5622,9 @@
       <c r="BG27" s="10"/>
       <c r="BH27" s="19"/>
       <c r="BI27" s="10"/>
-      <c r="BJ27" s="19"/>
+      <c r="BJ27" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="28" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -5956,7 +5964,9 @@
       <c r="BG29" s="10"/>
       <c r="BH29" s="19"/>
       <c r="BI29" s="10"/>
-      <c r="BJ29" s="19"/>
+      <c r="BJ29" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -6059,7 +6069,9 @@
       <c r="BG30" s="10"/>
       <c r="BH30" s="19"/>
       <c r="BI30" s="10"/>
-      <c r="BJ30" s="19"/>
+      <c r="BJ30" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -6391,7 +6403,9 @@
         <v>12</v>
       </c>
       <c r="BI32" s="10"/>
-      <c r="BJ32" s="19"/>
+      <c r="BJ32" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -7413,27 +7427,29 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="19"/>
       <c r="BI38" s="10"/>
-      <c r="BJ38" s="19"/>
+      <c r="BJ38" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="56" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="56"/>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7473,14 +7489,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+      <c r="A42" s="49">
         <f>TRUNC(M46,1)</f>
-        <v>78.900000000000006</v>
-      </c>
-      <c r="B42" s="46"/>
+        <v>79.2</v>
+      </c>
+      <c r="B42" s="49"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7542,7 +7558,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1658</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7588,7 +7604,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>78.952380952380949</v>
+        <v>79.285714285714292</v>
       </c>
     </row>
     <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
@@ -7741,7 +7757,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7809,7 +7825,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7945,7 +7961,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7979,7 +7995,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7996,7 +8012,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="38">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8030,7 +8046,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8132,15 +8148,11 @@
       <c r="H78" s="3"/>
       <c r="I78" s="38">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="BG1:BJ1"/>
@@ -8154,6 +8166,10 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D61E4F-1A08-4225-B9D3-E42F4DD4EDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771D66D-4798-48AF-8589-0272BEBB3DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7008" yWindow="84" windowWidth="11496" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -841,6 +841,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,13 +856,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,9 +869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1182,11 +1182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BD15" sqref="BD15:BJ15"/>
+      <selection pane="bottomRight" activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,10 +1229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="51" t="s">
@@ -1242,30 +1242,30 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="50" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="55" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
       <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
@@ -1276,25 +1276,25 @@
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="50" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
       <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
@@ -1303,24 +1303,24 @@
       <c r="AX1" s="51"/>
       <c r="AY1" s="51"/>
       <c r="AZ1" s="51"/>
-      <c r="BA1" s="46" t="s">
+      <c r="BA1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="47" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
     </row>
     <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f>IF(I44 &lt;= K45, D44, B44)</f>
-        <v>Abu Abdirrahman Zenky,</v>
+        <v>Abu Abdirrahman Zenky</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>12</v>
@@ -1861,7 +1861,9 @@
       <c r="BG4" s="10"/>
       <c r="BH4" s="19"/>
       <c r="BI4" s="10"/>
-      <c r="BJ4" s="19"/>
+      <c r="BJ4" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -1869,7 +1871,7 @@
       </c>
       <c r="B5" s="4" t="str">
         <f>IF(I45 &lt;= K45, D45, B45)</f>
-        <v>Alief Faza Rizqi Adi Jaya,</v>
+        <v>Alief Faza Rizqi Adi Jaya</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>12</v>
@@ -2027,7 +2029,9 @@
       <c r="BB5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC5" s="20"/>
+      <c r="BC5" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD5" s="23" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2042,9 @@
       <c r="BG5" s="10"/>
       <c r="BH5" s="19"/>
       <c r="BI5" s="10"/>
-      <c r="BJ5" s="19"/>
+      <c r="BJ5" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2217,7 +2223,9 @@
       <c r="BG6" s="10"/>
       <c r="BH6" s="19"/>
       <c r="BI6" s="10"/>
-      <c r="BJ6" s="19"/>
+      <c r="BJ6" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2541,7 +2549,9 @@
       <c r="BG8" s="10"/>
       <c r="BH8" s="19"/>
       <c r="BI8" s="10"/>
-      <c r="BJ8" s="19"/>
+      <c r="BJ8" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2853,7 +2863,9 @@
       <c r="BG10" s="10"/>
       <c r="BH10" s="19"/>
       <c r="BI10" s="10"/>
-      <c r="BJ10" s="19"/>
+      <c r="BJ10" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -3147,7 +3159,9 @@
       </c>
       <c r="BH12" s="19"/>
       <c r="BI12" s="10"/>
-      <c r="BJ12" s="19"/>
+      <c r="BJ12" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -3637,7 +3651,9 @@
       <c r="BF15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG15" s="10"/>
+      <c r="BG15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH15" s="19"/>
       <c r="BI15" s="10"/>
       <c r="BJ15" s="19" t="s">
@@ -3813,7 +3829,7 @@
       <c r="BG16" s="10"/>
       <c r="BH16" s="19"/>
       <c r="BI16" s="10"/>
-      <c r="BJ16" s="19"/>
+      <c r="BJ16" s="18"/>
     </row>
     <row r="17" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -4271,7 +4287,9 @@
       <c r="BB19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC19" s="20"/>
+      <c r="BC19" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD19" s="23" t="s">
         <v>12</v>
       </c>
@@ -4283,7 +4301,9 @@
         <v>12</v>
       </c>
       <c r="BH19" s="19"/>
-      <c r="BI19" s="10"/>
+      <c r="BI19" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ19" s="18" t="s">
         <v>12</v>
       </c>
@@ -4294,7 +4314,7 @@
       </c>
       <c r="B20" s="4" t="str">
         <f>IF(I60 &lt;= K45, D60, B60)</f>
-        <v>Muhammad Farhan,</v>
+        <v>Muhammad Farhan</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>12</v>
@@ -4452,7 +4472,9 @@
       <c r="BB20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC20" s="20"/>
+      <c r="BC20" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD20" s="26"/>
       <c r="BE20" s="20"/>
       <c r="BF20" s="23" t="s">
@@ -4461,7 +4483,9 @@
       <c r="BG20" s="10"/>
       <c r="BH20" s="19"/>
       <c r="BI20" s="10"/>
-      <c r="BJ20" s="19"/>
+      <c r="BJ20" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -4801,11 +4825,15 @@
       </c>
       <c r="BD22" s="26"/>
       <c r="BE22" s="20"/>
-      <c r="BF22" s="26"/>
+      <c r="BF22" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BG22" s="10"/>
       <c r="BH22" s="19"/>
       <c r="BI22" s="10"/>
-      <c r="BJ22" s="19"/>
+      <c r="BJ22" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -4948,7 +4976,9 @@
       <c r="BG23" s="10"/>
       <c r="BH23" s="19"/>
       <c r="BI23" s="10"/>
-      <c r="BJ23" s="19"/>
+      <c r="BJ23" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -5093,7 +5123,7 @@
       </c>
       <c r="B25" s="4" t="str">
         <f>IF(I65 &lt;= K45, D65, B65)</f>
-        <v>Nasywa Mawaddah,</v>
+        <v>Nasywa Mawaddah</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>12</v>
@@ -5262,7 +5292,9 @@
       <c r="BG25" s="10"/>
       <c r="BH25" s="19"/>
       <c r="BI25" s="10"/>
-      <c r="BJ25" s="19"/>
+      <c r="BJ25" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -5444,8 +5476,12 @@
       <c r="BH26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="19"/>
+      <c r="BI26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ26" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -5789,7 +5825,9 @@
       </c>
       <c r="BH28" s="19"/>
       <c r="BI28" s="10"/>
-      <c r="BJ28" s="19"/>
+      <c r="BJ28" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -6402,7 +6440,9 @@
       <c r="BH32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI32" s="10"/>
+      <c r="BI32" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ32" s="18" t="s">
         <v>12</v>
       </c>
@@ -6558,7 +6598,7 @@
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani,</v>
+        <v>Shabrina Cahyani</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6727,7 +6767,9 @@
       <c r="BG34" s="10"/>
       <c r="BH34" s="19"/>
       <c r="BI34" s="10"/>
-      <c r="BJ34" s="19"/>
+      <c r="BJ34" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -6900,7 +6942,9 @@
       <c r="BG35" s="10"/>
       <c r="BH35" s="19"/>
       <c r="BI35" s="10"/>
-      <c r="BJ35" s="19"/>
+      <c r="BJ35" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -7085,7 +7129,9 @@
         <v>12</v>
       </c>
       <c r="BI36" s="10"/>
-      <c r="BJ36" s="19"/>
+      <c r="BJ36" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -7264,7 +7310,9 @@
       <c r="BG37" s="10"/>
       <c r="BH37" s="19"/>
       <c r="BI37" s="10"/>
-      <c r="BJ37" s="19"/>
+      <c r="BJ37" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -7436,20 +7484,20 @@
         <v>58</v>
       </c>
       <c r="B40" s="56"/>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="53" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7489,14 +7537,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="54"/>
+      <c r="O41" s="55"/>
     </row>
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49">
+      <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
-        <v>79.2</v>
-      </c>
-      <c r="B42" s="49"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="B42" s="52"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7550,7 +7598,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="38">
         <f>COUNTA(C4:BJ4)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44" s="1">
         <f>COUNTA(C3:BJ3)</f>
@@ -7558,7 +7606,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1665</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7575,7 +7623,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="38">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BJ5)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
@@ -7600,11 +7648,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>79.285714285714292</v>
+        <v>80.428571428571431</v>
       </c>
     </row>
     <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
@@ -7638,7 +7686,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7672,7 +7720,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7706,7 +7754,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7757,7 +7805,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7825,7 +7873,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7842,7 +7890,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7876,7 +7924,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="38">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7893,7 +7941,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7927,7 +7975,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7944,7 +7992,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="38">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7978,7 +8026,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="38">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8046,7 +8094,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8080,7 +8128,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8097,7 +8145,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8114,7 +8162,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8131,7 +8179,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8153,9 +8201,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8166,10 +8211,13 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771D66D-4798-48AF-8589-0272BEBB3DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E3A6C-7188-4218-8DA1-0D50BF351EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7008" yWindow="84" windowWidth="11496" windowHeight="12276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -841,28 +841,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +862,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BJ9" sqref="BJ9"/>
+      <selection pane="bottomRight" activeCell="BL30" sqref="BL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,29 +1229,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
@@ -1261,66 +1261,66 @@
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
       <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="48" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="49" t="s">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
     </row>
     <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -3472,10 +3472,14 @@
       <c r="BF14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG14" s="10"/>
+      <c r="BG14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH14" s="19"/>
       <c r="BI14" s="10"/>
-      <c r="BJ14" s="19"/>
+      <c r="BJ14" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -4658,7 +4662,9 @@
       <c r="BG21" s="10"/>
       <c r="BH21" s="19"/>
       <c r="BI21" s="10"/>
-      <c r="BJ21" s="19"/>
+      <c r="BJ21" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -7309,7 +7315,9 @@
       </c>
       <c r="BG37" s="10"/>
       <c r="BH37" s="19"/>
-      <c r="BI37" s="10"/>
+      <c r="BI37" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ37" s="18" t="s">
         <v>12</v>
       </c>
@@ -7480,30 +7488,30 @@
       </c>
     </row>
     <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="54"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7537,14 +7545,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52">
+      <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>80.400000000000006</v>
-      </c>
-      <c r="B42" s="52"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B42" s="46"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7606,7 +7614,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1689</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7652,7 +7660,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.428571428571431</v>
+        <v>80.61904761904762</v>
       </c>
     </row>
     <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
@@ -7788,7 +7796,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7907,7 +7915,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="38">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8179,7 +8187,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8201,6 +8209,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8212,12 +8226,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260E3A6C-7188-4218-8DA1-0D50BF351EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D4A5E3-0C3F-4049-AE5F-8C5430734D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -841,19 +841,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,16 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1186,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL30" sqref="BL30"/>
+      <selection pane="bottomRight" activeCell="BG12" sqref="BG12:BJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,29 +1229,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
@@ -1261,66 +1261,66 @@
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="48" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
       <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="55" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
     </row>
     <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -3158,7 +3158,9 @@
         <v>12</v>
       </c>
       <c r="BH12" s="19"/>
-      <c r="BI12" s="10"/>
+      <c r="BI12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ12" s="18" t="s">
         <v>12</v>
       </c>
@@ -7488,30 +7490,30 @@
       </c>
     </row>
     <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="56"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7545,14 +7547,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="55"/>
     </row>
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+      <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
         <v>80.599999999999994</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="52"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7614,7 +7616,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7660,7 +7662,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.61904761904762</v>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
@@ -7762,7 +7764,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8209,12 +8211,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8226,6 +8222,12 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Test\Web-Kelas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D4A5E3-0C3F-4049-AE5F-8C5430734D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CDC353-5387-426C-A137-46772ECC9E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,28 +841,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +862,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1186,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG12" sqref="BG12:BJ12"/>
+      <selection pane="bottomRight" activeCell="BL7" sqref="BL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,29 +1229,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
@@ -1261,66 +1261,66 @@
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
       <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="48" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="49" t="s">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
     </row>
     <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -7490,30 +7490,30 @@
       </c>
     </row>
     <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="54"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7547,14 +7547,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="52"/>
     </row>
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52">
+      <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
         <v>80.599999999999994</v>
       </c>
-      <c r="B42" s="52"/>
+      <c r="B42" s="46"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -8211,6 +8211,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8222,12 +8228,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Test\Web-Kelas\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CDC353-5387-426C-A137-46772ECC9E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="15" windowWidth="11490" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -534,7 +528,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,7 +954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -995,7 +989,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1172,63 +1166,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL7" sqref="BL7"/>
+      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="1"/>
+    <col min="56" max="56" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1312,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="41" t="s">
@@ -1502,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
@@ -1686,7 +1680,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2046,7 +2040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2372,7 +2366,7 @@
       <c r="BI7" s="10"/>
       <c r="BJ7" s="19"/>
     </row>
-    <row r="8" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2546,14 +2540,16 @@
       <c r="BF8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG8" s="10"/>
+      <c r="BG8" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH8" s="19"/>
       <c r="BI8" s="10"/>
       <c r="BJ8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2686,7 +2682,7 @@
       <c r="BI9" s="10"/>
       <c r="BJ9" s="19"/>
     </row>
-    <row r="10" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2980,7 +2976,7 @@
       <c r="BI11" s="10"/>
       <c r="BJ11" s="19"/>
     </row>
-    <row r="12" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3300,7 +3296,7 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="19"/>
     </row>
-    <row r="14" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3483,7 +3479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3837,7 +3833,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="18"/>
     </row>
-    <row r="17" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3990,7 +3986,7 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="19"/>
     </row>
-    <row r="18" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4131,7 +4127,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="19"/>
     </row>
-    <row r="19" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4314,7 +4310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4486,14 +4482,16 @@
       <c r="BF20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG20" s="10"/>
+      <c r="BG20" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH20" s="19"/>
       <c r="BI20" s="10"/>
       <c r="BJ20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5125,7 +5123,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="19"/>
     </row>
-    <row r="25" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5670,7 +5668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5837,7 +5835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6014,7 +6012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6119,7 +6117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6268,7 +6266,7 @@
       <c r="BI31" s="10"/>
       <c r="BJ31" s="19"/>
     </row>
-    <row r="32" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6455,7 +6453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6600,7 +6598,7 @@
       <c r="BI33" s="10"/>
       <c r="BJ33" s="19"/>
     </row>
-    <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6779,7 +6777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6954,7 +6952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7141,7 +7139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7324,7 +7322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>58</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="54"/>
       <c r="D41" s="36" t="s">
@@ -7549,10 +7547,10 @@
       </c>
       <c r="O41" s="52"/>
     </row>
-    <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:62" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>80.599999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="B42" s="46"/>
       <c r="D42" s="2">
@@ -7593,8 +7591,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7616,10 +7614,10 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1694</v>
+        <v>1696</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7662,10 +7660,10 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.666666666666671</v>
+        <v>80.761904761904759</v>
       </c>
     </row>
-    <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7682,7 +7680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7696,10 +7694,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="37" t="s">
         <v>17</v>
       </c>
@@ -7716,7 +7714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>18</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>19</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
         <v>20</v>
       </c>
@@ -7767,7 +7765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>21</v>
       </c>
@@ -7784,7 +7782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="37" t="s">
         <v>22</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="37" t="s">
         <v>23</v>
       </c>
@@ -7818,7 +7816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
         <v>24</v>
       </c>
@@ -7835,7 +7833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="37" t="s">
         <v>25</v>
       </c>
@@ -7852,7 +7850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="37" t="s">
         <v>26</v>
       </c>
@@ -7869,7 +7867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="37" t="s">
         <v>27</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="37" t="s">
         <v>28</v>
       </c>
@@ -7900,10 +7898,10 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>29</v>
       </c>
@@ -7920,7 +7918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>30</v>
       </c>
@@ -7937,7 +7935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>31</v>
       </c>
@@ -7954,7 +7952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>32</v>
       </c>
@@ -7971,7 +7969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
         <v>33</v>
       </c>
@@ -7988,7 +7986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>34</v>
       </c>
@@ -8005,7 +8003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>35</v>
       </c>
@@ -8022,7 +8020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>36</v>
       </c>
@@ -8039,7 +8037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
         <v>37</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>38</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>39</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>40</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="37" t="s">
         <v>41</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>42</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="37" t="s">
         <v>43</v>
       </c>
@@ -8158,7 +8156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>44</v>
       </c>
@@ -8175,7 +8173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
         <v>45</v>
       </c>
@@ -8192,7 +8190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="37" t="s">
         <v>46</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F31EE-CFAA-4F34-9B4D-E8E93811F737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="15" windowWidth="11490" windowHeight="10500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$38</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -528,7 +534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,19 +841,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,16 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -989,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1166,86 +1172,86 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AV29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
+      <selection pane="bottomRight" activeCell="BG29" sqref="BG29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.85546875" style="1"/>
+    <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
@@ -1255,66 +1261,66 @@
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="48" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
       <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="50" t="s">
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="55" t="s">
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+    <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1496,9 +1502,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2214,14 +2220,16 @@
       <c r="BF6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG6" s="10"/>
+      <c r="BG6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH6" s="19"/>
       <c r="BI6" s="10"/>
       <c r="BJ6" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2366,7 +2374,7 @@
       <c r="BI7" s="10"/>
       <c r="BJ7" s="19"/>
     </row>
-    <row r="8" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2540,16 +2548,14 @@
       <c r="BF8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG8" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="BG8" s="10"/>
       <c r="BH8" s="19"/>
       <c r="BI8" s="10"/>
       <c r="BJ8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2682,7 +2688,7 @@
       <c r="BI9" s="10"/>
       <c r="BJ9" s="19"/>
     </row>
-    <row r="10" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2856,14 +2862,16 @@
       <c r="BF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG10" s="10"/>
+      <c r="BG10" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH10" s="19"/>
       <c r="BI10" s="10"/>
       <c r="BJ10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2976,7 +2984,7 @@
       <c r="BI11" s="10"/>
       <c r="BJ11" s="19"/>
     </row>
-    <row r="12" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3146,7 +3154,9 @@
       <c r="BD12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BE12" s="20"/>
+      <c r="BE12" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BF12" s="23" t="s">
         <v>12</v>
       </c>
@@ -3161,7 +3171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3296,7 +3306,7 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="19"/>
     </row>
-    <row r="14" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3479,7 +3489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3833,7 +3843,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="18"/>
     </row>
-    <row r="17" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3986,7 +3996,7 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="19"/>
     </row>
-    <row r="18" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4127,7 +4137,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="19"/>
     </row>
-    <row r="19" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4310,7 +4320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4482,16 +4492,14 @@
       <c r="BF20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG20" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="BG20" s="10"/>
       <c r="BH20" s="19"/>
       <c r="BI20" s="10"/>
       <c r="BJ20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4841,7 +4849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5123,7 +5131,7 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="19"/>
     </row>
-    <row r="25" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5295,14 +5303,16 @@
       <c r="BF25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG25" s="10"/>
+      <c r="BG25" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH25" s="19"/>
       <c r="BI25" s="10"/>
       <c r="BJ25" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5835,13 +5845,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>IF(I69 &lt;= K45, D69, B69)</f>
-        <v>O'neil Kerry Laurent,</v>
+        <v>O'neil Kerry Laurent</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>12</v>
@@ -6004,15 +6014,19 @@
         <v>138</v>
       </c>
       <c r="BE29" s="20"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="10"/>
+      <c r="BF29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG29" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH29" s="19"/>
       <c r="BI29" s="10"/>
       <c r="BJ29" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6117,7 +6131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6266,7 +6280,7 @@
       <c r="BI31" s="10"/>
       <c r="BJ31" s="19"/>
     </row>
-    <row r="32" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6598,7 +6612,7 @@
       <c r="BI33" s="10"/>
       <c r="BJ33" s="19"/>
     </row>
-    <row r="34" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6777,7 +6791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6952,7 +6966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7139,7 +7153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7322,7 +7336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7487,31 +7501,31 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="56"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7545,14 +7559,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="1:62" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
+    <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
-        <v>80.7</v>
-      </c>
-      <c r="B42" s="46"/>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="B42" s="52"/>
       <c r="D42" s="2">
         <v>11</v>
       </c>
@@ -7591,8 +7605,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7614,10 +7628,10 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1696</v>
+        <v>1700</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7642,7 +7656,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7656,14 +7670,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.761904761904759</v>
+        <v>80.952380952380949</v>
       </c>
     </row>
-    <row r="47" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7680,7 +7694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7694,10 +7708,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="37" t="s">
         <v>17</v>
       </c>
@@ -7714,7 +7728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="37" t="s">
         <v>18</v>
       </c>
@@ -7728,10 +7742,10 @@
       <c r="H50" s="3"/>
       <c r="I50" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="37" t="s">
         <v>19</v>
       </c>
@@ -7748,7 +7762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="37" t="s">
         <v>20</v>
       </c>
@@ -7762,10 +7776,10 @@
       <c r="H52" s="3"/>
       <c r="I52" s="38">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="37" t="s">
         <v>21</v>
       </c>
@@ -7782,7 +7796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="37" t="s">
         <v>22</v>
       </c>
@@ -7799,7 +7813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="37" t="s">
         <v>23</v>
       </c>
@@ -7816,7 +7830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="37" t="s">
         <v>24</v>
       </c>
@@ -7833,7 +7847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="37" t="s">
         <v>25</v>
       </c>
@@ -7850,7 +7864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="37" t="s">
         <v>26</v>
       </c>
@@ -7867,7 +7881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="37" t="s">
         <v>27</v>
       </c>
@@ -7884,7 +7898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="37" t="s">
         <v>28</v>
       </c>
@@ -7898,10 +7912,10 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="37" t="s">
         <v>29</v>
       </c>
@@ -7918,7 +7932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="37" t="s">
         <v>30</v>
       </c>
@@ -7935,7 +7949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="37" t="s">
         <v>31</v>
       </c>
@@ -7952,7 +7966,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="37" t="s">
         <v>32</v>
       </c>
@@ -7969,7 +7983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="37" t="s">
         <v>33</v>
       </c>
@@ -7983,10 +7997,10 @@
       <c r="H65" s="3"/>
       <c r="I65" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="37" t="s">
         <v>34</v>
       </c>
@@ -8003,7 +8017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="37" t="s">
         <v>35</v>
       </c>
@@ -8020,7 +8034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="37" t="s">
         <v>36</v>
       </c>
@@ -8037,7 +8051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="37" t="s">
         <v>37</v>
       </c>
@@ -8051,10 +8065,10 @@
       <c r="H69" s="3"/>
       <c r="I69" s="38">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="37" t="s">
         <v>38</v>
       </c>
@@ -8071,7 +8085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B71" s="37" t="s">
         <v>39</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="37" t="s">
         <v>40</v>
       </c>
@@ -8105,7 +8119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="37" t="s">
         <v>41</v>
       </c>
@@ -8122,7 +8136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="37" t="s">
         <v>42</v>
       </c>
@@ -8139,7 +8153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="37" t="s">
         <v>43</v>
       </c>
@@ -8156,7 +8170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="37" t="s">
         <v>44</v>
       </c>
@@ -8173,7 +8187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B77" s="37" t="s">
         <v>45</v>
       </c>
@@ -8190,7 +8204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="37" t="s">
         <v>46</v>
       </c>
@@ -8209,12 +8223,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8226,6 +8234,12 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F31EE-CFAA-4F34-9B4D-E8E93811F737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FE3E7-CC87-47D0-A242-99D5B05205D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="167">
   <si>
     <t>No.</t>
   </si>
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AV29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG29" sqref="BG29"/>
+      <selection pane="bottomRight" activeCell="BG31" sqref="BG31:BJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,9 +1858,15 @@
       <c r="BF4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="10"/>
+      <c r="BG4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ4" s="18" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2554,9 @@
       <c r="BF8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG8" s="10"/>
+      <c r="BG8" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH8" s="19"/>
       <c r="BI8" s="10"/>
       <c r="BJ8" s="18" t="s">
@@ -2686,7 +2694,9 @@
       <c r="BG9" s="10"/>
       <c r="BH9" s="19"/>
       <c r="BI9" s="10"/>
-      <c r="BJ9" s="19"/>
+      <c r="BJ9" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -4492,7 +4502,9 @@
       <c r="BF20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG20" s="10"/>
+      <c r="BG20" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH20" s="19"/>
       <c r="BI20" s="10"/>
       <c r="BJ20" s="18" t="s">
@@ -6278,7 +6290,9 @@
       <c r="BG31" s="10"/>
       <c r="BH31" s="19"/>
       <c r="BI31" s="10"/>
-      <c r="BJ31" s="19"/>
+      <c r="BJ31" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -6610,7 +6624,9 @@
       <c r="BG33" s="10"/>
       <c r="BH33" s="19"/>
       <c r="BI33" s="10"/>
-      <c r="BJ33" s="19"/>
+      <c r="BJ33" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -7564,7 +7580,7 @@
     <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
-        <v>80.900000000000006</v>
+        <v>81.3</v>
       </c>
       <c r="B42" s="52"/>
       <c r="D42" s="2">
@@ -7620,7 +7636,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="38">
         <f>COUNTA(C4:BJ4)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K44" s="1">
         <f>COUNTA(C3:BJ3)</f>
@@ -7628,7 +7644,7 @@
       </c>
       <c r="M44" s="39">
         <f>COUNTA(C4:BJ38)</f>
-        <v>1700</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7674,7 +7690,7 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>80.952380952380949</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
@@ -7708,7 +7724,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="38">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7725,7 +7741,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7912,7 +7928,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8099,7 +8115,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="38">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8133,7 +8149,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="38">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FE3E7-CC87-47D0-A242-99D5B05205D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFECD02-0D0E-43E2-9A55-D63ED40E100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1476" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>PAI11</t>
+  </si>
+  <si>
+    <t>MAT12</t>
+  </si>
+  <si>
+    <t>Minggu Ke-12</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,25 +850,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,7 +871,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,147 +1189,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ78"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG31" sqref="BG31:BJ31"/>
+      <selection pane="bottomRight" activeCell="BK8" sqref="BK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="1"/>
+    <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="47" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="46" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="51" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="51" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="48" t="s">
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="49" t="s">
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+    <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
@@ -1501,10 +1512,13 @@
       <c r="BJ2" s="45" t="s">
         <v>5</v>
       </c>
+      <c r="BK2" s="46" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+    <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1685,8 +1699,11 @@
       <c r="BJ3" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="BK3" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1870,8 +1887,9 @@
       <c r="BJ4" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK4" s="5"/>
     </row>
-    <row r="5" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2051,8 +2069,9 @@
       <c r="BJ5" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2234,8 +2253,9 @@
       <c r="BJ6" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK6" s="5"/>
     </row>
-    <row r="7" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2379,8 +2399,9 @@
       <c r="BH7" s="19"/>
       <c r="BI7" s="10"/>
       <c r="BJ7" s="19"/>
+      <c r="BK7" s="5"/>
     </row>
-    <row r="8" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2562,8 +2583,9 @@
       <c r="BJ8" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK8" s="5"/>
     </row>
-    <row r="9" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2697,8 +2719,9 @@
       <c r="BJ9" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK9" s="5"/>
     </row>
-    <row r="10" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2880,8 +2903,9 @@
       <c r="BJ10" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK10" s="5"/>
     </row>
-    <row r="11" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2993,8 +3017,9 @@
       <c r="BH11" s="19"/>
       <c r="BI11" s="10"/>
       <c r="BJ11" s="19"/>
+      <c r="BK11" s="5"/>
     </row>
-    <row r="12" spans="1:62" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3180,8 +3205,9 @@
       <c r="BJ12" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK12" s="5"/>
     </row>
-    <row r="13" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3315,8 +3341,9 @@
       <c r="BH13" s="19"/>
       <c r="BI13" s="10"/>
       <c r="BJ13" s="19"/>
+      <c r="BK13" s="5"/>
     </row>
-    <row r="14" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3498,8 +3525,9 @@
       <c r="BJ14" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK14" s="5"/>
     </row>
-    <row r="15" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3681,8 +3709,9 @@
       <c r="BJ15" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="BK15" s="5"/>
     </row>
-    <row r="16" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3852,8 +3881,9 @@
       <c r="BH16" s="19"/>
       <c r="BI16" s="10"/>
       <c r="BJ16" s="18"/>
+      <c r="BK16" s="5"/>
     </row>
-    <row r="17" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4005,8 +4035,9 @@
       <c r="BH17" s="19"/>
       <c r="BI17" s="10"/>
       <c r="BJ17" s="19"/>
+      <c r="BK17" s="5"/>
     </row>
-    <row r="18" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4146,8 +4177,9 @@
       <c r="BH18" s="19"/>
       <c r="BI18" s="10"/>
       <c r="BJ18" s="19"/>
+      <c r="BK18" s="5"/>
     </row>
-    <row r="19" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4329,8 +4361,9 @@
       <c r="BJ19" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK19" s="5"/>
     </row>
-    <row r="20" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4510,8 +4543,9 @@
       <c r="BJ20" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK20" s="5"/>
     </row>
-    <row r="21" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4685,8 +4719,9 @@
       <c r="BJ21" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK21" s="5"/>
     </row>
-    <row r="22" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4854,14 +4889,17 @@
       <c r="BF22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG22" s="10"/>
+      <c r="BG22" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH22" s="19"/>
       <c r="BI22" s="10"/>
       <c r="BJ22" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK22" s="5"/>
     </row>
-    <row r="23" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5005,8 +5043,9 @@
       <c r="BJ23" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK23" s="5"/>
     </row>
-    <row r="24" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5142,8 +5181,9 @@
       <c r="BH24" s="19"/>
       <c r="BI24" s="10"/>
       <c r="BJ24" s="19"/>
+      <c r="BK24" s="5"/>
     </row>
-    <row r="25" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5323,8 +5363,9 @@
       <c r="BJ25" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK25" s="5"/>
     </row>
-    <row r="26" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5510,8 +5551,9 @@
       <c r="BJ26" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK26" s="5"/>
     </row>
-    <row r="27" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5683,14 +5725,17 @@
       <c r="BF27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG27" s="10"/>
+      <c r="BG27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH27" s="19"/>
       <c r="BI27" s="10"/>
       <c r="BJ27" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="BK27" s="5"/>
     </row>
-    <row r="28" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5856,8 +5901,9 @@
       <c r="BJ28" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK28" s="5"/>
     </row>
-    <row r="29" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6037,8 +6083,9 @@
       <c r="BJ29" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="BK29" s="5"/>
     </row>
-    <row r="30" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6142,8 +6189,9 @@
       <c r="BJ30" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK30" s="5"/>
     </row>
-    <row r="31" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6293,8 +6341,9 @@
       <c r="BJ31" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK31" s="5"/>
     </row>
-    <row r="32" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6480,8 +6529,9 @@
       <c r="BJ32" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK32" s="5"/>
     </row>
-    <row r="33" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6627,14 +6677,15 @@
       <c r="BJ33" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK33" s="5"/>
     </row>
-    <row r="34" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani</v>
+        <v>Shabrina Cahyani,</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6806,8 +6857,9 @@
       <c r="BJ34" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK34" s="5"/>
     </row>
-    <row r="35" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6981,8 +7033,9 @@
       <c r="BJ35" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK35" s="5"/>
     </row>
-    <row r="36" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7164,12 +7217,15 @@
       <c r="BH36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI36" s="10"/>
+      <c r="BI36" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ36" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK36" s="5"/>
     </row>
-    <row r="37" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7351,8 +7407,9 @@
       <c r="BJ37" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BK37" s="5"/>
     </row>
-    <row r="38" spans="1:62" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7516,32 +7573,33 @@
       <c r="BJ38" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="BK38" s="5"/>
     </row>
-    <row r="40" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="55"/>
+      <c r="D40" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+    <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7575,16 +7633,16 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="53"/>
     </row>
-    <row r="42" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52">
+    <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <f>TRUNC(M46,1)</f>
-        <v>81.3</v>
-      </c>
-      <c r="B42" s="52"/>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="B42" s="47"/>
       <c r="D42" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -7618,11 +7676,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7635,19 +7693,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="38">
-        <f>COUNTA(C4:BJ4)</f>
+        <f>COUNTA(C4:BK4)</f>
         <v>58</v>
       </c>
       <c r="K44" s="1">
-        <f>COUNTA(C3:BJ3)</f>
-        <v>60</v>
+        <f>COUNTA(C3:BK3)</f>
+        <v>61</v>
       </c>
       <c r="M44" s="39">
-        <f>COUNTA(C4:BJ38)</f>
-        <v>1708</v>
+        <f>COUNTA(C4:BK38)</f>
+        <v>1711</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7660,19 +7718,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BJ5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
         <v>56</v>
       </c>
       <c r="K45" s="1">
         <f>K44-6</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>2100</v>
+        <v>2135</v>
       </c>
     </row>
-    <row r="46" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7690,10 +7748,10 @@
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.333333333333329</v>
+        <v>80.140515222482435</v>
       </c>
     </row>
-    <row r="47" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7710,7 +7768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -7962,7 +8020,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="38">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8047,7 +8105,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="38">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8200,7 +8258,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="38">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8239,6 +8297,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8250,12 +8314,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFECD02-0D0E-43E2-9A55-D63ED40E100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B934C6-C5CA-45E3-BFF8-B0BEC6581A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -541,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +594,27 @@
       <sz val="14"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -714,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,15 +841,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +860,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BK8" sqref="BK8"/>
+      <selection pane="bottomRight" activeCell="BJ18" sqref="BJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,288 +1263,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="48" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="54" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="49" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="51" t="s">
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="56" t="s">
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="46" t="s">
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="42" t="s">
+      <c r="AK2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AL2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="40" t="s">
+      <c r="AN2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="40" t="s">
+      <c r="AO2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="41" t="s">
+      <c r="AU2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="41" t="s">
+      <c r="AV2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AW2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="41" t="s">
+      <c r="AX2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="AY2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="AZ2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BA2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BB2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BC2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BD2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BE2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="42" t="s">
+      <c r="BF2" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="40" t="s">
+      <c r="BG2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="44" t="s">
+      <c r="BH2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="45" t="s">
+      <c r="BI2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" s="45" t="s">
+      <c r="BJ2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BK2" s="46" t="s">
+      <c r="BK2" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -4176,7 +4202,9 @@
       <c r="BG18" s="10"/>
       <c r="BH18" s="19"/>
       <c r="BI18" s="10"/>
-      <c r="BJ18" s="19"/>
+      <c r="BJ18" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BK18" s="5"/>
     </row>
     <row r="19" spans="1:63" ht="18" x14ac:dyDescent="0.3">
@@ -7576,30 +7604,30 @@
       <c r="BK38" s="5"/>
     </row>
     <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="D40" s="50" t="s">
+      <c r="B40" s="58"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7633,14 +7661,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="53"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
+      <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
         <v>80.099999999999994</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="50"/>
       <c r="D42" s="2">
         <v>12</v>
       </c>
@@ -7681,616 +7709,616 @@
     </row>
     <row r="43" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="44" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="38">
+      <c r="I44" s="47">
         <f>COUNTA(C4:BK4)</f>
         <v>58</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="48">
         <f>COUNTA(C3:BK3)</f>
         <v>61</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="38">
+      <c r="I45" s="47">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
         <v>56</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="45">
         <f>K44-6</f>
         <v>55</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="46">
         <f>K44 * 35</f>
         <v>2135</v>
       </c>
     </row>
     <row r="46" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="44" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="38">
+      <c r="I46" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>80.140515222482435</v>
+        <v>80.187353629976585</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="44" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="38">
+      <c r="I47" s="47">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="44" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="38">
+      <c r="I48" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="38">
+      <c r="I49" s="47">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="38">
+      <c r="I50" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="44" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="38">
+      <c r="I51" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="44" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="38">
+      <c r="I52" s="47">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="44" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="38">
+      <c r="I53" s="47">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="44" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="38">
+      <c r="I54" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="44" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="38">
+      <c r="I55" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="44" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="38">
+      <c r="I56" s="47">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="44" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="38">
+      <c r="I57" s="47">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="44" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="38">
+      <c r="I58" s="47">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="38">
+      <c r="I59" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="44" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="44" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="38">
+      <c r="I60" s="47">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="44" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="38">
+      <c r="I61" s="47">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="44" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="38">
+      <c r="I62" s="47">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="44" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="38">
+      <c r="I63" s="47">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="44" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="38">
+      <c r="I64" s="47">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="44" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="38">
+      <c r="I65" s="47">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="38">
+      <c r="I66" s="47">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="44" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="38">
+      <c r="I67" s="47">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="44" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="38">
+      <c r="I68" s="47">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="44" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="38">
+      <c r="I69" s="47">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="38">
+      <c r="I70" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="44" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="38">
+      <c r="I71" s="47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="44" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="38">
+      <c r="I72" s="47">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="44" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="38">
+      <c r="I73" s="47">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="38">
+      <c r="I74" s="47">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="44" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="38">
+      <c r="I75" s="47">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="38">
+      <c r="I76" s="47">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="44" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="38">
+      <c r="I77" s="47">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="44" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="38">
+      <c r="I78" s="47">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B934C6-C5CA-45E3-BFF8-B0BEC6581A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF765F1-1A7F-4B9B-9897-FD8652B73E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -876,19 +876,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,16 +906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BJ18" sqref="BJ18"/>
+      <selection pane="bottomRight" activeCell="BP20" sqref="BP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,29 +1263,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
@@ -1295,69 +1295,69 @@
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
       <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="54" t="s">
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="59" t="s">
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
       <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -2275,7 +2275,9 @@
         <v>12</v>
       </c>
       <c r="BH6" s="19"/>
-      <c r="BI6" s="10"/>
+      <c r="BI6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ6" s="18" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2607,9 @@
         <v>12</v>
       </c>
       <c r="BH8" s="19"/>
-      <c r="BI8" s="10"/>
+      <c r="BI8" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ8" s="18" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +2928,9 @@
       <c r="BG10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH10" s="19"/>
+      <c r="BH10" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI10" s="10"/>
       <c r="BJ10" s="18" t="s">
         <v>12</v>
@@ -3224,7 +3230,9 @@
       <c r="BG12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH12" s="19"/>
+      <c r="BH12" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI12" s="11" t="s">
         <v>12</v>
       </c>
@@ -5386,8 +5394,12 @@
       <c r="BG25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="10"/>
+      <c r="BH25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI25" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ25" s="18" t="s">
         <v>12</v>
       </c>
@@ -5579,7 +5591,9 @@
       <c r="BJ26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK26" s="5"/>
+      <c r="BK26" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -6106,7 +6120,9 @@
       <c r="BG29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH29" s="19"/>
+      <c r="BH29" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI29" s="10"/>
       <c r="BJ29" s="19" t="s">
         <v>138</v>
@@ -6713,7 +6729,7 @@
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani,</v>
+        <v>Shabrina Cahyani</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>12</v>
@@ -6879,9 +6895,15 @@
       <c r="BF34" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="19"/>
-      <c r="BI34" s="10"/>
+      <c r="BG34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI34" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ34" s="18" t="s">
         <v>12</v>
       </c>
@@ -7604,30 +7626,30 @@
       <c r="BK38" s="5"/>
     </row>
     <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="60"/>
+      <c r="D40" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7661,14 +7683,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="59"/>
     </row>
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+      <c r="A42" s="56">
         <f>TRUNC(M46,1)</f>
-        <v>80.099999999999994</v>
-      </c>
-      <c r="B42" s="50"/>
+        <v>80.7</v>
+      </c>
+      <c r="B42" s="56"/>
       <c r="D42" s="2">
         <v>12</v>
       </c>
@@ -7730,7 +7752,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1712</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7772,11 +7794,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>80.187353629976585</v>
+        <v>80.702576112412174</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -7810,7 +7832,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7844,7 +7866,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7878,7 +7900,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="47">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8099,7 +8121,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="47">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8116,7 +8138,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="47">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8167,7 +8189,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="47">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8252,7 +8274,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="47">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8325,12 +8347,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8342,6 +8358,12 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF765F1-1A7F-4B9B-9897-FD8652B73E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664619E8-4FEC-4351-80A7-522D4CD8B95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BP20" sqref="BP20"/>
+      <selection pane="bottomRight" activeCell="BE4" sqref="BE4:BE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2606,7 +2606,9 @@
       <c r="BG8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH8" s="19"/>
+      <c r="BH8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2933,9 @@
       <c r="BH10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="10"/>
+      <c r="BI10" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ10" s="18" t="s">
         <v>12</v>
       </c>
@@ -3738,7 +3742,9 @@
       <c r="BG15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH15" s="19"/>
+      <c r="BH15" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI15" s="10"/>
       <c r="BJ15" s="19" t="s">
         <v>138</v>
@@ -4574,7 +4580,9 @@
       <c r="BG20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH20" s="19"/>
+      <c r="BH20" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI20" s="10"/>
       <c r="BJ20" s="18" t="s">
         <v>12</v>
@@ -5405,7 +5413,7 @@
       </c>
       <c r="BK25" s="5"/>
     </row>
-    <row r="26" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5575,7 +5583,9 @@
       <c r="BD26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BE26" s="20"/>
+      <c r="BE26" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BF26" s="23" t="s">
         <v>12</v>
       </c>
@@ -5770,8 +5780,12 @@
       <c r="BG27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH27" s="19"/>
-      <c r="BI27" s="10"/>
+      <c r="BH27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ27" s="19" t="s">
         <v>138</v>
       </c>
@@ -7688,7 +7702,7 @@
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="56">
         <f>TRUNC(M46,1)</f>
-        <v>80.7</v>
+        <v>81</v>
       </c>
       <c r="B42" s="56"/>
       <c r="D42" s="2">
@@ -7752,7 +7766,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1723</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7798,7 +7812,7 @@
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>80.702576112412174</v>
+        <v>81.030444964871194</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -7832,7 +7846,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7866,7 +7880,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -7951,7 +7965,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8036,7 +8050,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="47">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8138,7 +8152,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="47">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8155,7 +8169,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="47">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664619E8-4FEC-4351-80A7-522D4CD8B95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5FF93-7A9E-409E-9DD8-3B6293105363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -876,28 +876,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +897,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BE4" sqref="BE4:BE38"/>
+      <selection pane="bottomRight" activeCell="BG35" sqref="BG35:BJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,29 +1263,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
@@ -1295,69 +1295,69 @@
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="55" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
       <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AP1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="55" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="52" t="s">
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="53" t="s">
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
       <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -2089,8 +2089,12 @@
       <c r="BF5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="19"/>
+      <c r="BG5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH5" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI5" s="10"/>
       <c r="BJ5" s="18" t="s">
         <v>12</v>
@@ -2274,7 +2278,9 @@
       <c r="BG6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH6" s="19"/>
+      <c r="BH6" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI6" s="11" t="s">
         <v>12</v>
       </c>
@@ -3558,8 +3564,12 @@
       <c r="BG14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="10"/>
+      <c r="BH14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ14" s="18" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4406,9 @@
       <c r="BG19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH19" s="19"/>
+      <c r="BH19" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI19" s="11" t="s">
         <v>12</v>
       </c>
@@ -5953,7 +5965,9 @@
         <v>12</v>
       </c>
       <c r="BH28" s="19"/>
-      <c r="BI28" s="10"/>
+      <c r="BI28" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ28" s="18" t="s">
         <v>12</v>
       </c>
@@ -6587,7 +6601,9 @@
       <c r="BJ32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK32" s="5"/>
+      <c r="BK32" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -7093,7 +7109,9 @@
       <c r="BF35" s="26"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="19"/>
-      <c r="BI35" s="10"/>
+      <c r="BI35" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ35" s="18" t="s">
         <v>12</v>
       </c>
@@ -7463,8 +7481,12 @@
       <c r="BF37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="19"/>
+      <c r="BG37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH37" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI37" s="11" t="s">
         <v>12</v>
       </c>
@@ -7640,30 +7662,30 @@
       <c r="BK38" s="5"/>
     </row>
     <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="D40" s="57" t="s">
+      <c r="B40" s="58"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="58" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7697,14 +7719,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="59"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56">
+      <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>81</v>
-      </c>
-      <c r="B42" s="56"/>
+        <v>81.5</v>
+      </c>
+      <c r="B42" s="50"/>
       <c r="D42" s="2">
         <v>12</v>
       </c>
@@ -7766,7 +7788,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1730</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7783,7 +7805,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="47">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K45" s="45">
         <f>K44-6</f>
@@ -7808,11 +7830,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>81.030444964871194</v>
+        <v>81.545667447306798</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -7948,7 +7970,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8033,7 +8055,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8186,7 +8208,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="47">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8254,7 +8276,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="47">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8305,7 +8327,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="47">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8339,7 +8361,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8361,6 +8383,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8372,12 +8400,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5FF93-7A9E-409E-9DD8-3B6293105363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E01D2-BF9A-4FBC-872E-C770F5E7B908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG35" sqref="BG35:BJ35"/>
+      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2095,9 @@
       <c r="BH5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI5" s="10"/>
+      <c r="BI5" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ5" s="18" t="s">
         <v>12</v>
       </c>
@@ -3755,7 +3757,9 @@
       <c r="BH15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI15" s="10"/>
+      <c r="BI15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ15" s="19" t="s">
         <v>138</v>
       </c>
@@ -4595,7 +4599,9 @@
       <c r="BH20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI20" s="10"/>
+      <c r="BI20" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ20" s="18" t="s">
         <v>12</v>
       </c>
@@ -6945,7 +6951,7 @@
       </c>
       <c r="B35" s="4" t="str">
         <f>IF(I75 &lt;= K45, D75, B75)</f>
-        <v>Silvana Putri Ariani,</v>
+        <v>Silvana Putri Ariani</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>12</v>
@@ -7106,8 +7112,12 @@
       </c>
       <c r="BD35" s="23"/>
       <c r="BE35" s="20"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="10"/>
+      <c r="BF35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG35" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH35" s="19"/>
       <c r="BI35" s="11" t="s">
         <v>12</v>
@@ -7117,7 +7127,7 @@
       </c>
       <c r="BK35" s="5"/>
     </row>
-    <row r="36" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7305,7 +7315,9 @@
       <c r="BJ36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK36" s="5"/>
+      <c r="BK36" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -7724,7 +7736,7 @@
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="B42" s="50"/>
       <c r="D42" s="2">
@@ -7788,7 +7800,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1741</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7805,7 +7817,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="47">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45" s="45">
         <f>K44-6</f>
@@ -7834,7 +7846,7 @@
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>81.545667447306798</v>
+        <v>81.826697892271667</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -7987,7 +7999,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8072,7 +8084,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8327,7 +8339,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="47">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8344,7 +8356,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="47">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E01D2-BF9A-4FBC-872E-C770F5E7B908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464BE42-2066-4107-904F-793034D69B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -876,19 +876,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,16 +906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG8" sqref="BG8"/>
+      <selection pane="bottomRight" activeCell="BG12" sqref="BG12:BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,29 +1263,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
@@ -1295,69 +1295,69 @@
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
       <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="54" t="s">
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="59" t="s">
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
       <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="BJ11" s="19"/>
       <c r="BK11" s="5"/>
     </row>
-    <row r="12" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3251,7 +3251,9 @@
       <c r="BJ12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK12" s="5"/>
+      <c r="BK12" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -7674,30 +7676,30 @@
       <c r="BK38" s="5"/>
     </row>
     <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="60"/>
+      <c r="D40" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55" t="s">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7731,14 +7733,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="59"/>
     </row>
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+      <c r="A42" s="56">
         <f>TRUNC(M46,1)</f>
         <v>81.8</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="56"/>
       <c r="D42" s="2">
         <v>12</v>
       </c>
@@ -7800,7 +7802,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7846,7 +7848,7 @@
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>81.826697892271667</v>
+        <v>81.873536299765803</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -7948,7 +7950,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="47">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8395,12 +8397,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8412,6 +8408,12 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F464BE42-2066-4107-904F-793034D69B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31DAE4-8509-4AB1-914D-B2AB091B99EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG12" sqref="BG12:BK12"/>
+      <selection pane="bottomRight" activeCell="BR7" sqref="BR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2289,9 @@
       <c r="BJ6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK6" s="5"/>
+      <c r="BK6" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -4956,7 +4958,9 @@
       <c r="BG22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BH22" s="19"/>
+      <c r="BH22" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BI22" s="10"/>
       <c r="BJ22" s="18" t="s">
         <v>12</v>
@@ -7738,7 +7742,7 @@
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="56">
         <f>TRUNC(M46,1)</f>
-        <v>81.8</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="B42" s="56"/>
       <c r="D42" s="2">
@@ -7802,7 +7806,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7844,11 +7848,11 @@
       <c r="H46" s="3"/>
       <c r="I46" s="47">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>81.873536299765803</v>
+        <v>81.967213114754102</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -8120,7 +8124,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="47">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31DAE4-8509-4AB1-914D-B2AB091B99EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF564017-6A54-4C53-BEDA-1A3C0A967837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="169">
   <si>
     <t>No.</t>
   </si>
@@ -876,28 +876,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +897,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1218,10 @@
   <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BR7" sqref="BR7"/>
+      <selection pane="bottomRight" activeCell="BA25" sqref="BA25:BK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,29 +1263,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="52" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="51" t="s">
         <v>57</v>
       </c>
@@ -1295,69 +1295,69 @@
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="55" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
       <c r="AM1" s="51" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="51"/>
       <c r="AO1" s="51"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AP1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="55" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="52" t="s">
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="53" t="s">
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="54"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
       <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
@@ -1543,8 +1543,8 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1913,9 @@
       <c r="BJ4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="5"/>
+      <c r="BK4" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2101,7 +2103,9 @@
       <c r="BJ5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK5" s="5"/>
+      <c r="BK5" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:63" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -5435,7 +5439,9 @@
       <c r="BJ25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK25" s="5"/>
+      <c r="BK25" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -6163,7 +6169,9 @@
       <c r="BH29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BI29" s="10"/>
+      <c r="BI29" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ29" s="19" t="s">
         <v>138</v>
       </c>
@@ -7680,30 +7688,30 @@
       <c r="BK38" s="5"/>
     </row>
     <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="D40" s="57" t="s">
+      <c r="B40" s="58"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="58" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7737,14 +7745,14 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="59"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56">
+      <c r="A42" s="50">
         <f>TRUNC(M46,1)</f>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="B42" s="56"/>
+        <v>82.1</v>
+      </c>
+      <c r="B42" s="50"/>
       <c r="D42" s="2">
         <v>12</v>
       </c>
@@ -7798,7 +7806,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="47">
         <f>COUNTA(C4:BK4)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44" s="48">
         <f>COUNTA(C3:BK3)</f>
@@ -7806,7 +7814,7 @@
       </c>
       <c r="M44" s="49">
         <f>COUNTA(C4:BK38)</f>
-        <v>1750</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7823,7 +7831,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="47">
         <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="45">
         <f>K44-6</f>
@@ -7852,7 +7860,7 @@
       </c>
       <c r="M46" s="46">
         <f>100 * M44 / M45</f>
-        <v>81.967213114754102</v>
+        <v>82.154566744730673</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
@@ -8175,7 +8183,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8243,7 +8251,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="47">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8401,6 +8409,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8412,12 +8426,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\File Tugas Sekolah\System Support\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF564017-6A54-4C53-BEDA-1A3C0A967837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C0068-3A63-4DA2-BAA4-013E73035C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="171">
   <si>
     <t>No.</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>Minggu Ke-12</t>
+  </si>
+  <si>
+    <t>MAT13</t>
+  </si>
+  <si>
+    <t>Minggu Ke-13</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -722,20 +728,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -841,27 +838,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -874,6 +850,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,12 +889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BL78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA25" sqref="BA25:BK25"/>
+      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,293 +1240,299 @@
     <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="8.88671875" style="1"/>
+    <col min="63" max="64" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="54" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="51" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="57" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="51" t="s">
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="54" t="s">
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="54"/>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="59" t="s">
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
       <c r="BK1" s="43" t="s">
         <v>168</v>
       </c>
+      <c r="BL1" s="46" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AE2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AG2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AH2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="37" t="s">
+      <c r="AM2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AN2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AO2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="40" t="s">
+      <c r="AP2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="40" t="s">
+      <c r="AQ2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="40" t="s">
+      <c r="AR2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="40" t="s">
+      <c r="AS2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="40" t="s">
+      <c r="AT2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="38" t="s">
+      <c r="AU2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="38" t="s">
+      <c r="AV2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="38" t="s">
+      <c r="AW2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="38" t="s">
+      <c r="AX2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="38" t="s">
+      <c r="AY2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="38" t="s">
+      <c r="AZ2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="39" t="s">
+      <c r="BA2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="39" t="s">
+      <c r="BB2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="39" t="s">
+      <c r="BC2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="39" t="s">
+      <c r="BD2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="39" t="s">
+      <c r="BE2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="39" t="s">
+      <c r="BF2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="37" t="s">
+      <c r="BG2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="41" t="s">
+      <c r="BH2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="42" t="s">
+      <c r="BI2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" s="42" t="s">
+      <c r="BJ2" s="44" t="s">
         <v>5</v>
       </c>
       <c r="BK2" s="43" t="s">
         <v>2</v>
       </c>
+      <c r="BL2" s="46" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+    <row r="3" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1728,8 +1716,11 @@
       <c r="BK3" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="BL3" s="28" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1916,8 +1907,9 @@
       <c r="BK4" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL4" s="33"/>
     </row>
-    <row r="5" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2106,8 +2098,9 @@
       <c r="BK5" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL5" s="33"/>
     </row>
-    <row r="6" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2296,8 +2289,9 @@
       <c r="BK6" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL6" s="33"/>
     </row>
-    <row r="7" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2442,8 +2436,9 @@
       <c r="BI7" s="10"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="5"/>
+      <c r="BL7" s="33"/>
     </row>
-    <row r="8" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2629,9 +2624,12 @@
       <c r="BJ8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK8" s="5"/>
+      <c r="BK8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL8" s="33"/>
     </row>
-    <row r="9" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2766,8 +2764,9 @@
         <v>12</v>
       </c>
       <c r="BK9" s="5"/>
+      <c r="BL9" s="33"/>
     </row>
-    <row r="10" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2953,9 +2952,12 @@
       <c r="BJ10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK10" s="5"/>
+      <c r="BK10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL10" s="33"/>
     </row>
-    <row r="11" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3068,8 +3070,9 @@
       <c r="BI11" s="10"/>
       <c r="BJ11" s="19"/>
       <c r="BK11" s="5"/>
+      <c r="BL11" s="33"/>
     </row>
-    <row r="12" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3260,8 +3263,9 @@
       <c r="BK12" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL12" s="33"/>
     </row>
-    <row r="13" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3396,8 +3400,9 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="5"/>
+      <c r="BL13" s="33"/>
     </row>
-    <row r="14" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3583,9 +3588,12 @@
       <c r="BJ14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK14" s="5"/>
+      <c r="BK14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL14" s="33"/>
     </row>
-    <row r="15" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3771,9 +3779,12 @@
       <c r="BJ15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="BK15" s="5"/>
+      <c r="BK15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL15" s="33"/>
     </row>
-    <row r="16" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3941,11 +3952,16 @@
       </c>
       <c r="BG16" s="10"/>
       <c r="BH16" s="19"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="18"/>
+      <c r="BI16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ16" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BK16" s="5"/>
+      <c r="BL16" s="33"/>
     </row>
-    <row r="17" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4098,8 +4114,9 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="19"/>
       <c r="BK17" s="5"/>
+      <c r="BL17" s="33"/>
     </row>
-    <row r="18" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4242,8 +4259,9 @@
         <v>12</v>
       </c>
       <c r="BK18" s="5"/>
+      <c r="BL18" s="33"/>
     </row>
-    <row r="19" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4427,9 +4445,12 @@
       <c r="BJ19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK19" s="5"/>
+      <c r="BK19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL19" s="33"/>
     </row>
-    <row r="20" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4613,9 +4634,12 @@
       <c r="BJ20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK20" s="5"/>
+      <c r="BK20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL20" s="33"/>
     </row>
-    <row r="21" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4790,8 +4814,9 @@
         <v>12</v>
       </c>
       <c r="BK21" s="5"/>
+      <c r="BL21" s="33"/>
     </row>
-    <row r="22" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4970,8 +4995,9 @@
         <v>12</v>
       </c>
       <c r="BK22" s="5"/>
+      <c r="BL22" s="33"/>
     </row>
-    <row r="23" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5116,8 +5142,9 @@
         <v>12</v>
       </c>
       <c r="BK23" s="5"/>
+      <c r="BL23" s="33"/>
     </row>
-    <row r="24" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5254,8 +5281,9 @@
       <c r="BI24" s="10"/>
       <c r="BJ24" s="19"/>
       <c r="BK24" s="5"/>
+      <c r="BL24" s="33"/>
     </row>
-    <row r="25" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5442,8 +5470,9 @@
       <c r="BK25" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL25" s="33"/>
     </row>
-    <row r="26" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5634,8 +5663,9 @@
       <c r="BK26" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL26" s="33"/>
     </row>
-    <row r="27" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5799,7 +5829,9 @@
       <c r="BB27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BC27" s="20"/>
+      <c r="BC27" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="BD27" s="27" t="s">
         <v>138</v>
       </c>
@@ -5819,9 +5851,12 @@
       <c r="BJ27" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="BK27" s="5"/>
+      <c r="BK27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL27" s="33"/>
     </row>
-    <row r="28" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5990,8 +6025,9 @@
         <v>12</v>
       </c>
       <c r="BK28" s="5"/>
+      <c r="BL28" s="33"/>
     </row>
-    <row r="29" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6176,8 +6212,9 @@
         <v>138</v>
       </c>
       <c r="BK29" s="5"/>
+      <c r="BL29" s="33"/>
     </row>
-    <row r="30" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6282,8 +6319,9 @@
         <v>12</v>
       </c>
       <c r="BK30" s="5"/>
+      <c r="BL30" s="33"/>
     </row>
-    <row r="31" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6434,8 +6472,9 @@
         <v>12</v>
       </c>
       <c r="BK31" s="5"/>
+      <c r="BL31" s="33"/>
     </row>
-    <row r="32" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6624,8 +6663,9 @@
       <c r="BK32" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL32" s="33"/>
     </row>
-    <row r="33" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6772,8 +6812,9 @@
         <v>12</v>
       </c>
       <c r="BK33" s="5"/>
+      <c r="BL33" s="33"/>
     </row>
-    <row r="34" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6958,14 +6999,15 @@
         <v>12</v>
       </c>
       <c r="BK34" s="5"/>
+      <c r="BL34" s="33"/>
     </row>
-    <row r="35" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>IF(I75 &lt;= K45, D75, B75)</f>
-        <v>Silvana Putri Ariani</v>
+        <v>Silvana Putri Ariani,</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>12</v>
@@ -7140,8 +7182,9 @@
         <v>12</v>
       </c>
       <c r="BK35" s="5"/>
+      <c r="BL35" s="33"/>
     </row>
-    <row r="36" spans="1:63" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7332,8 +7375,11 @@
       <c r="BK36" s="35" t="s">
         <v>12</v>
       </c>
+      <c r="BL36" s="31" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7520,8 +7566,9 @@
         <v>12</v>
       </c>
       <c r="BK37" s="5"/>
+      <c r="BL37" s="33"/>
     </row>
-    <row r="38" spans="1:63" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7686,32 +7733,33 @@
         <v>138</v>
       </c>
       <c r="BK38" s="5"/>
+      <c r="BL38" s="33"/>
     </row>
-    <row r="40" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
+    <row r="40" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="55"/>
+      <c r="D40" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="55" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
+    <row r="41" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
       <c r="D41" s="36" t="s">
         <v>7</v>
       </c>
@@ -7745,16 +7793,16 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="56"/>
+      <c r="O41" s="53"/>
     </row>
-    <row r="42" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50">
+    <row r="42" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <f>TRUNC(M46,1)</f>
-        <v>82.1</v>
-      </c>
-      <c r="B42" s="50"/>
+        <v>81.3</v>
+      </c>
+      <c r="B42" s="47"/>
       <c r="D42" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -7788,621 +7836,621 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44" t="s">
+    <row r="43" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="37" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="47">
-        <f>COUNTA(C4:BK4)</f>
+      <c r="I44" s="40">
+        <f>COUNTA(C4:BL4)</f>
         <v>59</v>
       </c>
-      <c r="K44" s="48">
-        <f>COUNTA(C3:BK3)</f>
-        <v>61</v>
-      </c>
-      <c r="M44" s="49">
-        <f>COUNTA(C4:BK38)</f>
-        <v>1754</v>
+      <c r="K44" s="41">
+        <f>COUNTA(C3:BL3)</f>
+        <v>62</v>
+      </c>
+      <c r="M44" s="42">
+        <f>COUNTA(C4:BL38)</f>
+        <v>1765</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="44" t="s">
+    <row r="45" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="47">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BK5)</f>
+      <c r="I45" s="40">
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BL5)</f>
         <v>60</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="38">
         <f>K44-6</f>
-        <v>55</v>
-      </c>
-      <c r="M45" s="46">
+        <v>56</v>
+      </c>
+      <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>2135</v>
+        <v>2170</v>
       </c>
     </row>
-    <row r="46" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="44" t="s">
+    <row r="46" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="37" t="s">
         <v>85</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="47">
+      <c r="I46" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>82.154566744730673</v>
+        <v>81.336405529953922</v>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+    <row r="47" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="37" t="s">
         <v>86</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="47">
+      <c r="I47" s="40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:63" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="44" t="s">
+    <row r="48" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="37" t="s">
         <v>87</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="47">
+      <c r="I48" s="40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="47">
+      <c r="I49" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="47">
+      <c r="I50" s="40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="47">
+      <c r="I51" s="40">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="37" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="37" t="s">
         <v>91</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="47">
+      <c r="I52" s="40">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="37" t="s">
         <v>92</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="47">
+      <c r="I53" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="37" t="s">
         <v>93</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="47">
+      <c r="I54" s="40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="37" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="47">
+      <c r="I55" s="40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="37" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="47">
+      <c r="I56" s="40">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="37" t="s">
         <v>96</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="47">
+      <c r="I57" s="40">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="37" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="47">
+      <c r="I58" s="40">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="37" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="47">
+      <c r="I59" s="40">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="37" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="47">
+      <c r="I60" s="40">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="47">
+      <c r="I61" s="40">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="37" t="s">
         <v>101</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="47">
+      <c r="I62" s="40">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="47">
+      <c r="I63" s="40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="37" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="47">
+      <c r="I64" s="40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="37" t="s">
         <v>116</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="47">
+      <c r="I65" s="40">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="47">
+      <c r="I66" s="40">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="37" t="s">
         <v>104</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="47">
+      <c r="I67" s="40">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="37" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="47">
+      <c r="I68" s="40">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="37" t="s">
         <v>106</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="47">
+      <c r="I69" s="40">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="37" t="s">
         <v>107</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="47">
+      <c r="I70" s="40">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="47">
+      <c r="I71" s="40">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="37" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="47">
+      <c r="I72" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="37" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="47">
+      <c r="I73" s="40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="37" t="s">
         <v>111</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="47">
+      <c r="I74" s="40">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="37" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="47">
+      <c r="I75" s="40">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="47">
+      <c r="I76" s="40">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="37" t="s">
         <v>115</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="47">
+      <c r="I77" s="40">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="37" t="s">
         <v>114</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="47">
+      <c r="I78" s="40">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C0068-3A63-4DA2-BAA4-013E73035C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6227A51-C322-40C7-8370-FD367D373886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="172">
   <si>
     <t>No.</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>Minggu Ke-13</t>
+  </si>
+  <si>
+    <t>PPL3</t>
   </si>
 </sst>
 </file>
@@ -852,6 +855,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,31 +879,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,24 +1200,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL78"/>
+  <dimension ref="A1:BM78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="AX6" sqref="AX6:BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="24" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1240,122 +1244,124 @@
     <col min="60" max="60" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="8.88671875" style="1"/>
+    <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="51" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="48" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="54" t="s">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="51" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="49" t="s">
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="51" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="48" t="s">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="43" t="s">
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="46" t="s">
+      <c r="BL1" s="47" t="s">
         <v>170</v>
       </c>
+      <c r="BM1" s="47"/>
     </row>
-    <row r="2" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="45" t="s">
@@ -1382,58 +1388,58 @@
       <c r="O2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="Z2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AF2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="44" t="s">
         <v>49</v>
       </c>
       <c r="AH2" s="45" t="s">
@@ -1451,46 +1457,46 @@
       <c r="AL2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AN2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AO2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="46" t="s">
+      <c r="AU2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="46" t="s">
+      <c r="AV2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="46" t="s">
+      <c r="AW2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="46" t="s">
+      <c r="AX2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="46" t="s">
+      <c r="AY2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="46" t="s">
+      <c r="AZ2" s="44" t="s">
         <v>47</v>
       </c>
       <c r="BA2" s="45" t="s">
@@ -1511,28 +1517,31 @@
       <c r="BF2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="44" t="s">
+      <c r="BG2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="44" t="s">
+      <c r="BH2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="44" t="s">
+      <c r="BI2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" s="44" t="s">
+      <c r="BJ2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BK2" s="43" t="s">
+      <c r="BK2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="46" t="s">
+      <c r="BL2" s="44" t="s">
         <v>2</v>
       </c>
+      <c r="BM2" s="44" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+    <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="28" t="s">
         <v>59</v>
       </c>
@@ -1719,8 +1728,11 @@
       <c r="BL3" s="28" t="s">
         <v>169</v>
       </c>
+      <c r="BM3" s="28" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1908,8 +1920,9 @@
         <v>12</v>
       </c>
       <c r="BL4" s="33"/>
+      <c r="BM4" s="30"/>
     </row>
-    <row r="5" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2099,8 +2112,9 @@
         <v>12</v>
       </c>
       <c r="BL5" s="33"/>
+      <c r="BM5" s="30"/>
     </row>
-    <row r="6" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2290,8 +2304,11 @@
         <v>12</v>
       </c>
       <c r="BL6" s="33"/>
+      <c r="BM6" s="29" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2437,8 +2454,9 @@
       <c r="BJ7" s="19"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="33"/>
+      <c r="BM7" s="30"/>
     </row>
-    <row r="8" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2628,8 +2646,9 @@
         <v>12</v>
       </c>
       <c r="BL8" s="33"/>
+      <c r="BM8" s="30"/>
     </row>
-    <row r="9" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2765,8 +2784,9 @@
       </c>
       <c r="BK9" s="5"/>
       <c r="BL9" s="33"/>
+      <c r="BM9" s="30"/>
     </row>
-    <row r="10" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2956,8 +2976,9 @@
         <v>12</v>
       </c>
       <c r="BL10" s="33"/>
+      <c r="BM10" s="30"/>
     </row>
-    <row r="11" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3071,8 +3092,9 @@
       <c r="BJ11" s="19"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="33"/>
+      <c r="BM11" s="30"/>
     </row>
-    <row r="12" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3263,9 +3285,12 @@
       <c r="BK12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="BL12" s="33"/>
+      <c r="BL12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM12" s="30"/>
     </row>
-    <row r="13" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3401,8 +3426,9 @@
       <c r="BJ13" s="19"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="33"/>
+      <c r="BM13" s="30"/>
     </row>
-    <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3592,8 +3618,9 @@
         <v>12</v>
       </c>
       <c r="BL14" s="33"/>
+      <c r="BM14" s="30"/>
     </row>
-    <row r="15" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3783,8 +3810,9 @@
         <v>12</v>
       </c>
       <c r="BL15" s="33"/>
+      <c r="BM15" s="30"/>
     </row>
-    <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3960,8 +3988,9 @@
       </c>
       <c r="BK16" s="5"/>
       <c r="BL16" s="33"/>
+      <c r="BM16" s="30"/>
     </row>
-    <row r="17" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4115,8 +4144,9 @@
       <c r="BJ17" s="19"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="33"/>
+      <c r="BM17" s="30"/>
     </row>
-    <row r="18" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4260,8 +4290,9 @@
       </c>
       <c r="BK18" s="5"/>
       <c r="BL18" s="33"/>
+      <c r="BM18" s="30"/>
     </row>
-    <row r="19" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4449,8 +4480,9 @@
         <v>12</v>
       </c>
       <c r="BL19" s="33"/>
+      <c r="BM19" s="30"/>
     </row>
-    <row r="20" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4638,8 +4670,9 @@
         <v>12</v>
       </c>
       <c r="BL20" s="33"/>
+      <c r="BM20" s="30"/>
     </row>
-    <row r="21" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4815,8 +4848,9 @@
       </c>
       <c r="BK21" s="5"/>
       <c r="BL21" s="33"/>
+      <c r="BM21" s="30"/>
     </row>
-    <row r="22" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4996,8 +5030,9 @@
       </c>
       <c r="BK22" s="5"/>
       <c r="BL22" s="33"/>
+      <c r="BM22" s="30"/>
     </row>
-    <row r="23" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5143,8 +5178,9 @@
       </c>
       <c r="BK23" s="5"/>
       <c r="BL23" s="33"/>
+      <c r="BM23" s="30"/>
     </row>
-    <row r="24" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5282,8 +5318,9 @@
       <c r="BJ24" s="19"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="33"/>
+      <c r="BM24" s="30"/>
     </row>
-    <row r="25" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5471,8 +5508,9 @@
         <v>12</v>
       </c>
       <c r="BL25" s="33"/>
+      <c r="BM25" s="30"/>
     </row>
-    <row r="26" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5664,8 +5702,9 @@
         <v>12</v>
       </c>
       <c r="BL26" s="33"/>
+      <c r="BM26" s="30"/>
     </row>
-    <row r="27" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5855,8 +5894,9 @@
         <v>12</v>
       </c>
       <c r="BL27" s="33"/>
+      <c r="BM27" s="30"/>
     </row>
-    <row r="28" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6024,10 +6064,15 @@
       <c r="BJ28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="33"/>
+      <c r="BK28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL28" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM28" s="30"/>
     </row>
-    <row r="29" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6213,8 +6258,9 @@
       </c>
       <c r="BK29" s="5"/>
       <c r="BL29" s="33"/>
+      <c r="BM29" s="30"/>
     </row>
-    <row r="30" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6320,8 +6366,9 @@
       </c>
       <c r="BK30" s="5"/>
       <c r="BL30" s="33"/>
+      <c r="BM30" s="30"/>
     </row>
-    <row r="31" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6465,16 +6512,21 @@
       <c r="BD31" s="26"/>
       <c r="BE31" s="20"/>
       <c r="BF31" s="26"/>
-      <c r="BG31" s="10"/>
+      <c r="BG31" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BH31" s="19"/>
       <c r="BI31" s="10"/>
       <c r="BJ31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BK31" s="5"/>
+      <c r="BK31" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="BL31" s="33"/>
+      <c r="BM31" s="30"/>
     </row>
-    <row r="32" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6664,8 +6716,9 @@
         <v>12</v>
       </c>
       <c r="BL32" s="33"/>
+      <c r="BM32" s="30"/>
     </row>
-    <row r="33" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6813,8 +6866,9 @@
       </c>
       <c r="BK33" s="5"/>
       <c r="BL33" s="33"/>
+      <c r="BM33" s="30"/>
     </row>
-    <row r="34" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7000,8 +7054,9 @@
       </c>
       <c r="BK34" s="5"/>
       <c r="BL34" s="33"/>
+      <c r="BM34" s="30"/>
     </row>
-    <row r="35" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7183,8 +7238,9 @@
       </c>
       <c r="BK35" s="5"/>
       <c r="BL35" s="33"/>
+      <c r="BM35" s="30"/>
     </row>
-    <row r="36" spans="1:64" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7378,8 +7434,9 @@
       <c r="BL36" s="31" t="s">
         <v>12</v>
       </c>
+      <c r="BM36" s="30"/>
     </row>
-    <row r="37" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7567,8 +7624,9 @@
       </c>
       <c r="BK37" s="5"/>
       <c r="BL37" s="33"/>
+      <c r="BM37" s="30"/>
     </row>
-    <row r="38" spans="1:64" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7734,30 +7792,31 @@
       </c>
       <c r="BK38" s="5"/>
       <c r="BL38" s="33"/>
+      <c r="BM38" s="30"/>
     </row>
-    <row r="40" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="55"/>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="52" t="s">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="D41" s="36" t="s">
@@ -7793,19 +7852,19 @@
       <c r="N41" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="53"/>
+      <c r="O41" s="54"/>
     </row>
-    <row r="42" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
+    <row r="42" spans="1:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="51">
         <f>TRUNC(M46,1)</f>
-        <v>81.3</v>
-      </c>
-      <c r="B42" s="47"/>
+        <v>80.3</v>
+      </c>
+      <c r="B42" s="51"/>
       <c r="D42" s="2">
         <v>13</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2">
         <v>3</v>
@@ -7836,11 +7895,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37" t="s">
         <v>11</v>
       </c>
@@ -7853,19 +7912,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="40">
-        <f>COUNTA(C4:BL4)</f>
+        <f>COUNTA(C4:BM4)</f>
         <v>59</v>
       </c>
       <c r="K44" s="41">
-        <f>COUNTA(C3:BL3)</f>
-        <v>62</v>
+        <f>COUNTA(C3:BM3)</f>
+        <v>63</v>
       </c>
       <c r="M44" s="42">
-        <f>COUNTA(C4:BL38)</f>
-        <v>1765</v>
+        <f>COUNTA(C4:BM38)</f>
+        <v>1771</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
         <v>13</v>
       </c>
@@ -7878,19 +7937,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="40">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BL5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BM5)</f>
         <v>60</v>
       </c>
       <c r="K45" s="38">
         <f>K44-6</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="39">
         <f>K44 * 35</f>
-        <v>2170</v>
+        <v>2205</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="37" t="s">
         <v>14</v>
       </c>
@@ -7904,14 +7963,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="40">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M46" s="39">
         <f>100 * M44 / M45</f>
-        <v>81.336405529953922</v>
+        <v>80.317460317460316</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="37" t="s">
         <v>15</v>
       </c>
@@ -7928,7 +7987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
@@ -8010,7 +8069,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="40">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8282,7 +8341,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="40">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8333,7 +8392,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="40">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8456,13 +8515,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
+  <mergeCells count="18">
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8474,6 +8527,13 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38444893-8718-4837-96A0-C84F025A9F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294E82E-3F61-4802-92F4-8C338589E553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="172">
   <si>
     <t>No.</t>
   </si>
@@ -857,28 +857,28 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,10 +1193,10 @@
   <dimension ref="A1:BM78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU18" sqref="AU18:BM18"/>
+      <selection pane="bottomRight" activeCell="BA4" sqref="BA4:BM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,105 +1239,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="46" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="44" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="43" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="45" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="43" t="s">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="46" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="45" t="s">
+      <c r="BB1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="47"/>
+      <c r="BG1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="43" t="s">
+      <c r="BL1" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="43"/>
+      <c r="BM1" s="45"/>
     </row>
     <row r="2" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1529,8 +1529,8 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
@@ -1889,7 +1889,9 @@
         <v>12</v>
       </c>
       <c r="BD4" s="22"/>
-      <c r="BE4" s="17"/>
+      <c r="BE4" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF4" s="20" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3283,9 @@
       <c r="BL12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="26"/>
+      <c r="BM12" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -3423,7 +3427,7 @@
       <c r="BL13" s="28"/>
       <c r="BM13" s="26"/>
     </row>
-    <row r="14" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3593,7 +3597,9 @@
       <c r="BD14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE14" s="17"/>
+      <c r="BE14" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF14" s="20" t="s">
         <v>12</v>
       </c>
@@ -3612,8 +3618,12 @@
       <c r="BK14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="26"/>
+      <c r="BL14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM14" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -6038,7 +6048,9 @@
       <c r="AU28" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AV28" s="28"/>
+      <c r="AV28" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="AW28" s="25" t="s">
         <v>12</v>
       </c>
@@ -6504,7 +6516,9 @@
       <c r="AS31" s="5"/>
       <c r="AT31" s="9"/>
       <c r="AU31" s="26"/>
-      <c r="AV31" s="28"/>
+      <c r="AV31" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="AW31" s="25" t="s">
         <v>12</v>
       </c>
@@ -6722,8 +6736,12 @@
       <c r="BK32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL32" s="28"/>
-      <c r="BM32" s="26"/>
+      <c r="BL32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM32" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -7059,9 +7077,15 @@
       <c r="BJ34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="BK34" s="5"/>
-      <c r="BL34" s="28"/>
-      <c r="BM34" s="26"/>
+      <c r="BK34" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM34" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:65" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -7629,7 +7653,9 @@
       <c r="BJ37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="BK37" s="5"/>
+      <c r="BK37" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="BL37" s="28"/>
       <c r="BM37" s="26"/>
     </row>
@@ -7810,20 +7836,20 @@
         <v>58</v>
       </c>
       <c r="B40" s="51"/>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="49" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="48" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7863,14 +7889,14 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="50"/>
+      <c r="O41" s="49"/>
     </row>
     <row r="42" spans="1:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
+      <c r="A42" s="43">
         <f>TRUNC(M46,1)</f>
-        <v>80.8</v>
-      </c>
-      <c r="B42" s="47"/>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="B42" s="43"/>
       <c r="D42" s="2">
         <v>13</v>
       </c>
@@ -7924,7 +7950,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="35">
         <f>COUNTA(C4:BM4)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44" s="36">
         <f>COUNTA(C3:BM3)</f>
@@ -7932,7 +7958,7 @@
       </c>
       <c r="M44" s="37">
         <f>COUNTA(C4:BM38)</f>
-        <v>1782</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -7978,7 +8004,7 @@
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.816326530612244</v>
+        <v>81.40589569160997</v>
       </c>
     </row>
     <row r="47" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
@@ -8080,7 +8106,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8114,7 +8140,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8352,7 +8378,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="35">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8403,7 +8429,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="35">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8420,7 +8446,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8454,7 +8480,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="35">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8505,7 +8531,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="35">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8527,6 +8553,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8538,13 +8571,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294E82E-3F61-4802-92F4-8C338589E553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA19E1-6322-4590-BCF4-F50EBDC94E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="173">
   <si>
     <t>No.</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>PPL3</t>
+  </si>
+  <si>
+    <t>BING8</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +860,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,19 +872,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,13 +1196,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM78"/>
+  <dimension ref="A1:BN78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA4" sqref="BA4:BM4"/>
+      <selection pane="bottomRight" activeCell="AU16" sqref="AU16:BN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,106 +1244,107 @@
     <col min="66" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="44" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="50" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="45" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="47" t="s">
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="44" t="s">
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="50" t="s">
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="45" t="s">
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="47" t="s">
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="44" t="s">
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="45" t="s">
+      <c r="BL1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="45"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
     </row>
-    <row r="2" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+    <row r="2" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1527,10 +1534,13 @@
       <c r="BM2" s="39" t="s">
         <v>3</v>
       </c>
+      <c r="BN2" s="43" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
@@ -1720,8 +1730,11 @@
       <c r="BM3" s="24" t="s">
         <v>171</v>
       </c>
+      <c r="BN3" s="24" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1914,8 +1927,9 @@
       <c r="BM4" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN4" s="28"/>
     </row>
-    <row r="5" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2106,8 +2120,9 @@
       </c>
       <c r="BL5" s="28"/>
       <c r="BM5" s="26"/>
+      <c r="BN5" s="28"/>
     </row>
-    <row r="6" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2277,7 +2292,9 @@
       <c r="BD6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE6" s="17"/>
+      <c r="BE6" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF6" s="20" t="s">
         <v>12</v>
       </c>
@@ -2300,8 +2317,9 @@
       <c r="BM6" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN6" s="28"/>
     </row>
-    <row r="7" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2448,8 +2466,9 @@
       <c r="BK7" s="5"/>
       <c r="BL7" s="28"/>
       <c r="BM7" s="26"/>
+      <c r="BN7" s="28"/>
     </row>
-    <row r="8" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2619,7 +2638,9 @@
       <c r="BD8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE8" s="17"/>
+      <c r="BE8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF8" s="20" t="s">
         <v>12</v>
       </c>
@@ -2640,8 +2661,9 @@
       </c>
       <c r="BL8" s="28"/>
       <c r="BM8" s="26"/>
+      <c r="BN8" s="28"/>
     </row>
-    <row r="9" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2778,8 +2800,9 @@
       <c r="BK9" s="5"/>
       <c r="BL9" s="28"/>
       <c r="BM9" s="26"/>
+      <c r="BN9" s="28"/>
     </row>
-    <row r="10" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2949,7 +2972,9 @@
       <c r="BD10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE10" s="17"/>
+      <c r="BE10" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF10" s="20" t="s">
         <v>12</v>
       </c>
@@ -2972,8 +2997,9 @@
       <c r="BM10" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN10" s="28"/>
     </row>
-    <row r="11" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3088,8 +3114,9 @@
       <c r="BK11" s="5"/>
       <c r="BL11" s="28"/>
       <c r="BM11" s="26"/>
+      <c r="BN11" s="28"/>
     </row>
-    <row r="12" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3286,8 +3313,9 @@
       <c r="BM12" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN12" s="28"/>
     </row>
-    <row r="13" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3426,8 +3454,9 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="28"/>
       <c r="BM13" s="26"/>
+      <c r="BN13" s="28"/>
     </row>
-    <row r="14" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3624,8 +3653,9 @@
       <c r="BM14" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN14" s="28"/>
     </row>
-    <row r="15" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3795,7 +3825,9 @@
       <c r="BD15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="BE15" s="17"/>
+      <c r="BE15" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF15" s="20" t="s">
         <v>12</v>
       </c>
@@ -3815,9 +3847,12 @@
         <v>12</v>
       </c>
       <c r="BL15" s="28"/>
-      <c r="BM15" s="26"/>
+      <c r="BM15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN15" s="28"/>
     </row>
-    <row r="16" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3971,7 +4006,9 @@
       <c r="AZ16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BA16" s="17"/>
+      <c r="BA16" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BB16" s="20" t="s">
         <v>12</v>
       </c>
@@ -3994,8 +4031,9 @@
       <c r="BK16" s="5"/>
       <c r="BL16" s="28"/>
       <c r="BM16" s="26"/>
+      <c r="BN16" s="28"/>
     </row>
-    <row r="17" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4152,8 +4190,9 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="28"/>
       <c r="BM17" s="26"/>
+      <c r="BN17" s="28"/>
     </row>
-    <row r="18" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4300,8 +4339,9 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="28"/>
       <c r="BM18" s="26"/>
+      <c r="BN18" s="28"/>
     </row>
-    <row r="19" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4490,8 +4530,9 @@
       </c>
       <c r="BL19" s="28"/>
       <c r="BM19" s="26"/>
+      <c r="BN19" s="28"/>
     </row>
-    <row r="20" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4659,7 +4700,9 @@
         <v>12</v>
       </c>
       <c r="BD20" s="22"/>
-      <c r="BE20" s="17"/>
+      <c r="BE20" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF20" s="20" t="s">
         <v>12</v>
       </c>
@@ -4680,8 +4723,9 @@
       </c>
       <c r="BL20" s="28"/>
       <c r="BM20" s="26"/>
+      <c r="BN20" s="28"/>
     </row>
-    <row r="21" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4858,8 +4902,9 @@
       <c r="BK21" s="5"/>
       <c r="BL21" s="28"/>
       <c r="BM21" s="26"/>
+      <c r="BN21" s="28"/>
     </row>
-    <row r="22" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5040,8 +5085,9 @@
       <c r="BK22" s="5"/>
       <c r="BL22" s="28"/>
       <c r="BM22" s="26"/>
+      <c r="BN22" s="28"/>
     </row>
-    <row r="23" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5188,8 +5234,9 @@
       <c r="BK23" s="5"/>
       <c r="BL23" s="28"/>
       <c r="BM23" s="26"/>
+      <c r="BN23" s="28"/>
     </row>
-    <row r="24" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5328,8 +5375,9 @@
       <c r="BK24" s="5"/>
       <c r="BL24" s="28"/>
       <c r="BM24" s="26"/>
+      <c r="BN24" s="28"/>
     </row>
-    <row r="25" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5497,7 +5545,9 @@
         <v>12</v>
       </c>
       <c r="BD25" s="22"/>
-      <c r="BE25" s="17"/>
+      <c r="BE25" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF25" s="20" t="s">
         <v>12</v>
       </c>
@@ -5518,8 +5568,9 @@
       </c>
       <c r="BL25" s="28"/>
       <c r="BM25" s="26"/>
+      <c r="BN25" s="28"/>
     </row>
-    <row r="26" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5716,8 +5767,9 @@
       <c r="BM26" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN26" s="28"/>
     </row>
-    <row r="27" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5887,7 +5939,9 @@
       <c r="BD27" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="BE27" s="17"/>
+      <c r="BE27" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF27" s="20" t="s">
         <v>12</v>
       </c>
@@ -5908,8 +5962,9 @@
       </c>
       <c r="BL27" s="28"/>
       <c r="BM27" s="26"/>
+      <c r="BN27" s="28"/>
     </row>
-    <row r="28" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6086,8 +6141,9 @@
         <v>12</v>
       </c>
       <c r="BM28" s="26"/>
+      <c r="BN28" s="28"/>
     </row>
-    <row r="29" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6278,8 +6334,9 @@
       </c>
       <c r="BL29" s="28"/>
       <c r="BM29" s="26"/>
+      <c r="BN29" s="28"/>
     </row>
-    <row r="30" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6386,8 +6443,9 @@
       <c r="BK30" s="5"/>
       <c r="BL30" s="28"/>
       <c r="BM30" s="26"/>
+      <c r="BN30" s="28"/>
     </row>
-    <row r="31" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6546,8 +6604,9 @@
       </c>
       <c r="BL31" s="28"/>
       <c r="BM31" s="26"/>
+      <c r="BN31" s="28"/>
     </row>
-    <row r="32" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6717,7 +6776,9 @@
       <c r="BD32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE32" s="17"/>
+      <c r="BE32" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF32" s="20" t="s">
         <v>12</v>
       </c>
@@ -6742,8 +6803,9 @@
       <c r="BM32" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN32" s="28"/>
     </row>
-    <row r="33" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6892,8 +6954,9 @@
       <c r="BK33" s="5"/>
       <c r="BL33" s="28"/>
       <c r="BM33" s="26"/>
+      <c r="BN33" s="28"/>
     </row>
-    <row r="34" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7086,8 +7149,9 @@
       <c r="BM34" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="BN34" s="28"/>
     </row>
-    <row r="35" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7270,8 +7334,9 @@
       <c r="BK35" s="5"/>
       <c r="BL35" s="28"/>
       <c r="BM35" s="26"/>
+      <c r="BN35" s="28"/>
     </row>
-    <row r="36" spans="1:65" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7466,8 +7531,9 @@
         <v>12</v>
       </c>
       <c r="BM36" s="26"/>
+      <c r="BN36" s="28"/>
     </row>
-    <row r="37" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7637,7 +7703,9 @@
       <c r="BD37" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE37" s="17"/>
+      <c r="BE37" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF37" s="20" t="s">
         <v>12</v>
       </c>
@@ -7658,8 +7726,9 @@
       </c>
       <c r="BL37" s="28"/>
       <c r="BM37" s="26"/>
+      <c r="BN37" s="28"/>
     </row>
-    <row r="38" spans="1:65" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7830,32 +7899,33 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="28"/>
       <c r="BM38" s="26"/>
+      <c r="BN38" s="28"/>
     </row>
-    <row r="40" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+    <row r="40" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="D40" s="46" t="s">
+      <c r="B40" s="52"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="48" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
+    <row r="41" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
       </c>
@@ -7889,14 +7959,14 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="49"/>
+      <c r="O41" s="51"/>
     </row>
-    <row r="42" spans="1:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43">
+    <row r="42" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
         <f>TRUNC(M46,1)</f>
-        <v>81.400000000000006</v>
-      </c>
-      <c r="B42" s="43"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B42" s="48"/>
       <c r="D42" s="2">
         <v>13</v>
       </c>
@@ -7922,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="2">
         <v>6</v>
@@ -7932,11 +8002,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:65" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>11</v>
       </c>
@@ -7949,19 +8019,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="35">
-        <f>COUNTA(C4:BM4)</f>
+        <f>COUNTA(C4:BN4)</f>
         <v>61</v>
       </c>
       <c r="K44" s="36">
-        <f>COUNTA(C3:BM3)</f>
-        <v>63</v>
+        <f>COUNTA(C3:BN3)</f>
+        <v>64</v>
       </c>
       <c r="M44" s="37">
-        <f>COUNTA(C4:BM38)</f>
-        <v>1795</v>
+        <f>COUNTA(C4:BN38)</f>
+        <v>1806</v>
       </c>
     </row>
-    <row r="45" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>13</v>
       </c>
@@ -7974,19 +8044,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="35">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BM5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BN5)</f>
         <v>60</v>
       </c>
       <c r="K45" s="33">
         <f>K44-6</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M45" s="34">
         <f>K44 * 35</f>
-        <v>2205</v>
+        <v>2240</v>
       </c>
     </row>
-    <row r="46" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>14</v>
       </c>
@@ -8000,14 +8070,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>81.40589569160997</v>
+        <v>80.625</v>
       </c>
     </row>
-    <row r="47" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>15</v>
       </c>
@@ -8024,7 +8094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>16</v>
       </c>
@@ -8038,7 +8108,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8072,7 +8142,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8157,7 +8227,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8174,7 +8244,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="35">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8242,7 +8312,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="35">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8327,7 +8397,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="35">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8361,7 +8431,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8446,7 +8516,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8531,7 +8601,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8553,13 +8623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8571,6 +8634,13 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA19E1-6322-4590-BCF4-F50EBDC94E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9149D7-ECEF-4EE4-9352-5913AA834CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="173">
   <si>
     <t>No.</t>
   </si>
@@ -1202,7 +1202,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU16" sqref="AU16:BN16"/>
+      <selection pane="bottomRight" activeCell="AU4" sqref="AU4:BN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,11 +1923,15 @@
       <c r="BK4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL4" s="28"/>
+      <c r="BL4" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN4" s="28"/>
+      <c r="BN4" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -4030,7 +4034,9 @@
       </c>
       <c r="BK16" s="5"/>
       <c r="BL16" s="28"/>
-      <c r="BM16" s="26"/>
+      <c r="BM16" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN16" s="28"/>
     </row>
     <row r="17" spans="1:66" ht="18" x14ac:dyDescent="0.3">
@@ -4528,7 +4534,9 @@
       <c r="BK19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL19" s="28"/>
+      <c r="BL19" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM19" s="26"/>
       <c r="BN19" s="28"/>
     </row>
@@ -5085,7 +5093,9 @@
       <c r="BK22" s="5"/>
       <c r="BL22" s="28"/>
       <c r="BM22" s="26"/>
-      <c r="BN22" s="28"/>
+      <c r="BN22" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:66" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -6333,7 +6343,9 @@
         <v>12</v>
       </c>
       <c r="BL29" s="28"/>
-      <c r="BM29" s="26"/>
+      <c r="BM29" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN29" s="28"/>
     </row>
     <row r="30" spans="1:66" ht="18" x14ac:dyDescent="0.3">
@@ -7964,7 +7976,7 @@
     <row r="42" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48">
         <f>TRUNC(M46,1)</f>
-        <v>80.599999999999994</v>
+        <v>80.8</v>
       </c>
       <c r="B42" s="48"/>
       <c r="D42" s="2">
@@ -8020,7 +8032,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="35">
         <f>COUNTA(C4:BN4)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K44" s="36">
         <f>COUNTA(C3:BN3)</f>
@@ -8028,7 +8040,7 @@
       </c>
       <c r="M44" s="37">
         <f>COUNTA(C4:BN38)</f>
-        <v>1806</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8074,7 +8086,7 @@
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.625</v>
+        <v>80.892857142857139</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
@@ -8244,7 +8256,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="35">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8295,7 +8307,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="35">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8346,7 +8358,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="35">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8465,7 +8477,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9149D7-ECEF-4EE4-9352-5913AA834CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B54CB8-90C0-40D7-99AB-BE4A78ABC4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="173">
   <si>
     <t>No.</t>
   </si>
@@ -1202,7 +1202,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU4" sqref="AU4:BN4"/>
+      <selection pane="bottomRight" activeCell="AU25" sqref="AU25:BN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5091,7 +5091,9 @@
         <v>12</v>
       </c>
       <c r="BK22" s="5"/>
-      <c r="BL22" s="28"/>
+      <c r="BL22" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM22" s="26"/>
       <c r="BN22" s="27" t="s">
         <v>12</v>
@@ -5576,7 +5578,9 @@
       <c r="BK25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL25" s="28"/>
+      <c r="BL25" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM25" s="26"/>
       <c r="BN25" s="28"/>
     </row>
@@ -7976,7 +7980,7 @@
     <row r="42" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="48">
         <f>TRUNC(M46,1)</f>
-        <v>80.8</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="B42" s="48"/>
       <c r="D42" s="2">
@@ -8040,7 +8044,7 @@
       </c>
       <c r="M44" s="37">
         <f>COUNTA(C4:BN38)</f>
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="45" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8086,7 +8090,7 @@
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.892857142857139</v>
+        <v>80.982142857142861</v>
       </c>
     </row>
     <row r="47" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
@@ -8358,7 +8362,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="35">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8409,7 +8413,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B54CB8-90C0-40D7-99AB-BE4A78ABC4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A726C7-2420-421E-B9DB-3C7EE22555FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="12" windowWidth="11508" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>BING8</t>
+  </si>
+  <si>
+    <t>MAT14</t>
+  </si>
+  <si>
+    <t>Minggu Ke-14</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -734,11 +740,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +909,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN78"/>
+  <dimension ref="A1:BO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AU4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU25" sqref="AU25:BN25"/>
+      <selection pane="bottomRight" activeCell="BO14" sqref="BO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,111 +1295,115 @@
     <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="1"/>
+    <col min="64" max="66" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="44" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="47" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="44" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="45" t="s">
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="44" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="45" t="s">
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="46" t="s">
+      <c r="BL1" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="44" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
+    <row r="2" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1537,10 +1596,13 @@
       <c r="BN2" s="43" t="s">
         <v>4</v>
       </c>
+      <c r="BO2" s="44" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
@@ -1733,8 +1795,11 @@
       <c r="BN3" s="24" t="s">
         <v>172</v>
       </c>
+      <c r="BO3" s="17" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1932,8 +1997,9 @@
       <c r="BN4" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="BO4" s="17"/>
     </row>
-    <row r="5" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2122,11 +2188,14 @@
       <c r="BK5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL5" s="28"/>
+      <c r="BL5" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM5" s="26"/>
       <c r="BN5" s="28"/>
+      <c r="BO5" s="17"/>
     </row>
-    <row r="6" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2317,13 +2386,16 @@
       <c r="BK6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL6" s="28"/>
+      <c r="BL6" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="BN6" s="28"/>
+      <c r="BO6" s="17"/>
     </row>
-    <row r="7" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2471,8 +2543,9 @@
       <c r="BL7" s="28"/>
       <c r="BM7" s="26"/>
       <c r="BN7" s="28"/>
+      <c r="BO7" s="17"/>
     </row>
-    <row r="8" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2663,11 +2736,14 @@
       <c r="BK8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL8" s="28"/>
+      <c r="BL8" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM8" s="26"/>
       <c r="BN8" s="28"/>
+      <c r="BO8" s="17"/>
     </row>
-    <row r="9" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2805,8 +2881,9 @@
       <c r="BL9" s="28"/>
       <c r="BM9" s="26"/>
       <c r="BN9" s="28"/>
+      <c r="BO9" s="17"/>
     </row>
-    <row r="10" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2997,13 +3074,18 @@
       <c r="BK10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL10" s="28"/>
+      <c r="BL10" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN10" s="28"/>
+      <c r="BN10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO10" s="17"/>
     </row>
-    <row r="11" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3119,8 +3201,9 @@
       <c r="BL11" s="28"/>
       <c r="BM11" s="26"/>
       <c r="BN11" s="28"/>
+      <c r="BO11" s="17"/>
     </row>
-    <row r="12" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3317,9 +3400,12 @@
       <c r="BM12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN12" s="28"/>
+      <c r="BN12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO12" s="17"/>
     </row>
-    <row r="13" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3459,8 +3545,9 @@
       <c r="BL13" s="28"/>
       <c r="BM13" s="26"/>
       <c r="BN13" s="28"/>
+      <c r="BO13" s="17"/>
     </row>
-    <row r="14" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3657,9 +3744,12 @@
       <c r="BM14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN14" s="28"/>
+      <c r="BN14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO14" s="17"/>
     </row>
-    <row r="15" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3850,13 +3940,16 @@
       <c r="BK15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL15" s="28"/>
+      <c r="BL15" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="BN15" s="28"/>
+      <c r="BO15" s="17"/>
     </row>
-    <row r="16" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4038,8 +4131,9 @@
         <v>12</v>
       </c>
       <c r="BN16" s="28"/>
+      <c r="BO16" s="17"/>
     </row>
-    <row r="17" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4197,8 +4291,9 @@
       <c r="BL17" s="28"/>
       <c r="BM17" s="26"/>
       <c r="BN17" s="28"/>
+      <c r="BO17" s="17"/>
     </row>
-    <row r="18" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4346,8 +4441,9 @@
       <c r="BL18" s="28"/>
       <c r="BM18" s="26"/>
       <c r="BN18" s="28"/>
+      <c r="BO18" s="17"/>
     </row>
-    <row r="19" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4539,8 +4635,9 @@
       </c>
       <c r="BM19" s="26"/>
       <c r="BN19" s="28"/>
+      <c r="BO19" s="17"/>
     </row>
-    <row r="20" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4729,11 +4826,14 @@
       <c r="BK20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL20" s="28"/>
+      <c r="BL20" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM20" s="26"/>
       <c r="BN20" s="28"/>
+      <c r="BO20" s="17"/>
     </row>
-    <row r="21" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4910,9 +5010,12 @@
       <c r="BK21" s="5"/>
       <c r="BL21" s="28"/>
       <c r="BM21" s="26"/>
-      <c r="BN21" s="28"/>
+      <c r="BN21" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO21" s="17"/>
     </row>
-    <row r="22" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5098,8 +5201,9 @@
       <c r="BN22" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="BO22" s="17"/>
     </row>
-    <row r="23" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5247,8 +5351,9 @@
       <c r="BL23" s="28"/>
       <c r="BM23" s="26"/>
       <c r="BN23" s="28"/>
+      <c r="BO23" s="17"/>
     </row>
-    <row r="24" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5388,8 +5493,9 @@
       <c r="BL24" s="28"/>
       <c r="BM24" s="26"/>
       <c r="BN24" s="28"/>
+      <c r="BO24" s="17"/>
     </row>
-    <row r="25" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5581,10 +5687,13 @@
       <c r="BL25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM25" s="26"/>
+      <c r="BM25" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN25" s="28"/>
+      <c r="BO25" s="17"/>
     </row>
-    <row r="26" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5782,8 +5891,9 @@
         <v>12</v>
       </c>
       <c r="BN26" s="28"/>
+      <c r="BO26" s="17"/>
     </row>
-    <row r="27" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5974,11 +6084,14 @@
       <c r="BK27" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL27" s="28"/>
+      <c r="BL27" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM27" s="26"/>
       <c r="BN27" s="28"/>
+      <c r="BO27" s="17"/>
     </row>
-    <row r="28" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6156,8 +6269,9 @@
       </c>
       <c r="BM28" s="26"/>
       <c r="BN28" s="28"/>
+      <c r="BO28" s="17"/>
     </row>
-    <row r="29" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6346,13 +6460,20 @@
       <c r="BK29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BL29" s="28"/>
+      <c r="BL29" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BM29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN29" s="28"/>
+      <c r="BN29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO29" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="30" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6460,8 +6581,9 @@
       <c r="BL30" s="28"/>
       <c r="BM30" s="26"/>
       <c r="BN30" s="28"/>
+      <c r="BO30" s="17"/>
     </row>
-    <row r="31" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6621,8 +6743,9 @@
       <c r="BL31" s="28"/>
       <c r="BM31" s="26"/>
       <c r="BN31" s="28"/>
+      <c r="BO31" s="17"/>
     </row>
-    <row r="32" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6820,8 +6943,9 @@
         <v>12</v>
       </c>
       <c r="BN32" s="28"/>
+      <c r="BO32" s="17"/>
     </row>
-    <row r="33" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6971,8 +7095,9 @@
       <c r="BL33" s="28"/>
       <c r="BM33" s="26"/>
       <c r="BN33" s="28"/>
+      <c r="BO33" s="17"/>
     </row>
-    <row r="34" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7166,8 +7291,9 @@
         <v>12</v>
       </c>
       <c r="BN34" s="28"/>
+      <c r="BO34" s="17"/>
     </row>
-    <row r="35" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7348,11 +7474,16 @@
         <v>12</v>
       </c>
       <c r="BK35" s="5"/>
-      <c r="BL35" s="28"/>
-      <c r="BM35" s="26"/>
+      <c r="BL35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM35" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN35" s="28"/>
+      <c r="BO35" s="17"/>
     </row>
-    <row r="36" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7546,10 +7677,17 @@
       <c r="BL36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="28"/>
+      <c r="BM36" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO36" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:66" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7743,8 +7881,9 @@
       <c r="BL37" s="28"/>
       <c r="BM37" s="26"/>
       <c r="BN37" s="28"/>
+      <c r="BO37" s="17"/>
     </row>
-    <row r="38" spans="1:66" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7916,32 +8055,33 @@
       <c r="BL38" s="28"/>
       <c r="BM38" s="26"/>
       <c r="BN38" s="28"/>
+      <c r="BO38" s="17"/>
     </row>
-    <row r="40" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
+    <row r="40" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="D40" s="49" t="s">
+      <c r="B40" s="56"/>
+      <c r="D40" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
+    <row r="41" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
       </c>
@@ -7975,16 +8115,16 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="55"/>
     </row>
-    <row r="42" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
+    <row r="42" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="52">
         <f>TRUNC(M46,1)</f>
-        <v>80.900000000000006</v>
-      </c>
-      <c r="B42" s="48"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B42" s="52"/>
       <c r="D42" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -8018,11 +8158,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:66" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>11</v>
       </c>
@@ -8035,19 +8175,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="35">
-        <f>COUNTA(C4:BN4)</f>
+        <f>COUNTA(C4:BO4)</f>
         <v>63</v>
       </c>
       <c r="K44" s="36">
-        <f>COUNTA(C3:BN3)</f>
-        <v>64</v>
+        <f>COUNTA(C3:BO3)</f>
+        <v>65</v>
       </c>
       <c r="M44" s="37">
-        <f>COUNTA(C4:BN38)</f>
-        <v>1814</v>
+        <f>COUNTA(C4:BO38)</f>
+        <v>1834</v>
       </c>
     </row>
-    <row r="45" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>13</v>
       </c>
@@ -8060,19 +8200,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="35">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BN5)</f>
-        <v>60</v>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BO5)</f>
+        <v>61</v>
       </c>
       <c r="K45" s="33">
         <f>K44-6</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M45" s="34">
         <f>K44 * 35</f>
-        <v>2240</v>
+        <v>2275</v>
       </c>
     </row>
-    <row r="46" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>14</v>
       </c>
@@ -8086,14 +8226,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.982142857142861</v>
+        <v>80.615384615384613</v>
       </c>
     </row>
-    <row r="47" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>15</v>
       </c>
@@ -8110,7 +8250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:66" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>16</v>
       </c>
@@ -8124,7 +8264,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8158,7 +8298,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8192,7 +8332,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8226,7 +8366,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8243,7 +8383,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8328,7 +8468,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8345,7 +8485,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="35">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8413,7 +8553,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8447,7 +8587,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8481,7 +8621,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8583,7 +8723,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="35">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8600,7 +8740,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A726C7-2420-421E-B9DB-3C7EE22555FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01925AA9-46D2-44A0-9BE4-FD644C9AF996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="12" windowWidth="11508" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="60" windowWidth="11496" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -909,13 +909,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,24 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1257,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO14" sqref="BO14"/>
+      <selection pane="bottomRight" activeCell="BS24" sqref="BS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,10 +1301,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="47" t="s">
@@ -1314,16 +1314,16 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="46" t="s">
         <v>57</v>
       </c>
@@ -1333,11 +1333,11 @@
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
       <c r="V1" s="46"/>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="47" t="s">
         <v>121</v>
       </c>
@@ -1348,25 +1348,25 @@
       <c r="AE1" s="47"/>
       <c r="AF1" s="47"/>
       <c r="AG1" s="47"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AH1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
       <c r="AM1" s="46" t="s">
         <v>136</v>
       </c>
       <c r="AN1" s="46"/>
       <c r="AO1" s="46"/>
-      <c r="AP1" s="51" t="s">
+      <c r="AP1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
       <c r="AU1" s="47" t="s">
         <v>150</v>
       </c>
@@ -1375,14 +1375,14 @@
       <c r="AX1" s="47"/>
       <c r="AY1" s="47"/>
       <c r="AZ1" s="47"/>
-      <c r="BA1" s="45" t="s">
+      <c r="BA1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
       <c r="BG1" s="46" t="s">
         <v>162</v>
       </c>
@@ -1392,18 +1392,18 @@
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="48" t="s">
+      <c r="BL1" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="50"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="56"/>
       <c r="BO1" s="44" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1601,8 +1601,8 @@
       </c>
     </row>
     <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
@@ -2739,7 +2739,9 @@
       <c r="BL8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM8" s="26"/>
+      <c r="BM8" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN8" s="28"/>
       <c r="BO8" s="17"/>
     </row>
@@ -3203,7 +3205,7 @@
       <c r="BN11" s="28"/>
       <c r="BO11" s="17"/>
     </row>
-    <row r="12" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3403,7 +3405,9 @@
       <c r="BN12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BO12" s="17"/>
+      <c r="BO12" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -4611,7 +4615,9 @@
       <c r="BD19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="BE19" s="17"/>
+      <c r="BE19" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF19" s="20" t="s">
         <v>12</v>
       </c>
@@ -4633,8 +4639,12 @@
       <c r="BL19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM19" s="26"/>
-      <c r="BN19" s="28"/>
+      <c r="BM19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN19" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO19" s="17"/>
     </row>
     <row r="20" spans="1:67" ht="18" x14ac:dyDescent="0.3">
@@ -5179,7 +5189,9 @@
         <v>12</v>
       </c>
       <c r="BD22" s="22"/>
-      <c r="BE22" s="17"/>
+      <c r="BE22" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BF22" s="20" t="s">
         <v>12</v>
       </c>
@@ -5693,7 +5705,7 @@
       <c r="BN25" s="28"/>
       <c r="BO25" s="17"/>
     </row>
-    <row r="26" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5891,7 +5903,9 @@
         <v>12</v>
       </c>
       <c r="BN26" s="28"/>
-      <c r="BO26" s="17"/>
+      <c r="BO26" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:67" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -6087,7 +6101,9 @@
       <c r="BL27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM27" s="26"/>
+      <c r="BM27" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN27" s="28"/>
       <c r="BO27" s="17"/>
     </row>
@@ -6250,7 +6266,9 @@
       <c r="BC28" s="17"/>
       <c r="BD28" s="22"/>
       <c r="BE28" s="17"/>
-      <c r="BF28" s="22"/>
+      <c r="BF28" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="BG28" s="11" t="s">
         <v>12</v>
       </c>
@@ -6267,7 +6285,9 @@
       <c r="BL28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM28" s="26"/>
+      <c r="BM28" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN28" s="28"/>
       <c r="BO28" s="17"/>
     </row>
@@ -6741,7 +6761,9 @@
         <v>12</v>
       </c>
       <c r="BL31" s="28"/>
-      <c r="BM31" s="26"/>
+      <c r="BM31" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN31" s="28"/>
       <c r="BO31" s="17"/>
     </row>
@@ -6942,7 +6964,9 @@
       <c r="BM32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN32" s="28"/>
+      <c r="BN32" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO32" s="17"/>
     </row>
     <row r="33" spans="1:67" ht="18" x14ac:dyDescent="0.3">
@@ -8054,34 +8078,36 @@
       <c r="BK38" s="5"/>
       <c r="BL38" s="28"/>
       <c r="BM38" s="26"/>
-      <c r="BN38" s="28"/>
+      <c r="BN38" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO38" s="17"/>
     </row>
     <row r="40" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="53"/>
+      <c r="D40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
       </c>
@@ -8115,14 +8141,14 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="55"/>
+      <c r="O41" s="51"/>
     </row>
     <row r="42" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52">
+      <c r="A42" s="45">
         <f>TRUNC(M46,1)</f>
-        <v>80.599999999999994</v>
-      </c>
-      <c r="B42" s="52"/>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="B42" s="45"/>
       <c r="D42" s="2">
         <v>14</v>
       </c>
@@ -8184,7 +8210,7 @@
       </c>
       <c r="M44" s="37">
         <f>COUNTA(C4:BO38)</f>
-        <v>1834</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="45" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8230,7 +8256,7 @@
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.615384615384613</v>
+        <v>81.186813186813183</v>
       </c>
     </row>
     <row r="47" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
@@ -8264,7 +8290,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8332,7 +8358,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="35">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8451,7 +8477,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8502,7 +8528,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="35">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8570,7 +8596,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8587,7 +8613,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8604,7 +8630,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="35">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8655,7 +8681,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="35">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8672,7 +8698,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8774,11 +8800,18 @@
       <c r="H78" s="3"/>
       <c r="I78" s="35">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8790,13 +8823,6 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AM1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01925AA9-46D2-44A0-9BE4-FD644C9AF996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E71DB6-D412-45FF-9CC4-8600C9D457CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="60" windowWidth="11496" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="176">
   <si>
     <t>No.</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Minggu Ke-14</t>
+  </si>
+  <si>
+    <t>BINDO7</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -777,11 +780,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +921,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +949,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,13 +1272,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO78"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BS24" sqref="BS24"/>
+      <selection pane="bottomRight" activeCell="BJ25" sqref="BJ25:BP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,115 +1316,116 @@
     <col min="61" max="61" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="8.88671875" style="1"/>
+    <col min="64" max="67" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="46" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="52" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="47" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="49" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="46" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="49" t="s">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="46" t="s">
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="47"/>
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="54" t="s">
+      <c r="BL1" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="44" t="s">
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="55" t="s">
         <v>174</v>
       </c>
+      <c r="BP1" s="56"/>
     </row>
-    <row r="2" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+    <row r="2" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1599,10 +1621,13 @@
       <c r="BO2" s="44" t="s">
         <v>2</v>
       </c>
+      <c r="BP2" s="45" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+    <row r="3" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
@@ -1798,8 +1823,11 @@
       <c r="BO3" s="17" t="s">
         <v>173</v>
       </c>
+      <c r="BP3" s="17" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1998,8 +2026,9 @@
         <v>12</v>
       </c>
       <c r="BO4" s="17"/>
+      <c r="BP4" s="22"/>
     </row>
-    <row r="5" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2194,8 +2223,9 @@
       <c r="BM5" s="26"/>
       <c r="BN5" s="28"/>
       <c r="BO5" s="17"/>
+      <c r="BP5" s="22"/>
     </row>
-    <row r="6" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2394,8 +2424,9 @@
       </c>
       <c r="BN6" s="28"/>
       <c r="BO6" s="17"/>
+      <c r="BP6" s="22"/>
     </row>
-    <row r="7" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2544,8 +2575,9 @@
       <c r="BM7" s="26"/>
       <c r="BN7" s="28"/>
       <c r="BO7" s="17"/>
+      <c r="BP7" s="22"/>
     </row>
-    <row r="8" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2742,10 +2774,13 @@
       <c r="BM8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN8" s="28"/>
+      <c r="BN8" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO8" s="17"/>
+      <c r="BP8" s="22"/>
     </row>
-    <row r="9" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2884,8 +2919,9 @@
       <c r="BM9" s="26"/>
       <c r="BN9" s="28"/>
       <c r="BO9" s="17"/>
+      <c r="BP9" s="22"/>
     </row>
-    <row r="10" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3086,8 +3122,9 @@
         <v>12</v>
       </c>
       <c r="BO10" s="17"/>
+      <c r="BP10" s="22"/>
     </row>
-    <row r="11" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3204,8 +3241,9 @@
       <c r="BM11" s="26"/>
       <c r="BN11" s="28"/>
       <c r="BO11" s="17"/>
+      <c r="BP11" s="22"/>
     </row>
-    <row r="12" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3408,8 +3446,11 @@
       <c r="BO12" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BP12" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3550,8 +3591,9 @@
       <c r="BM13" s="26"/>
       <c r="BN13" s="28"/>
       <c r="BO13" s="17"/>
+      <c r="BP13" s="22"/>
     </row>
-    <row r="14" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3752,8 +3794,9 @@
         <v>12</v>
       </c>
       <c r="BO14" s="17"/>
+      <c r="BP14" s="22"/>
     </row>
-    <row r="15" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3950,10 +3993,13 @@
       <c r="BM15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN15" s="28"/>
+      <c r="BN15" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO15" s="17"/>
+      <c r="BP15" s="22"/>
     </row>
-    <row r="16" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4136,8 +4182,9 @@
       </c>
       <c r="BN16" s="28"/>
       <c r="BO16" s="17"/>
+      <c r="BP16" s="22"/>
     </row>
-    <row r="17" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4296,8 +4343,9 @@
       <c r="BM17" s="26"/>
       <c r="BN17" s="28"/>
       <c r="BO17" s="17"/>
+      <c r="BP17" s="22"/>
     </row>
-    <row r="18" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4446,8 +4494,9 @@
       <c r="BM18" s="26"/>
       <c r="BN18" s="28"/>
       <c r="BO18" s="17"/>
+      <c r="BP18" s="22"/>
     </row>
-    <row r="19" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4539,7 +4588,9 @@
       <c r="AD19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AE19" s="26"/>
+      <c r="AE19" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="AF19" s="27" t="s">
         <v>12</v>
       </c>
@@ -4646,8 +4697,11 @@
         <v>12</v>
       </c>
       <c r="BO19" s="17"/>
+      <c r="BP19" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4839,11 +4893,14 @@
       <c r="BL20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BM20" s="26"/>
+      <c r="BM20" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN20" s="28"/>
       <c r="BO20" s="17"/>
+      <c r="BP20" s="22"/>
     </row>
-    <row r="21" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5024,8 +5081,9 @@
         <v>12</v>
       </c>
       <c r="BO21" s="17"/>
+      <c r="BP21" s="22"/>
     </row>
-    <row r="22" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5214,8 +5272,9 @@
         <v>12</v>
       </c>
       <c r="BO22" s="17"/>
+      <c r="BP22" s="22"/>
     </row>
-    <row r="23" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5364,8 +5423,9 @@
       <c r="BM23" s="26"/>
       <c r="BN23" s="28"/>
       <c r="BO23" s="17"/>
+      <c r="BP23" s="22"/>
     </row>
-    <row r="24" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5506,8 +5566,9 @@
       <c r="BM24" s="26"/>
       <c r="BN24" s="28"/>
       <c r="BO24" s="17"/>
+      <c r="BP24" s="22"/>
     </row>
-    <row r="25" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5702,10 +5763,15 @@
       <c r="BM25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN25" s="28"/>
+      <c r="BN25" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO25" s="17"/>
+      <c r="BP25" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="26" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5902,12 +5968,15 @@
       <c r="BM26" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN26" s="28"/>
+      <c r="BN26" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO26" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BP26" s="22"/>
     </row>
-    <row r="27" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6106,8 +6175,9 @@
       </c>
       <c r="BN27" s="28"/>
       <c r="BO27" s="17"/>
+      <c r="BP27" s="22"/>
     </row>
-    <row r="28" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6290,8 +6360,9 @@
       </c>
       <c r="BN28" s="28"/>
       <c r="BO28" s="17"/>
+      <c r="BP28" s="22"/>
     </row>
-    <row r="29" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6492,8 +6563,9 @@
       <c r="BO29" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BP29" s="22"/>
     </row>
-    <row r="30" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6602,8 +6674,9 @@
       <c r="BM30" s="26"/>
       <c r="BN30" s="28"/>
       <c r="BO30" s="17"/>
+      <c r="BP30" s="22"/>
     </row>
-    <row r="31" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6766,8 +6839,9 @@
       </c>
       <c r="BN31" s="28"/>
       <c r="BO31" s="17"/>
+      <c r="BP31" s="22"/>
     </row>
-    <row r="32" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6968,8 +7042,9 @@
         <v>12</v>
       </c>
       <c r="BO32" s="17"/>
+      <c r="BP32" s="22"/>
     </row>
-    <row r="33" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7120,8 +7195,9 @@
       <c r="BM33" s="26"/>
       <c r="BN33" s="28"/>
       <c r="BO33" s="17"/>
+      <c r="BP33" s="22"/>
     </row>
-    <row r="34" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7316,8 +7392,9 @@
       </c>
       <c r="BN34" s="28"/>
       <c r="BO34" s="17"/>
+      <c r="BP34" s="22"/>
     </row>
-    <row r="35" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7506,8 +7583,9 @@
       </c>
       <c r="BN35" s="28"/>
       <c r="BO35" s="17"/>
+      <c r="BP35" s="22"/>
     </row>
-    <row r="36" spans="1:67" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:68" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7710,8 +7788,11 @@
       <c r="BO36" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BP36" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7906,8 +7987,9 @@
       <c r="BM37" s="26"/>
       <c r="BN37" s="28"/>
       <c r="BO37" s="17"/>
+      <c r="BP37" s="22"/>
     </row>
-    <row r="38" spans="1:67" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:68" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8082,32 +8164,33 @@
         <v>12</v>
       </c>
       <c r="BO38" s="17"/>
+      <c r="BP38" s="22"/>
     </row>
-    <row r="40" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+    <row r="40" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="D40" s="48" t="s">
+      <c r="B40" s="54"/>
+      <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="50" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="51" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
+    <row r="41" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
       </c>
@@ -8141,14 +8224,14 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="52"/>
     </row>
-    <row r="42" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+    <row r="42" spans="1:68" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46">
         <f>TRUNC(M46,1)</f>
-        <v>81.099999999999994</v>
-      </c>
-      <c r="B42" s="45"/>
+        <v>80.3</v>
+      </c>
+      <c r="B42" s="46"/>
       <c r="D42" s="2">
         <v>14</v>
       </c>
@@ -8168,7 +8251,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" s="2">
         <v>3</v>
@@ -8184,11 +8267,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:68" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>11</v>
       </c>
@@ -8201,19 +8284,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="35">
-        <f>COUNTA(C4:BO4)</f>
+        <f>COUNTA(C4:BP4)</f>
         <v>63</v>
       </c>
       <c r="K44" s="36">
-        <f>COUNTA(C3:BO3)</f>
-        <v>65</v>
+        <f>COUNTA(C3:BP3)</f>
+        <v>66</v>
       </c>
       <c r="M44" s="37">
-        <f>COUNTA(C4:BO38)</f>
-        <v>1847</v>
+        <f>COUNTA(C4:BP38)</f>
+        <v>1857</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>13</v>
       </c>
@@ -8226,19 +8309,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="35">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BO5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BP5)</f>
         <v>61</v>
       </c>
       <c r="K45" s="33">
         <f>K44-6</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="34">
         <f>K44 * 35</f>
-        <v>2275</v>
+        <v>2310</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>14</v>
       </c>
@@ -8256,10 +8339,10 @@
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>81.186813186813183</v>
+        <v>80.389610389610397</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +8359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>16</v>
       </c>
@@ -8290,7 +8373,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8358,7 +8441,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="35">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8409,7 +8492,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8477,7 +8560,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8494,7 +8577,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8579,7 +8662,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="35">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8596,7 +8679,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="35">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8766,7 +8849,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="35">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8804,7 +8887,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="AU1:AZ1"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E71DB6-D412-45FF-9CC4-8600C9D457CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A42959B-B857-4CCE-91A7-1E9320C5B115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="60" windowWidth="11496" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="11496" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="177">
   <si>
     <t>No.</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>BINDO7</t>
+  </si>
+  <si>
+    <t>BASDA4</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -780,20 +783,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,7 +912,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,16 +924,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,12 +940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,13 +1257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BJ25" sqref="BJ25:BP25"/>
+      <selection pane="bottomRight" activeCell="BL26" sqref="BL26:BQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,11 +1302,11 @@
     <col min="62" max="62" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="67" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="8.88671875" style="1"/>
+    <col min="68" max="69" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1335,30 +1320,30 @@
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="47" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="53" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="48" t="s">
         <v>121</v>
       </c>
@@ -1369,25 +1354,25 @@
       <c r="AE1" s="48"/>
       <c r="AF1" s="48"/>
       <c r="AG1" s="48"/>
-      <c r="AH1" s="50" t="s">
+      <c r="AH1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="47" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
       <c r="AU1" s="48" t="s">
         <v>150</v>
       </c>
@@ -1396,34 +1381,35 @@
       <c r="AX1" s="48"/>
       <c r="AY1" s="48"/>
       <c r="AZ1" s="48"/>
-      <c r="BA1" s="50" t="s">
+      <c r="BA1" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="47" t="s">
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
       <c r="BK1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BL1" s="57" t="s">
+      <c r="BL1" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="55" t="s">
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="BP1" s="56"/>
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
     </row>
-    <row r="2" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="39" t="s">
@@ -1621,11 +1607,14 @@
       <c r="BO2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" s="45" t="s">
+      <c r="BP2" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="BQ2" s="44" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
@@ -1826,8 +1815,11 @@
       <c r="BP3" s="17" t="s">
         <v>175</v>
       </c>
+      <c r="BQ3" s="17" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2027,14 +2019,15 @@
       </c>
       <c r="BO4" s="17"/>
       <c r="BP4" s="22"/>
+      <c r="BQ4" s="17"/>
     </row>
-    <row r="5" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>IF(I45 &lt;= K45, D45, B45)</f>
-        <v>Alief Faza Rizqi Adi Jaya</v>
+        <v>Alief Faza Rizqi Adi Jaya,</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>12</v>
@@ -2224,8 +2217,9 @@
       <c r="BN5" s="28"/>
       <c r="BO5" s="17"/>
       <c r="BP5" s="22"/>
+      <c r="BQ5" s="17"/>
     </row>
-    <row r="6" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2422,11 +2416,16 @@
       <c r="BM6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN6" s="28"/>
+      <c r="BN6" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO6" s="17"/>
-      <c r="BP6" s="22"/>
+      <c r="BP6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ6" s="17"/>
     </row>
-    <row r="7" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2576,8 +2575,9 @@
       <c r="BN7" s="28"/>
       <c r="BO7" s="17"/>
       <c r="BP7" s="22"/>
+      <c r="BQ7" s="17"/>
     </row>
-    <row r="8" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2779,8 +2779,9 @@
       </c>
       <c r="BO8" s="17"/>
       <c r="BP8" s="22"/>
+      <c r="BQ8" s="17"/>
     </row>
-    <row r="9" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2920,8 +2921,9 @@
       <c r="BN9" s="28"/>
       <c r="BO9" s="17"/>
       <c r="BP9" s="22"/>
+      <c r="BQ9" s="17"/>
     </row>
-    <row r="10" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3123,8 +3125,9 @@
       </c>
       <c r="BO10" s="17"/>
       <c r="BP10" s="22"/>
+      <c r="BQ10" s="17"/>
     </row>
-    <row r="11" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3242,8 +3245,9 @@
       <c r="BN11" s="28"/>
       <c r="BO11" s="17"/>
       <c r="BP11" s="22"/>
+      <c r="BQ11" s="17"/>
     </row>
-    <row r="12" spans="1:68" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3449,8 +3453,9 @@
       <c r="BP12" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="BQ12" s="17"/>
     </row>
-    <row r="13" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3589,11 +3594,14 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="28"/>
       <c r="BM13" s="26"/>
-      <c r="BN13" s="28"/>
+      <c r="BN13" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO13" s="17"/>
       <c r="BP13" s="22"/>
+      <c r="BQ13" s="17"/>
     </row>
-    <row r="14" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3795,8 +3803,9 @@
       </c>
       <c r="BO14" s="17"/>
       <c r="BP14" s="22"/>
+      <c r="BQ14" s="17"/>
     </row>
-    <row r="15" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3997,9 +4006,12 @@
         <v>12</v>
       </c>
       <c r="BO15" s="17"/>
-      <c r="BP15" s="22"/>
+      <c r="BP15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ15" s="17"/>
     </row>
-    <row r="16" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4180,11 +4192,14 @@
       <c r="BM16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN16" s="28"/>
+      <c r="BN16" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO16" s="17"/>
       <c r="BP16" s="22"/>
+      <c r="BQ16" s="17"/>
     </row>
-    <row r="17" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4341,11 +4356,14 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="28"/>
       <c r="BM17" s="26"/>
-      <c r="BN17" s="28"/>
+      <c r="BN17" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO17" s="17"/>
       <c r="BP17" s="22"/>
+      <c r="BQ17" s="17"/>
     </row>
-    <row r="18" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4439,7 +4457,9 @@
       <c r="AF18" s="28"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="17"/>
+      <c r="AI18" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ18" s="20" t="s">
         <v>12</v>
       </c>
@@ -4485,18 +4505,23 @@
       </c>
       <c r="BG18" s="10"/>
       <c r="BH18" s="15"/>
-      <c r="BI18" s="10"/>
+      <c r="BI18" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ18" s="16" t="s">
         <v>12</v>
       </c>
       <c r="BK18" s="5"/>
       <c r="BL18" s="28"/>
-      <c r="BM18" s="26"/>
+      <c r="BM18" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="BN18" s="28"/>
       <c r="BO18" s="17"/>
       <c r="BP18" s="22"/>
+      <c r="BQ18" s="17"/>
     </row>
-    <row r="19" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4700,8 +4725,9 @@
       <c r="BP19" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="BQ19" s="17"/>
     </row>
-    <row r="20" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4899,8 +4925,9 @@
       <c r="BN20" s="28"/>
       <c r="BO20" s="17"/>
       <c r="BP20" s="22"/>
+      <c r="BQ20" s="17"/>
     </row>
-    <row r="21" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5082,8 +5109,9 @@
       </c>
       <c r="BO21" s="17"/>
       <c r="BP21" s="22"/>
+      <c r="BQ21" s="17"/>
     </row>
-    <row r="22" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5273,8 +5301,9 @@
       </c>
       <c r="BO22" s="17"/>
       <c r="BP22" s="22"/>
+      <c r="BQ22" s="17"/>
     </row>
-    <row r="23" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5424,8 +5453,9 @@
       <c r="BN23" s="28"/>
       <c r="BO23" s="17"/>
       <c r="BP23" s="22"/>
+      <c r="BQ23" s="17"/>
     </row>
-    <row r="24" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5567,8 +5597,9 @@
       <c r="BN24" s="28"/>
       <c r="BO24" s="17"/>
       <c r="BP24" s="22"/>
+      <c r="BQ24" s="17"/>
     </row>
-    <row r="25" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5770,8 +5801,9 @@
       <c r="BP25" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="BQ25" s="17"/>
     </row>
-    <row r="26" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5974,9 +6006,14 @@
       <c r="BO26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BP26" s="22"/>
+      <c r="BP26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ26" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6173,11 +6210,16 @@
       <c r="BM27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN27" s="28"/>
+      <c r="BN27" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO27" s="17"/>
-      <c r="BP27" s="22"/>
+      <c r="BP27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ27" s="17"/>
     </row>
-    <row r="28" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6361,8 +6403,9 @@
       <c r="BN28" s="28"/>
       <c r="BO28" s="17"/>
       <c r="BP28" s="22"/>
+      <c r="BQ28" s="17"/>
     </row>
-    <row r="29" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6564,8 +6607,9 @@
         <v>12</v>
       </c>
       <c r="BP29" s="22"/>
+      <c r="BQ29" s="17"/>
     </row>
-    <row r="30" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6675,8 +6719,9 @@
       <c r="BN30" s="28"/>
       <c r="BO30" s="17"/>
       <c r="BP30" s="22"/>
+      <c r="BQ30" s="17"/>
     </row>
-    <row r="31" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6840,8 +6885,9 @@
       <c r="BN31" s="28"/>
       <c r="BO31" s="17"/>
       <c r="BP31" s="22"/>
+      <c r="BQ31" s="17"/>
     </row>
-    <row r="32" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7041,10 +7087,15 @@
       <c r="BN32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="22"/>
+      <c r="BO32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ32" s="17"/>
     </row>
-    <row r="33" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7193,17 +7244,20 @@
       <c r="BK33" s="5"/>
       <c r="BL33" s="28"/>
       <c r="BM33" s="26"/>
-      <c r="BN33" s="28"/>
+      <c r="BN33" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO33" s="17"/>
       <c r="BP33" s="22"/>
+      <c r="BQ33" s="17"/>
     </row>
-    <row r="34" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>IF(I74 &lt;= K45, D74, B74)</f>
-        <v>Shabrina Cahyani</v>
+        <v>Shabrina Cahyani,</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>12</v>
@@ -7393,8 +7447,9 @@
       <c r="BN34" s="28"/>
       <c r="BO34" s="17"/>
       <c r="BP34" s="22"/>
+      <c r="BQ34" s="17"/>
     </row>
-    <row r="35" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7574,18 +7629,25 @@
       <c r="BJ35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="BK35" s="5"/>
+      <c r="BK35" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="BL35" s="27" t="s">
         <v>12</v>
       </c>
       <c r="BM35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BN35" s="28"/>
+      <c r="BN35" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO35" s="17"/>
-      <c r="BP35" s="22"/>
+      <c r="BP35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ35" s="17"/>
     </row>
-    <row r="36" spans="1:68" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7791,8 +7853,9 @@
       <c r="BP36" s="20" t="s">
         <v>12</v>
       </c>
+      <c r="BQ36" s="17"/>
     </row>
-    <row r="37" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7985,11 +8048,14 @@
       </c>
       <c r="BL37" s="28"/>
       <c r="BM37" s="26"/>
-      <c r="BN37" s="28"/>
+      <c r="BN37" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="BO37" s="17"/>
       <c r="BP37" s="22"/>
+      <c r="BQ37" s="17"/>
     </row>
-    <row r="38" spans="1:68" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8165,12 +8231,13 @@
       </c>
       <c r="BO38" s="17"/>
       <c r="BP38" s="22"/>
+      <c r="BQ38" s="17"/>
     </row>
-    <row r="40" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="53"/>
       <c r="D40" s="49" t="s">
         <v>78</v>
       </c>
@@ -8184,13 +8251,13 @@
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="49"/>
-      <c r="O40" s="51" t="s">
+      <c r="O40" s="50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
+    <row r="41" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
       </c>
@@ -8224,14 +8291,14 @@
       <c r="N41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="51"/>
     </row>
-    <row r="42" spans="1:68" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+    <row r="42" spans="1:69" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <f>TRUNC(M46,1)</f>
-        <v>80.3</v>
-      </c>
-      <c r="B42" s="46"/>
+        <v>80</v>
+      </c>
+      <c r="B42" s="47"/>
       <c r="D42" s="2">
         <v>14</v>
       </c>
@@ -8254,7 +8321,7 @@
         <v>7</v>
       </c>
       <c r="K42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42" s="2">
         <v>8</v>
@@ -8267,11 +8334,11 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:68" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>11</v>
       </c>
@@ -8284,19 +8351,19 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="35">
-        <f>COUNTA(C4:BP4)</f>
+        <f>COUNTA(C4:BQ4)</f>
         <v>63</v>
       </c>
       <c r="K44" s="36">
-        <f>COUNTA(C3:BP3)</f>
-        <v>66</v>
+        <f>COUNTA(C3:BQ3)</f>
+        <v>67</v>
       </c>
       <c r="M44" s="37">
-        <f>COUNTA(C4:BP38)</f>
-        <v>1857</v>
+        <f>COUNTA(C4:BQ38)</f>
+        <v>1877</v>
       </c>
     </row>
-    <row r="45" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>13</v>
       </c>
@@ -8309,19 +8376,19 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="35">
-        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BP5)</f>
+        <f t="shared" ref="I45:I78" si="0">COUNTA(C5:BQ5)</f>
         <v>61</v>
       </c>
       <c r="K45" s="33">
         <f>K44-6</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M45" s="34">
         <f>K44 * 35</f>
-        <v>2310</v>
+        <v>2345</v>
       </c>
     </row>
-    <row r="46" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>14</v>
       </c>
@@ -8335,14 +8402,14 @@
       <c r="H46" s="3"/>
       <c r="I46" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M46" s="34">
         <f>100 * M44 / M45</f>
-        <v>80.389610389610397</v>
+        <v>80.042643923240945</v>
       </c>
     </row>
-    <row r="47" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>15</v>
       </c>
@@ -8359,7 +8426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:68" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>16</v>
       </c>
@@ -8458,7 +8525,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8492,7 +8559,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="35">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8509,7 +8576,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="35">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8526,7 +8593,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="35">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8543,7 +8610,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="35">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8679,7 +8746,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="35">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8696,7 +8763,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="35">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8781,7 +8848,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="35">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8798,7 +8865,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="35">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8832,7 +8899,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="35">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8866,7 +8933,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="35">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -8888,14 +8955,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="BO1:BQ1"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -8907,6 +8971,9 @@
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A40:B41"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="AU1:AZ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC4778-A6B7-4FFF-B9AA-86C5ED6E390C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A112B-1EA4-44F4-9943-FD29C01E996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="142">
   <si>
     <t>No.</t>
   </si>
@@ -736,22 +736,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,10 +1066,10 @@
   <dimension ref="A1:BR45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL27" sqref="BL27:BR27"/>
+      <selection pane="bottomRight" activeCell="AQ32" sqref="AQ32:BR32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,65 +1113,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="41" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
       <c r="W1" s="42" t="s">
         <v>81</v>
       </c>
       <c r="X1" s="42"/>
       <c r="Y1" s="42"/>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="41" t="s">
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
       <c r="AP1" s="42" t="s">
         <v>105</v>
       </c>
@@ -1179,46 +1179,46 @@
       <c r="AR1" s="42"/>
       <c r="AS1" s="42"/>
       <c r="AT1" s="42"/>
-      <c r="AU1" s="37" t="s">
+      <c r="AU1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="38" t="s">
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="41" t="s">
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
       <c r="BK1" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BL1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="38" t="s">
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
     </row>
     <row r="2" spans="1:70" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
@@ -1425,8 +1425,8 @@
       </c>
     </row>
     <row r="3" spans="1:70" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="22" t="s">
         <v>58</v>
       </c>
@@ -4173,11 +4173,15 @@
       <c r="AV17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AW17" s="24"/>
+      <c r="AW17" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AX17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AY17" s="24"/>
+      <c r="AY17" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AZ17" s="26"/>
       <c r="BA17" s="15"/>
       <c r="BB17" s="18" t="s">
@@ -4188,10 +4192,14 @@
         <v>12</v>
       </c>
       <c r="BE17" s="15"/>
-      <c r="BF17" s="20"/>
+      <c r="BF17" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BG17" s="8"/>
       <c r="BH17" s="13"/>
-      <c r="BI17" s="8"/>
+      <c r="BI17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="BJ17" s="13"/>
       <c r="BK17" s="3"/>
       <c r="BL17" s="26"/>
@@ -4200,7 +4208,9 @@
         <v>12</v>
       </c>
       <c r="BO17" s="15"/>
-      <c r="BP17" s="20"/>
+      <c r="BP17" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BQ17" s="15"/>
       <c r="BR17" s="18" t="s">
         <v>12</v>
@@ -5157,8 +5167,12 @@
       </c>
       <c r="BO22" s="15"/>
       <c r="BP22" s="20"/>
-      <c r="BQ22" s="15"/>
-      <c r="BR22" s="20"/>
+      <c r="BQ22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR22" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:70" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -6268,7 +6282,9 @@
       <c r="BO28" s="15"/>
       <c r="BP28" s="20"/>
       <c r="BQ28" s="15"/>
-      <c r="BR28" s="20"/>
+      <c r="BR28" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:70" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -8117,20 +8133,20 @@
       <c r="BR38" s="20"/>
     </row>
     <row r="40" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="39" t="s">
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="36" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8168,7 +8184,7 @@
       <c r="N41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="O41" s="40"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="1:70" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
@@ -8214,6 +8230,12 @@
     <row r="45" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AH1:AL1"/>
@@ -8225,12 +8247,6 @@
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BL1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A112B-1EA4-44F4-9943-FD29C01E996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E5264-489D-4B76-BB4C-B589128834D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11016" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="142">
   <si>
     <t>No.</t>
   </si>
@@ -1066,10 +1066,10 @@
   <dimension ref="A1:BR45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ32" sqref="AQ32:BR32"/>
+      <selection pane="bottomRight" activeCell="BL10" sqref="BL10:BR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,8 +2947,12 @@
       <c r="BN10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="20"/>
+      <c r="BO10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP10" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BQ10" s="15"/>
       <c r="BR10" s="18" t="s">
         <v>12</v>
@@ -6768,7 +6772,7 @@
       <c r="BQ31" s="15"/>
       <c r="BR31" s="20"/>
     </row>
-    <row r="32" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:70" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6973,7 +6977,9 @@
       <c r="BP32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BQ32" s="15"/>
+      <c r="BQ32" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR32" s="18" t="s">
         <v>12</v>
       </c>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E5264-489D-4B76-BB4C-B589128834D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E188388-50D6-4B69-9C68-69175CFB66DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3012" yWindow="0" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,10 +1066,10 @@
   <dimension ref="A1:BR45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL10" sqref="BL10:BR10"/>
+      <selection pane="bottomRight" activeCell="BU8" sqref="BU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E188388-50D6-4B69-9C68-69175CFB66DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B25084-4241-4D76-93B0-06FAFD94EBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="0" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>PKK7</t>
+  </si>
+  <si>
+    <t>Minggu Ke-15</t>
+  </si>
+  <si>
+    <t>MAT15</t>
   </si>
 </sst>
 </file>
@@ -724,16 +730,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR45"/>
+  <dimension ref="A1:BS45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BU8" sqref="BU8"/>
+      <selection pane="bottomRight" activeCell="CC17" sqref="CC16:CC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,10 +1115,12 @@
     <col min="63" max="63" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="67" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="8.88671875" style="1"/>
+    <col min="70" max="70" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1209,7 @@
       <c r="BH1" s="40"/>
       <c r="BI1" s="40"/>
       <c r="BJ1" s="40"/>
-      <c r="BK1" s="32" t="s">
+      <c r="BK1" s="35" t="s">
         <v>132</v>
       </c>
       <c r="BL1" s="41" t="s">
@@ -1215,47 +1223,50 @@
       <c r="BP1" s="39"/>
       <c r="BQ1" s="39"/>
       <c r="BR1" s="39"/>
+      <c r="BS1" s="34" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="32" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="33" t="s">
@@ -1279,52 +1290,52 @@
       <c r="V2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="35" t="s">
+      <c r="AG2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AH2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AI2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AL2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="AM2" s="33" t="s">
@@ -1336,55 +1347,55 @@
       <c r="AO2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AP2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="32" t="s">
+      <c r="AR2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AS2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="32" t="s">
+      <c r="AT2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="35" t="s">
+      <c r="AU2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="35" t="s">
+      <c r="AV2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="35" t="s">
+      <c r="AW2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="35" t="s">
+      <c r="AX2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="35" t="s">
+      <c r="AY2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="35" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BA2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="34" t="s">
+      <c r="BB2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="34" t="s">
+      <c r="BC2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BD2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BE2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BF2" s="32" t="s">
         <v>47</v>
       </c>
       <c r="BG2" s="33" t="s">
@@ -1399,32 +1410,35 @@
       <c r="BJ2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BK2" s="32" t="s">
+      <c r="BK2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="35" t="s">
+      <c r="BL2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BM2" s="35" t="s">
+      <c r="BM2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" s="35" t="s">
+      <c r="BN2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="34" t="s">
+      <c r="BO2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" s="34" t="s">
+      <c r="BP2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="BQ2" s="34" t="s">
+      <c r="BQ2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="BR2" s="34" t="s">
+      <c r="BR2" s="32" t="s">
         <v>5</v>
       </c>
+      <c r="BS2" s="34" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="22" t="s">
@@ -1631,8 +1645,11 @@
       <c r="BR3" s="15" t="s">
         <v>141</v>
       </c>
+      <c r="BS3" s="22" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1829,14 +1846,21 @@
       <c r="BN4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="15"/>
+      <c r="BO4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ4" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR4" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS4" s="24"/>
     </row>
-    <row r="5" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2027,16 +2051,23 @@
       <c r="BL5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BM5" s="24"/>
+      <c r="BM5" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BN5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO5" s="15"/>
-      <c r="BP5" s="20"/>
+      <c r="BO5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP5" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="BQ5" s="15"/>
       <c r="BR5" s="20"/>
+      <c r="BS5" s="24"/>
     </row>
-    <row r="6" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2235,7 +2266,9 @@
       <c r="BN6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO6" s="15"/>
+      <c r="BO6" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BP6" s="18" t="s">
         <v>12</v>
       </c>
@@ -2243,8 +2276,9 @@
       <c r="BR6" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS6" s="24"/>
     </row>
-    <row r="7" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2395,8 +2429,9 @@
       <c r="BP7" s="20"/>
       <c r="BQ7" s="15"/>
       <c r="BR7" s="20"/>
+      <c r="BS7" s="24"/>
     </row>
-    <row r="8" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2605,8 +2640,9 @@
       <c r="BR8" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS8" s="24"/>
     </row>
-    <row r="9" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2747,8 +2783,9 @@
       <c r="BP9" s="20"/>
       <c r="BQ9" s="15"/>
       <c r="BR9" s="20"/>
+      <c r="BS9" s="24"/>
     </row>
-    <row r="10" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2957,8 +2994,9 @@
       <c r="BR10" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS10" s="24"/>
     </row>
-    <row r="11" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3079,8 +3117,9 @@
       <c r="BP11" s="20"/>
       <c r="BQ11" s="15"/>
       <c r="BR11" s="20"/>
+      <c r="BS11" s="24"/>
     </row>
-    <row r="12" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3287,8 +3326,9 @@
       </c>
       <c r="BQ12" s="15"/>
       <c r="BR12" s="20"/>
+      <c r="BS12" s="24"/>
     </row>
-    <row r="13" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3433,8 +3473,9 @@
       <c r="BP13" s="20"/>
       <c r="BQ13" s="15"/>
       <c r="BR13" s="20"/>
+      <c r="BS13" s="24"/>
     </row>
-    <row r="14" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3643,8 +3684,9 @@
       <c r="BR14" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS14" s="24"/>
     </row>
-    <row r="15" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3853,8 +3895,9 @@
       <c r="BR15" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS15" s="24"/>
     </row>
-    <row r="16" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4043,8 +4086,9 @@
       <c r="BR16" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS16" s="24"/>
     </row>
-    <row r="17" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4219,8 +4263,9 @@
       <c r="BR17" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS17" s="24"/>
     </row>
-    <row r="18" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4377,8 +4422,9 @@
       <c r="BP18" s="20"/>
       <c r="BQ18" s="15"/>
       <c r="BR18" s="20"/>
+      <c r="BS18" s="24"/>
     </row>
-    <row r="19" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4585,8 +4631,9 @@
       <c r="BR19" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS19" s="24"/>
     </row>
-    <row r="20" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4795,8 +4842,9 @@
       <c r="BR20" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS20" s="24"/>
     </row>
-    <row r="21" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4979,8 +5027,9 @@
       <c r="BP21" s="20"/>
       <c r="BQ21" s="15"/>
       <c r="BR21" s="20"/>
+      <c r="BS21" s="24"/>
     </row>
-    <row r="22" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5177,8 +5226,9 @@
       <c r="BR22" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS22" s="24"/>
     </row>
-    <row r="23" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5329,8 +5379,9 @@
       <c r="BP23" s="20"/>
       <c r="BQ23" s="15"/>
       <c r="BR23" s="20"/>
+      <c r="BS23" s="24"/>
     </row>
-    <row r="24" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5473,8 +5524,9 @@
       <c r="BP24" s="20"/>
       <c r="BQ24" s="15"/>
       <c r="BR24" s="20"/>
+      <c r="BS24" s="24"/>
     </row>
-    <row r="25" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5681,8 +5733,9 @@
       <c r="BR25" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS25" s="24"/>
     </row>
-    <row r="26" spans="1:70" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5893,8 +5946,11 @@
       <c r="BR26" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS26" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6101,8 +6157,9 @@
       <c r="BR27" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS27" s="24"/>
     </row>
-    <row r="28" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6283,14 +6340,17 @@
         <v>12</v>
       </c>
       <c r="BN28" s="26"/>
-      <c r="BO28" s="15"/>
+      <c r="BO28" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BP28" s="20"/>
       <c r="BQ28" s="15"/>
       <c r="BR28" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS28" s="24"/>
     </row>
-    <row r="29" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6493,8 +6553,9 @@
       <c r="BP29" s="20"/>
       <c r="BQ29" s="15"/>
       <c r="BR29" s="20"/>
+      <c r="BS29" s="24"/>
     </row>
-    <row r="30" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6605,8 +6666,9 @@
       <c r="BP30" s="20"/>
       <c r="BQ30" s="15"/>
       <c r="BR30" s="20"/>
+      <c r="BS30" s="24"/>
     </row>
-    <row r="31" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6771,8 +6833,9 @@
       <c r="BP31" s="20"/>
       <c r="BQ31" s="15"/>
       <c r="BR31" s="20"/>
+      <c r="BS31" s="24"/>
     </row>
-    <row r="32" spans="1:70" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6983,8 +7046,9 @@
       <c r="BR32" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS32" s="24"/>
     </row>
-    <row r="33" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7139,8 +7203,9 @@
       <c r="BP33" s="20"/>
       <c r="BQ33" s="15"/>
       <c r="BR33" s="20"/>
+      <c r="BS33" s="24"/>
     </row>
-    <row r="34" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7345,8 +7410,9 @@
       <c r="BR34" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS34" s="24"/>
     </row>
-    <row r="35" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7545,8 +7611,9 @@
       <c r="BR35" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS35" s="24"/>
     </row>
-    <row r="36" spans="1:70" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7757,8 +7824,9 @@
       <c r="BR36" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="BS36" s="24"/>
     </row>
-    <row r="37" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7949,16 +8017,27 @@
         <v>12</v>
       </c>
       <c r="BL37" s="26"/>
-      <c r="BM37" s="24"/>
+      <c r="BM37" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="BN37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO37" s="15"/>
-      <c r="BP37" s="20"/>
-      <c r="BQ37" s="15"/>
-      <c r="BR37" s="20"/>
+      <c r="BO37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS37" s="24"/>
     </row>
-    <row r="38" spans="1:70" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8137,8 +8216,9 @@
         <v>12</v>
       </c>
       <c r="BR38" s="20"/>
+      <c r="BS38" s="24"/>
     </row>
-    <row r="40" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="38" t="s">
         <v>77</v>
       </c>
@@ -8156,7 +8236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="30" t="s">
         <v>7</v>
       </c>
@@ -8192,9 +8272,9 @@
       </c>
       <c r="O41" s="37"/>
     </row>
-    <row r="42" spans="1:70" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:71" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -8228,12 +8308,12 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:70" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:71" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:A3"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B25084-4241-4D76-93B0-06FAFD94EBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D46C04D-6554-4E9D-98CF-D416E56A24AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10452" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -1075,7 +1075,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CC17" sqref="CC16:CC17"/>
+      <selection pane="bottomRight" activeCell="BO17" sqref="BO17:BS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2785,7 +2785,7 @@
       <c r="BR9" s="20"/>
       <c r="BS9" s="24"/>
     </row>
-    <row r="10" spans="1:71" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2990,11 +2990,15 @@
       <c r="BP10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BQ10" s="15"/>
+      <c r="BQ10" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BS10" s="24"/>
+      <c r="BS10" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -3324,7 +3328,9 @@
       <c r="BP12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BQ12" s="15"/>
+      <c r="BQ12" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR12" s="20"/>
       <c r="BS12" s="24"/>
     </row>
@@ -3891,7 +3897,9 @@
       <c r="BP15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BQ15" s="15"/>
+      <c r="BQ15" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR15" s="18" t="s">
         <v>12</v>
       </c>
@@ -4259,7 +4267,9 @@
       <c r="BP17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BQ17" s="15"/>
+      <c r="BQ17" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="BR17" s="18" t="s">
         <v>12</v>
       </c>
@@ -8035,7 +8045,9 @@
       <c r="BR37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BS37" s="24"/>
+      <c r="BS37" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:71" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="2">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D0780-840F-457F-8B04-ED4273007626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C2602-FC43-4F53-A68A-20277A496319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11544" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Minggu Ke-15</t>
+  </si>
+  <si>
+    <t>PAI12</t>
   </si>
 </sst>
 </file>
@@ -697,18 +700,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,19 +724,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV45"/>
+  <dimension ref="A1:BW45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BS4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BS8" sqref="BS8"/>
+      <selection pane="bottomRight" activeCell="BS37" sqref="BS37:BW37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,30 +1114,30 @@
     <col min="78" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:75" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="30" t="s">
         <v>57</v>
       </c>
@@ -1149,23 +1152,23 @@
       </c>
       <c r="X1" s="36"/>
       <c r="Y1" s="36"/>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
       <c r="AM1" s="30" t="s">
         <v>100</v>
       </c>
@@ -1178,272 +1181,276 @@
       <c r="AR1" s="36"/>
       <c r="AS1" s="36"/>
       <c r="AT1" s="36"/>
-      <c r="AU1" s="32" t="s">
+      <c r="AU1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="33" t="s">
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
       <c r="BG1" s="30" t="s">
         <v>126</v>
       </c>
       <c r="BH1" s="30"/>
       <c r="BI1" s="30"/>
       <c r="BJ1" s="30"/>
-      <c r="BK1" s="22" t="s">
+      <c r="BK1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BL1" s="32" t="s">
+      <c r="BL1" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="33" t="s">
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
       <c r="BS1" s="30" t="s">
         <v>146</v>
       </c>
       <c r="BT1" s="30"/>
       <c r="BU1" s="30"/>
       <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
     </row>
-    <row r="2" spans="1:74" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="1:75" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AM2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="22" t="s">
+      <c r="AS2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AU2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AV2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AW2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="AX2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="AY2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="AZ2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="19" t="s">
+      <c r="BA2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BB2" s="19" t="s">
+      <c r="BB2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BC2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="19" t="s">
+      <c r="BD2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="19" t="s">
+      <c r="BE2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="19" t="s">
+      <c r="BF2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BK2" s="22" t="s">
+      <c r="BK2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BL2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BM2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BN2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="BO2" s="19" t="s">
+      <c r="BO2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" s="19" t="s">
+      <c r="BP2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="BQ2" s="19" t="s">
+      <c r="BQ2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BR2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="26" t="s">
         <v>5</v>
       </c>
+      <c r="BW2" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:75" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
@@ -1660,8 +1667,11 @@
       <c r="BV3" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="BW3" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1731,7 +1741,7 @@
       <c r="W4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y4" s="4" t="s">
@@ -1785,19 +1795,19 @@
       <c r="AO4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="23" t="s">
+      <c r="AP4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR4" s="23" t="s">
+      <c r="AR4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="23" t="s">
+      <c r="AT4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU4" s="14" t="s">
@@ -1827,7 +1837,7 @@
       <c r="BC4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD4" s="24"/>
+      <c r="BD4" s="20"/>
       <c r="BE4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1870,16 +1880,19 @@
       <c r="BR4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="25"/>
+      <c r="BS4" s="21"/>
       <c r="BT4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV4" s="26"/>
+      <c r="BV4" s="22"/>
+      <c r="BW4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1949,7 +1962,7 @@
       <c r="W5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="X5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y5" s="4" t="s">
@@ -2003,19 +2016,19 @@
       <c r="AO5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="23" t="s">
+      <c r="AP5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="23" t="s">
+      <c r="AR5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT5" s="23" t="s">
+      <c r="AT5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU5" s="14" t="s">
@@ -2048,7 +2061,7 @@
       <c r="BD5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BE5" s="29"/>
+      <c r="BE5" s="25"/>
       <c r="BF5" s="11" t="s">
         <v>12</v>
       </c>
@@ -2085,13 +2098,18 @@
       <c r="BQ5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="26"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="26"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="21"/>
     </row>
-    <row r="6" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2161,7 +2179,7 @@
       <c r="W6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y6" s="4" t="s">
@@ -2215,19 +2233,19 @@
       <c r="AO6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP6" s="23" t="s">
+      <c r="AP6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR6" s="23" t="s">
+      <c r="AR6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT6" s="23" t="s">
+      <c r="AT6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU6" s="14" t="s">
@@ -2296,16 +2314,25 @@
       <c r="BP6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ6" s="29"/>
+      <c r="BQ6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="26"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="26"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2375,7 +2402,7 @@
       <c r="W7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="27"/>
+      <c r="X7" s="23"/>
       <c r="Y7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2438,7 @@
       <c r="AK7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL7" s="24"/>
+      <c r="AL7" s="20"/>
       <c r="AM7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2421,47 +2448,48 @@
       <c r="AO7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP7" s="27"/>
+      <c r="AP7" s="23"/>
       <c r="AQ7" s="5"/>
-      <c r="AR7" s="23" t="s">
+      <c r="AR7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="28"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="24"/>
       <c r="AV7" s="16"/>
-      <c r="AW7" s="28"/>
+      <c r="AW7" s="24"/>
       <c r="AX7" s="16"/>
-      <c r="AY7" s="28"/>
+      <c r="AY7" s="24"/>
       <c r="AZ7" s="16"/>
-      <c r="BA7" s="29"/>
+      <c r="BA7" s="25"/>
       <c r="BB7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC7" s="29"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="29"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="26"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="22"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="16"/>
-      <c r="BM7" s="28"/>
+      <c r="BM7" s="24"/>
       <c r="BN7" s="16"/>
-      <c r="BO7" s="29"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="29"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="26"/>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="26"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="21"/>
     </row>
-    <row r="8" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2531,7 +2559,7 @@
       <c r="W8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y8" s="4" t="s">
@@ -2585,19 +2613,19 @@
       <c r="AO8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP8" s="23" t="s">
+      <c r="AP8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR8" s="23" t="s">
+      <c r="AR8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="23" t="s">
+      <c r="AT8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU8" s="14" t="s">
@@ -2666,20 +2694,23 @@
       <c r="BP8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ8" s="29"/>
+      <c r="BQ8" s="25"/>
       <c r="BR8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS8" s="25"/>
+      <c r="BS8" s="21"/>
       <c r="BT8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV8" s="26"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2737,13 +2768,13 @@
       <c r="S9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="X9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y9" s="4" t="s">
@@ -2758,7 +2789,7 @@
       <c r="AB9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="28"/>
+      <c r="AC9" s="24"/>
       <c r="AD9" s="15" t="s">
         <v>12</v>
       </c>
@@ -2766,8 +2797,8 @@
         <v>12</v>
       </c>
       <c r="AF9" s="16"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="20"/>
       <c r="AI9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2777,55 +2808,56 @@
       <c r="AK9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="25"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="21"/>
       <c r="AN9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AO9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="27"/>
+      <c r="AP9" s="23"/>
       <c r="AQ9" s="5"/>
-      <c r="AR9" s="23" t="s">
+      <c r="AR9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS9" s="5"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="28"/>
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="24"/>
       <c r="AV9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AW9" s="28"/>
+      <c r="AW9" s="24"/>
       <c r="AX9" s="16"/>
-      <c r="AY9" s="28"/>
+      <c r="AY9" s="24"/>
       <c r="AZ9" s="16"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="21"/>
       <c r="BJ9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BK9" s="5"/>
       <c r="BL9" s="16"/>
-      <c r="BM9" s="28"/>
+      <c r="BM9" s="24"/>
       <c r="BN9" s="16"/>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="26"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="20"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="21"/>
     </row>
-    <row r="10" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2895,7 +2927,7 @@
       <c r="W10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y10" s="4" t="s">
@@ -2949,19 +2981,19 @@
       <c r="AO10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP10" s="23" t="s">
+      <c r="AP10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR10" s="23" t="s">
+      <c r="AR10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT10" s="23" t="s">
+      <c r="AT10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU10" s="14" t="s">
@@ -3045,9 +3077,14 @@
       <c r="BU10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV10" s="26"/>
+      <c r="BV10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW10" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3111,69 +3148,70 @@
       <c r="U11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="26"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="27"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="28"/>
+      <c r="AA11" s="24"/>
       <c r="AB11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="28"/>
+      <c r="AC11" s="24"/>
       <c r="AD11" s="16"/>
-      <c r="AE11" s="28"/>
+      <c r="AE11" s="24"/>
       <c r="AF11" s="16"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="26"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="22"/>
       <c r="AO11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP11" s="27"/>
+      <c r="AP11" s="23"/>
       <c r="AQ11" s="5"/>
-      <c r="AR11" s="27"/>
+      <c r="AR11" s="23"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="28"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="24"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="28"/>
+      <c r="AW11" s="24"/>
       <c r="AX11" s="16"/>
-      <c r="AY11" s="28"/>
+      <c r="AY11" s="24"/>
       <c r="AZ11" s="16"/>
-      <c r="BA11" s="29"/>
+      <c r="BA11" s="25"/>
       <c r="BB11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="26"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="22"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="16"/>
-      <c r="BM11" s="28"/>
+      <c r="BM11" s="24"/>
       <c r="BN11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="29"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="25"/>
-      <c r="BT11" s="26"/>
-      <c r="BU11" s="25"/>
-      <c r="BV11" s="26"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="22"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="21"/>
     </row>
-    <row r="12" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3243,7 +3281,7 @@
       <c r="W12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="23" t="s">
+      <c r="X12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y12" s="4" t="s">
@@ -3297,19 +3335,19 @@
       <c r="AO12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP12" s="23" t="s">
+      <c r="AP12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR12" s="23" t="s">
+      <c r="AR12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT12" s="23" t="s">
+      <c r="AT12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU12" s="14" t="s">
@@ -3381,7 +3419,7 @@
       <c r="BQ12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR12" s="24"/>
+      <c r="BR12" s="20"/>
       <c r="BS12" s="7" t="s">
         <v>12</v>
       </c>
@@ -3391,9 +3429,12 @@
       <c r="BU12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV12" s="26"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3454,12 +3495,12 @@
       <c r="T13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X13" s="23" t="s">
+      <c r="X13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y13" s="4" t="s">
@@ -3474,22 +3515,22 @@
       <c r="AB13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC13" s="28"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="28"/>
+      <c r="AE13" s="24"/>
       <c r="AF13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="29"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="25"/>
       <c r="AJ13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="24"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="20"/>
       <c r="AM13" s="7" t="s">
         <v>12</v>
       </c>
@@ -3499,51 +3540,52 @@
       <c r="AO13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP13" s="27"/>
+      <c r="AP13" s="23"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="23" t="s">
+      <c r="AR13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="28"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="24"/>
       <c r="AV13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AW13" s="28"/>
+      <c r="AW13" s="24"/>
       <c r="AX13" s="16"/>
-      <c r="AY13" s="28"/>
+      <c r="AY13" s="24"/>
       <c r="AZ13" s="16"/>
-      <c r="BA13" s="29"/>
+      <c r="BA13" s="25"/>
       <c r="BB13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="22"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="16"/>
-      <c r="BM13" s="28"/>
+      <c r="BM13" s="24"/>
       <c r="BN13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO13" s="29"/>
-      <c r="BP13" s="24"/>
-      <c r="BQ13" s="29"/>
-      <c r="BR13" s="24"/>
-      <c r="BS13" s="25"/>
-      <c r="BT13" s="26"/>
-      <c r="BU13" s="25"/>
-      <c r="BV13" s="26"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="22"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="22"/>
+      <c r="BW13" s="21"/>
     </row>
-    <row r="14" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3613,7 +3655,7 @@
       <c r="W14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="23" t="s">
+      <c r="X14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y14" s="4" t="s">
@@ -3667,19 +3709,19 @@
       <c r="AO14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP14" s="23" t="s">
+      <c r="AP14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="23" t="s">
+      <c r="AR14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT14" s="23" t="s">
+      <c r="AT14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU14" s="14" t="s">
@@ -3754,16 +3796,19 @@
       <c r="BR14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS14" s="25"/>
+      <c r="BS14" s="21"/>
       <c r="BT14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV14" s="26"/>
+      <c r="BV14" s="22"/>
+      <c r="BW14" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3776,7 +3821,7 @@
       <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -3800,7 +3845,7 @@
       <c r="L15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="25" t="s">
         <v>102</v>
       </c>
       <c r="N15" s="11" t="s">
@@ -3818,7 +3863,7 @@
       <c r="R15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="21" t="s">
         <v>102</v>
       </c>
       <c r="T15" s="8" t="s">
@@ -3833,7 +3878,7 @@
       <c r="W15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="23" t="s">
+      <c r="X15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y15" s="5" t="s">
@@ -3884,22 +3929,22 @@
       <c r="AN15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO15" s="25" t="s">
+      <c r="AO15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AP15" s="23" t="s">
+      <c r="AP15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR15" s="27" t="s">
+      <c r="AR15" s="23" t="s">
         <v>102</v>
       </c>
       <c r="AS15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="23" t="s">
+      <c r="AT15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU15" s="14" t="s">
@@ -3947,7 +3992,7 @@
       <c r="BI15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ15" s="26" t="s">
+      <c r="BJ15" s="22" t="s">
         <v>102</v>
       </c>
       <c r="BK15" s="4" t="s">
@@ -3983,9 +4028,12 @@
       <c r="BU15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV15" s="26"/>
+      <c r="BV15" s="22"/>
+      <c r="BW15" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4055,7 +4103,7 @@
       <c r="W16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="27"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="4" t="s">
         <v>12</v>
       </c>
@@ -4107,17 +4155,17 @@
       <c r="AO16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="23" t="s">
+      <c r="AP16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR16" s="23" t="s">
+      <c r="AR16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="23" t="s">
+      <c r="AT16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU16" s="14" t="s">
@@ -4147,13 +4195,13 @@
       <c r="BC16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="29"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="25"/>
       <c r="BF16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="26"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="22"/>
       <c r="BI16" s="7" t="s">
         <v>12</v>
       </c>
@@ -4168,24 +4216,25 @@
       <c r="BN16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO16" s="29"/>
+      <c r="BO16" s="25"/>
       <c r="BP16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ16" s="29"/>
+      <c r="BQ16" s="25"/>
       <c r="BR16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS16" s="25"/>
+      <c r="BS16" s="21"/>
       <c r="BT16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV16" s="26"/>
+      <c r="BV16" s="22"/>
+      <c r="BW16" s="21"/>
     </row>
-    <row r="17" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4255,7 +4304,7 @@
       <c r="W17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="23" t="s">
+      <c r="X17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y17" s="4" t="s">
@@ -4283,7 +4332,7 @@
       <c r="AG17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="24"/>
+      <c r="AH17" s="20"/>
       <c r="AI17" s="10" t="s">
         <v>12</v>
       </c>
@@ -4293,7 +4342,7 @@
       <c r="AK17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL17" s="24"/>
+      <c r="AL17" s="20"/>
       <c r="AM17" s="7" t="s">
         <v>12</v>
       </c>
@@ -4303,18 +4352,18 @@
       <c r="AO17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP17" s="23" t="s">
+      <c r="AP17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="23" t="s">
+      <c r="AR17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="28"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="24"/>
       <c r="AV17" s="15" t="s">
         <v>12</v>
       </c>
@@ -4328,31 +4377,31 @@
         <v>12</v>
       </c>
       <c r="AZ17" s="16"/>
-      <c r="BA17" s="29"/>
+      <c r="BA17" s="25"/>
       <c r="BB17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC17" s="29"/>
+      <c r="BC17" s="25"/>
       <c r="BD17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BE17" s="29"/>
+      <c r="BE17" s="25"/>
       <c r="BF17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="26"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="22"/>
       <c r="BI17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ17" s="26"/>
+      <c r="BJ17" s="22"/>
       <c r="BK17" s="5"/>
       <c r="BL17" s="16"/>
-      <c r="BM17" s="28"/>
+      <c r="BM17" s="24"/>
       <c r="BN17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO17" s="29"/>
+      <c r="BO17" s="25"/>
       <c r="BP17" s="11" t="s">
         <v>12</v>
       </c>
@@ -4362,16 +4411,17 @@
       <c r="BR17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS17" s="25"/>
+      <c r="BS17" s="21"/>
       <c r="BT17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV17" s="26"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="21"/>
     </row>
-    <row r="18" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4426,7 +4476,7 @@
       <c r="R18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="25"/>
+      <c r="S18" s="21"/>
       <c r="T18" s="8" t="s">
         <v>12</v>
       </c>
@@ -4439,7 +4489,7 @@
       <c r="W18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X18" s="23" t="s">
+      <c r="X18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y18" s="4" t="s">
@@ -4454,16 +4504,24 @@
       <c r="AB18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC18" s="28"/>
+      <c r="AC18" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="AD18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AE18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="24"/>
+      <c r="AF18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="AI18" s="10" t="s">
         <v>12</v>
       </c>
@@ -4473,24 +4531,32 @@
       <c r="AK18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="25"/>
+      <c r="AL18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="AN18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AO18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP18" s="27"/>
+      <c r="AP18" s="23"/>
       <c r="AQ18" s="5"/>
-      <c r="AR18" s="23" t="s">
+      <c r="AR18" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="28"/>
+      <c r="AT18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="AV18" s="15" t="s">
         <v>12</v>
       </c>
@@ -4500,40 +4566,59 @@
       <c r="AX18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="29"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="29"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="29"/>
+      <c r="AY18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="25"/>
       <c r="BF18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BG18" s="25"/>
-      <c r="BH18" s="26"/>
+      <c r="BG18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="BI18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="BJ18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BK18" s="5"/>
+      <c r="BK18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="BL18" s="16"/>
       <c r="BM18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="29"/>
-      <c r="BP18" s="24"/>
-      <c r="BQ18" s="29"/>
-      <c r="BR18" s="24"/>
-      <c r="BS18" s="25"/>
-      <c r="BT18" s="26"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="26"/>
+      <c r="BN18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="22"/>
+      <c r="BU18" s="21"/>
+      <c r="BV18" s="22"/>
+      <c r="BW18" s="21"/>
     </row>
-    <row r="19" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4603,7 +4688,7 @@
       <c r="W19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="23" t="s">
+      <c r="X19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y19" s="4" t="s">
@@ -4657,19 +4742,19 @@
       <c r="AO19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP19" s="23" t="s">
+      <c r="AP19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR19" s="23" t="s">
+      <c r="AR19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT19" s="23" t="s">
+      <c r="AT19" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU19" s="14" t="s">
@@ -4732,24 +4817,27 @@
       <c r="BN19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO19" s="29"/>
+      <c r="BO19" s="25"/>
       <c r="BP19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ19" s="29"/>
+      <c r="BQ19" s="25"/>
       <c r="BR19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS19" s="25"/>
+      <c r="BS19" s="21"/>
       <c r="BT19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV19" s="26"/>
+      <c r="BV19" s="22"/>
+      <c r="BW19" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4819,7 +4907,7 @@
       <c r="W20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="23" t="s">
+      <c r="X20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y20" s="4" t="s">
@@ -4873,19 +4961,19 @@
       <c r="AO20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP20" s="23" t="s">
+      <c r="AP20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR20" s="23" t="s">
+      <c r="AR20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT20" s="23" t="s">
+      <c r="AT20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU20" s="14" t="s">
@@ -4915,7 +5003,7 @@
       <c r="BC20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD20" s="24"/>
+      <c r="BD20" s="20"/>
       <c r="BE20" s="10" t="s">
         <v>12</v>
       </c>
@@ -4958,16 +5046,17 @@
       <c r="BR20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS20" s="25"/>
+      <c r="BS20" s="21"/>
       <c r="BT20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV20" s="26"/>
+      <c r="BV20" s="22"/>
+      <c r="BW20" s="21"/>
     </row>
-    <row r="21" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5037,7 +5126,7 @@
       <c r="W21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="23" t="s">
+      <c r="X21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y21" s="4" t="s">
@@ -5058,7 +5147,7 @@
       <c r="AD21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AE21" s="28"/>
+      <c r="AE21" s="24"/>
       <c r="AF21" s="15" t="s">
         <v>12</v>
       </c>
@@ -5089,19 +5178,19 @@
       <c r="AO21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP21" s="23" t="s">
+      <c r="AP21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR21" s="23" t="s">
+      <c r="AR21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT21" s="23" t="s">
+      <c r="AT21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU21" s="14" t="s">
@@ -5122,40 +5211,43 @@
       <c r="AZ21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BA21" s="29"/>
+      <c r="BA21" s="25"/>
       <c r="BB21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="BC21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="29"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="25"/>
       <c r="BF21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BG21" s="25"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="25"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="21"/>
       <c r="BJ21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BK21" s="5"/>
       <c r="BL21" s="16"/>
-      <c r="BM21" s="28"/>
+      <c r="BM21" s="24"/>
       <c r="BN21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO21" s="29"/>
-      <c r="BP21" s="24"/>
-      <c r="BQ21" s="29"/>
-      <c r="BR21" s="24"/>
-      <c r="BS21" s="25"/>
-      <c r="BT21" s="26"/>
-      <c r="BU21" s="25"/>
-      <c r="BV21" s="26"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="20"/>
+      <c r="BS21" s="21"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="21"/>
+      <c r="BV21" s="22"/>
+      <c r="BW21" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5225,7 +5317,7 @@
       <c r="W22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X22" s="23" t="s">
+      <c r="X22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y22" s="4" t="s">
@@ -5279,19 +5371,19 @@
       <c r="AO22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP22" s="23" t="s">
+      <c r="AP22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR22" s="23" t="s">
+      <c r="AR22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT22" s="23" t="s">
+      <c r="AT22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU22" s="14" t="s">
@@ -5304,7 +5396,7 @@
       <c r="AX22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY22" s="28"/>
+      <c r="AY22" s="24"/>
       <c r="AZ22" s="15" t="s">
         <v>12</v>
       </c>
@@ -5317,7 +5409,7 @@
       <c r="BC22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD22" s="24"/>
+      <c r="BD22" s="20"/>
       <c r="BE22" s="10" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5422,7 @@
       <c r="BH22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BI22" s="25"/>
+      <c r="BI22" s="21"/>
       <c r="BJ22" s="8" t="s">
         <v>12</v>
       </c>
@@ -5344,20 +5436,29 @@
       <c r="BN22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO22" s="29"/>
-      <c r="BP22" s="24"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BQ22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="BR22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS22" s="25"/>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="25"/>
-      <c r="BV22" s="26"/>
+      <c r="BS22" s="21"/>
+      <c r="BT22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV22" s="22"/>
+      <c r="BW22" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5427,7 +5528,7 @@
       <c r="W23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="27"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="4" t="s">
         <v>12</v>
       </c>
@@ -5450,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="AF23" s="16"/>
-      <c r="AG23" s="28"/>
+      <c r="AG23" s="24"/>
       <c r="AH23" s="11" t="s">
         <v>12</v>
       </c>
@@ -5460,8 +5561,8 @@
       <c r="AJ23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="24"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="20"/>
       <c r="AM23" s="7" t="s">
         <v>12</v>
       </c>
@@ -5471,49 +5572,50 @@
       <c r="AO23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP23" s="27"/>
+      <c r="AP23" s="23"/>
       <c r="AQ23" s="5"/>
-      <c r="AR23" s="23" t="s">
+      <c r="AR23" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="28"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="24"/>
       <c r="AV23" s="16"/>
-      <c r="AW23" s="28"/>
+      <c r="AW23" s="24"/>
       <c r="AX23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY23" s="28"/>
+      <c r="AY23" s="24"/>
       <c r="AZ23" s="16"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="24"/>
-      <c r="BC23" s="29"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="25"/>
       <c r="BD23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="24"/>
-      <c r="BG23" s="25"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="21"/>
       <c r="BJ23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BK23" s="5"/>
       <c r="BL23" s="16"/>
-      <c r="BM23" s="28"/>
+      <c r="BM23" s="24"/>
       <c r="BN23" s="16"/>
-      <c r="BO23" s="29"/>
-      <c r="BP23" s="24"/>
-      <c r="BQ23" s="29"/>
-      <c r="BR23" s="24"/>
-      <c r="BS23" s="25"/>
-      <c r="BT23" s="26"/>
-      <c r="BU23" s="25"/>
-      <c r="BV23" s="26"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="22"/>
+      <c r="BU23" s="21"/>
+      <c r="BV23" s="22"/>
+      <c r="BW23" s="21"/>
     </row>
-    <row r="24" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5567,7 +5669,7 @@
       <c r="S24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="26"/>
+      <c r="T24" s="22"/>
       <c r="U24" s="7" t="s">
         <v>12</v>
       </c>
@@ -5577,7 +5679,7 @@
       <c r="W24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="27"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="4" t="s">
         <v>12</v>
       </c>
@@ -5606,62 +5708,63 @@
       <c r="AH24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AI24" s="29"/>
+      <c r="AI24" s="25"/>
       <c r="AJ24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AK24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="25"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="21"/>
       <c r="AN24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AO24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP24" s="27"/>
+      <c r="AP24" s="23"/>
       <c r="AQ24" s="5"/>
-      <c r="AR24" s="23" t="s">
+      <c r="AR24" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="28"/>
+      <c r="AT24" s="23"/>
+      <c r="AU24" s="24"/>
       <c r="AV24" s="16"/>
-      <c r="AW24" s="28"/>
+      <c r="AW24" s="24"/>
       <c r="AX24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY24" s="28"/>
+      <c r="AY24" s="24"/>
       <c r="AZ24" s="16"/>
-      <c r="BA24" s="29"/>
+      <c r="BA24" s="25"/>
       <c r="BB24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="29"/>
-      <c r="BF24" s="24"/>
-      <c r="BG24" s="25"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="22"/>
       <c r="BK24" s="5"/>
       <c r="BL24" s="16"/>
-      <c r="BM24" s="28"/>
+      <c r="BM24" s="24"/>
       <c r="BN24" s="16"/>
-      <c r="BO24" s="29"/>
-      <c r="BP24" s="24"/>
-      <c r="BQ24" s="29"/>
-      <c r="BR24" s="24"/>
-      <c r="BS24" s="25"/>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="25"/>
-      <c r="BV24" s="26"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="25"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="22"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="22"/>
+      <c r="BW24" s="21"/>
     </row>
-    <row r="25" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5731,7 +5834,7 @@
       <c r="W25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X25" s="23" t="s">
+      <c r="X25" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y25" s="4" t="s">
@@ -5785,19 +5888,19 @@
       <c r="AO25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP25" s="23" t="s">
+      <c r="AP25" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR25" s="23" t="s">
+      <c r="AR25" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT25" s="23" t="s">
+      <c r="AT25" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU25" s="14" t="s">
@@ -5827,7 +5930,7 @@
       <c r="BC25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BD25" s="24"/>
+      <c r="BD25" s="20"/>
       <c r="BE25" s="10" t="s">
         <v>12</v>
       </c>
@@ -5870,16 +5973,19 @@
       <c r="BR25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS25" s="25"/>
+      <c r="BS25" s="21"/>
       <c r="BT25" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV25" s="26"/>
+      <c r="BV25" s="22"/>
+      <c r="BW25" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5949,7 +6055,7 @@
       <c r="W26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X26" s="23" t="s">
+      <c r="X26" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y26" s="4" t="s">
@@ -6003,19 +6109,19 @@
       <c r="AO26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP26" s="23" t="s">
+      <c r="AP26" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR26" s="23" t="s">
+      <c r="AR26" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT26" s="23" t="s">
+      <c r="AT26" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU26" s="14" t="s">
@@ -6102,8 +6208,11 @@
       <c r="BV26" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="BW26" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6116,7 +6225,7 @@
       <c r="D27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="24" t="s">
         <v>102</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -6140,7 +6249,7 @@
       <c r="L27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="25" t="s">
         <v>102</v>
       </c>
       <c r="N27" s="11" t="s">
@@ -6158,7 +6267,7 @@
       <c r="R27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="21" t="s">
         <v>102</v>
       </c>
       <c r="T27" s="8" t="s">
@@ -6173,7 +6282,7 @@
       <c r="W27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X27" s="23" t="s">
+      <c r="X27" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y27" s="5" t="s">
@@ -6224,22 +6333,22 @@
       <c r="AN27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO27" s="25" t="s">
+      <c r="AO27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AP27" s="23" t="s">
+      <c r="AP27" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR27" s="27" t="s">
+      <c r="AR27" s="23" t="s">
         <v>102</v>
       </c>
       <c r="AS27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT27" s="23" t="s">
+      <c r="AT27" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU27" s="14" t="s">
@@ -6287,7 +6396,7 @@
       <c r="BI27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ27" s="26" t="s">
+      <c r="BJ27" s="22" t="s">
         <v>102</v>
       </c>
       <c r="BK27" s="4" t="s">
@@ -6314,12 +6423,19 @@
       <c r="BR27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS27" s="25"/>
-      <c r="BT27" s="26"/>
-      <c r="BU27" s="25"/>
-      <c r="BV27" s="26"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV27" s="22"/>
+      <c r="BW27" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6389,7 +6505,7 @@
       <c r="W28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X28" s="27"/>
+      <c r="X28" s="23"/>
       <c r="Y28" s="4" t="s">
         <v>12</v>
       </c>
@@ -6441,17 +6557,17 @@
       <c r="AO28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP28" s="23" t="s">
+      <c r="AP28" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ28" s="5"/>
-      <c r="AR28" s="23" t="s">
+      <c r="AR28" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT28" s="23" t="s">
+      <c r="AT28" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU28" s="14" t="s">
@@ -6473,17 +6589,17 @@
       <c r="BA28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BB28" s="24"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="29"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="25"/>
       <c r="BF28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="BG28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BH28" s="26"/>
+      <c r="BH28" s="22"/>
       <c r="BI28" s="7" t="s">
         <v>12</v>
       </c>
@@ -6503,17 +6619,24 @@
       <c r="BO28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="29"/>
+      <c r="BP28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ28" s="25"/>
       <c r="BR28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="26"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="26"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV28" s="22"/>
+      <c r="BW28" s="21"/>
     </row>
-    <row r="29" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6526,7 +6649,7 @@
       <c r="D29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="24" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="15" t="s">
@@ -6550,7 +6673,7 @@
       <c r="L29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="25" t="s">
         <v>102</v>
       </c>
       <c r="N29" s="11" t="s">
@@ -6568,7 +6691,7 @@
       <c r="R29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="21" t="s">
         <v>102</v>
       </c>
       <c r="T29" s="8" t="s">
@@ -6583,7 +6706,7 @@
       <c r="W29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X29" s="23" t="s">
+      <c r="X29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y29" s="5" t="s">
@@ -6634,22 +6757,22 @@
       <c r="AN29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO29" s="25" t="s">
+      <c r="AO29" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AP29" s="23" t="s">
+      <c r="AP29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR29" s="27" t="s">
+      <c r="AR29" s="23" t="s">
         <v>102</v>
       </c>
       <c r="AS29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT29" s="23" t="s">
+      <c r="AT29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU29" s="14" t="s">
@@ -6682,7 +6805,7 @@
       <c r="BD29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="BE29" s="29"/>
+      <c r="BE29" s="25"/>
       <c r="BF29" s="11" t="s">
         <v>12</v>
       </c>
@@ -6695,7 +6818,7 @@
       <c r="BI29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ29" s="26" t="s">
+      <c r="BJ29" s="22" t="s">
         <v>102</v>
       </c>
       <c r="BK29" s="4" t="s">
@@ -6713,15 +6836,18 @@
       <c r="BO29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BP29" s="24"/>
-      <c r="BQ29" s="29"/>
-      <c r="BR29" s="24"/>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="26"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="21"/>
+      <c r="BV29" s="22"/>
+      <c r="BW29" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="30" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6746,7 +6872,7 @@
       <c r="H30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="11"/>
       <c r="K30" s="10" t="s">
         <v>12</v>
@@ -6761,83 +6887,86 @@
       <c r="O30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="25"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="21"/>
       <c r="T30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="25"/>
-      <c r="V30" s="26"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="27"/>
+      <c r="X30" s="23"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="16"/>
-      <c r="AA30" s="28"/>
+      <c r="AA30" s="24"/>
       <c r="AB30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC30" s="28"/>
+      <c r="AC30" s="24"/>
       <c r="AD30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AE30" s="28"/>
+      <c r="AE30" s="24"/>
       <c r="AF30" s="16"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="26"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="22"/>
       <c r="AO30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP30" s="27"/>
+      <c r="AP30" s="23"/>
       <c r="AQ30" s="5"/>
-      <c r="AR30" s="23" t="s">
+      <c r="AR30" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="28"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="24"/>
       <c r="AV30" s="16"/>
-      <c r="AW30" s="28"/>
+      <c r="AW30" s="24"/>
       <c r="AX30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY30" s="28"/>
+      <c r="AY30" s="24"/>
       <c r="AZ30" s="16"/>
-      <c r="BA30" s="29"/>
-      <c r="BB30" s="24"/>
-      <c r="BC30" s="29"/>
-      <c r="BD30" s="24"/>
-      <c r="BE30" s="29"/>
-      <c r="BF30" s="24"/>
-      <c r="BG30" s="25"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="20"/>
+      <c r="BG30" s="21"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="21"/>
       <c r="BJ30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BK30" s="5"/>
       <c r="BL30" s="16"/>
-      <c r="BM30" s="28"/>
+      <c r="BM30" s="24"/>
       <c r="BN30" s="16"/>
-      <c r="BO30" s="29"/>
-      <c r="BP30" s="24"/>
-      <c r="BQ30" s="29"/>
-      <c r="BR30" s="24"/>
-      <c r="BS30" s="25"/>
-      <c r="BT30" s="26"/>
-      <c r="BU30" s="25"/>
-      <c r="BV30" s="26"/>
+      <c r="BO30" s="25"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="20"/>
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="22"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="22"/>
+      <c r="BW30" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6868,7 +6997,7 @@
       <c r="J31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="29"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="11" t="s">
         <v>12</v>
       </c>
@@ -6899,11 +7028,11 @@
       <c r="U31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="26"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X31" s="27"/>
+      <c r="X31" s="23"/>
       <c r="Y31" s="4" t="s">
         <v>12</v>
       </c>
@@ -6953,18 +7082,18 @@
       <c r="AO31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP31" s="23" t="s">
+      <c r="AP31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR31" s="23" t="s">
+      <c r="AR31" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="27"/>
-      <c r="AU31" s="28"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="24"/>
       <c r="AV31" s="15" t="s">
         <v>12</v>
       </c>
@@ -6974,19 +7103,19 @@
       <c r="AX31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY31" s="28"/>
+      <c r="AY31" s="24"/>
       <c r="AZ31" s="16"/>
-      <c r="BA31" s="29"/>
-      <c r="BB31" s="24"/>
-      <c r="BC31" s="29"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="29"/>
-      <c r="BF31" s="24"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="20"/>
       <c r="BG31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="25"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="21"/>
       <c r="BJ31" s="8" t="s">
         <v>12</v>
       </c>
@@ -6998,16 +7127,17 @@
         <v>12</v>
       </c>
       <c r="BN31" s="16"/>
-      <c r="BO31" s="29"/>
-      <c r="BP31" s="24"/>
-      <c r="BQ31" s="29"/>
-      <c r="BR31" s="24"/>
-      <c r="BS31" s="25"/>
-      <c r="BT31" s="26"/>
-      <c r="BU31" s="25"/>
-      <c r="BV31" s="26"/>
+      <c r="BO31" s="25"/>
+      <c r="BP31" s="20"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="20"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="21"/>
+      <c r="BV31" s="22"/>
+      <c r="BW31" s="21"/>
     </row>
-    <row r="32" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7077,7 +7207,7 @@
       <c r="W32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X32" s="23" t="s">
+      <c r="X32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y32" s="4" t="s">
@@ -7131,19 +7261,19 @@
       <c r="AO32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP32" s="23" t="s">
+      <c r="AP32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR32" s="23" t="s">
+      <c r="AR32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT32" s="23" t="s">
+      <c r="AT32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU32" s="14" t="s">
@@ -7218,16 +7348,23 @@
       <c r="BR32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS32" s="25"/>
+      <c r="BS32" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV32" s="26"/>
+      <c r="BV32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW32" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="33" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7282,7 +7419,7 @@
       <c r="R33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="25"/>
+      <c r="S33" s="21"/>
       <c r="T33" s="8" t="s">
         <v>12</v>
       </c>
@@ -7295,7 +7432,7 @@
       <c r="W33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X33" s="23" t="s">
+      <c r="X33" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y33" s="4" t="s">
@@ -7325,71 +7462,72 @@
       <c r="AG33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AH33" s="24"/>
+      <c r="AH33" s="20"/>
       <c r="AI33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="21"/>
       <c r="AN33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="27"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="23"/>
       <c r="AQ33" s="5"/>
-      <c r="AR33" s="23" t="s">
+      <c r="AR33" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="28"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="24"/>
       <c r="AV33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AW33" s="28"/>
+      <c r="AW33" s="24"/>
       <c r="AX33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AY33" s="28"/>
+      <c r="AY33" s="24"/>
       <c r="AZ33" s="16"/>
-      <c r="BA33" s="29"/>
+      <c r="BA33" s="25"/>
       <c r="BB33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="24"/>
-      <c r="BE33" s="29"/>
-      <c r="BF33" s="24"/>
-      <c r="BG33" s="25"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="20"/>
+      <c r="BE33" s="25"/>
+      <c r="BF33" s="20"/>
+      <c r="BG33" s="21"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="21"/>
       <c r="BJ33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BK33" s="5"/>
       <c r="BL33" s="16"/>
-      <c r="BM33" s="28"/>
+      <c r="BM33" s="24"/>
       <c r="BN33" s="15" t="s">
         <v>12</v>
       </c>
       <c r="BO33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BP33" s="24"/>
-      <c r="BQ33" s="29"/>
-      <c r="BR33" s="24"/>
-      <c r="BS33" s="25"/>
-      <c r="BT33" s="26"/>
-      <c r="BU33" s="25"/>
-      <c r="BV33" s="26"/>
+      <c r="BP33" s="20"/>
+      <c r="BQ33" s="25"/>
+      <c r="BR33" s="20"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="22"/>
+      <c r="BU33" s="21"/>
+      <c r="BV33" s="22"/>
+      <c r="BW33" s="21"/>
     </row>
-    <row r="34" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7459,7 +7597,7 @@
       <c r="W34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X34" s="23" t="s">
+      <c r="X34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y34" s="4" t="s">
@@ -7513,17 +7651,17 @@
       <c r="AO34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP34" s="23" t="s">
+      <c r="AP34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR34" s="23" t="s">
+      <c r="AR34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="23" t="s">
+      <c r="AT34" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU34" s="14" t="s">
@@ -7598,16 +7736,19 @@
       <c r="BR34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS34" s="25"/>
+      <c r="BS34" s="21"/>
       <c r="BT34" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BU34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV34" s="26"/>
+      <c r="BV34" s="22"/>
+      <c r="BW34" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7677,7 +7818,7 @@
       <c r="W35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X35" s="23" t="s">
+      <c r="X35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y35" s="4" t="s">
@@ -7731,19 +7872,19 @@
       <c r="AO35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP35" s="23" t="s">
+      <c r="AP35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR35" s="23" t="s">
+      <c r="AR35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT35" s="23" t="s">
+      <c r="AT35" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU35" s="14" t="s">
@@ -7764,7 +7905,7 @@
       <c r="AZ35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BA35" s="29"/>
+      <c r="BA35" s="25"/>
       <c r="BB35" s="11" t="s">
         <v>12</v>
       </c>
@@ -7772,14 +7913,14 @@
         <v>12</v>
       </c>
       <c r="BD35" s="11"/>
-      <c r="BE35" s="29"/>
+      <c r="BE35" s="25"/>
       <c r="BF35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="BG35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BH35" s="26"/>
+      <c r="BH35" s="22"/>
       <c r="BI35" s="7" t="s">
         <v>12</v>
       </c>
@@ -7798,20 +7939,21 @@
       <c r="BN35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO35" s="29"/>
+      <c r="BO35" s="25"/>
       <c r="BP35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ35" s="29"/>
+      <c r="BQ35" s="25"/>
       <c r="BR35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS35" s="25"/>
-      <c r="BT35" s="26"/>
-      <c r="BU35" s="25"/>
-      <c r="BV35" s="26"/>
+      <c r="BS35" s="21"/>
+      <c r="BT35" s="22"/>
+      <c r="BU35" s="21"/>
+      <c r="BV35" s="22"/>
+      <c r="BW35" s="21"/>
     </row>
-    <row r="36" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7881,7 +8023,7 @@
       <c r="W36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X36" s="23" t="s">
+      <c r="X36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y36" s="4" t="s">
@@ -7935,19 +8077,19 @@
       <c r="AO36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP36" s="23" t="s">
+      <c r="AP36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR36" s="23" t="s">
+      <c r="AR36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT36" s="23" t="s">
+      <c r="AT36" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU36" s="14" t="s">
@@ -8031,9 +8173,14 @@
       <c r="BU36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV36" s="26"/>
+      <c r="BV36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW36" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="37" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8103,7 +8250,7 @@
       <c r="W37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X37" s="23" t="s">
+      <c r="X37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y37" s="4" t="s">
@@ -8157,19 +8304,19 @@
       <c r="AO37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AP37" s="23" t="s">
+      <c r="AP37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR37" s="23" t="s">
+      <c r="AR37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AS37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT37" s="23" t="s">
+      <c r="AT37" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AU37" s="14" t="s">
@@ -8251,9 +8398,14 @@
       <c r="BU37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV37" s="26"/>
+      <c r="BV37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW37" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:74" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8266,7 +8418,7 @@
       <c r="D38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="24" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -8290,7 +8442,7 @@
       <c r="L38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="25" t="s">
         <v>102</v>
       </c>
       <c r="N38" s="11" t="s">
@@ -8308,18 +8460,18 @@
       <c r="R38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T38" s="26"/>
+      <c r="T38" s="22"/>
       <c r="U38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="26"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X38" s="23" t="s">
+      <c r="X38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="Y38" s="5" t="s">
@@ -8346,7 +8498,7 @@
       <c r="AF38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AG38" s="28"/>
+      <c r="AG38" s="24"/>
       <c r="AH38" s="11" t="s">
         <v>12</v>
       </c>
@@ -8359,32 +8511,32 @@
       <c r="AK38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL38" s="24"/>
+      <c r="AL38" s="20"/>
       <c r="AM38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="AN38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AO38" s="25" t="s">
+      <c r="AO38" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AP38" s="23" t="s">
+      <c r="AP38" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AQ38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AR38" s="27" t="s">
+      <c r="AR38" s="23" t="s">
         <v>102</v>
       </c>
       <c r="AS38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AT38" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU38" s="28"/>
+      <c r="AT38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU38" s="24"/>
       <c r="AV38" s="16"/>
       <c r="AW38" s="14" t="s">
         <v>12</v>
@@ -8398,64 +8550,67 @@
       <c r="AZ38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BA38" s="29"/>
+      <c r="BA38" s="25"/>
       <c r="BB38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC38" s="29"/>
+      <c r="BC38" s="25"/>
       <c r="BD38" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="BE38" s="29"/>
+      <c r="BE38" s="25"/>
       <c r="BF38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BG38" s="25"/>
+      <c r="BG38" s="21"/>
       <c r="BH38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="BI38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ38" s="26" t="s">
+      <c r="BJ38" s="22" t="s">
         <v>102</v>
       </c>
       <c r="BK38" s="5"/>
       <c r="BL38" s="16"/>
-      <c r="BM38" s="28"/>
+      <c r="BM38" s="24"/>
       <c r="BN38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO38" s="29"/>
-      <c r="BP38" s="24"/>
+      <c r="BO38" s="25"/>
+      <c r="BP38" s="20"/>
       <c r="BQ38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR38" s="24"/>
-      <c r="BS38" s="25"/>
-      <c r="BT38" s="26"/>
-      <c r="BU38" s="25"/>
-      <c r="BV38" s="26"/>
+      <c r="BR38" s="20"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="21"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="40" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="31" t="s">
+    <row r="40" spans="1:75" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="34" t="s">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="17" t="s">
         <v>7</v>
       </c>
@@ -8489,9 +8644,9 @@
       <c r="N41" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="O41" s="35"/>
+      <c r="O41" s="32"/>
     </row>
-    <row r="42" spans="1:74" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
         <v>15</v>
       </c>
@@ -8502,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2">
         <v>5</v>
@@ -8527,14 +8682,21 @@
       </c>
       <c r="O42" s="2">
         <f>SUM(D42:N42)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:74" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:75" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BS1:BW1"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="D40:N40"/>
     <mergeCell ref="AH1:AL1"/>
@@ -8546,13 +8708,6 @@
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BL1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B38">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83C2602-FC43-4F53-A68A-20277A496319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72E336-EDFA-4666-89D3-B7FF4344A622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11544" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -1063,10 +1063,10 @@
   <dimension ref="A1:BW45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BS4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BO8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BS37" sqref="BS37:BW37"/>
+      <selection pane="bottomRight" activeCell="BO25" sqref="BO25:BW25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,7 +2061,9 @@
       <c r="BD5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BE5" s="25"/>
+      <c r="BE5" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BF5" s="11" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2100,9 @@
       <c r="BQ5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="20"/>
+      <c r="BR5" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BS5" s="21"/>
       <c r="BT5" s="8" t="s">
         <v>12</v>
@@ -2107,7 +2111,9 @@
         <v>12</v>
       </c>
       <c r="BV5" s="22"/>
-      <c r="BW5" s="21"/>
+      <c r="BW5" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2460,7 +2466,9 @@
       <c r="AU7" s="24"/>
       <c r="AV7" s="16"/>
       <c r="AW7" s="24"/>
-      <c r="AX7" s="16"/>
+      <c r="AX7" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="AY7" s="24"/>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="25"/>
@@ -2468,7 +2476,9 @@
         <v>12</v>
       </c>
       <c r="BC7" s="25"/>
-      <c r="BD7" s="20"/>
+      <c r="BD7" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BE7" s="25"/>
       <c r="BF7" s="20"/>
       <c r="BG7" s="21"/>
@@ -2487,7 +2497,9 @@
       <c r="BT7" s="22"/>
       <c r="BU7" s="21"/>
       <c r="BV7" s="22"/>
-      <c r="BW7" s="21"/>
+      <c r="BW7" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2694,11 +2706,15 @@
       <c r="BP8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ8" s="25"/>
+      <c r="BQ8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS8" s="21"/>
+      <c r="BS8" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT8" s="8" t="s">
         <v>12</v>
       </c>
@@ -4616,7 +4632,9 @@
       <c r="BT18" s="22"/>
       <c r="BU18" s="21"/>
       <c r="BV18" s="22"/>
-      <c r="BW18" s="21"/>
+      <c r="BW18" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -4821,7 +4839,9 @@
       <c r="BP19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ19" s="25"/>
+      <c r="BQ19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR19" s="11" t="s">
         <v>12</v>
       </c>
@@ -5054,7 +5074,9 @@
         <v>12</v>
       </c>
       <c r="BV20" s="22"/>
-      <c r="BW20" s="21"/>
+      <c r="BW20" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -5973,7 +5995,9 @@
       <c r="BR25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS25" s="21"/>
+      <c r="BS25" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT25" s="8" t="s">
         <v>12</v>
       </c>
@@ -6622,7 +6646,9 @@
       <c r="BP28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BQ28" s="25"/>
+      <c r="BQ28" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR28" s="11" t="s">
         <v>12</v>
       </c>
@@ -6634,7 +6660,9 @@
         <v>12</v>
       </c>
       <c r="BV28" s="22"/>
-      <c r="BW28" s="21"/>
+      <c r="BW28" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -7135,7 +7163,9 @@
       <c r="BT31" s="22"/>
       <c r="BU31" s="21"/>
       <c r="BV31" s="22"/>
-      <c r="BW31" s="21"/>
+      <c r="BW31" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -7939,7 +7969,9 @@
       <c r="BN35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BO35" s="25"/>
+      <c r="BO35" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BP35" s="11" t="s">
         <v>12</v>
       </c>
@@ -7947,11 +7979,19 @@
       <c r="BR35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS35" s="21"/>
-      <c r="BT35" s="22"/>
-      <c r="BU35" s="21"/>
+      <c r="BS35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU35" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BV35" s="22"/>
-      <c r="BW35" s="21"/>
+      <c r="BW35" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72E336-EDFA-4666-89D3-B7FF4344A622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDFAC2-E918-4273-AABF-9608AFAB301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11544" yWindow="228" windowWidth="11496" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11544" yWindow="120" windowWidth="11496" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -1063,10 +1063,10 @@
   <dimension ref="A1:BW45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BO8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BO29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO25" sqref="BO25:BW25"/>
+      <selection pane="bottomRight" activeCell="BU32" sqref="BU32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1880,9 @@
       <c r="BR4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="21"/>
+      <c r="BS4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2328,9 @@
       <c r="BR6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS6" s="21"/>
+      <c r="BS6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT6" s="8" t="s">
         <v>12</v>
       </c>
@@ -6865,11 +6869,19 @@
         <v>12</v>
       </c>
       <c r="BP29" s="20"/>
-      <c r="BQ29" s="25"/>
+      <c r="BQ29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR29" s="20"/>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="22"/>
-      <c r="BU29" s="21"/>
+      <c r="BS29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU29" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BV29" s="22"/>
       <c r="BW29" s="21" t="s">
         <v>102</v>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDFAC2-E918-4273-AABF-9608AFAB301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12BB5E-D864-4EFC-ABA7-4E4C93EECD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11544" yWindow="120" windowWidth="11496" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="708" windowWidth="11496" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -1063,10 +1063,10 @@
   <dimension ref="A1:BW45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BO29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BO12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BU32" sqref="BU32"/>
+      <selection pane="bottomRight" activeCell="BO12" sqref="BO12:BW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3439,9 @@
       <c r="BQ12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BR12" s="20"/>
+      <c r="BR12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="BS12" s="7" t="s">
         <v>12</v>
       </c>
@@ -7169,7 +7171,9 @@
       <c r="BN31" s="16"/>
       <c r="BO31" s="25"/>
       <c r="BP31" s="20"/>
-      <c r="BQ31" s="25"/>
+      <c r="BQ31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="BR31" s="20"/>
       <c r="BS31" s="21"/>
       <c r="BT31" s="22"/>

--- a/Excel/List Tugas Gabunggan.xlsx
+++ b/Excel/List Tugas Gabunggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev Related Stuff\Web Dev\Web Laporan V.3\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E12BB5E-D864-4EFC-ABA7-4E4C93EECD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDFC59-8744-45A7-A62F-7BB080EF9B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2028" yWindow="708" windowWidth="11496" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>PAI12</t>
+  </si>
+  <si>
+    <t>Minggu Ke-16</t>
+  </si>
+  <si>
+    <t>MAT16</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,6 +739,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,15 +758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW45"/>
+  <dimension ref="A1:BX45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BO12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO12" sqref="BO12:BW12"/>
+      <selection pane="bottomRight" activeCell="BO12" sqref="BO12:BX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,124 +1119,130 @@
     <col min="69" max="69" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="73" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:76" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="34" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="30" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="36" t="s">
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="34" t="s">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="30" t="s">
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="35" t="s">
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="30" t="s">
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
       <c r="BK1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BL1" s="35" t="s">
+      <c r="BL1" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="34" t="s">
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="30" t="s">
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="30" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:76" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1447,10 +1462,13 @@
       <c r="BW2" s="26" t="s">
         <v>6</v>
       </c>
+      <c r="BX2" s="30" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+    <row r="3" spans="1:76" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
@@ -1670,8 +1688,11 @@
       <c r="BW3" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="BX3" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1893,8 +1914,9 @@
       <c r="BW4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX4" s="23"/>
     </row>
-    <row r="5" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2116,8 +2138,9 @@
       <c r="BW5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX5" s="23"/>
     </row>
-    <row r="6" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2341,8 +2364,11 @@
       <c r="BW6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX6" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2504,8 +2530,9 @@
       <c r="BW7" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX7" s="23"/>
     </row>
-    <row r="8" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2729,8 +2756,9 @@
       <c r="BW8" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX8" s="23"/>
     </row>
-    <row r="9" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2876,8 +2904,9 @@
       <c r="BU9" s="21"/>
       <c r="BV9" s="22"/>
       <c r="BW9" s="21"/>
+      <c r="BX9" s="23"/>
     </row>
-    <row r="10" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3103,8 +3132,9 @@
       <c r="BW10" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX10" s="23"/>
     </row>
-    <row r="11" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3230,8 +3260,9 @@
       <c r="BU11" s="21"/>
       <c r="BV11" s="22"/>
       <c r="BW11" s="21"/>
+      <c r="BX11" s="23"/>
     </row>
-    <row r="12" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3451,12 +3482,15 @@
       <c r="BU12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BV12" s="22"/>
+      <c r="BV12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="BW12" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX12" s="23"/>
     </row>
-    <row r="13" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3606,8 +3640,9 @@
       <c r="BU13" s="21"/>
       <c r="BV13" s="22"/>
       <c r="BW13" s="21"/>
+      <c r="BX13" s="23"/>
     </row>
-    <row r="14" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3818,7 +3853,9 @@
       <c r="BR14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS14" s="21"/>
+      <c r="BS14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT14" s="8" t="s">
         <v>12</v>
       </c>
@@ -3829,8 +3866,9 @@
       <c r="BW14" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX14" s="23"/>
     </row>
-    <row r="15" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4054,8 +4092,9 @@
       <c r="BW15" s="21" t="s">
         <v>102</v>
       </c>
+      <c r="BX15" s="23"/>
     </row>
-    <row r="16" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4255,8 +4294,9 @@
       </c>
       <c r="BV16" s="22"/>
       <c r="BW16" s="21"/>
+      <c r="BX16" s="23"/>
     </row>
-    <row r="17" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4442,8 +4482,9 @@
       </c>
       <c r="BV17" s="22"/>
       <c r="BW17" s="21"/>
+      <c r="BX17" s="23"/>
     </row>
-    <row r="18" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4641,8 +4682,9 @@
       <c r="BW18" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX18" s="23"/>
     </row>
-    <row r="19" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4862,8 +4904,9 @@
       <c r="BW19" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX19" s="23"/>
     </row>
-    <row r="20" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5072,7 +5115,9 @@
       <c r="BR20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS20" s="21"/>
+      <c r="BS20" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT20" s="8" t="s">
         <v>12</v>
       </c>
@@ -5083,8 +5128,9 @@
       <c r="BW20" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX20" s="23"/>
     </row>
-    <row r="21" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5274,8 +5320,9 @@
       <c r="BW21" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX21" s="23"/>
     </row>
-    <row r="22" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5485,8 +5532,9 @@
       <c r="BW22" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX22" s="23"/>
     </row>
-    <row r="23" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5642,8 +5690,9 @@
       <c r="BU23" s="21"/>
       <c r="BV23" s="22"/>
       <c r="BW23" s="21"/>
+      <c r="BX23" s="23"/>
     </row>
-    <row r="24" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5791,8 +5840,9 @@
       <c r="BU24" s="21"/>
       <c r="BV24" s="22"/>
       <c r="BW24" s="21"/>
+      <c r="BX24" s="23"/>
     </row>
-    <row r="25" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6014,8 +6064,9 @@
       <c r="BW25" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX25" s="23"/>
     </row>
-    <row r="26" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6241,8 +6292,9 @@
       <c r="BW26" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX26" s="23"/>
     </row>
-    <row r="27" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6453,7 +6505,9 @@
       <c r="BR27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS27" s="21"/>
+      <c r="BS27" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT27" s="8" t="s">
         <v>12</v>
       </c>
@@ -6464,8 +6518,9 @@
       <c r="BW27" s="21" t="s">
         <v>102</v>
       </c>
+      <c r="BX27" s="23"/>
     </row>
-    <row r="28" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6658,7 +6713,9 @@
       <c r="BR28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BS28" s="21"/>
+      <c r="BS28" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="BT28" s="8" t="s">
         <v>12</v>
       </c>
@@ -6669,8 +6726,9 @@
       <c r="BW28" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="BX28" s="23"/>
     </row>
-    <row r="29" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6888,8 +6946,9 @@
       <c r="BW29" s="21" t="s">
         <v>102</v>
       </c>
+      <c r="BX29" s="23"/>
     </row>
-    <row r="30" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       